--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/cv markdown/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/github web/content/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2070" documentId="10_ncr:8100000_{6AA46C81-726B-5D40-B419-5CCBBC6537F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D0F7B34C-EF99-FD43-85B3-E4B5AAEE6BBA}"/>
+  <xr:revisionPtr revIDLastSave="2081" documentId="10_ncr:8100000_{6AA46C81-726B-5D40-B419-5CCBBC6537F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{11692F59-B7B6-0044-9709-56D74185875C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1332,9 +1332,6 @@
     <t>Invited talk for Central High School Psychology Club  Springfield, MO</t>
   </si>
   <si>
-    <t>nvited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO</t>
-  </si>
-  <si>
     <t>Spoken presentation at the annual meeting of the Psychonomic Society Seattle, WA</t>
   </si>
   <si>
@@ -2614,6 +2611,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAGE Research Methods Datasets Part 2 </t>
+  </si>
+  <si>
+    <t>Invited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO</t>
   </si>
 </sst>
 </file>
@@ -3520,11 +3520,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -3612,7 +3613,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J2" s="1">
         <v>2018</v>
@@ -3636,7 +3637,7 @@
         <v>192</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="34">
@@ -3644,13 +3645,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>185</v>
@@ -3680,7 +3681,7 @@
         <v>192</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="34">
@@ -3688,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J4" s="1">
         <v>2017</v>
@@ -3732,7 +3733,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>264</v>
@@ -3782,13 +3783,13 @@
         <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J6" s="1">
         <v>2018</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L6" s="1">
         <v>46227698</v>
@@ -3806,7 +3807,7 @@
         <v>202</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="51">
@@ -3814,13 +3815,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J7" s="1">
         <v>2017</v>
@@ -3844,7 +3845,7 @@
         <v>192</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="34">
@@ -3852,19 +3853,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J8" s="1">
         <v>2018</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L8" s="1">
         <v>46227701</v>
@@ -3882,7 +3883,7 @@
         <v>192</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="51">
@@ -3890,19 +3891,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J9" s="1">
         <v>2017</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L9" s="1">
         <v>46227688</v>
@@ -3920,7 +3921,7 @@
         <v>192</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34">
@@ -3928,13 +3929,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J10" s="1">
         <v>2019</v>
@@ -3955,7 +3956,7 @@
         <v>192</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="34">
@@ -3969,7 +3970,7 @@
         <v>135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J11" s="1">
         <v>2017</v>
@@ -3993,7 +3994,7 @@
         <v>192</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="34">
@@ -4001,19 +4002,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J12" s="1">
         <v>2018</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L12" s="1">
         <v>46227700</v>
@@ -4031,7 +4032,7 @@
         <v>192</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="34">
@@ -4039,13 +4040,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -4054,7 +4055,7 @@
         <v>2019</v>
       </c>
       <c r="K13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L13">
         <v>52212308</v>
@@ -4072,7 +4073,7 @@
         <v>202</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51">
@@ -4080,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J14" s="1">
         <v>2018</v>
@@ -4110,7 +4111,7 @@
         <v>192</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="34">
@@ -4118,13 +4119,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J15" s="1">
         <v>2017</v>
@@ -4148,7 +4149,7 @@
         <v>202</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="34">
@@ -4162,7 +4163,7 @@
         <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J16" s="1">
         <v>2018</v>
@@ -4183,7 +4184,7 @@
         <v>202</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="34">
@@ -4191,13 +4192,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J17" s="1">
         <v>2018</v>
@@ -4221,7 +4222,7 @@
         <v>192</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="34">
@@ -4273,13 +4274,13 @@
         <v>124</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J19" s="1">
         <v>2018</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L19" s="1">
         <v>46227703</v>
@@ -4305,13 +4306,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -4321,7 +4322,7 @@
         <v>2019</v>
       </c>
       <c r="K20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L20">
         <v>53070092</v>
@@ -4339,7 +4340,7 @@
         <v>192</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="34">
@@ -4400,7 +4401,7 @@
         <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>100</v>
@@ -4412,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J22" s="1">
         <v>2011</v>
@@ -4436,7 +4437,7 @@
         <v>202</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="51">
@@ -4500,7 +4501,7 @@
         <v>122</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>91</v>
@@ -4521,7 +4522,7 @@
         <v>123</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>186</v>
@@ -4539,7 +4540,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="51">
+    <row r="25" spans="1:17" ht="51" hidden="1">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4547,10 +4548,10 @@
         <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>69</v>
@@ -4562,7 +4563,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J25" s="1">
         <v>2012</v>
@@ -4586,7 +4587,7 @@
         <v>202</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="34">
@@ -4600,7 +4601,7 @@
         <v>255</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>76</v>
@@ -4639,7 +4640,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="68">
+    <row r="27" spans="1:17" ht="68" hidden="1">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>199</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -4697,7 +4698,7 @@
         <v>225</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>22</v>
@@ -4747,7 +4748,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>34</v>
@@ -4759,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J29" s="1">
         <v>2013</v>
@@ -4783,7 +4784,7 @@
         <v>202</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="51">
@@ -4797,7 +4798,7 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>40</v>
@@ -4809,7 +4810,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J30" s="1">
         <v>2013</v>
@@ -4833,10 +4834,10 @@
         <v>202</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="34">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="34" hidden="1">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>126</v>
@@ -4868,7 +4869,7 @@
         <v>53</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4897,7 +4898,7 @@
         <v>72</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>73</v>
@@ -4936,7 +4937,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="51">
+    <row r="33" spans="1:17" ht="51" hidden="1">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>125</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>126</v>
@@ -4968,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>186</v>
@@ -4997,7 +4998,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>27</v>
@@ -5047,7 +5048,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>58</v>
@@ -5065,10 +5066,10 @@
         <v>2014</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>186</v>
@@ -5083,7 +5084,7 @@
         <v>202</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="51">
@@ -5097,10 +5098,10 @@
         <v>63</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G36" s="1">
         <v>118</v>
@@ -5109,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J36" s="1">
         <v>2014</v>
@@ -5133,7 +5134,7 @@
         <v>202</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="51">
@@ -5147,7 +5148,7 @@
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>91</v>
@@ -5159,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J37" s="1">
         <v>2014</v>
@@ -5183,7 +5184,7 @@
         <v>202</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="34">
@@ -5194,7 +5195,7 @@
         <v>115</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>245</v>
@@ -5233,7 +5234,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="51">
+    <row r="39" spans="1:17" ht="51" hidden="1">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -5241,13 +5242,13 @@
         <v>148</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G39" s="1">
         <v>44</v>
@@ -5256,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J39" s="1">
         <v>2015</v>
@@ -5288,10 +5289,10 @@
         <v>174</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>88</v>
@@ -5303,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J40" s="1">
         <v>2015</v>
@@ -5327,7 +5328,7 @@
         <v>202</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="68">
@@ -5341,7 +5342,7 @@
         <v>229</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>230</v>
@@ -5391,7 +5392,7 @@
         <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>118</v>
@@ -5403,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J42" s="1">
         <v>2016</v>
@@ -5427,7 +5428,7 @@
         <v>202</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="51">
@@ -5441,7 +5442,7 @@
         <v>108</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>286</v>
@@ -5462,7 +5463,7 @@
         <v>109</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>186</v>
@@ -5488,7 +5489,7 @@
         <v>114</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>22</v>
@@ -5506,7 +5507,7 @@
         <v>2016</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L44" s="1">
         <v>30745623</v>
@@ -5538,7 +5539,7 @@
         <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -5577,7 +5578,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="51">
+    <row r="46" spans="1:17" ht="51" hidden="1">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -5588,10 +5589,10 @@
         <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G46" s="1">
         <v>22</v>
@@ -5600,7 +5601,7 @@
         <v>185</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J46" s="1">
         <v>2016</v>
@@ -5624,7 +5625,7 @@
         <v>202</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="51">
@@ -5635,10 +5636,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>118</v>
@@ -5650,7 +5651,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J47" s="1">
         <v>2017</v>
@@ -5674,7 +5675,7 @@
         <v>202</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="34">
@@ -5685,10 +5686,10 @@
         <v>105</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>88</v>
@@ -5700,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J48" s="1">
         <v>2017</v>
@@ -5724,7 +5725,7 @@
         <v>202</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17">
@@ -5741,7 +5742,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>27</v>
@@ -5794,7 +5795,7 @@
         <v>162</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>264</v>
@@ -5844,7 +5845,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>189</v>
@@ -5856,13 +5857,13 @@
         <v>185</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J51" s="1">
         <v>2018</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L51" s="1">
         <v>46227685</v>
@@ -5891,16 +5892,16 @@
         <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>497</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>185</v>
@@ -5933,7 +5934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="51">
+    <row r="53" spans="1:17" ht="51" hidden="1">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>151</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>47</v>
@@ -5959,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J53" s="1">
         <v>2018</v>
@@ -5991,13 +5992,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>22</v>
@@ -6009,7 +6010,7 @@
         <v>185</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J54" s="1">
         <v>2018</v>
@@ -6033,7 +6034,7 @@
         <v>192</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="17">
@@ -6041,19 +6042,19 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D55" t="s">
+        <v>671</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F55" t="s">
         <v>672</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="F55" t="s">
-        <v>673</v>
       </c>
       <c r="G55">
         <v>10</v>
@@ -6062,13 +6063,13 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J55">
         <v>2018</v>
       </c>
       <c r="K55" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L55">
         <v>46975449</v>
@@ -6086,7 +6087,7 @@
         <v>192</v>
       </c>
       <c r="Q55" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="34">
@@ -6094,16 +6095,16 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>79</v>
@@ -6115,13 +6116,13 @@
         <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J56" s="1">
         <v>2018</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>7</v>
@@ -6139,10 +6140,10 @@
         <v>202</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="34">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="34" hidden="1">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>143</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>126</v>
@@ -6168,7 +6169,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J57" s="1">
         <v>2018</v>
@@ -6177,7 +6178,7 @@
         <v>94</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>186</v>
@@ -6192,10 +6193,10 @@
         <v>202</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="51">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="51" hidden="1">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>136</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>106</v>
@@ -6218,7 +6219,7 @@
         <v>185</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J58" s="1">
         <v>2018</v>
@@ -6242,7 +6243,7 @@
         <v>202</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="34">
@@ -6259,7 +6260,7 @@
         <v>285</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>112</v>
@@ -6271,13 +6272,13 @@
         <v>185</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J59" s="1">
         <v>2018</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L59" s="1">
         <v>44621959</v>
@@ -6309,7 +6310,7 @@
         <v>130</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>129</v>
@@ -6348,12 +6349,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="34">
+    <row r="61" spans="1:17" ht="34" hidden="1">
       <c r="A61" s="1">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>239</v>
@@ -6362,7 +6363,7 @@
         <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>47</v>
@@ -6374,13 +6375,13 @@
         <v>185</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J61" s="1">
         <v>2019</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L61" s="1">
         <v>46227680</v>
@@ -6415,13 +6416,13 @@
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>185</v>
@@ -6433,7 +6434,7 @@
         <v>2019</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L62" s="1">
         <v>46227691</v>
@@ -6462,10 +6463,10 @@
         <v>212</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>213</v>
@@ -6501,21 +6502,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="34">
+    <row r="64" spans="1:17" ht="34" hidden="1">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>126</v>
@@ -6551,7 +6552,7 @@
         <v>192</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="34">
@@ -6560,14 +6561,14 @@
       </c>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>846</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -6578,7 +6579,7 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>206</v>
@@ -6590,7 +6591,7 @@
         <v>202</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="34">
@@ -6599,14 +6600,14 @@
       </c>
       <c r="B66"/>
       <c r="C66" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -6617,7 +6618,7 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>206</v>
@@ -6629,7 +6630,7 @@
         <v>202</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="51">
@@ -6640,10 +6641,10 @@
         <v>183</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>341</v>
@@ -6661,7 +6662,7 @@
         <v>192</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="51">
@@ -6669,10 +6670,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>400</v>
@@ -6693,7 +6694,7 @@
         <v>202</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="51">
@@ -6704,7 +6705,7 @@
         <v>355</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>398</v>
@@ -6725,7 +6726,7 @@
         <v>202</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34">
@@ -6736,10 +6737,10 @@
         <v>374</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>319</v>
@@ -6757,7 +6758,7 @@
         <v>192</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="51">
@@ -6765,10 +6766,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>387</v>
@@ -6789,7 +6790,7 @@
         <v>202</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="51">
@@ -6797,10 +6798,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>388</v>
@@ -6829,7 +6830,7 @@
         <v>347</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>376</v>
@@ -6850,7 +6851,7 @@
         <v>202</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="51">
@@ -6861,7 +6862,7 @@
         <v>347</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>377</v>
@@ -6882,7 +6883,7 @@
         <v>202</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="51">
@@ -6890,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>385</v>
@@ -6914,7 +6915,7 @@
         <v>202</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34">
@@ -6966,7 +6967,7 @@
         <v>158</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>233</v>
@@ -7001,10 +7002,10 @@
         <v>160</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>236</v>
@@ -7036,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>293</v>
@@ -7065,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>293</v>
@@ -7089,7 +7090,7 @@
         <v>192</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="34">
@@ -7097,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>293</v>
@@ -7121,7 +7122,7 @@
         <v>192</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="34">
@@ -7129,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>293</v>
@@ -7153,7 +7154,7 @@
         <v>192</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="34">
@@ -7161,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>293</v>
@@ -7190,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>293</v>
@@ -7214,7 +7215,7 @@
         <v>192</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51">
@@ -7222,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>293</v>
@@ -7251,13 +7252,13 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>346</v>
@@ -7275,7 +7276,7 @@
         <v>202</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="34">
@@ -7286,13 +7287,13 @@
         <v>155</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>309</v>
@@ -7318,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>394</v>
@@ -7350,7 +7351,7 @@
         <v>359</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>409</v>
@@ -7371,7 +7372,7 @@
         <v>202</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="51">
@@ -7382,7 +7383,7 @@
         <v>352</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>391</v>
@@ -7403,7 +7404,7 @@
         <v>202</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="34">
@@ -7411,13 +7412,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="E91" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>382</v>
@@ -7438,7 +7439,7 @@
         <v>202</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="51">
@@ -7449,7 +7450,7 @@
         <v>351</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>390</v>
@@ -7475,13 +7476,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>313</v>
@@ -7499,7 +7500,7 @@
         <v>192</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="34">
@@ -7510,10 +7511,10 @@
         <v>176</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>383</v>
@@ -7537,7 +7538,7 @@
         <v>202</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="51">
@@ -7545,13 +7546,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>301</v>
@@ -7569,7 +7570,7 @@
         <v>202</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="34">
@@ -7601,7 +7602,7 @@
         <v>202</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="34">
@@ -7633,7 +7634,7 @@
         <v>202</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="51">
@@ -7641,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>406</v>
@@ -7665,7 +7666,7 @@
         <v>202</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="51">
@@ -7676,7 +7677,7 @@
         <v>358</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>407</v>
@@ -7697,25 +7698,25 @@
         <v>202</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" hidden="1">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100" t="s">
+        <v>668</v>
+      </c>
+      <c r="C100" t="s">
         <v>669</v>
-      </c>
-      <c r="C100" t="s">
-        <v>670</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F100" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>185</v>
@@ -7724,13 +7725,13 @@
         <v>185</v>
       </c>
       <c r="I100" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J100">
         <v>2019</v>
       </c>
       <c r="K100" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L100">
         <v>52942378</v>
@@ -7754,13 +7755,13 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>300</v>
@@ -7778,7 +7779,7 @@
         <v>192</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="34">
@@ -7786,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>297</v>
@@ -7815,13 +7816,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>293</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>340</v>
@@ -7839,7 +7840,7 @@
         <v>192</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="34">
@@ -7847,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>293</v>
@@ -7879,7 +7880,7 @@
         <v>152</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>293</v>
@@ -7906,7 +7907,7 @@
         <v>192</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="34">
@@ -7914,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>293</v>
@@ -7938,7 +7939,7 @@
         <v>192</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="34">
@@ -7946,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>293</v>
@@ -7970,7 +7971,7 @@
         <v>192</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="34">
@@ -7981,7 +7982,7 @@
         <v>166</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>293</v>
@@ -8008,7 +8009,7 @@
         <v>192</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="51">
@@ -8019,7 +8020,7 @@
         <v>363</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>413</v>
@@ -8040,7 +8041,7 @@
         <v>202</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="51">
@@ -8051,10 +8052,10 @@
         <v>375</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>301</v>
@@ -8072,7 +8073,7 @@
         <v>192</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="34">
@@ -8083,7 +8084,7 @@
         <v>357</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>404</v>
@@ -8104,7 +8105,7 @@
         <v>202</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="34">
@@ -8115,7 +8116,7 @@
         <v>357</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>405</v>
@@ -8136,7 +8137,7 @@
         <v>202</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="34">
@@ -8147,13 +8148,13 @@
         <v>168</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>309</v>
@@ -8174,7 +8175,7 @@
         <v>192</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="34">
@@ -8188,10 +8189,10 @@
         <v>370</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>303</v>
@@ -8212,7 +8213,7 @@
         <v>192</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="34">
@@ -8220,22 +8221,22 @@
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D115" t="s">
         <v>149</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>311</v>
       </c>
       <c r="K115" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L115">
         <v>46227690</v>
@@ -8253,7 +8254,7 @@
         <v>192</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="51">
@@ -8264,10 +8265,10 @@
         <v>371</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>321</v>
@@ -8285,7 +8286,7 @@
         <v>192</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="51">
@@ -8293,10 +8294,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>393</v>
@@ -8317,7 +8318,7 @@
         <v>192</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="34">
@@ -8325,13 +8326,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J118" s="7" t="s">
         <v>343</v>
@@ -8349,7 +8350,7 @@
         <v>192</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="34">
@@ -8389,10 +8390,10 @@
         <v>373</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>319</v>
@@ -8410,7 +8411,7 @@
         <v>192</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="34">
@@ -8418,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>341</v>
@@ -8442,7 +8443,7 @@
         <v>192</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="51">
@@ -8453,7 +8454,7 @@
         <v>361</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>411</v>
@@ -8474,7 +8475,7 @@
         <v>202</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
@@ -8485,7 +8486,7 @@
         <v>362</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>412</v>
@@ -8506,7 +8507,7 @@
         <v>202</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="34">
@@ -8517,7 +8518,7 @@
         <v>348</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>381</v>
@@ -8538,10 +8539,10 @@
         <v>202</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="34">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="34" hidden="1">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>117</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>126</v>
@@ -8573,7 +8574,7 @@
         <v>2019</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L125" s="1">
         <v>46227696</v>
@@ -8599,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>293</v>
@@ -8631,10 +8632,10 @@
         <v>369</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>319</v>
@@ -8652,7 +8653,7 @@
         <v>192</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34">
@@ -8666,7 +8667,7 @@
         <v>293</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J128" s="7" t="s">
         <v>337</v>
@@ -8689,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>294</v>
@@ -8721,7 +8722,7 @@
         <v>349</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>384</v>
@@ -8742,7 +8743,7 @@
         <v>202</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34">
@@ -8750,13 +8751,13 @@
         <v>1</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>341</v>
@@ -8774,7 +8775,7 @@
         <v>192</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="34">
@@ -8782,13 +8783,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>300</v>
@@ -8806,7 +8807,7 @@
         <v>192</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="34">
@@ -8814,13 +8815,13 @@
         <v>1</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>341</v>
@@ -8838,7 +8839,7 @@
         <v>192</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34">
@@ -8852,10 +8853,10 @@
         <v>372</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>342</v>
@@ -8876,10 +8877,10 @@
         <v>192</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" ht="51">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="51" hidden="1">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>356</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>399</v>
@@ -8913,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>293</v>
@@ -8937,7 +8938,7 @@
         <v>192</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="34">
@@ -8948,10 +8949,10 @@
         <v>164</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>401</v>
@@ -8983,10 +8984,10 @@
         <v>165</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>402</v>
@@ -9010,7 +9011,7 @@
         <v>202</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="34">
@@ -9021,13 +9022,13 @@
         <v>173</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>312</v>
@@ -9048,7 +9049,7 @@
         <v>192</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="34">
@@ -9056,10 +9057,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>414</v>
@@ -9085,10 +9086,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>408</v>
@@ -9109,7 +9110,7 @@
         <v>202</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="102">
@@ -9123,7 +9124,7 @@
         <v>353</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>392</v>
@@ -9152,10 +9153,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>410</v>
@@ -9176,7 +9177,7 @@
         <v>202</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="34">
@@ -9184,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>293</v>
@@ -9208,7 +9209,7 @@
         <v>202</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="34">
@@ -9216,10 +9217,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>381</v>
@@ -9240,7 +9241,7 @@
         <v>192</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="51">
@@ -9248,10 +9249,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>403</v>
@@ -9272,7 +9273,7 @@
         <v>202</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="34">
@@ -9280,10 +9281,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>389</v>
@@ -9304,7 +9305,7 @@
         <v>202</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="51">
@@ -9312,13 +9313,13 @@
         <v>1</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J148" s="7" t="s">
         <v>344</v>
@@ -9341,13 +9342,13 @@
         <v>1</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>305</v>
@@ -9365,7 +9366,7 @@
         <v>192</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="34">
@@ -9379,7 +9380,7 @@
         <v>350</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>386</v>
@@ -9411,7 +9412,7 @@
         <v>360</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>409</v>
@@ -9432,7 +9433,7 @@
         <v>202</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="34">
@@ -9446,7 +9447,7 @@
         <v>293</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>433</v>
+        <v>860</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>339</v>
@@ -9464,7 +9465,7 @@
         <v>202</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="34">
@@ -9475,13 +9476,13 @@
         <v>170</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>299</v>
@@ -9502,7 +9503,7 @@
         <v>202</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:17" customFormat="1" ht="34">
@@ -9511,14 +9512,14 @@
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -9541,7 +9542,7 @@
         <v>192</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="155" spans="1:17" customFormat="1" ht="34">
@@ -9550,10 +9551,10 @@
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D155" t="s">
         <v>580</v>
-      </c>
-      <c r="D155" t="s">
-        <v>581</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>293</v>
@@ -9582,7 +9583,7 @@
         <v>202</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:17" customFormat="1" ht="51">
@@ -9591,14 +9592,14 @@
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -9621,7 +9622,7 @@
         <v>192</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157" spans="1:17" customFormat="1" ht="34">
@@ -9630,7 +9631,7 @@
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="7" t="s">
@@ -9660,7 +9661,7 @@
         <v>192</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158" spans="1:17" customFormat="1" ht="34">
@@ -9672,7 +9673,7 @@
         <v>364</v>
       </c>
       <c r="D158" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>296</v>
@@ -9701,7 +9702,7 @@
         <v>192</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="159" spans="1:17" customFormat="1" ht="34">
@@ -9710,7 +9711,7 @@
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="7" t="s">
@@ -9788,10 +9789,10 @@
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -9814,7 +9815,7 @@
         <v>202</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="1:17" customFormat="1" ht="34">
@@ -9823,7 +9824,7 @@
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="7" t="s">
@@ -9853,7 +9854,7 @@
         <v>192</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:17" customFormat="1" ht="51">
@@ -9861,16 +9862,16 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="F163" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="J163" s="7" t="s">
         <v>816</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>817</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>222</v>
@@ -9885,7 +9886,7 @@
         <v>192</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="164" spans="1:17" customFormat="1" ht="85">
@@ -9893,16 +9894,16 @@
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="J164" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="J164" s="7" t="s">
-        <v>822</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>222</v>
@@ -9922,17 +9923,17 @@
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>823</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>824</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>381</v>
       </c>
       <c r="G165" s="14"/>
       <c r="J165" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>222</v>
@@ -9947,7 +9948,7 @@
         <v>202</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="166" spans="1:17" customFormat="1" ht="34">
@@ -9955,16 +9956,16 @@
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>381</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>222</v>
@@ -9979,7 +9980,7 @@
         <v>192</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="167" spans="1:17" customFormat="1" ht="51">
@@ -9987,16 +9988,16 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="F167" s="6" t="s">
+      <c r="J167" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="J167" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>222</v>
@@ -10011,7 +10012,7 @@
         <v>202</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="168" spans="1:17" customFormat="1" ht="34">
@@ -10019,16 +10020,16 @@
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="J168" s="7" t="s">
         <v>834</v>
-      </c>
-      <c r="J168" s="7" t="s">
-        <v>835</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>222</v>
@@ -10048,16 +10049,16 @@
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="F169" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="J169" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="J169" s="7" t="s">
-        <v>839</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>222</v>
@@ -10072,7 +10073,7 @@
         <v>202</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="170" spans="1:17" customFormat="1" ht="51">
@@ -10080,16 +10081,16 @@
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="F170" s="6" t="s">
-        <v>843</v>
-      </c>
       <c r="J170" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>222</v>
@@ -10109,16 +10110,16 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
+        <v>858</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>860</v>
       </c>
       <c r="G171" t="s">
         <v>185</v>
@@ -10145,7 +10146,7 @@
         <v>192</v>
       </c>
       <c r="Q171" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="172" spans="1:17" customFormat="1"/>
@@ -10248,6 +10249,117 @@
       <c r="C206" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q171" xr:uid="{73BF0318-CE8B-CD45-8505-B3E8A95CA190}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="Headache: The Journal of Head and Face Pain"/>
+        <filter val="In C M Luberto and A C McLeish (Chairs) Refining the CBT Compass: Advancements in the Assessment of Anxiety-Related Risk Factors Symposium presented at the 46th annual Association for Behavioral and Cognitive Therapies, National Harbor, MD"/>
+        <filter val="In C.L. Park, Chair, Integrating Perspectives on Stress Processes: The Overlapping and Unique Roles of Coping and Emotion Regulation. Symposium to be presented at the meeting of the Association for Psychological Science, Washington, D.C."/>
+        <filter val="International Journal of Undergraduate Research and Creative Activities"/>
+        <filter val="Invited talk for Central High School Psychology Club  Springfield, MO"/>
+        <filter val="Invited talk for colloquia series at the University of Mississippi: Oxford, MS"/>
+        <filter val="Invited talk for Honor’s College at Missouri State University: Springfield, MO"/>
+        <filter val="Invited Talk for the Annual Convention of the Midwestern Psychological Association, Chicago, IL"/>
+        <filter val="Invited talk for the Psi Chi Club meeting, Springfield, MO"/>
+        <filter val="Journal of Clinical Psychology"/>
+        <filter val="Journal of Cognitive Psychology"/>
+        <filter val="Journal of Happiness Studies"/>
+        <filter val="Journal of Personality Assessment"/>
+        <filter val="Journal of Psychological Inquiry"/>
+        <filter val="Journal of Psychology and Behavioral Sciences"/>
+        <filter val="Journal of Rehabilitation Medicine"/>
+        <filter val="Journal of Scientific Psychology"/>
+        <filter val="Journal of Substance Use"/>
+        <filter val="LOGOS: A Journal of Undergraduate Research"/>
+        <filter val="Modern Psychological Studies"/>
+        <filter val="NACADA Journal"/>
+        <filter val="Nature Human Behaviour"/>
+        <filter val="nvited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO"/>
+        <filter val="Poster presentation at the 120th annual meeting of the American Psychological Association, Orlando, FL"/>
+        <filter val="Poster presentation at the ABCT Annual Convention, Toronto, Canada"/>
+        <filter val="Poster presentation at the annual conferences of the American Psychological Association, Washington DC"/>
+        <filter val="Poster presentation at the annual meeting of the Association for Behavioral and Cognitive Therapies, San Francisco, CA (Dissemination and Implementation Special Interest Group"/>
+        <filter val="Poster presentation at the annual meeting of the Psychonomic Society, Seattle, WA "/>
+        <filter val="Poster presentation for 5th World Congress on Positive Psychology, The International Positive Psychology Association, Montreal, Québec, Canada"/>
+        <filter val="Poster presentation for NACADA Annual Conference, Nashville, TN"/>
+        <filter val="Poster presentation for the 12th Annual Academic Surgical Congress, Las Vegas, NV "/>
+        <filter val="Poster presentation for the 32nd Annual Practicing Physician's Approach to the Difficult Headache Patient, San Diego, CA"/>
+        <filter val="Poster presentation for the 49th Annual Convention of the Association for Behavioral and Cognitive Therapies, Chicago, IL "/>
+        <filter val="Poster presentation for the 4th Annual Temple Translational Science Symposium, Philadelphia, PA"/>
+        <filter val="Poster presentation for the 50th annual meeting of the Association for Behavioral and Cognitive Therapies, New York, NY "/>
+        <filter val="Poster presentation for the 51st annual meeting of the Association for Behavioral and Cognitive Therapies, San Diego, CA"/>
+        <filter val="Poster presentation for the American Medical Association Symposium, Orlando, FL"/>
+        <filter val="Poster presentation for the American Transplant Congress, Chicago, IL"/>
+        <filter val="Poster presentation for the Annual Convention of the Association for Applied Behavioral Analysis International, San Diego, CA"/>
+        <filter val="Poster presentation for the Annual Convention of the Midwestern Psychological Association, Chicago, IL"/>
+        <filter val="Poster presentation for the Annual Convention of the Southwestern Psychological Association, Albuquerque, New Mexico"/>
+        <filter val="Poster presentation for the Annual Convention of the Southwestern Psychological Association, Wichita, KS"/>
+        <filter val="Poster presentation for the Annual Meeting of the Association for Psychological Science, Washington DC     "/>
+        <filter val="Poster presentation for the Annual Meeting of the Association for Psychological Science, Washington, D.C."/>
+        <filter val="Poster presentation for the annual meeting of the Northern Rocky Mountain Educational Research Association, Jackson Hole, WY"/>
+        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Boston, MA"/>
+        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Chicago, IL"/>
+        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Long Beach, CA"/>
+        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, New Orleans, LA"/>
+        <filter val="Poster presentation for the annual meeting of the Psychonomic Society, Toronto, Canada"/>
+        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Vancouver, Canada"/>
+        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Vancouver, Canada "/>
+        <filter val="Poster presentation for the Annual Meeting of the Society for Judgment and Decision Making, Chicago, IL"/>
+        <filter val="Poster presentation for the Annual Meeting of the Southwestern Psychological Association, Dallas, TX "/>
+        <filter val="Poster presentation for the Annual Psychonomic Society Meeting in Minneapolis, MN"/>
+        <filter val="Poster presentation for the NACADA Region 7 conference, St Louis, MO"/>
+        <filter val="Poster presentation for the National Collegiate Honors Council Conference Denver, CO"/>
+        <filter val="Poster presentation for the National Collegiate Honors Council Conference Denver, CO "/>
+        <filter val="Poster presentation for the Resilience Con, Nashville, TN"/>
+        <filter val="Poster presentation for the Society for Investigative Dermatology, Portland, OR"/>
+        <filter val="Poster presentation for the Southwestern Psychological Association Convention, Wichita, KS"/>
+        <filter val="Poster presentation for the Southwestern Psychological Association meeting, San Antonio, Texas"/>
+        <filter val="Poster presentation for the Southwestern Psychological AssociationConvention, Wichita, KS"/>
+        <filter val="Poster presented at the 33rd annual meeting of the International Society for Traumatic Stress Studies, Chicago, IL"/>
+        <filter val="Poster presented at the 49th annual meeting of the Association for Behavioral and Cognitive Therapies, Chicago, IL"/>
+        <filter val="Poster presented at the annual conferences of the American Psychological Association, San Diego, CA"/>
+        <filter val="Poster presented at the annual Psychonomic Society Meeting in St Louis, MO"/>
+        <filter val="Poster presented at the Psychonomic Society Meeting, Houston, TX"/>
+        <filter val="Poster session presented at Annual Armadillo Conference, Lubbock, TX"/>
+        <filter val="Poster session presented at Annual Armadillo Conference, San Antonio, TX"/>
+        <filter val="Poster session presented at Association for Psychological Science Meeting, New York, NY"/>
+        <filter val="Poster session presented at Texas Tech University All-University Conference, Lubbock, TX"/>
+        <filter val="Poster session presented at Texas Tech University Graduate Student Conference, Lubbock, TX"/>
+        <filter val="Poster session presented at the 39th annual Great Plains Students' Psychology Convention, Springfield, MO"/>
+        <filter val="Poster session presented at the Psychonomic Society Meeting, Boston, MA."/>
+        <filter val="Poster session presented at the Psychonomic Society Meeting, Long Beach, CA."/>
+        <filter val="Poster will be presented at the 51st annual meeting for the Association for Behavioral and Cognitive Therapies, San Diego, CA"/>
+        <filter val="Presentation at the 9th European Conference on Positive Psychology 2018"/>
+        <filter val="Presentation for Cognitive Brown Bag series at Texas Tech University, Lubbock, TX"/>
+        <filter val="Presentation for Cognitive Brown Bag series at Texas Tech University, Lubbock, TX         "/>
+        <filter val="Presentation for colloquia series at the University of Mississippi: Oxford, MS"/>
+        <filter val="Presentation for the American Headache Society's 61st Annual Scientific Meeting, Philadephia, PA"/>
+        <filter val="Psychological Reports"/>
+        <filter val="Psychological Trauma: Theory, Research Practice, and Policy"/>
+        <filter val="Psychology of Popular Media Culture"/>
+        <filter val="Psychonomic Bulletin \&amp; Review"/>
+        <filter val="R package version 0.0.0.6001"/>
+        <filter val="R package version 1.0.1"/>
+        <filter val="Review of General Psychology"/>
+        <filter val="SAGE"/>
+        <filter val="SAGE Research Methods Datasets Part 2"/>
+        <filter val="Social Indicators Research"/>
+        <filter val="Spoken presentation at the annual meeting of the Psychonomic Society Seattle, WA"/>
+        <filter val="Spoken presentation for the Annual Convention of the Southwestern Psychological Association, San Antonio, TX"/>
+        <filter val="Spoken presentation for the Annual Convention of the Southwestern Psychological Association, San Antonio, TX "/>
+        <filter val="Spoken presentation for the Annual Meeting of the Midwestern Psychological Association, Chicago, IL "/>
+        <filter val="Spoken presentation for the Annual Meeting of the Society for Computers in Psychology, Vancouver, Canada "/>
+        <filter val="Spoken presentation for the Faculty Center for Teaching and Learning Showcase Springfield, MO"/>
+        <filter val="Spoken presentation for the Southwestern Psychological Association Convention, Wichita, KS"/>
+        <filter val="Spoken presentation for the Southwestern Psychological Association meeting, San Antonio, Texas"/>
+        <filter val="Student Research Competition presentation for Annual Meeting of the Southwestern Psychological Association, Dallas, TX"/>
+        <filter val="Symposium talk presented at the annual Psychonomic Society Meeting in St. Louis, MO"/>
+        <filter val="Texas Tech University, Dissertation"/>
+        <filter val="The Journal of Experimental Education"/>
+        <filter val="The Researcher"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q170">
     <sortCondition ref="M2:M170"/>
     <sortCondition ref="N2:N170"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/github web/content/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2081" documentId="10_ncr:8100000_{6AA46C81-726B-5D40-B419-5CCBBC6537F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{11692F59-B7B6-0044-9709-56D74185875C}"/>
+  <xr:revisionPtr revIDLastSave="2134" documentId="10_ncr:8100000_{6AA46C81-726B-5D40-B419-5CCBBC6537F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5A964149-6082-9F41-B86F-C1C5468B5A75}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="871">
   <si>
     <t>title</t>
   </si>
@@ -93,9 +93,6 @@
     <t>UeHWp8X0CEIC</t>
   </si>
   <si>
-    <t>QsKbpXNoaWkC</t>
-  </si>
-  <si>
     <t>10.31219/osf.io/k7dx5</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>SAGE</t>
   </si>
   <si>
-    <t>xm0LlTxljI0C</t>
-  </si>
-  <si>
     <t>10.31219/osf.io/9fgu8</t>
   </si>
   <si>
@@ -393,9 +387,6 @@
     <t>2osOgNQ5qMEC</t>
   </si>
   <si>
-    <t>KS-xo-ZNxMsC</t>
-  </si>
-  <si>
     <t>10.31219/osf.io/6w2se</t>
   </si>
   <si>
@@ -1332,6 +1323,9 @@
     <t>Invited talk for Central High School Psychology Club  Springfield, MO</t>
   </si>
   <si>
+    <t>nvited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO</t>
+  </si>
+  <si>
     <t>Spoken presentation at the annual meeting of the Psychonomic Society Seattle, WA</t>
   </si>
   <si>
@@ -2097,9 +2091,6 @@
     <t>orDZ08hpP44C, rOcdG6UcVlcC</t>
   </si>
   <si>
-    <t>1--11</t>
-  </si>
-  <si>
     <t>4e5Qn2KL_jwC, TesyEGJKHF4C</t>
   </si>
   <si>
@@ -2613,7 +2604,47 @@
     <t xml:space="preserve">SAGE Research Methods Datasets Part 2 </t>
   </si>
   <si>
-    <t>Invited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO</t>
+    <t>QsKbpXNoaWkC; rLGzs9wiiwIC</t>
+  </si>
+  <si>
+    <t>xm0LlTxljI0C; wyM6WWKXmoIC</t>
+  </si>
+  <si>
+    <t>KS-xo-ZNxMsC; KTwcwpFFj4wC</t>
+  </si>
+  <si>
+    <t>46227694, 56962138</t>
+  </si>
+  <si>
+    <t>10.1037/trm0000210</t>
+  </si>
+  <si>
+    <t>Weber, M.C., Pavlacic, J.M., Gawlik, E.A., Schulenberg, S.E., \&amp; Buchanan, E.M.</t>
+  </si>
+  <si>
+    <t>Traumatology</t>
+  </si>
+  <si>
+    <t>288--298</t>
+  </si>
+  <si>
+    <t>Modeling resilience, meaning in life, posttraumatic growth, and disaster preparedness with two samples of tornado survivors</t>
+  </si>
+  <si>
+    <t>Risk factors for Keratinocyte Carcinoma skin cancer In Nonwhite individuals: A retrospective analysis</t>
+  </si>
+  <si>
+    <t>10.1016/j.jaad.2019.01.038
+show</t>
+  </si>
+  <si>
+    <t>Nadhan, K.S., Chung, C.L., Buchanan, E.M., Shaver, C., Shipman,  S., Allawh, R.M., Hoffman, M.L., Lim, G., Abdelmalek, M., \&amp; Cusack, C.A.</t>
+  </si>
+  <si>
+    <t>Journal of the American Academy of Dermatology</t>
+  </si>
+  <si>
+    <t>Data Analytics Summit V, Harrisburg, PA</t>
   </si>
 </sst>
 </file>
@@ -3520,12 +3551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -3551,7 +3581,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3560,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3569,13 +3599,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -3587,19 +3617,19 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="51">
@@ -3607,37 +3637,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="J2" s="1">
         <v>2018</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>857</v>
       </c>
       <c r="L2" s="1">
         <v>46227693</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="34">
@@ -3645,43 +3675,43 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J3" s="1">
         <v>2008</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="34">
@@ -3689,37 +3719,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J4" s="1">
         <v>2017</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1">
         <v>46227679</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="34">
@@ -3727,16 +3757,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
@@ -3745,31 +3775,31 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J5" s="1">
         <v>2008</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1">
         <v>22716785</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="34">
@@ -3777,37 +3807,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="J6" s="1">
         <v>2018</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="L6" s="1">
         <v>46227698</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="51">
@@ -3815,37 +3845,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J7" s="1">
         <v>2017</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1">
         <v>46227681</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="34">
@@ -3853,37 +3883,37 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J8" s="1">
         <v>2018</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L8" s="1">
         <v>46227701</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="51">
@@ -3891,37 +3921,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J9" s="1">
         <v>2017</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L9" s="1">
         <v>46227688</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34">
@@ -3929,13 +3959,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J10" s="1">
         <v>2019</v>
@@ -3944,19 +3974,19 @@
         <v>46227690</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="34">
@@ -3964,37 +3994,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J11" s="1">
         <v>2017</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1">
         <v>46227677</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="34">
@@ -4002,37 +4032,37 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="J12" s="1">
         <v>2018</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L12" s="1">
         <v>46227700</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="34">
@@ -4040,13 +4070,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -4055,25 +4085,25 @@
         <v>2019</v>
       </c>
       <c r="K13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L13">
         <v>52212308</v>
       </c>
       <c r="M13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51">
@@ -4081,37 +4111,37 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J14" s="1">
         <v>2018</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L14" s="1">
         <v>46227692</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="34">
@@ -4119,37 +4149,37 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="J15" s="1">
         <v>2017</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" s="1">
         <v>46227678</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="34">
@@ -4157,13 +4187,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="J16" s="1">
         <v>2018</v>
@@ -4172,19 +4202,19 @@
         <v>46227702</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="34">
@@ -4192,37 +4222,37 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="J17" s="1">
         <v>2018</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>59</v>
+        <v>858</v>
       </c>
       <c r="L17" s="1">
         <v>46227699</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="34">
@@ -4230,37 +4260,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J18" s="1">
         <v>2018</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>120</v>
+        <v>859</v>
       </c>
       <c r="L18" s="1">
         <v>46227697</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="51">
@@ -4268,37 +4298,37 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J19" s="1">
         <v>2018</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L19" s="1">
         <v>46227703</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="34">
@@ -4306,13 +4336,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -4322,25 +4352,25 @@
         <v>2019</v>
       </c>
       <c r="K20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L20">
         <v>53070092</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="34">
@@ -4351,19 +4381,19 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J21" s="1">
         <v>2010</v>
@@ -4375,19 +4405,19 @@
         <v>22716856</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="51">
@@ -4395,16 +4425,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1">
         <v>51</v>
@@ -4413,31 +4443,31 @@
         <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J22" s="1">
         <v>2011</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L22" s="1">
         <v>12273821</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="51">
@@ -4445,16 +4475,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1">
         <v>67</v>
@@ -4463,31 +4493,31 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J23" s="1">
         <v>2011</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L23" s="1">
         <v>11984988</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="34">
@@ -4495,16 +4525,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G24" s="1">
         <v>12</v>
@@ -4513,48 +4543,48 @@
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J24" s="1">
         <v>2011</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="51" hidden="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="51">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="1">
         <v>19</v>
@@ -4563,31 +4593,31 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J25" s="1">
         <v>2012</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L25" s="1">
         <v>12273820</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="34">
@@ -4595,16 +4625,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G26" s="1">
         <v>17</v>
@@ -4613,45 +4643,45 @@
         <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J26" s="1">
         <v>2012</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="68" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="68">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -4663,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J27" s="1">
         <v>2013</v>
@@ -4675,19 +4705,19 @@
         <v>22716838</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="34">
@@ -4695,46 +4725,46 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1">
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J28" s="1">
         <v>2013</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="34">
@@ -4742,16 +4772,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G29" s="1">
         <v>33</v>
@@ -4760,31 +4790,31 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J29" s="1">
         <v>2013</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" s="1">
         <v>11984989</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="51">
@@ -4792,16 +4822,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>731</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>734</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G30" s="1">
         <v>18</v>
@@ -4810,48 +4840,48 @@
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J30" s="1">
         <v>2013</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="1">
         <v>11985008</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="34" hidden="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="34">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G31" s="1">
         <v>45</v>
@@ -4860,31 +4890,31 @@
         <v>3</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J31" s="1">
         <v>2013</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="34">
@@ -4892,16 +4922,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1">
         <v>25</v>
@@ -4910,48 +4940,48 @@
         <v>4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J32" s="1">
         <v>2013</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L32" s="1">
         <v>12273816</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="51" hidden="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="51">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1">
         <v>45</v>
@@ -4960,31 +4990,31 @@
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J33" s="1">
         <v>2013</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="34">
@@ -4992,16 +5022,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G34" s="1">
         <v>3</v>
@@ -5010,31 +5040,31 @@
         <v>3</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J34" s="1">
         <v>2014</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L34" s="1">
         <v>22716770</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="34">
@@ -5042,49 +5072,49 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J35" s="1">
         <v>2014</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="51">
@@ -5092,16 +5122,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G36" s="1">
         <v>118</v>
@@ -5110,31 +5140,31 @@
         <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J36" s="1">
         <v>2014</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L36" s="1">
         <v>12273819</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="51">
@@ -5142,16 +5172,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G37" s="1">
         <v>15</v>
@@ -5160,31 +5190,31 @@
         <v>3</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J37" s="1">
         <v>2014</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L37" s="1">
         <v>12273817</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="34">
@@ -5192,13 +5222,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G38" s="1">
         <v>26</v>
@@ -5207,48 +5237,48 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J38" s="1">
         <v>2014</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="51" hidden="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="51">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G39" s="1">
         <v>44</v>
@@ -5257,28 +5287,28 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J39" s="1">
         <v>2015</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L39" s="1">
         <v>22716723</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="34">
@@ -5286,16 +5316,16 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E40" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1">
         <v>97</v>
@@ -5304,31 +5334,31 @@
         <v>3</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J40" s="1">
         <v>2015</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L40" s="1">
         <v>22716735</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="68">
@@ -5336,16 +5366,16 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G41" s="1">
         <v>72</v>
@@ -5354,31 +5384,31 @@
         <v>12</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J41" s="1">
         <v>2016</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L41" s="1">
         <v>22716781</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="51">
@@ -5386,16 +5416,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G42" s="1">
         <v>72</v>
@@ -5404,31 +5434,31 @@
         <v>12</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J42" s="1">
         <v>2016</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L42" s="1">
         <v>22716782</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="51">
@@ -5436,16 +5466,16 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G43" s="1">
         <v>48</v>
@@ -5454,31 +5484,31 @@
         <v>2</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J43" s="1">
         <v>2016</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="34">
@@ -5486,46 +5516,46 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="1">
         <v>9</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J44" s="1">
         <v>2016</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L44" s="1">
         <v>30745623</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="34">
@@ -5533,16 +5563,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" s="1">
         <v>36</v>
@@ -5551,81 +5581,81 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J45" s="1">
         <v>2016</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="51" hidden="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="51">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G46" s="1">
         <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J46" s="1">
         <v>2016</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L46" s="1">
         <v>30745676</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="51">
@@ -5633,16 +5663,16 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E47" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G47" s="1">
         <v>73</v>
@@ -5651,31 +5681,31 @@
         <v>7</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J47" s="1">
         <v>2017</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L47" s="1">
         <v>30745644</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="34">
@@ -5683,16 +5713,16 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G48" s="1">
         <v>99</v>
@@ -5701,31 +5731,31 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J48" s="1">
         <v>2017</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L48" s="1">
         <v>30745635</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17">
@@ -5733,28 +5763,28 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J49" s="1">
         <v>2018</v>
@@ -5763,22 +5793,22 @@
         <v>8</v>
       </c>
       <c r="L49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="P49" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="34">
@@ -5792,13 +5822,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G50" s="1">
         <v>25</v>
@@ -5807,7 +5837,7 @@
         <v>3</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J50" s="1">
         <v>2018</v>
@@ -5816,22 +5846,22 @@
         <v>14</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="34">
@@ -5839,49 +5869,49 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G51" s="1">
         <v>26</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J51" s="1">
         <v>2018</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L51" s="1">
         <v>46227685</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="51">
@@ -5889,69 +5919,69 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="F52" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>496</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J52" s="1">
         <v>2018</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L52" s="1">
         <v>46227675</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="51" hidden="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="51">
       <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G53" s="15">
         <v>45</v>
@@ -5960,31 +5990,31 @@
         <v>2</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J53" s="1">
         <v>2018</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="34">
@@ -5992,49 +6022,49 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" s="1">
         <v>11</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J54" s="1">
         <v>2018</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L54" s="1">
         <v>46227689</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="17">
@@ -6042,19 +6072,19 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C55" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D55" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F55" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G55">
         <v>10</v>
@@ -6063,31 +6093,31 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J55">
         <v>2018</v>
       </c>
       <c r="K55" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L55">
         <v>46975449</v>
       </c>
       <c r="M55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O55" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q55" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="34">
@@ -6095,19 +6125,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -6116,51 +6146,51 @@
         <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J56" s="1">
         <v>2018</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="34" hidden="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="34">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G57" s="1">
         <v>50</v>
@@ -6169,81 +6199,81 @@
         <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J57" s="1">
         <v>2018</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="51" hidden="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="51">
       <c r="A58" s="1">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" s="1">
         <v>8</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J58" s="1">
         <v>2018</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L58" s="1">
         <v>46227946</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="34">
@@ -6251,52 +6281,52 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>688</v>
+        <v>110</v>
+      </c>
+      <c r="G59" s="16">
+        <v>87</v>
+      </c>
+      <c r="H59" s="16">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>864</v>
       </c>
       <c r="J59" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L59" s="1">
         <v>44621959</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="34">
@@ -6304,16 +6334,16 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G60" s="1">
         <v>23</v>
@@ -6322,84 +6352,84 @@
         <v>2</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J60" s="1">
         <v>2018</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L60" s="1">
         <v>46227684</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="34" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="34">
       <c r="A61" s="1">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="J61" s="1">
         <v>2019</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L61" s="1">
         <v>46227680</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="34">
@@ -6407,52 +6437,52 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J62" s="1">
         <v>2019</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="L62" s="1">
         <v>46227691</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="34">
@@ -6460,16 +6490,16 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G63" s="1">
         <v>11</v>
@@ -6478,7 +6508,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J63" s="1">
         <v>2019</v>
@@ -6487,72 +6517,72 @@
         <v>16</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="34" hidden="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="34">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J64" s="1">
         <v>2019</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L64" s="1">
-        <v>46227694</v>
+        <v>49</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="34">
@@ -6561,14 +6591,14 @@
       </c>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -6579,19 +6609,19 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="34">
@@ -6600,14 +6630,14 @@
       </c>
       <c r="B66"/>
       <c r="C66" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -6618,19 +6648,19 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="51">
@@ -6638,31 +6668,31 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="51">
@@ -6670,31 +6700,31 @@
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="51">
@@ -6702,31 +6732,31 @@
         <v>1</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34">
@@ -6734,31 +6764,31 @@
         <v>1</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="51">
@@ -6766,31 +6796,31 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="51">
@@ -6798,28 +6828,28 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="34">
@@ -6827,31 +6857,31 @@
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="51">
@@ -6859,31 +6889,31 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="51">
@@ -6891,31 +6921,31 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34">
@@ -6923,37 +6953,37 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L76" s="1">
         <v>22716699</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="34">
@@ -6961,37 +6991,37 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L77" s="1">
         <v>22716707</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="34">
@@ -6999,37 +7029,37 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L78" s="1">
         <v>22716691</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="34">
@@ -7037,28 +7067,28 @@
         <v>1</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="34">
@@ -7066,31 +7096,31 @@
         <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="34">
@@ -7098,31 +7128,31 @@
         <v>1</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="34">
@@ -7130,31 +7160,31 @@
         <v>1</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="34">
@@ -7162,28 +7192,28 @@
         <v>1</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="34">
@@ -7191,31 +7221,31 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51">
@@ -7223,28 +7253,28 @@
         <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="34">
@@ -7252,31 +7282,31 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="34">
@@ -7284,34 +7314,34 @@
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L87" s="1">
         <v>22716697</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="51">
@@ -7319,28 +7349,28 @@
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="68">
@@ -7348,31 +7378,31 @@
         <v>1</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="51">
@@ -7380,31 +7410,31 @@
         <v>1</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="34">
@@ -7412,34 +7442,34 @@
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q91" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="51">
@@ -7447,28 +7477,28 @@
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="51">
@@ -7476,31 +7506,31 @@
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="34">
@@ -7508,37 +7538,37 @@
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L94" s="1">
         <v>22716779</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="51">
@@ -7546,31 +7576,31 @@
         <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="34">
@@ -7578,31 +7608,31 @@
         <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="34">
@@ -7610,31 +7640,31 @@
         <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="51">
@@ -7642,31 +7672,31 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q98" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="51">
@@ -7674,79 +7704,79 @@
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" hidden="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C100" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F100" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I100" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J100">
         <v>2019</v>
       </c>
       <c r="K100" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L100">
         <v>52942378</v>
       </c>
       <c r="M100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N100" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O100" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P100" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q100"/>
     </row>
@@ -7755,31 +7785,31 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="34">
@@ -7787,28 +7817,28 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="34">
@@ -7816,31 +7846,31 @@
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q103" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="34">
@@ -7848,28 +7878,28 @@
         <v>1</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="34">
@@ -7877,37 +7907,37 @@
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L105" s="1">
         <v>22716700</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="34">
@@ -7915,31 +7945,31 @@
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="34">
@@ -7947,31 +7977,31 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="34">
@@ -7979,37 +8009,37 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L108" s="1">
         <v>22716701</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="51">
@@ -8017,31 +8047,31 @@
         <v>1</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="51">
@@ -8049,31 +8079,31 @@
         <v>1</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="34">
@@ -8081,31 +8111,31 @@
         <v>1</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="34">
@@ -8113,31 +8143,31 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="34">
@@ -8145,37 +8175,37 @@
         <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L113" s="1">
         <v>22716705</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="34">
@@ -8183,37 +8213,37 @@
         <v>1</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L114" s="1">
         <v>22716771</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="34">
@@ -8221,40 +8251,40 @@
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K115" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L115">
         <v>46227690</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="51">
@@ -8262,31 +8292,31 @@
         <v>1</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="51">
@@ -8294,31 +8324,31 @@
         <v>1</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="34">
@@ -8326,31 +8356,31 @@
         <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="34">
@@ -8358,28 +8388,28 @@
         <v>1</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="34">
@@ -8387,31 +8417,31 @@
         <v>1</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="34">
@@ -8419,31 +8449,31 @@
         <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="51">
@@ -8451,31 +8481,31 @@
         <v>1</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
@@ -8483,31 +8513,31 @@
         <v>1</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="34">
@@ -8515,84 +8545,84 @@
         <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="34" hidden="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="34">
       <c r="A125" s="1">
         <v>1</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J125" s="1">
         <v>2019</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L125" s="1">
         <v>46227696</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="34">
@@ -8600,28 +8630,28 @@
         <v>1</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="51">
@@ -8629,31 +8659,31 @@
         <v>1</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34">
@@ -8661,28 +8691,28 @@
         <v>1</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="51">
@@ -8690,28 +8720,28 @@
         <v>1</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="34">
@@ -8719,31 +8749,31 @@
         <v>1</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34">
@@ -8751,31 +8781,31 @@
         <v>1</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="34">
@@ -8783,31 +8813,31 @@
         <v>1</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="34">
@@ -8815,31 +8845,31 @@
         <v>1</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34">
@@ -8847,66 +8877,66 @@
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L134" s="1">
         <v>22716712</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" ht="51" hidden="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="51">
       <c r="A135" s="1">
         <v>1</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="34">
@@ -8914,31 +8944,31 @@
         <v>1</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="34">
@@ -8946,34 +8976,34 @@
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L137" s="1">
         <v>22716709</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="34">
@@ -8981,37 +9011,37 @@
         <v>1</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L138" s="1">
         <v>22716719</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="34">
@@ -9019,37 +9049,37 @@
         <v>1</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L139" s="1">
         <v>22716721</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="34">
@@ -9057,28 +9087,28 @@
         <v>1</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="51">
@@ -9086,31 +9116,31 @@
         <v>1</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="102">
@@ -9118,34 +9148,34 @@
         <v>1</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L142" s="1">
         <v>22716695</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="51">
@@ -9153,31 +9183,31 @@
         <v>1</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="34">
@@ -9185,31 +9215,31 @@
         <v>1</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="34">
@@ -9217,31 +9247,31 @@
         <v>1</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="51">
@@ -9249,31 +9279,31 @@
         <v>1</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="34">
@@ -9281,31 +9311,31 @@
         <v>1</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="51">
@@ -9313,28 +9343,28 @@
         <v>1</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="34">
@@ -9342,31 +9372,31 @@
         <v>1</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="34">
@@ -9374,34 +9404,34 @@
         <v>1</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L150" s="1">
         <v>22716703</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="68">
@@ -9409,31 +9439,31 @@
         <v>1</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="34">
@@ -9441,31 +9471,31 @@
         <v>1</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>860</v>
+        <v>430</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="34">
@@ -9473,37 +9503,37 @@
         <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L153" s="1">
         <v>22716710</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:17" customFormat="1" ht="34">
@@ -9512,37 +9542,37 @@
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:17" customFormat="1" ht="34">
@@ -9551,39 +9581,39 @@
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D155" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:17" customFormat="1" ht="51">
@@ -9592,37 +9622,37 @@
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:17" customFormat="1" ht="34">
@@ -9631,37 +9661,37 @@
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:17" customFormat="1" ht="34">
@@ -9670,39 +9700,39 @@
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D158" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:17" customFormat="1" ht="34">
@@ -9711,34 +9741,34 @@
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q159" s="1"/>
     </row>
@@ -9748,34 +9778,34 @@
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q160" s="1"/>
     </row>
@@ -9785,37 +9815,37 @@
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:17" customFormat="1" ht="34">
@@ -9824,37 +9854,37 @@
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="163" spans="1:17" customFormat="1" ht="51">
@@ -9862,31 +9892,31 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="J163" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="M163" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q163" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N163" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O163" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P163" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q163" s="2" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="164" spans="1:17" customFormat="1" ht="85">
@@ -9894,28 +9924,28 @@
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="J164" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="F164" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="J164" s="7" t="s">
-        <v>821</v>
-      </c>
       <c r="M164" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:17" customFormat="1" ht="34">
@@ -9923,32 +9953,32 @@
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G165" s="14"/>
       <c r="J165" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="166" spans="1:17" customFormat="1" ht="34">
@@ -9956,31 +9986,31 @@
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="167" spans="1:17" customFormat="1" ht="51">
@@ -9988,31 +10018,31 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q167" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="J167" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O167" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P167" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q167" s="2" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="168" spans="1:17" customFormat="1" ht="34">
@@ -10020,28 +10050,28 @@
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="J168" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="J168" s="7" t="s">
-        <v>834</v>
-      </c>
       <c r="M168" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:17" customFormat="1" ht="51">
@@ -10049,31 +10079,31 @@
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="J169" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="M169" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q169" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="J169" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O169" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P169" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q169" s="2" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="170" spans="1:17" customFormat="1" ht="51">
@@ -10081,28 +10111,28 @@
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:17" customFormat="1" ht="34">
@@ -10110,48 +10140,156 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>859</v>
-      </c>
       <c r="G171" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H171" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I171" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J171">
         <v>2019</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q171" s="12" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" customFormat="1"/>
-    <row r="173" spans="1:17" customFormat="1"/>
-    <row r="174" spans="1:17" customFormat="1"/>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" customFormat="1" ht="51">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>861</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="G172" t="s">
+        <v>182</v>
+      </c>
+      <c r="H172" t="s">
+        <v>182</v>
+      </c>
+      <c r="I172" t="s">
+        <v>182</v>
+      </c>
+      <c r="J172">
+        <v>2019</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" customFormat="1" ht="51">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="G173" t="s">
+        <v>182</v>
+      </c>
+      <c r="H173" t="s">
+        <v>182</v>
+      </c>
+      <c r="I173" t="s">
+        <v>182</v>
+      </c>
+      <c r="J173" s="7">
+        <v>2019</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" customFormat="1" ht="34">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="J174" t="s">
+        <v>818</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="175" spans="1:17">
       <c r="C175" s="8"/>
     </row>
@@ -10249,117 +10387,6 @@
       <c r="C206" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q171" xr:uid="{73BF0318-CE8B-CD45-8505-B3E8A95CA190}">
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="Headache: The Journal of Head and Face Pain"/>
-        <filter val="In C M Luberto and A C McLeish (Chairs) Refining the CBT Compass: Advancements in the Assessment of Anxiety-Related Risk Factors Symposium presented at the 46th annual Association for Behavioral and Cognitive Therapies, National Harbor, MD"/>
-        <filter val="In C.L. Park, Chair, Integrating Perspectives on Stress Processes: The Overlapping and Unique Roles of Coping and Emotion Regulation. Symposium to be presented at the meeting of the Association for Psychological Science, Washington, D.C."/>
-        <filter val="International Journal of Undergraduate Research and Creative Activities"/>
-        <filter val="Invited talk for Central High School Psychology Club  Springfield, MO"/>
-        <filter val="Invited talk for colloquia series at the University of Mississippi: Oxford, MS"/>
-        <filter val="Invited talk for Honor’s College at Missouri State University: Springfield, MO"/>
-        <filter val="Invited Talk for the Annual Convention of the Midwestern Psychological Association, Chicago, IL"/>
-        <filter val="Invited talk for the Psi Chi Club meeting, Springfield, MO"/>
-        <filter val="Journal of Clinical Psychology"/>
-        <filter val="Journal of Cognitive Psychology"/>
-        <filter val="Journal of Happiness Studies"/>
-        <filter val="Journal of Personality Assessment"/>
-        <filter val="Journal of Psychological Inquiry"/>
-        <filter val="Journal of Psychology and Behavioral Sciences"/>
-        <filter val="Journal of Rehabilitation Medicine"/>
-        <filter val="Journal of Scientific Psychology"/>
-        <filter val="Journal of Substance Use"/>
-        <filter val="LOGOS: A Journal of Undergraduate Research"/>
-        <filter val="Modern Psychological Studies"/>
-        <filter val="NACADA Journal"/>
-        <filter val="Nature Human Behaviour"/>
-        <filter val="nvited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO"/>
-        <filter val="Poster presentation at the 120th annual meeting of the American Psychological Association, Orlando, FL"/>
-        <filter val="Poster presentation at the ABCT Annual Convention, Toronto, Canada"/>
-        <filter val="Poster presentation at the annual conferences of the American Psychological Association, Washington DC"/>
-        <filter val="Poster presentation at the annual meeting of the Association for Behavioral and Cognitive Therapies, San Francisco, CA (Dissemination and Implementation Special Interest Group"/>
-        <filter val="Poster presentation at the annual meeting of the Psychonomic Society, Seattle, WA "/>
-        <filter val="Poster presentation for 5th World Congress on Positive Psychology, The International Positive Psychology Association, Montreal, Québec, Canada"/>
-        <filter val="Poster presentation for NACADA Annual Conference, Nashville, TN"/>
-        <filter val="Poster presentation for the 12th Annual Academic Surgical Congress, Las Vegas, NV "/>
-        <filter val="Poster presentation for the 32nd Annual Practicing Physician's Approach to the Difficult Headache Patient, San Diego, CA"/>
-        <filter val="Poster presentation for the 49th Annual Convention of the Association for Behavioral and Cognitive Therapies, Chicago, IL "/>
-        <filter val="Poster presentation for the 4th Annual Temple Translational Science Symposium, Philadelphia, PA"/>
-        <filter val="Poster presentation for the 50th annual meeting of the Association for Behavioral and Cognitive Therapies, New York, NY "/>
-        <filter val="Poster presentation for the 51st annual meeting of the Association for Behavioral and Cognitive Therapies, San Diego, CA"/>
-        <filter val="Poster presentation for the American Medical Association Symposium, Orlando, FL"/>
-        <filter val="Poster presentation for the American Transplant Congress, Chicago, IL"/>
-        <filter val="Poster presentation for the Annual Convention of the Association for Applied Behavioral Analysis International, San Diego, CA"/>
-        <filter val="Poster presentation for the Annual Convention of the Midwestern Psychological Association, Chicago, IL"/>
-        <filter val="Poster presentation for the Annual Convention of the Southwestern Psychological Association, Albuquerque, New Mexico"/>
-        <filter val="Poster presentation for the Annual Convention of the Southwestern Psychological Association, Wichita, KS"/>
-        <filter val="Poster presentation for the Annual Meeting of the Association for Psychological Science, Washington DC     "/>
-        <filter val="Poster presentation for the Annual Meeting of the Association for Psychological Science, Washington, D.C."/>
-        <filter val="Poster presentation for the annual meeting of the Northern Rocky Mountain Educational Research Association, Jackson Hole, WY"/>
-        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Boston, MA"/>
-        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Chicago, IL"/>
-        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Long Beach, CA"/>
-        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, New Orleans, LA"/>
-        <filter val="Poster presentation for the annual meeting of the Psychonomic Society, Toronto, Canada"/>
-        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Vancouver, Canada"/>
-        <filter val="Poster presentation for the Annual Meeting of the Psychonomic Society, Vancouver, Canada "/>
-        <filter val="Poster presentation for the Annual Meeting of the Society for Judgment and Decision Making, Chicago, IL"/>
-        <filter val="Poster presentation for the Annual Meeting of the Southwestern Psychological Association, Dallas, TX "/>
-        <filter val="Poster presentation for the Annual Psychonomic Society Meeting in Minneapolis, MN"/>
-        <filter val="Poster presentation for the NACADA Region 7 conference, St Louis, MO"/>
-        <filter val="Poster presentation for the National Collegiate Honors Council Conference Denver, CO"/>
-        <filter val="Poster presentation for the National Collegiate Honors Council Conference Denver, CO "/>
-        <filter val="Poster presentation for the Resilience Con, Nashville, TN"/>
-        <filter val="Poster presentation for the Society for Investigative Dermatology, Portland, OR"/>
-        <filter val="Poster presentation for the Southwestern Psychological Association Convention, Wichita, KS"/>
-        <filter val="Poster presentation for the Southwestern Psychological Association meeting, San Antonio, Texas"/>
-        <filter val="Poster presentation for the Southwestern Psychological AssociationConvention, Wichita, KS"/>
-        <filter val="Poster presented at the 33rd annual meeting of the International Society for Traumatic Stress Studies, Chicago, IL"/>
-        <filter val="Poster presented at the 49th annual meeting of the Association for Behavioral and Cognitive Therapies, Chicago, IL"/>
-        <filter val="Poster presented at the annual conferences of the American Psychological Association, San Diego, CA"/>
-        <filter val="Poster presented at the annual Psychonomic Society Meeting in St Louis, MO"/>
-        <filter val="Poster presented at the Psychonomic Society Meeting, Houston, TX"/>
-        <filter val="Poster session presented at Annual Armadillo Conference, Lubbock, TX"/>
-        <filter val="Poster session presented at Annual Armadillo Conference, San Antonio, TX"/>
-        <filter val="Poster session presented at Association for Psychological Science Meeting, New York, NY"/>
-        <filter val="Poster session presented at Texas Tech University All-University Conference, Lubbock, TX"/>
-        <filter val="Poster session presented at Texas Tech University Graduate Student Conference, Lubbock, TX"/>
-        <filter val="Poster session presented at the 39th annual Great Plains Students' Psychology Convention, Springfield, MO"/>
-        <filter val="Poster session presented at the Psychonomic Society Meeting, Boston, MA."/>
-        <filter val="Poster session presented at the Psychonomic Society Meeting, Long Beach, CA."/>
-        <filter val="Poster will be presented at the 51st annual meeting for the Association for Behavioral and Cognitive Therapies, San Diego, CA"/>
-        <filter val="Presentation at the 9th European Conference on Positive Psychology 2018"/>
-        <filter val="Presentation for Cognitive Brown Bag series at Texas Tech University, Lubbock, TX"/>
-        <filter val="Presentation for Cognitive Brown Bag series at Texas Tech University, Lubbock, TX         "/>
-        <filter val="Presentation for colloquia series at the University of Mississippi: Oxford, MS"/>
-        <filter val="Presentation for the American Headache Society's 61st Annual Scientific Meeting, Philadephia, PA"/>
-        <filter val="Psychological Reports"/>
-        <filter val="Psychological Trauma: Theory, Research Practice, and Policy"/>
-        <filter val="Psychology of Popular Media Culture"/>
-        <filter val="Psychonomic Bulletin \&amp; Review"/>
-        <filter val="R package version 0.0.0.6001"/>
-        <filter val="R package version 1.0.1"/>
-        <filter val="Review of General Psychology"/>
-        <filter val="SAGE"/>
-        <filter val="SAGE Research Methods Datasets Part 2"/>
-        <filter val="Social Indicators Research"/>
-        <filter val="Spoken presentation at the annual meeting of the Psychonomic Society Seattle, WA"/>
-        <filter val="Spoken presentation for the Annual Convention of the Southwestern Psychological Association, San Antonio, TX"/>
-        <filter val="Spoken presentation for the Annual Convention of the Southwestern Psychological Association, San Antonio, TX "/>
-        <filter val="Spoken presentation for the Annual Meeting of the Midwestern Psychological Association, Chicago, IL "/>
-        <filter val="Spoken presentation for the Annual Meeting of the Society for Computers in Psychology, Vancouver, Canada "/>
-        <filter val="Spoken presentation for the Faculty Center for Teaching and Learning Showcase Springfield, MO"/>
-        <filter val="Spoken presentation for the Southwestern Psychological Association Convention, Wichita, KS"/>
-        <filter val="Spoken presentation for the Southwestern Psychological Association meeting, San Antonio, Texas"/>
-        <filter val="Student Research Competition presentation for Annual Meeting of the Southwestern Psychological Association, Dallas, TX"/>
-        <filter val="Symposium talk presented at the annual Psychonomic Society Meeting in St. Louis, MO"/>
-        <filter val="Texas Tech University, Dissertation"/>
-        <filter val="The Journal of Experimental Education"/>
-        <filter val="The Researcher"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q170">
     <sortCondition ref="M2:M170"/>
     <sortCondition ref="N2:N170"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/cv markdown/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/github web/content/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2134" documentId="10_ncr:8100000_{6AA46C81-726B-5D40-B419-5CCBBC6537F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5A964149-6082-9F41-B86F-C1C5468B5A75}"/>
+  <xr:revisionPtr revIDLastSave="2135" documentId="10_ncr:8100000_{6AA46C81-726B-5D40-B419-5CCBBC6537F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{61EFCB59-772A-3D42-A57E-81D5AAFAABD9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,9 +1323,6 @@
     <t>Invited talk for Central High School Psychology Club  Springfield, MO</t>
   </si>
   <si>
-    <t>nvited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO</t>
-  </si>
-  <si>
     <t>Spoken presentation at the annual meeting of the Psychonomic Society Seattle, WA</t>
   </si>
   <si>
@@ -2645,6 +2642,9 @@
   </si>
   <si>
     <t>Data Analytics Summit V, Harrisburg, PA</t>
+  </si>
+  <si>
+    <t>Invited talk for the KME Math Honor’s Society at Missouri State University: Springfield, MO</t>
   </si>
 </sst>
 </file>
@@ -3553,9 +3553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -3643,13 +3643,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J2" s="1">
         <v>2018</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L2" s="1">
         <v>46227693</v>
@@ -3667,7 +3667,7 @@
         <v>189</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="34">
@@ -3675,13 +3675,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>182</v>
@@ -3711,7 +3711,7 @@
         <v>189</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="34">
@@ -3719,13 +3719,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J4" s="1">
         <v>2017</v>
@@ -3763,7 +3763,7 @@
         <v>80</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>261</v>
@@ -3813,13 +3813,13 @@
         <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J6" s="1">
         <v>2018</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L6" s="1">
         <v>46227698</v>
@@ -3837,7 +3837,7 @@
         <v>199</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="51">
@@ -3845,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J7" s="1">
         <v>2017</v>
@@ -3875,7 +3875,7 @@
         <v>189</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="34">
@@ -3883,19 +3883,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J8" s="1">
         <v>2018</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L8" s="1">
         <v>46227701</v>
@@ -3913,7 +3913,7 @@
         <v>189</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="51">
@@ -3921,19 +3921,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J9" s="1">
         <v>2017</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L9" s="1">
         <v>46227688</v>
@@ -3951,7 +3951,7 @@
         <v>189</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34">
@@ -3959,13 +3959,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J10" s="1">
         <v>2019</v>
@@ -3986,7 +3986,7 @@
         <v>189</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="34">
@@ -4000,7 +4000,7 @@
         <v>132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J11" s="1">
         <v>2017</v>
@@ -4024,7 +4024,7 @@
         <v>189</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="34">
@@ -4032,19 +4032,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J12" s="1">
         <v>2018</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L12" s="1">
         <v>46227700</v>
@@ -4062,7 +4062,7 @@
         <v>189</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="34">
@@ -4070,13 +4070,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -4085,7 +4085,7 @@
         <v>2019</v>
       </c>
       <c r="K13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L13">
         <v>52212308</v>
@@ -4103,7 +4103,7 @@
         <v>199</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51">
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J14" s="1">
         <v>2018</v>
@@ -4141,7 +4141,7 @@
         <v>189</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="34">
@@ -4149,13 +4149,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J15" s="1">
         <v>2017</v>
@@ -4179,7 +4179,7 @@
         <v>199</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="34">
@@ -4193,7 +4193,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J16" s="1">
         <v>2018</v>
@@ -4214,7 +4214,7 @@
         <v>199</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="34">
@@ -4222,19 +4222,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J17" s="1">
         <v>2018</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L17" s="1">
         <v>46227699</v>
@@ -4252,7 +4252,7 @@
         <v>189</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="34">
@@ -4272,7 +4272,7 @@
         <v>2018</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L18" s="1">
         <v>46227697</v>
@@ -4304,13 +4304,13 @@
         <v>121</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J19" s="1">
         <v>2018</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L19" s="1">
         <v>46227703</v>
@@ -4336,13 +4336,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -4352,7 +4352,7 @@
         <v>2019</v>
       </c>
       <c r="K20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L20">
         <v>53070092</v>
@@ -4370,7 +4370,7 @@
         <v>189</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="34">
@@ -4431,7 +4431,7 @@
         <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>98</v>
@@ -4443,7 +4443,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J22" s="1">
         <v>2011</v>
@@ -4467,7 +4467,7 @@
         <v>199</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="51">
@@ -4531,7 +4531,7 @@
         <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>89</v>
@@ -4552,7 +4552,7 @@
         <v>120</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>183</v>
@@ -4578,10 +4578,10 @@
         <v>172</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>67</v>
@@ -4593,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J25" s="1">
         <v>2012</v>
@@ -4617,7 +4617,7 @@
         <v>199</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="34">
@@ -4631,7 +4631,7 @@
         <v>252</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>74</v>
@@ -4681,7 +4681,7 @@
         <v>196</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -4728,7 +4728,7 @@
         <v>222</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>21</v>
@@ -4778,7 +4778,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>33</v>
@@ -4790,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J29" s="1">
         <v>2013</v>
@@ -4814,7 +4814,7 @@
         <v>199</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="51">
@@ -4828,7 +4828,7 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>39</v>
@@ -4840,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J30" s="1">
         <v>2013</v>
@@ -4864,7 +4864,7 @@
         <v>199</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="34">
@@ -4878,7 +4878,7 @@
         <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>123</v>
@@ -4899,7 +4899,7 @@
         <v>52</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>183</v>
@@ -4928,7 +4928,7 @@
         <v>70</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>71</v>
@@ -4978,7 +4978,7 @@
         <v>122</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>123</v>
@@ -4999,7 +4999,7 @@
         <v>124</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>183</v>
@@ -5028,7 +5028,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>26</v>
@@ -5078,7 +5078,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
@@ -5096,10 +5096,10 @@
         <v>2014</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>183</v>
@@ -5114,7 +5114,7 @@
         <v>199</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="51">
@@ -5128,10 +5128,10 @@
         <v>61</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G36" s="1">
         <v>118</v>
@@ -5140,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J36" s="1">
         <v>2014</v>
@@ -5164,7 +5164,7 @@
         <v>199</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="51">
@@ -5178,7 +5178,7 @@
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>89</v>
@@ -5190,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J37" s="1">
         <v>2014</v>
@@ -5214,7 +5214,7 @@
         <v>199</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="34">
@@ -5225,7 +5225,7 @@
         <v>113</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>242</v>
@@ -5272,13 +5272,13 @@
         <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G39" s="1">
         <v>44</v>
@@ -5287,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J39" s="1">
         <v>2015</v>
@@ -5319,10 +5319,10 @@
         <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>86</v>
@@ -5334,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J40" s="1">
         <v>2015</v>
@@ -5358,7 +5358,7 @@
         <v>199</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="68">
@@ -5372,7 +5372,7 @@
         <v>226</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>227</v>
@@ -5422,7 +5422,7 @@
         <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>116</v>
@@ -5434,7 +5434,7 @@
         <v>12</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J42" s="1">
         <v>2016</v>
@@ -5458,7 +5458,7 @@
         <v>199</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="51">
@@ -5472,7 +5472,7 @@
         <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>283</v>
@@ -5493,7 +5493,7 @@
         <v>107</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>183</v>
@@ -5519,7 +5519,7 @@
         <v>112</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>21</v>
@@ -5537,7 +5537,7 @@
         <v>2016</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L44" s="1">
         <v>30745623</v>
@@ -5569,7 +5569,7 @@
         <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>33</v>
@@ -5619,10 +5619,10 @@
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G46" s="1">
         <v>22</v>
@@ -5631,7 +5631,7 @@
         <v>182</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J46" s="1">
         <v>2016</v>
@@ -5655,7 +5655,7 @@
         <v>199</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="51">
@@ -5666,10 +5666,10 @@
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>116</v>
@@ -5681,7 +5681,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J47" s="1">
         <v>2017</v>
@@ -5705,7 +5705,7 @@
         <v>199</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="34">
@@ -5716,10 +5716,10 @@
         <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>86</v>
@@ -5731,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J48" s="1">
         <v>2017</v>
@@ -5755,7 +5755,7 @@
         <v>199</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17">
@@ -5772,7 +5772,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>26</v>
@@ -5825,7 +5825,7 @@
         <v>159</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>261</v>
@@ -5875,7 +5875,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>186</v>
@@ -5887,13 +5887,13 @@
         <v>182</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J51" s="1">
         <v>2018</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L51" s="1">
         <v>46227685</v>
@@ -5922,16 +5922,16 @@
         <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>182</v>
@@ -5978,7 +5978,7 @@
         <v>148</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>46</v>
@@ -5990,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J53" s="1">
         <v>2018</v>
@@ -6022,13 +6022,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>21</v>
@@ -6040,7 +6040,7 @@
         <v>182</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J54" s="1">
         <v>2018</v>
@@ -6064,7 +6064,7 @@
         <v>189</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="17">
@@ -6072,19 +6072,19 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D55" t="s">
+        <v>668</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F55" t="s">
         <v>669</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F55" t="s">
-        <v>670</v>
       </c>
       <c r="G55">
         <v>10</v>
@@ -6093,13 +6093,13 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J55">
         <v>2018</v>
       </c>
       <c r="K55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L55">
         <v>46975449</v>
@@ -6117,7 +6117,7 @@
         <v>189</v>
       </c>
       <c r="Q55" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="34">
@@ -6125,16 +6125,16 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>77</v>
@@ -6146,13 +6146,13 @@
         <v>3</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J56" s="1">
         <v>2018</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>7</v>
@@ -6170,7 +6170,7 @@
         <v>199</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="34">
@@ -6187,7 +6187,7 @@
         <v>140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>123</v>
@@ -6199,7 +6199,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J57" s="1">
         <v>2018</v>
@@ -6208,7 +6208,7 @@
         <v>92</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>183</v>
@@ -6223,7 +6223,7 @@
         <v>199</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="51">
@@ -6237,7 +6237,7 @@
         <v>133</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>104</v>
@@ -6249,7 +6249,7 @@
         <v>182</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J58" s="1">
         <v>2018</v>
@@ -6273,7 +6273,7 @@
         <v>199</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="34">
@@ -6290,7 +6290,7 @@
         <v>282</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>110</v>
@@ -6302,13 +6302,13 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J59" s="1">
         <v>2019</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L59" s="1">
         <v>44621959</v>
@@ -6340,7 +6340,7 @@
         <v>127</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>126</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>236</v>
@@ -6393,7 +6393,7 @@
         <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>46</v>
@@ -6405,13 +6405,13 @@
         <v>182</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J61" s="1">
         <v>2019</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L61" s="1">
         <v>46227680</v>
@@ -6446,13 +6446,13 @@
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>288</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>182</v>
@@ -6464,7 +6464,7 @@
         <v>2019</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L62" s="1">
         <v>46227691</v>
@@ -6493,10 +6493,10 @@
         <v>209</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>210</v>
@@ -6537,16 +6537,16 @@
         <v>1</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>123</v>
@@ -6567,7 +6567,7 @@
         <v>49</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>183</v>
@@ -6582,7 +6582,7 @@
         <v>189</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="34">
@@ -6591,14 +6591,14 @@
       </c>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>841</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>842</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -6609,7 +6609,7 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>203</v>
@@ -6621,7 +6621,7 @@
         <v>199</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="34">
@@ -6630,14 +6630,14 @@
       </c>
       <c r="B66"/>
       <c r="C66" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -6648,7 +6648,7 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>203</v>
@@ -6660,7 +6660,7 @@
         <v>199</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="51">
@@ -6671,10 +6671,10 @@
         <v>180</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>338</v>
@@ -6692,7 +6692,7 @@
         <v>189</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="51">
@@ -6700,10 +6700,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>397</v>
@@ -6724,7 +6724,7 @@
         <v>199</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="51">
@@ -6735,7 +6735,7 @@
         <v>352</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>395</v>
@@ -6756,7 +6756,7 @@
         <v>199</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34">
@@ -6767,10 +6767,10 @@
         <v>371</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>316</v>
@@ -6788,7 +6788,7 @@
         <v>189</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="51">
@@ -6796,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>384</v>
@@ -6820,7 +6820,7 @@
         <v>199</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="51">
@@ -6828,10 +6828,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>385</v>
@@ -6860,7 +6860,7 @@
         <v>344</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>373</v>
@@ -6881,7 +6881,7 @@
         <v>199</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="51">
@@ -6892,7 +6892,7 @@
         <v>344</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>374</v>
@@ -6913,7 +6913,7 @@
         <v>199</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="51">
@@ -6921,10 +6921,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>382</v>
@@ -6945,7 +6945,7 @@
         <v>199</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34">
@@ -6997,7 +6997,7 @@
         <v>155</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>230</v>
@@ -7032,10 +7032,10 @@
         <v>157</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>233</v>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>290</v>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>290</v>
@@ -7120,7 +7120,7 @@
         <v>189</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="34">
@@ -7128,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>290</v>
@@ -7152,7 +7152,7 @@
         <v>189</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="34">
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>290</v>
@@ -7184,7 +7184,7 @@
         <v>189</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="34">
@@ -7192,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>290</v>
@@ -7221,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>290</v>
@@ -7245,7 +7245,7 @@
         <v>189</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51">
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>290</v>
@@ -7282,13 +7282,13 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>295</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>343</v>
@@ -7306,7 +7306,7 @@
         <v>199</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="34">
@@ -7317,13 +7317,13 @@
         <v>152</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>306</v>
@@ -7349,10 +7349,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>391</v>
@@ -7381,7 +7381,7 @@
         <v>356</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>406</v>
@@ -7402,7 +7402,7 @@
         <v>199</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="51">
@@ -7413,7 +7413,7 @@
         <v>349</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>388</v>
@@ -7434,7 +7434,7 @@
         <v>199</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="34">
@@ -7442,13 +7442,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="E91" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>379</v>
@@ -7469,7 +7469,7 @@
         <v>199</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="51">
@@ -7480,7 +7480,7 @@
         <v>348</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>387</v>
@@ -7506,13 +7506,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>310</v>
@@ -7530,7 +7530,7 @@
         <v>189</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="34">
@@ -7541,10 +7541,10 @@
         <v>173</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>380</v>
@@ -7568,7 +7568,7 @@
         <v>199</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="51">
@@ -7576,13 +7576,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>298</v>
@@ -7600,7 +7600,7 @@
         <v>199</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="34">
@@ -7632,7 +7632,7 @@
         <v>199</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="34">
@@ -7664,7 +7664,7 @@
         <v>199</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="51">
@@ -7672,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>403</v>
@@ -7696,7 +7696,7 @@
         <v>199</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="51">
@@ -7707,7 +7707,7 @@
         <v>355</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>404</v>
@@ -7728,7 +7728,7 @@
         <v>199</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -7736,17 +7736,17 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
+        <v>665</v>
+      </c>
+      <c r="C100" t="s">
         <v>666</v>
-      </c>
-      <c r="C100" t="s">
-        <v>667</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F100" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>182</v>
@@ -7755,13 +7755,13 @@
         <v>182</v>
       </c>
       <c r="I100" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J100">
         <v>2019</v>
       </c>
       <c r="K100" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L100">
         <v>52942378</v>
@@ -7785,13 +7785,13 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>297</v>
@@ -7809,7 +7809,7 @@
         <v>189</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="34">
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>294</v>
@@ -7846,13 +7846,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>290</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>337</v>
@@ -7870,7 +7870,7 @@
         <v>189</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="34">
@@ -7878,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>290</v>
@@ -7910,7 +7910,7 @@
         <v>149</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>290</v>
@@ -7937,7 +7937,7 @@
         <v>189</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="34">
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>290</v>
@@ -7969,7 +7969,7 @@
         <v>189</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="34">
@@ -7977,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>290</v>
@@ -8001,7 +8001,7 @@
         <v>189</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="34">
@@ -8012,7 +8012,7 @@
         <v>163</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>290</v>
@@ -8039,7 +8039,7 @@
         <v>189</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="51">
@@ -8050,7 +8050,7 @@
         <v>360</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>410</v>
@@ -8071,7 +8071,7 @@
         <v>199</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="51">
@@ -8082,10 +8082,10 @@
         <v>372</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>298</v>
@@ -8103,7 +8103,7 @@
         <v>189</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="34">
@@ -8114,7 +8114,7 @@
         <v>354</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>401</v>
@@ -8135,7 +8135,7 @@
         <v>199</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="34">
@@ -8146,7 +8146,7 @@
         <v>354</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>402</v>
@@ -8167,7 +8167,7 @@
         <v>199</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="34">
@@ -8178,13 +8178,13 @@
         <v>165</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>306</v>
@@ -8205,7 +8205,7 @@
         <v>189</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="34">
@@ -8219,10 +8219,10 @@
         <v>367</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>300</v>
@@ -8243,7 +8243,7 @@
         <v>189</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="34">
@@ -8251,22 +8251,22 @@
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D115" t="s">
         <v>146</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>308</v>
       </c>
       <c r="K115" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L115">
         <v>46227690</v>
@@ -8284,7 +8284,7 @@
         <v>189</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="51">
@@ -8295,10 +8295,10 @@
         <v>368</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>318</v>
@@ -8316,7 +8316,7 @@
         <v>189</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="51">
@@ -8324,10 +8324,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>390</v>
@@ -8348,7 +8348,7 @@
         <v>189</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="34">
@@ -8356,13 +8356,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J118" s="7" t="s">
         <v>340</v>
@@ -8380,7 +8380,7 @@
         <v>189</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="34">
@@ -8420,10 +8420,10 @@
         <v>370</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>316</v>
@@ -8441,7 +8441,7 @@
         <v>189</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="34">
@@ -8449,13 +8449,13 @@
         <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>338</v>
@@ -8473,7 +8473,7 @@
         <v>189</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="51">
@@ -8484,7 +8484,7 @@
         <v>358</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>408</v>
@@ -8505,7 +8505,7 @@
         <v>199</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
@@ -8516,7 +8516,7 @@
         <v>359</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>409</v>
@@ -8537,7 +8537,7 @@
         <v>199</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="34">
@@ -8548,7 +8548,7 @@
         <v>345</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>378</v>
@@ -8569,7 +8569,7 @@
         <v>199</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="34">
@@ -8586,7 +8586,7 @@
         <v>115</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>123</v>
@@ -8604,7 +8604,7 @@
         <v>2019</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L125" s="1">
         <v>46227696</v>
@@ -8630,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>290</v>
@@ -8662,10 +8662,10 @@
         <v>366</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>316</v>
@@ -8683,7 +8683,7 @@
         <v>189</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34">
@@ -8697,7 +8697,7 @@
         <v>290</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J128" s="7" t="s">
         <v>334</v>
@@ -8720,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>291</v>
@@ -8752,7 +8752,7 @@
         <v>346</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>381</v>
@@ -8773,7 +8773,7 @@
         <v>199</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34">
@@ -8781,13 +8781,13 @@
         <v>1</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>338</v>
@@ -8805,7 +8805,7 @@
         <v>189</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="34">
@@ -8813,13 +8813,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>297</v>
@@ -8837,7 +8837,7 @@
         <v>189</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="34">
@@ -8845,13 +8845,13 @@
         <v>1</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>338</v>
@@ -8869,7 +8869,7 @@
         <v>189</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34">
@@ -8883,10 +8883,10 @@
         <v>369</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>339</v>
@@ -8907,7 +8907,7 @@
         <v>189</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="51">
@@ -8918,7 +8918,7 @@
         <v>353</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>396</v>
@@ -8944,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>290</v>
@@ -8968,7 +8968,7 @@
         <v>189</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="34">
@@ -8979,10 +8979,10 @@
         <v>161</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>398</v>
@@ -9014,10 +9014,10 @@
         <v>162</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>399</v>
@@ -9041,7 +9041,7 @@
         <v>199</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="34">
@@ -9052,13 +9052,13 @@
         <v>170</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>309</v>
@@ -9079,7 +9079,7 @@
         <v>189</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="34">
@@ -9087,10 +9087,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>411</v>
@@ -9116,10 +9116,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>405</v>
@@ -9140,7 +9140,7 @@
         <v>199</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="102">
@@ -9154,7 +9154,7 @@
         <v>350</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>389</v>
@@ -9183,10 +9183,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>407</v>
@@ -9207,7 +9207,7 @@
         <v>199</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="34">
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>290</v>
@@ -9239,7 +9239,7 @@
         <v>199</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="34">
@@ -9247,10 +9247,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>378</v>
@@ -9271,7 +9271,7 @@
         <v>189</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="51">
@@ -9279,10 +9279,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>400</v>
@@ -9303,7 +9303,7 @@
         <v>199</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="34">
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>386</v>
@@ -9335,7 +9335,7 @@
         <v>199</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="51">
@@ -9343,13 +9343,13 @@
         <v>1</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J148" s="7" t="s">
         <v>341</v>
@@ -9372,13 +9372,13 @@
         <v>1</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>302</v>
@@ -9396,7 +9396,7 @@
         <v>189</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="34">
@@ -9410,7 +9410,7 @@
         <v>347</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>383</v>
@@ -9442,7 +9442,7 @@
         <v>357</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>406</v>
@@ -9463,7 +9463,7 @@
         <v>199</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="34">
@@ -9477,7 +9477,7 @@
         <v>290</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>430</v>
+        <v>870</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>336</v>
@@ -9495,7 +9495,7 @@
         <v>199</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="34">
@@ -9506,13 +9506,13 @@
         <v>167</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>296</v>
@@ -9533,7 +9533,7 @@
         <v>199</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:17" customFormat="1" ht="34">
@@ -9542,14 +9542,14 @@
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -9572,7 +9572,7 @@
         <v>189</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="155" spans="1:17" customFormat="1" ht="34">
@@ -9581,10 +9581,10 @@
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D155" t="s">
         <v>577</v>
-      </c>
-      <c r="D155" t="s">
-        <v>578</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>290</v>
@@ -9613,7 +9613,7 @@
         <v>199</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="156" spans="1:17" customFormat="1" ht="51">
@@ -9622,14 +9622,14 @@
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -9652,7 +9652,7 @@
         <v>189</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="1:17" customFormat="1" ht="34">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="7" t="s">
@@ -9691,7 +9691,7 @@
         <v>189</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:17" customFormat="1" ht="34">
@@ -9703,7 +9703,7 @@
         <v>361</v>
       </c>
       <c r="D158" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>293</v>
@@ -9732,7 +9732,7 @@
         <v>189</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="1:17" customFormat="1" ht="34">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="7" t="s">
@@ -9819,10 +9819,10 @@
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -9845,7 +9845,7 @@
         <v>199</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:17" customFormat="1" ht="34">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="7" t="s">
@@ -9884,7 +9884,7 @@
         <v>189</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:17" customFormat="1" ht="51">
@@ -9892,16 +9892,16 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="F163" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="J163" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>813</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>219</v>
@@ -9916,7 +9916,7 @@
         <v>189</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="164" spans="1:17" customFormat="1" ht="85">
@@ -9924,16 +9924,16 @@
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="J164" s="7" t="s">
         <v>817</v>
-      </c>
-      <c r="J164" s="7" t="s">
-        <v>818</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>219</v>
@@ -9953,17 +9953,17 @@
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>819</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>820</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>378</v>
       </c>
       <c r="G165" s="14"/>
       <c r="J165" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>219</v>
@@ -9978,7 +9978,7 @@
         <v>199</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="166" spans="1:17" customFormat="1" ht="34">
@@ -9986,16 +9986,16 @@
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>378</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>219</v>
@@ -10010,7 +10010,7 @@
         <v>189</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="167" spans="1:17" customFormat="1" ht="51">
@@ -10018,16 +10018,16 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="F167" s="6" t="s">
+      <c r="J167" s="7" t="s">
         <v>825</v>
-      </c>
-      <c r="J167" s="7" t="s">
-        <v>826</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>219</v>
@@ -10042,7 +10042,7 @@
         <v>199</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="168" spans="1:17" customFormat="1" ht="34">
@@ -10050,16 +10050,16 @@
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="J168" s="7" t="s">
         <v>830</v>
-      </c>
-      <c r="J168" s="7" t="s">
-        <v>831</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>219</v>
@@ -10079,16 +10079,16 @@
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="F169" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="J169" s="7" t="s">
         <v>834</v>
-      </c>
-      <c r="J169" s="7" t="s">
-        <v>835</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>219</v>
@@ -10103,7 +10103,7 @@
         <v>199</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="170" spans="1:17" customFormat="1" ht="51">
@@ -10111,16 +10111,16 @@
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="F170" s="6" t="s">
-        <v>839</v>
-      </c>
       <c r="J170" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>219</v>
@@ -10140,16 +10140,16 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
+        <v>854</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>856</v>
       </c>
       <c r="G171" t="s">
         <v>182</v>
@@ -10176,7 +10176,7 @@
         <v>189</v>
       </c>
       <c r="Q171" s="12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="172" spans="1:17" customFormat="1" ht="51">
@@ -10184,16 +10184,16 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
+        <v>860</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="6" t="s">
         <v>862</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>863</v>
       </c>
       <c r="G172" t="s">
         <v>182</v>
@@ -10225,16 +10225,16 @@
         <v>1</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="6" t="s">
         <v>868</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>869</v>
       </c>
       <c r="G173" t="s">
         <v>182</v>
@@ -10266,16 +10266,16 @@
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J174" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>219</v>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17BC9D-4C9B-AE46-ACAB-788945FAA992}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="114_{8E7E3025-FC67-364F-9FAD-22F0803D4519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F9ED309-3534-B34C-95C0-A34337BED5D0}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="950">
   <si>
     <t>title</t>
   </si>
@@ -1503,9 +1503,6 @@
     <t>Chin, E.G., Buchanan, E.M., Ebesutani, C., Young, J.</t>
   </si>
   <si>
-    <t>003329411878350</t>
-  </si>
-  <si>
     <t>https://www.aggieerin.com/pubs/lindsay%20abct%2010.pptx</t>
   </si>
   <si>
@@ -1893,9 +1890,6 @@
     <t>https://www.aggieerin.com/pubs/rost%2012.pdf</t>
   </si>
   <si>
-    <t>Investigating the interaction between associative, semantic, and thematic database norms for memory judgments and retrieval</t>
-  </si>
-  <si>
     <t>https://osf.io/fcesn</t>
   </si>
   <si>
@@ -2112,9 +2106,6 @@
     <t>ymY9cBF3mdcC, H7nrzBkawXsC</t>
   </si>
   <si>
-    <t>1--24</t>
-  </si>
-  <si>
     <t>N4u4nq0IxgcC, xGWFX6Gbr9MC</t>
   </si>
   <si>
@@ -2637,9 +2628,6 @@
     <t>Buchanan, E.M., \&amp; Azevedo, F.</t>
   </si>
   <si>
-    <t>Workshop for the Soecity for the Improvement of Psychological Science (SIPS) 2019 Meeting</t>
-  </si>
-  <si>
     <t>https://osf.io/x53kn/</t>
   </si>
   <si>
@@ -2773,13 +2761,133 @@
   </si>
   <si>
     <t>https://www.aggieerin.com/pubs/ANLY 19.pptx</t>
+  </si>
+  <si>
+    <t>1878--1888</t>
+  </si>
+  <si>
+    <t>1849--1863</t>
+  </si>
+  <si>
+    <t>Investigating the interaction of direct and indirect relation on memory judgments and retrieval</t>
+  </si>
+  <si>
+    <t>10.1007/s10339-019-00935-w</t>
+  </si>
+  <si>
+    <t>Cognitive Processing</t>
+  </si>
+  <si>
+    <t>Anxiety, Stress, \&amp; Coping</t>
+  </si>
+  <si>
+    <t>Using collaborative networks to address the WEIRD problem in science: The Psychological Science Accelerator</t>
+  </si>
+  <si>
+    <t>Steltenpohl, C.N., Basnight-Brown, D.M., Chartier, C.R., Buchanan, E.M., Ellis, C., Bermann, K., &amp; Levitan, C.</t>
+  </si>
+  <si>
+    <t>Ignite poster session accepted to Midwest Eco at Lisle, IL.</t>
+  </si>
+  <si>
+    <t>2019, November</t>
+  </si>
+  <si>
+    <t>Automating the Linguistic Annotated Bibliography (LAB)</t>
+  </si>
+  <si>
+    <t>Cunningham, A., Chate, N. \&amp; Buchanan, E.M.</t>
+  </si>
+  <si>
+    <t>Spoken presentation for the Annual Meeting of the Society for Computers in Psychology, Montreal, Canada</t>
+  </si>
+  <si>
+    <t>Workshop for the Soceity for the Improvement of Psychological Science (SIPS) 2019 Meeting</t>
+  </si>
+  <si>
+    <t>Spoken presentation for the Annual Meeting of the Society for Computers in Psychology, New Orleans, LA</t>
+  </si>
+  <si>
+    <t>A  practical primer on processing semantic property norms</t>
+  </si>
+  <si>
+    <t>Spoken Presentation for the Annual Meeting of the Psychonomic Society, Montreal, Canada</t>
+  </si>
+  <si>
+    <t>Data dictionaries: Shareable datasets for all</t>
+  </si>
+  <si>
+    <t>Poster Presentation for the Annual Meeting of the Psychonomic Society, Montreal, Canada</t>
+  </si>
+  <si>
+    <t>1550--1575</t>
+  </si>
+  <si>
+    <t>358--364</t>
+  </si>
+  <si>
+    <t>121--144</t>
+  </si>
+  <si>
+    <t>10.1093/arclin/acz034.55</t>
+  </si>
+  <si>
+    <t>Memory Complaint Inventory cutoff scores: Differentiating genuine clinical presentation from insufficient effort</t>
+  </si>
+  <si>
+    <t>Poster presentation for the National Academy of Neuropsychology, San Diego, CA</t>
+  </si>
+  <si>
+    <t>kUhpeDhEZMUC</t>
+  </si>
+  <si>
+    <t>Development of the Impact of Event Scale-8 (IES-8): A study in serious mental illness</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/2pax7</t>
+  </si>
+  <si>
+    <t>lbI08cpqPnQC</t>
+  </si>
+  <si>
+    <t>https://osf.io/2pax7</t>
+  </si>
+  <si>
+    <t>I858iXPj1OkC</t>
+  </si>
+  <si>
+    <t>46227688, 62634527</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/ae3bs</t>
+  </si>
+  <si>
+    <t>https://osf.io/ae3bs</t>
+  </si>
+  <si>
+    <t>Wikowsky, A., \&amp; Buchanan, E.M.</t>
+  </si>
+  <si>
+    <t>Perceived Effect of the Gulf Oil Spill Measure</t>
+  </si>
+  <si>
+    <t>10.1037/t59265-000</t>
+  </si>
+  <si>
+    <t>Aiena, B. J., Buchanan, E.M., Smith, C.V., \&amp; Schulenberg, S.E.</t>
+  </si>
+  <si>
+    <t>PsycTESTS</t>
+  </si>
+  <si>
+    <t>Expertise within working memory and fluid intelligence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2934,6 +3042,30 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3279,7 +3411,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3311,9 +3443,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3332,6 +3461,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3688,16 +3823,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q180"/>
+  <dimension ref="A1:Q189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M181" sqref="M181"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" style="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -3717,7 +3852,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3770,8 +3905,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="34">
-      <c r="A2" s="18">
-        <v>1</v>
+      <c r="A2" s="17">
+        <v>1.5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>129</v>
@@ -3783,28 +3918,28 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>179</v>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>179</v>
+        <v>930</v>
       </c>
       <c r="J2" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>180</v>
@@ -3823,14 +3958,14 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="51">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>434</v>
@@ -3855,7 +3990,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="68">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3865,7 +4000,7 @@
         <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -3905,14 +4040,14 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="51">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>452</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>394</v>
@@ -3937,8 +4072,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="34">
-      <c r="A6" s="18">
-        <v>1</v>
+      <c r="A6" s="17">
+        <v>1.5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>284</v>
@@ -3950,28 +4085,28 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>23</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J6" s="1">
         <v>2019</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>180</v>
@@ -3990,14 +4125,14 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="51">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>392</v>
@@ -4022,14 +4157,14 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="34">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>447</v>
@@ -4054,8 +4189,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="34">
-      <c r="A9" s="18">
-        <v>1</v>
+      <c r="A9" s="17">
+        <v>1.5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -4067,7 +4202,7 @@
         <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>258</v>
@@ -4107,20 +4242,20 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D10" t="s">
+        <v>871</v>
+      </c>
+      <c r="E10" t="s">
+        <v>884</v>
+      </c>
+      <c r="F10" t="s">
         <v>875</v>
-      </c>
-      <c r="E10" t="s">
-        <v>888</v>
-      </c>
-      <c r="F10" t="s">
-        <v>879</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -4129,7 +4264,7 @@
         <v>2019</v>
       </c>
       <c r="K10" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L10">
         <v>59592572</v>
@@ -4146,22 +4281,22 @@
       <c r="P10" t="s">
         <v>186</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>887</v>
+      <c r="Q10" s="11" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="34">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>207</v>
@@ -4201,14 +4336,14 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="51">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>381</v>
@@ -4233,17 +4368,17 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D13" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -4253,7 +4388,7 @@
         <v>2019</v>
       </c>
       <c r="K13" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="L13">
         <v>59816012</v>
@@ -4270,19 +4405,19 @@
       <c r="P13" t="s">
         <v>186</v>
       </c>
-      <c r="Q13" s="12" t="s">
-        <v>890</v>
+      <c r="Q13" s="11" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>382</v>
@@ -4304,14 +4439,14 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="34">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>341</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>370</v>
@@ -4336,14 +4471,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="51">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>371</v>
@@ -4368,14 +4503,14 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="51">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>379</v>
@@ -4400,17 +4535,17 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D18" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E18" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -4420,7 +4555,7 @@
         <v>2019</v>
       </c>
       <c r="K18" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L18">
         <v>57710195</v>
@@ -4437,12 +4572,12 @@
       <c r="P18" t="s">
         <v>186</v>
       </c>
-      <c r="Q18" s="12" t="s">
-        <v>891</v>
+      <c r="Q18" s="11" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="34">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4489,7 +4624,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="34">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4527,7 +4662,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="51">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4537,13 +4672,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J21" s="1">
         <v>2018</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="L21" s="1">
         <v>46227693</v>
@@ -4565,14 +4700,14 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="34">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>219</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -4612,7 +4747,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="68">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4622,7 +4757,7 @@
         <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>224</v>
@@ -4662,7 +4797,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="34">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4672,7 +4807,7 @@
         <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>227</v>
@@ -4700,7 +4835,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="34">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4710,7 +4845,7 @@
         <v>462</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>230</v>
@@ -4738,7 +4873,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="34">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -4767,7 +4902,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="34">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -4799,7 +4934,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="34">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4831,7 +4966,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="34">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>1</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -4863,7 +4998,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="34">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -4892,8 +5027,8 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="34">
-      <c r="A31" s="18">
-        <v>1</v>
+      <c r="A31" s="17">
+        <v>1.5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>486</v>
@@ -4905,25 +5040,25 @@
         <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>693</v>
+      <c r="G31" s="1">
+        <v>46</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>931</v>
       </c>
       <c r="J31" s="1">
         <v>2019</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L31" s="1">
         <v>46227680</v>
@@ -4945,7 +5080,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="34">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4955,7 +5090,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -4995,7 +5130,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="34">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -5005,7 +5140,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="J33" s="1">
         <v>2017</v>
@@ -5033,7 +5168,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="34">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -5043,7 +5178,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>183</v>
@@ -5061,7 +5196,7 @@
         <v>2018</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L34" s="1">
         <v>46227685</v>
@@ -5083,7 +5218,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="34">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -5115,7 +5250,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="51">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>1</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -5144,7 +5279,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="34">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -5154,7 +5289,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>32</v>
@@ -5194,7 +5329,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="34">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -5226,7 +5361,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="34">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -5236,7 +5371,7 @@
         <v>475</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>427</v>
@@ -5261,14 +5396,14 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="51">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>1</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>483</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>388</v>
@@ -5290,25 +5425,25 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="85">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>1</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5327,7 +5462,7 @@
       <c r="Q41"/>
     </row>
     <row r="42" spans="1:17" ht="51">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -5342,17 +5477,17 @@
       <c r="F42" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>179</v>
+      <c r="G42">
+        <v>122</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>929</v>
       </c>
       <c r="J42" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>34</v>
@@ -5377,14 +5512,14 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="68">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>1</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>353</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>403</v>
@@ -5405,24 +5540,24 @@
         <v>196</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="51">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G44" s="1">
         <v>44</v>
@@ -5431,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J44" s="1">
         <v>2015</v>
@@ -5455,29 +5590,29 @@
         <v>196</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="34">
-      <c r="A45" s="18">
+      <c r="A45" s="17">
         <v>1</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="13"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -5494,29 +5629,29 @@
         <v>196</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="34">
-      <c r="A46" s="18">
+      <c r="A46" s="17">
         <v>1</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -5535,14 +5670,14 @@
       <c r="Q46"/>
     </row>
     <row r="47" spans="1:17" ht="51">
-      <c r="A47" s="18">
+      <c r="A47" s="17">
         <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>346</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>385</v>
@@ -5563,11 +5698,11 @@
         <v>196</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="51">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -5577,7 +5712,7 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>38</v>
@@ -5589,7 +5724,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J48" s="1">
         <v>2013</v>
@@ -5613,21 +5748,21 @@
         <v>196</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="34">
-      <c r="A49" s="18">
+      <c r="A49" s="17">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>179</v>
@@ -5656,22 +5791,22 @@
       <c r="P49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q49" s="12" t="s">
-        <v>570</v>
+      <c r="Q49" s="11" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="34">
-      <c r="A50" s="18">
+      <c r="A50" s="17">
         <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>376</v>
@@ -5692,18 +5827,18 @@
         <v>196</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="51">
-      <c r="A51" s="18">
+      <c r="A51" s="17">
         <v>1</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>345</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>384</v>
@@ -5725,17 +5860,17 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="51">
-      <c r="A52" s="18">
+      <c r="A52" s="17">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>114</v>
@@ -5747,7 +5882,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J52" s="1">
         <v>2017</v>
@@ -5771,18 +5906,18 @@
         <v>196</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="51">
-      <c r="A53" s="18">
+      <c r="A53" s="17">
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>443</v>
@@ -5803,12 +5938,12 @@
         <v>186</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="51">
-      <c r="A54" s="18">
-        <v>1</v>
+      <c r="A54" s="17">
+        <v>1.5</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>47</v>
@@ -5820,19 +5955,19 @@
         <v>146</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <v>45</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="15">
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J54" s="1">
         <v>2018</v>
@@ -5860,17 +5995,17 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="34">
-      <c r="A55" s="18">
+      <c r="A55" s="17">
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>377</v>
@@ -5894,36 +6029,36 @@
         <v>196</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="34">
-      <c r="A56" s="18">
-        <v>1</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>595</v>
+      <c r="A56" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>594</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>179</v>
+      <c r="G56" s="1">
+        <v>51</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>276</v>
+        <v>911</v>
       </c>
       <c r="J56" s="1">
         <v>2019</v>
@@ -5932,7 +6067,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>180</v>
@@ -5947,18 +6082,18 @@
         <v>186</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="51">
-      <c r="A57" s="18">
+      <c r="A57" s="17">
         <v>1</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>428</v>
@@ -5979,11 +6114,11 @@
         <v>196</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="34">
-      <c r="A58" s="18">
+      <c r="A58" s="17">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -5993,7 +6128,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>121</v>
@@ -6014,7 +6149,7 @@
         <v>51</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>180</v>
@@ -6033,36 +6168,36 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="17">
-      <c r="A59" s="19">
+      <c r="A59" s="18">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C59" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F59" t="s">
-        <v>690</v>
-      </c>
-      <c r="G59" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>179</v>
       </c>
       <c r="H59" t="s">
         <v>179</v>
       </c>
       <c r="I59" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J59">
         <v>2019</v>
       </c>
       <c r="K59" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L59">
         <v>52942378</v>
@@ -6080,11 +6215,11 @@
         <v>196</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="34">
-      <c r="A60" s="18">
+      <c r="A60" s="17">
         <v>1</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -6112,11 +6247,11 @@
         <v>196</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="34">
-      <c r="A61" s="18">
+      <c r="A61" s="17">
         <v>1</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -6144,18 +6279,18 @@
         <v>196</v>
       </c>
       <c r="Q61" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="51">
+      <c r="A62" s="17">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="51">
-      <c r="A62" s="18">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>508</v>
-      </c>
       <c r="E62" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>400</v>
@@ -6176,18 +6311,18 @@
         <v>196</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="51">
-      <c r="A63" s="18">
+      <c r="A63" s="17">
         <v>1</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>352</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>401</v>
@@ -6208,11 +6343,11 @@
         <v>196</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="51">
-      <c r="A64" s="18">
+      <c r="A64" s="17">
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -6222,10 +6357,10 @@
         <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G64" s="1">
         <v>22</v>
@@ -6234,7 +6369,7 @@
         <v>179</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J64" s="1">
         <v>2016</v>
@@ -6258,11 +6393,11 @@
         <v>196</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="34">
-      <c r="A65" s="18">
+      <c r="A65" s="17">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -6272,7 +6407,7 @@
         <v>55</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>56</v>
@@ -6290,10 +6425,10 @@
         <v>2014</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>180</v>
@@ -6308,18 +6443,18 @@
         <v>196</v>
       </c>
       <c r="Q65" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="51">
+      <c r="A66" s="17">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="51">
-      <c r="A66" s="18">
-        <v>1</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>600</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>435</v>
@@ -6340,15 +6475,15 @@
         <v>186</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="34">
-      <c r="A67" s="18">
+      <c r="A67" s="17">
         <v>1</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>291</v>
@@ -6373,17 +6508,17 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="34">
-      <c r="A68" s="18">
+      <c r="A68" s="17">
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>287</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>334</v>
@@ -6401,15 +6536,15 @@
         <v>186</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="34">
-      <c r="A69" s="18">
+      <c r="A69" s="17">
         <v>1</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>287</v>
@@ -6434,14 +6569,14 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="34">
-      <c r="A70" s="18">
+      <c r="A70" s="17">
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>287</v>
@@ -6468,15 +6603,15 @@
         <v>186</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="34">
-      <c r="A71" s="18">
+      <c r="A71" s="17">
         <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>287</v>
@@ -6500,15 +6635,15 @@
         <v>186</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="34">
-      <c r="A72" s="18">
+      <c r="A72" s="17">
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>287</v>
@@ -6532,18 +6667,18 @@
         <v>186</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="34">
-      <c r="A73" s="18">
+      <c r="A73" s="17">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>287</v>
@@ -6570,18 +6705,18 @@
         <v>186</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="51">
-      <c r="A74" s="18">
+      <c r="A74" s="17">
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>357</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>407</v>
@@ -6602,26 +6737,34 @@
         <v>196</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="19">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17">
+      <c r="A75" s="18">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D75" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E75" t="s">
-        <v>896</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
+        <v>892</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G75" t="s">
+        <v>179</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="J75">
         <v>2019</v>
       </c>
@@ -6633,7 +6776,7 @@
         <v>180</v>
       </c>
       <c r="N75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O75" t="s">
         <v>195</v>
@@ -6641,22 +6784,22 @@
       <c r="P75" t="s">
         <v>196</v>
       </c>
-      <c r="Q75" s="12" t="s">
-        <v>897</v>
+      <c r="Q75" s="11" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34">
-      <c r="A76" s="18">
+      <c r="A76" s="17">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>20</v>
@@ -6668,7 +6811,7 @@
         <v>179</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J76" s="1">
         <v>2018</v>
@@ -6692,11 +6835,11 @@
         <v>186</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="51">
-      <c r="A77" s="18">
+      <c r="A77" s="17">
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -6706,10 +6849,10 @@
         <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G77" s="1">
         <v>118</v>
@@ -6718,7 +6861,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J77" s="1">
         <v>2014</v>
@@ -6742,29 +6885,29 @@
         <v>196</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="51">
-      <c r="A78" s="18">
+      <c r="A78" s="17">
         <v>1</v>
       </c>
       <c r="B78"/>
       <c r="C78" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -6781,21 +6924,21 @@
         <v>196</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="19">
+      <c r="A79" s="18">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D79" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E79" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
@@ -6805,7 +6948,7 @@
         <v>2019</v>
       </c>
       <c r="K79" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="L79">
         <v>57614693</v>
@@ -6822,12 +6965,12 @@
       <c r="P79" t="s">
         <v>196</v>
       </c>
-      <c r="Q79" s="12" t="s">
-        <v>900</v>
+      <c r="Q79" s="11" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="34">
-      <c r="A80" s="18">
+      <c r="A80" s="17">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -6837,13 +6980,13 @@
         <v>63</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J80" s="1">
         <v>2018</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L80" s="1">
         <v>46227698</v>
@@ -6861,27 +7004,27 @@
         <v>196</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17">
-      <c r="A81" s="19">
-        <v>1</v>
+      <c r="A81" s="18">
+        <v>1.5</v>
       </c>
       <c r="B81" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C81" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D81" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F81" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -6890,13 +7033,13 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J81">
         <v>2018</v>
       </c>
       <c r="K81" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L81">
         <v>46975449</v>
@@ -6914,27 +7057,27 @@
         <v>186</v>
       </c>
       <c r="Q81" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="51">
-      <c r="A82" s="18">
-        <v>1</v>
+      <c r="A82" s="17">
+        <v>1.5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>179</v>
@@ -6967,11 +7110,11 @@
         <v>186</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="34">
-      <c r="A83" s="18">
+      <c r="A83" s="17">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -6981,13 +7124,13 @@
         <v>95</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J83" s="1">
         <v>2018</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L83" s="1">
         <v>46227701</v>
@@ -7009,17 +7152,17 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="51">
-      <c r="A84" s="18">
+      <c r="A84" s="17">
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>66</v>
@@ -7031,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J84" s="1">
         <v>2012</v>
@@ -7040,7 +7183,7 @@
         <v>67</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>180</v>
@@ -7055,18 +7198,18 @@
         <v>196</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51">
-      <c r="A85" s="18">
+      <c r="A85" s="17">
         <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>369</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>450</v>
@@ -7087,18 +7230,18 @@
         <v>186</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="34">
-      <c r="A86" s="18">
+      <c r="A86" s="17">
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>398</v>
@@ -7119,18 +7262,18 @@
         <v>196</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="34">
-      <c r="A87" s="18">
+      <c r="A87" s="17">
         <v>1</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>351</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>399</v>
@@ -7151,36 +7294,51 @@
         <v>196</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="51">
-      <c r="A88" s="18">
-        <v>1</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="34">
+      <c r="A88" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>913</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>620</v>
+        <v>912</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="J88" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L88" s="1">
-        <v>46227688</v>
+        <v>681</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>195</v>
@@ -7189,24 +7347,24 @@
         <v>186</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="34">
-      <c r="A89" s="18">
+      <c r="A89" s="17">
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>303</v>
@@ -7227,11 +7385,11 @@
         <v>186</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="34">
-      <c r="A90" s="18">
+      <c r="A90" s="17">
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -7241,7 +7399,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>70</v>
@@ -7281,7 +7439,7 @@
       </c>
     </row>
     <row r="91" spans="1:17" ht="34">
-      <c r="A91" s="18">
+      <c r="A91" s="17">
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -7291,7 +7449,7 @@
         <v>249</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>73</v>
@@ -7331,20 +7489,20 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="34">
-      <c r="A92" s="18">
-        <v>1</v>
+      <c r="A92" s="17">
+        <v>1.5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>76</v>
@@ -7356,13 +7514,13 @@
         <v>3</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J92" s="1">
         <v>2018</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L92">
         <v>57294614</v>
@@ -7380,11 +7538,11 @@
         <v>196</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="34">
-      <c r="A93" s="18">
+      <c r="A93" s="17">
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -7394,7 +7552,7 @@
         <v>364</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>431</v>
@@ -7418,12 +7576,12 @@
         <v>186</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="34">
-      <c r="A94" s="18">
-        <v>1</v>
+      <c r="A94" s="17">
+        <v>1.5</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>275</v>
@@ -7435,25 +7593,25 @@
         <v>113</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>179</v>
+      <c r="G94" s="1">
+        <v>51</v>
+      </c>
+      <c r="H94" s="1">
+        <v>4</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>276</v>
+        <v>910</v>
       </c>
       <c r="J94" s="1">
         <v>2019</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L94" s="1">
         <v>46227696</v>
@@ -7475,17 +7633,17 @@
       </c>
     </row>
     <row r="95" spans="1:17" ht="34">
-      <c r="A95" s="18">
+      <c r="A95" s="17">
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J95" s="1">
         <v>2019</v>
@@ -7506,21 +7664,21 @@
         <v>186</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="34">
-      <c r="A96" s="18">
+      <c r="A96" s="17">
         <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D96" t="s">
         <v>144</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>439</v>
@@ -7529,7 +7687,7 @@
         <v>305</v>
       </c>
       <c r="K96" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L96">
         <v>46227690</v>
@@ -7547,18 +7705,18 @@
         <v>186</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="51">
-      <c r="A97" s="18">
+      <c r="A97" s="17">
         <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>365</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>436</v>
@@ -7579,11 +7737,11 @@
         <v>186</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="34">
-      <c r="A98" s="18">
+      <c r="A98" s="17">
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -7593,7 +7751,7 @@
         <v>130</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J98" s="1">
         <v>2017</v>
@@ -7617,18 +7775,18 @@
         <v>186</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="51">
-      <c r="A99" s="18">
+      <c r="A99" s="17">
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>387</v>
@@ -7649,11 +7807,11 @@
         <v>186</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="34">
-      <c r="A100" s="18">
+      <c r="A100" s="17">
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -7663,7 +7821,7 @@
         <v>79</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>258</v>
@@ -7703,14 +7861,14 @@
       </c>
     </row>
     <row r="101" spans="1:17" ht="34">
-      <c r="A101" s="18">
+      <c r="A101" s="17">
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>442</v>
@@ -7731,11 +7889,11 @@
         <v>186</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="34">
-      <c r="A102" s="18">
+      <c r="A102" s="17">
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -7764,14 +7922,14 @@
       </c>
     </row>
     <row r="103" spans="1:17" ht="34">
-      <c r="A103" s="18">
+      <c r="A103" s="17">
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>367</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>440</v>
@@ -7792,27 +7950,27 @@
         <v>186</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="34">
-      <c r="A104" s="18">
+      <c r="A104" s="17">
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="J104" s="1">
         <v>2018</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L104" s="1">
         <v>46227700</v>
@@ -7830,18 +7988,18 @@
         <v>186</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="34">
-      <c r="A105" s="18">
+      <c r="A105" s="17">
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>441</v>
@@ -7862,11 +8020,11 @@
         <v>186</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="51">
-      <c r="A106" s="18">
+      <c r="A106" s="17">
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -7876,7 +8034,7 @@
         <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>114</v>
@@ -7888,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J106" s="1">
         <v>2016</v>
@@ -7912,18 +8070,18 @@
         <v>196</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="51">
-      <c r="A107" s="18">
+      <c r="A107" s="17">
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>355</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>405</v>
@@ -7944,18 +8102,18 @@
         <v>196</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="51">
-      <c r="A108" s="18">
+      <c r="A108" s="17">
         <v>1</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>356</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>406</v>
@@ -7976,18 +8134,18 @@
         <v>196</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="34">
-      <c r="A109" s="18">
+      <c r="A109" s="17">
         <v>1</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>342</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>375</v>
@@ -8008,21 +8166,21 @@
         <v>196</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="34">
-      <c r="A110" s="18">
+      <c r="A110" s="17">
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E110" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>85</v>
@@ -8034,7 +8192,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J110" s="1">
         <v>2015</v>
@@ -8043,7 +8201,7 @@
         <v>86</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>180</v>
@@ -8058,11 +8216,11 @@
         <v>196</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="51">
-      <c r="A111" s="18">
+      <c r="A111" s="17">
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -8072,7 +8230,7 @@
         <v>87</v>
       </c>
       <c r="E111" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>88</v>
@@ -8084,7 +8242,7 @@
         <v>3</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J111" s="1">
         <v>2014</v>
@@ -8108,23 +8266,23 @@
         <v>196</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="34">
-      <c r="A112" s="18">
+      <c r="A112" s="17">
         <v>1</v>
       </c>
       <c r="B112"/>
       <c r="C112" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -8135,7 +8293,7 @@
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>200</v>
@@ -8146,22 +8304,22 @@
       <c r="P112" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q112" s="12" t="s">
-        <v>838</v>
+      <c r="Q112" s="11" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="34">
-      <c r="A113" s="19">
+      <c r="A113" s="18">
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D113" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -8170,7 +8328,7 @@
         <v>2019</v>
       </c>
       <c r="K113" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="L113">
         <v>52212308</v>
@@ -8187,16 +8345,16 @@
       <c r="P113" t="s">
         <v>196</v>
       </c>
-      <c r="Q113" s="12" t="s">
-        <v>681</v>
+      <c r="Q113" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="34">
-      <c r="A114" s="18">
+      <c r="A114" s="17">
         <v>1</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>287</v>
@@ -8221,14 +8379,14 @@
       </c>
     </row>
     <row r="115" spans="1:17" ht="51">
-      <c r="A115" s="18">
+      <c r="A115" s="17">
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>363</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>429</v>
@@ -8249,12 +8407,12 @@
         <v>186</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="34">
-      <c r="A116" s="18">
-        <v>1</v>
+      <c r="A116" s="17">
+        <v>1.5</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>92</v>
@@ -8266,7 +8424,7 @@
         <v>138</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>121</v>
@@ -8278,7 +8436,7 @@
         <v>6</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J116" s="1">
         <v>2018</v>
@@ -8287,7 +8445,7 @@
         <v>91</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>180</v>
@@ -8302,11 +8460,11 @@
         <v>196</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="34">
-      <c r="A117" s="18">
+      <c r="A117" s="17">
         <v>1</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -8316,7 +8474,7 @@
         <v>287</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>331</v>
@@ -8335,17 +8493,17 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="51">
-      <c r="A118" s="18">
+      <c r="A118" s="17">
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J118" s="1">
         <v>2018</v>
@@ -8369,25 +8527,25 @@
         <v>186</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="51">
-      <c r="A119" s="18">
+      <c r="A119" s="17">
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G119" t="s">
         <v>179</v>
@@ -8401,7 +8559,9 @@
       <c r="J119">
         <v>2019</v>
       </c>
-      <c r="K119"/>
+      <c r="K119" t="s">
+        <v>940</v>
+      </c>
       <c r="L119"/>
       <c r="M119" s="1" t="s">
         <v>180</v>
@@ -8416,20 +8576,20 @@
         <v>196</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="34">
-      <c r="A120" s="18">
+      <c r="A120" s="17">
         <v>1</v>
       </c>
       <c r="B120"/>
       <c r="C120" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>375</v>
@@ -8438,7 +8598,7 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -8455,23 +8615,23 @@
         <v>186</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="34">
-      <c r="A121" s="18">
+      <c r="A121" s="17">
         <v>1</v>
       </c>
       <c r="B121"/>
       <c r="C121" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -8482,7 +8642,7 @@
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>200</v>
@@ -8494,29 +8654,29 @@
         <v>196</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="51">
-      <c r="A122" s="18">
+      <c r="A122" s="17">
         <v>1</v>
       </c>
       <c r="B122"/>
       <c r="C122" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -8533,11 +8693,11 @@
         <v>186</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
-      <c r="A123" s="18">
+      <c r="A123" s="17">
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -8547,7 +8707,7 @@
         <v>96</v>
       </c>
       <c r="E123" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>97</v>
@@ -8559,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J123" s="1">
         <v>2011</v>
@@ -8568,7 +8728,7 @@
         <v>98</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>180</v>
@@ -8583,15 +8743,15 @@
         <v>196</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="51">
-      <c r="A124" s="18">
+      <c r="A124" s="17">
         <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>288</v>
@@ -8616,14 +8776,14 @@
       </c>
     </row>
     <row r="125" spans="1:17" ht="34">
-      <c r="A125" s="18">
+      <c r="A125" s="17">
         <v>1</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>343</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>378</v>
@@ -8644,18 +8804,18 @@
         <v>196</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="34">
-      <c r="A126" s="18">
+      <c r="A126" s="17">
         <v>1</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>446</v>
@@ -8676,27 +8836,27 @@
         <v>186</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="34">
-      <c r="A127" s="18">
+      <c r="A127" s="17">
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E127" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J127" s="1">
         <v>2017</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="L127" s="1">
         <v>46227678</v>
@@ -8714,11 +8874,11 @@
         <v>196</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34">
-      <c r="A128" s="18">
+      <c r="A128" s="17">
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -8728,7 +8888,7 @@
         <v>134</v>
       </c>
       <c r="E128" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J128" s="1">
         <v>2018</v>
@@ -8749,18 +8909,18 @@
         <v>196</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="34">
-      <c r="A129" s="18">
+      <c r="A129" s="17">
         <v>1</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>432</v>
@@ -8781,18 +8941,18 @@
         <v>186</v>
       </c>
       <c r="Q129" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="34">
+      <c r="A130" s="17">
+        <v>1</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" ht="34">
-      <c r="A130" s="18">
-        <v>1</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>552</v>
-      </c>
       <c r="E130" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>433</v>
@@ -8813,11 +8973,11 @@
         <v>186</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34">
-      <c r="A131" s="18">
+      <c r="A131" s="17">
         <v>1</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -8827,7 +8987,7 @@
         <v>366</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>437</v>
@@ -8851,18 +9011,18 @@
         <v>186</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="51">
-      <c r="A132" s="18">
+      <c r="A132" s="17">
         <v>1</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>350</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>393</v>
@@ -8884,17 +9044,17 @@
       </c>
     </row>
     <row r="133" spans="1:17" ht="34">
-      <c r="A133" s="18">
+      <c r="A133" s="17">
         <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>85</v>
@@ -8906,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J133" s="1">
         <v>2017</v>
@@ -8930,15 +9090,15 @@
         <v>196</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34">
-      <c r="A134" s="18">
+      <c r="A134" s="17">
         <v>1</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>287</v>
@@ -8962,11 +9122,11 @@
         <v>186</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="51">
-      <c r="A135" s="18">
+      <c r="A135" s="17">
         <v>1</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -8976,7 +9136,7 @@
         <v>131</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>102</v>
@@ -8988,7 +9148,7 @@
         <v>179</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J135" s="1">
         <v>2018</v>
@@ -9012,21 +9172,21 @@
         <v>196</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="34">
-      <c r="A136" s="18">
+      <c r="A136" s="17">
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>395</v>
@@ -9051,17 +9211,17 @@
       </c>
     </row>
     <row r="137" spans="1:17" ht="34">
-      <c r="A137" s="18">
+      <c r="A137" s="17">
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>396</v>
@@ -9085,21 +9245,21 @@
         <v>196</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="34">
-      <c r="A138" s="18">
+      <c r="A138" s="17">
         <v>1</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>430</v>
@@ -9123,11 +9283,11 @@
         <v>186</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139" spans="1:17" customFormat="1" ht="51">
-      <c r="A139" s="18">
+      <c r="A139" s="17">
         <v>1</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -9138,7 +9298,7 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>280</v>
@@ -9159,7 +9319,7 @@
         <v>105</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>180</v>
@@ -9178,16 +9338,16 @@
       </c>
     </row>
     <row r="140" spans="1:17" customFormat="1" ht="34">
-      <c r="A140" s="18">
+      <c r="A140" s="17">
         <v>1</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>408</v>
@@ -9215,16 +9375,16 @@
       <c r="Q140" s="1"/>
     </row>
     <row r="141" spans="1:17" customFormat="1" ht="51">
-      <c r="A141" s="18">
+      <c r="A141" s="17">
         <v>1</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>402</v>
@@ -9250,24 +9410,24 @@
         <v>196</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:17" customFormat="1" ht="51">
-      <c r="A142" s="18">
+      <c r="A142" s="17">
         <v>1</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G142">
         <v>81</v>
@@ -9276,13 +9436,13 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="J142" s="7">
         <v>2019</v>
       </c>
       <c r="K142" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="L142">
         <v>57294563</v>
@@ -9300,11 +9460,11 @@
         <v>196</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="143" spans="1:17" customFormat="1" ht="102">
-      <c r="A143" s="18">
+      <c r="A143" s="17">
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -9315,7 +9475,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>386</v>
@@ -9345,16 +9505,16 @@
       <c r="Q143" s="1"/>
     </row>
     <row r="144" spans="1:17" customFormat="1" ht="51">
-      <c r="A144" s="18">
+      <c r="A144" s="17">
         <v>1</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>404</v>
@@ -9380,16 +9540,16 @@
         <v>196</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="1:17" customFormat="1" ht="34">
-      <c r="A145" s="18">
+      <c r="A145" s="17">
         <v>1</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="7" t="s">
@@ -9419,20 +9579,20 @@
         <v>196</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:17" customFormat="1" ht="34">
-      <c r="A146" s="18">
+      <c r="A146" s="17">
         <v>1</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>375</v>
@@ -9458,12 +9618,12 @@
         <v>186</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" spans="1:17" customFormat="1" ht="34">
-      <c r="A147" s="18">
-        <v>1</v>
+      <c r="A147" s="17">
+        <v>1.5</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>109</v>
@@ -9475,25 +9635,25 @@
         <v>279</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G147" s="16">
+      <c r="G147" s="15">
         <v>87</v>
       </c>
-      <c r="H147" s="16">
+      <c r="H147" s="15">
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J147" s="1">
         <v>2019</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L147" s="1">
         <v>44621959</v>
@@ -9515,20 +9675,20 @@
       </c>
     </row>
     <row r="148" spans="1:17" customFormat="1" ht="51">
-      <c r="A148" s="18">
+      <c r="A148" s="17">
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>216</v>
@@ -9544,16 +9704,16 @@
       </c>
     </row>
     <row r="149" spans="1:17" customFormat="1" ht="51">
-      <c r="A149" s="18">
+      <c r="A149" s="17">
         <v>1</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>397</v>
@@ -9579,20 +9739,20 @@
         <v>196</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150" spans="1:17" customFormat="1" ht="34">
-      <c r="A150" s="18">
+      <c r="A150" s="17">
         <v>1</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>383</v>
@@ -9618,11 +9778,11 @@
         <v>196</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:17" customFormat="1" ht="34">
-      <c r="A151" s="18">
+      <c r="A151" s="17">
         <v>1</v>
       </c>
       <c r="B151" s="1"/>
@@ -9631,7 +9791,7 @@
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>20</v>
@@ -9649,7 +9809,7 @@
         <v>2016</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L151" s="1">
         <v>30745623</v>
@@ -9671,7 +9831,7 @@
       </c>
     </row>
     <row r="152" spans="1:17" customFormat="1" ht="34">
-      <c r="A152" s="18">
+      <c r="A152" s="17">
         <v>1</v>
       </c>
       <c r="B152" s="1"/>
@@ -9680,7 +9840,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="8" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>239</v>
@@ -9720,16 +9880,16 @@
       </c>
     </row>
     <row r="153" spans="1:17" customFormat="1" ht="51">
-      <c r="A153" s="18">
+      <c r="A153" s="17">
         <v>1</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>444</v>
@@ -9757,16 +9917,16 @@
       <c r="Q153" s="1"/>
     </row>
     <row r="154" spans="1:17" customFormat="1" ht="34">
-      <c r="A154" s="18">
+      <c r="A154" s="17">
         <v>1</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>445</v>
@@ -9792,22 +9952,22 @@
         <v>186</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="155" spans="1:17" customFormat="1" ht="34">
-      <c r="A155" s="18">
+      <c r="A155" s="17">
         <v>1</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -9817,7 +9977,7 @@
         <v>2018</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="L155" s="1">
         <v>46227699</v>
@@ -9835,11 +9995,11 @@
         <v>186</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:17" customFormat="1" ht="34">
-      <c r="A156" s="18">
+      <c r="A156" s="17">
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -9850,7 +10010,7 @@
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>380</v>
@@ -9880,7 +10040,7 @@
       <c r="Q156" s="1"/>
     </row>
     <row r="157" spans="1:17" ht="51">
-      <c r="A157" s="18">
+      <c r="A157" s="17">
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -9911,7 +10071,7 @@
         <v>115</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>180</v>
@@ -9930,14 +10090,14 @@
       </c>
     </row>
     <row r="158" spans="1:17" ht="68">
-      <c r="A158" s="18">
+      <c r="A158" s="17">
         <v>1</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>403</v>
@@ -9958,11 +10118,11 @@
         <v>196</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="34">
-      <c r="A159" s="18">
+      <c r="A159" s="17">
         <v>1</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -9972,7 +10132,7 @@
         <v>287</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J159" s="7" t="s">
         <v>333</v>
@@ -9990,11 +10150,11 @@
         <v>196</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="34">
-      <c r="A160" s="18">
+      <c r="A160" s="17">
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -10010,7 +10170,7 @@
         <v>2018</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="L160" s="1">
         <v>46227697</v>
@@ -10032,20 +10192,20 @@
       </c>
     </row>
     <row r="161" spans="1:17" ht="34">
-      <c r="A161" s="18">
+      <c r="A161" s="17">
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J161" s="7" t="s">
         <v>293</v>
@@ -10066,11 +10226,11 @@
         <v>196</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="34">
-      <c r="A162" s="18">
+      <c r="A162" s="17">
         <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -10080,7 +10240,7 @@
         <v>117</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>88</v>
@@ -10101,7 +10261,7 @@
         <v>118</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>180</v>
@@ -10120,7 +10280,7 @@
       </c>
     </row>
     <row r="163" spans="1:17" ht="51">
-      <c r="A163" s="18">
+      <c r="A163" s="17">
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -10130,13 +10290,13 @@
         <v>119</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J163" s="1">
         <v>2018</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L163" s="1">
         <v>46227703</v>
@@ -10158,7 +10318,7 @@
       </c>
     </row>
     <row r="164" spans="1:17" ht="51">
-      <c r="A164" s="18">
+      <c r="A164" s="17">
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -10168,7 +10328,7 @@
         <v>120</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>121</v>
@@ -10189,7 +10349,7 @@
         <v>122</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>180</v>
@@ -10208,14 +10368,14 @@
       </c>
     </row>
     <row r="165" spans="1:17" ht="34">
-      <c r="A165" s="18">
+      <c r="A165" s="17">
         <v>1</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>438</v>
@@ -10236,18 +10396,18 @@
         <v>186</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="34">
-      <c r="A166" s="18">
+      <c r="A166" s="17">
         <v>1</v>
       </c>
       <c r="C166" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D166" t="s">
         <v>573</v>
-      </c>
-      <c r="D166" t="s">
-        <v>574</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>287</v>
@@ -10271,29 +10431,29 @@
         <v>196</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="51">
-      <c r="A167" s="18">
+      <c r="A167" s="17">
         <v>1</v>
       </c>
       <c r="B167"/>
       <c r="C167" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
       <c r="I167"/>
       <c r="J167" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K167"/>
       <c r="L167"/>
@@ -10310,29 +10470,29 @@
         <v>196</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="34">
-      <c r="A168" s="18">
+      <c r="A168" s="17">
         <v>1</v>
       </c>
       <c r="B168"/>
       <c r="C168" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
       <c r="J168" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="K168"/>
       <c r="L168"/>
@@ -10349,18 +10509,18 @@
         <v>196</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="51">
-      <c r="A169" s="18">
+      <c r="A169" s="17">
         <v>1</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>433</v>
@@ -10381,15 +10541,15 @@
         <v>186</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="34">
-      <c r="A170" s="18">
+      <c r="A170" s="17">
         <v>1</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>287</v>
@@ -10413,18 +10573,18 @@
         <v>186</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="34">
-      <c r="A171" s="18">
+      <c r="A171" s="17">
         <v>1</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>358</v>
       </c>
       <c r="D171" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>290</v>
@@ -10448,11 +10608,11 @@
         <v>186</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="34">
-      <c r="A172" s="18">
+      <c r="A172" s="17">
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -10462,7 +10622,7 @@
         <v>125</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>124</v>
@@ -10502,21 +10662,21 @@
       </c>
     </row>
     <row r="173" spans="1:17" ht="34">
-      <c r="A173" s="18">
+      <c r="A173" s="17">
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G173" t="s">
         <v>179</v>
@@ -10544,16 +10704,16 @@
       <c r="P173" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q173" s="12" t="s">
-        <v>845</v>
+      <c r="Q173" s="11" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="34">
-      <c r="A174" s="18">
+      <c r="A174" s="17">
         <v>1</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>287</v>
@@ -10578,7 +10738,7 @@
       </c>
     </row>
     <row r="175" spans="1:17" ht="34">
-      <c r="A175" s="18">
+      <c r="A175" s="17">
         <v>1</v>
       </c>
       <c r="C175" s="6" t="s">
@@ -10607,7 +10767,7 @@
       </c>
     </row>
     <row r="176" spans="1:17" ht="34">
-      <c r="A176" s="18">
+      <c r="A176" s="17">
         <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -10617,7 +10777,7 @@
         <v>126</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
@@ -10657,14 +10817,14 @@
       </c>
     </row>
     <row r="177" spans="1:17" ht="34">
-      <c r="A177" s="18">
+      <c r="A177" s="17">
         <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>448</v>
@@ -10689,7 +10849,7 @@
       </c>
     </row>
     <row r="178" spans="1:17" ht="34">
-      <c r="A178" s="18">
+      <c r="A178" s="17">
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -10721,17 +10881,17 @@
       </c>
     </row>
     <row r="179" spans="1:17" ht="34">
-      <c r="A179" s="18">
+      <c r="A179" s="17">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D179" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F179"/>
       <c r="G179"/>
@@ -10741,7 +10901,7 @@
         <v>2019</v>
       </c>
       <c r="K179" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L179">
         <v>53070092</v>
@@ -10758,48 +10918,357 @@
       <c r="P179" t="s">
         <v>186</v>
       </c>
-      <c r="Q179" s="12" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" ht="34">
-      <c r="A180" s="18">
-        <v>1</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>866</v>
+      <c r="Q179" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="51">
+      <c r="A180" s="17">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>671</v>
+      </c>
+      <c r="D180" t="s">
+        <v>669</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>824</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180">
+        <v>2019</v>
+      </c>
+      <c r="K180"/>
+      <c r="L180"/>
       <c r="M180" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="N180" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O180" s="1" t="s">
+      <c r="N180" t="s">
+        <v>200</v>
+      </c>
+      <c r="O180" t="s">
+        <v>195</v>
+      </c>
+      <c r="P180" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q180" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="34">
+      <c r="A181" s="17">
+        <v>1</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O181" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P180" s="1" t="s">
+      <c r="P181" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q180" s="2" t="s">
-        <v>869</v>
+      <c r="Q181" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="51">
+      <c r="A182" s="17">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="51">
+      <c r="A183" s="17">
+        <v>1</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="34">
+      <c r="A184" s="17">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="34">
+      <c r="A185" s="17">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="51">
+      <c r="A186" s="17">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D186" t="s">
+        <v>667</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="K186" t="s">
+        <v>935</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q186" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="34">
+      <c r="A187" s="17">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="J187" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="L187">
+        <v>61451311</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="36">
+      <c r="A188" s="17">
+        <v>1</v>
+      </c>
+      <c r="B188" s="19"/>
+      <c r="C188" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J188" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L188">
+        <v>61994708</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q188" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="34">
+      <c r="A189" s="17">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="J189" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L189">
+        <v>46227876</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q189" s="2" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q180">
-    <sortCondition ref="C2:C180"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q181">
+    <sortCondition ref="C2:C181"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="Q172" r:id="rId1" display="https://scholar.utc.edu/mps/vol23/iss2/2/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10914,7 +11383,7 @@
     <hyperlink ref="Q127" r:id="rId110" xr:uid="{3C9F6339-86E5-1E42-8AC1-E3AFE4506773}"/>
     <hyperlink ref="Q128" r:id="rId111" xr:uid="{0AF73A99-F03F-CA42-B0E0-5D1B5C41F133}"/>
     <hyperlink ref="Q133" r:id="rId112" xr:uid="{E08FB853-7081-2A4C-B606-6E031C7423BB}"/>
-    <hyperlink ref="Q179" r:id="rId113" xr:uid="{14CFFB1C-FCBC-6B4A-82E6-0193947BBD5D}"/>
+    <hyperlink ref="Q180" r:id="rId113" xr:uid="{14CFFB1C-FCBC-6B4A-82E6-0193947BBD5D}"/>
     <hyperlink ref="Q113" r:id="rId114" xr:uid="{4C5912D0-5972-7C4F-973E-8B0E87926534}"/>
     <hyperlink ref="Q122" r:id="rId115" xr:uid="{B10ED486-0ADE-AE45-920D-FAC73C4AA860}"/>
     <hyperlink ref="Q78" r:id="rId116" xr:uid="{CB8136AE-839D-214E-81C9-21399BA363BB}"/>
@@ -10924,7 +11393,7 @@
     <hyperlink ref="Q120" r:id="rId120" xr:uid="{E35C24D6-FEF3-DD47-B648-38ABE30A2C7C}"/>
     <hyperlink ref="Q45" r:id="rId121" xr:uid="{E710289F-EDC4-7E4F-9815-FA960D1815A2}"/>
     <hyperlink ref="Q173" r:id="rId122" xr:uid="{3A0EA199-9046-C047-AA3E-49D8071BF47C}"/>
-    <hyperlink ref="Q180" r:id="rId123" xr:uid="{1D628C24-2304-F143-9C88-BCEA198497C3}"/>
+    <hyperlink ref="Q181" r:id="rId123" xr:uid="{1D628C24-2304-F143-9C88-BCEA198497C3}"/>
     <hyperlink ref="Q10" r:id="rId124" xr:uid="{DEC95570-3575-1F45-AAD2-56BA0FD294B5}"/>
     <hyperlink ref="Q13" r:id="rId125" xr:uid="{746FAB7B-FED8-F245-9FAB-1F5B1CCBAF43}"/>
     <hyperlink ref="Q18" r:id="rId126" xr:uid="{8134279C-1DCF-3D42-B28B-2D24B5A0103E}"/>
@@ -10935,6 +11404,11 @@
     <hyperlink ref="Q119" r:id="rId131" xr:uid="{BEFDCC98-9BB2-3D49-BA3F-3405DCD9093D}"/>
     <hyperlink ref="Q142" r:id="rId132" xr:uid="{693C6CA7-F3B0-8046-A1AC-2290A31A325D}"/>
     <hyperlink ref="Q168" r:id="rId133" xr:uid="{6E05A9E4-528C-5340-8605-BE0FDAF71DEA}"/>
+    <hyperlink ref="Q179" r:id="rId134" xr:uid="{0F1FAD95-0848-E049-9406-AFFA1592BDF6}"/>
+    <hyperlink ref="Q186" r:id="rId135" xr:uid="{3F83EA70-AEE6-8846-8419-3AD79B91EB73}"/>
+    <hyperlink ref="Q187" r:id="rId136" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
+    <hyperlink ref="Q188" r:id="rId137" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
+    <hyperlink ref="Q189" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Harrisburg University/Websites/cv markdown/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="114_{8E7E3025-FC67-364F-9FAD-22F0803D4519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F9ED309-3534-B34C-95C0-A34337BED5D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8698A36-ED3F-4E40-B5A7-44D49EEEA0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$192</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="978">
   <si>
     <t>title</t>
   </si>
@@ -687,9 +687,6 @@
     <t>https://www.aggieerin.com/pubs/erin%20pnom%2009.pptx</t>
   </si>
   <si>
-    <t>An extension of the QWERTY effect: Not just the right hand, expertise and typability predict valence ratings of words</t>
-  </si>
-  <si>
     <t>Are Missouri State students satisfied with academic advising?</t>
   </si>
   <si>
@@ -1329,9 +1326,6 @@
     <t>Poster presentation for the Annual Meeting of the Psychonomic Society, Long Beach, CA</t>
   </si>
   <si>
-    <t>Poster presentation for the Southwestern Psychological AssociationConvention, Wichita, KS</t>
-  </si>
-  <si>
     <t>Poster presentation for the Annual Meeting of the Southwestern Psychological Association, Dallas, TX </t>
   </si>
   <si>
@@ -2076,9 +2070,6 @@
     <t>7Frjd3zlGBUC, 3_LpOwP6eMYC</t>
   </si>
   <si>
-    <t>hNSvKAmkeYkC, I8rxH6phXEkC</t>
-  </si>
-  <si>
     <t>How metacognitive awareness relates to overconfidence in interval judgments</t>
   </si>
   <si>
@@ -2100,9 +2091,6 @@
     <t>Eating Disorders</t>
   </si>
   <si>
-    <t>1--17</t>
-  </si>
-  <si>
     <t>ymY9cBF3mdcC, H7nrzBkawXsC</t>
   </si>
   <si>
@@ -2466,9 +2454,6 @@
     <t>Wikowsky, A., Buchanan, E.M., Cady, R., Manley, H., Sly, J., \&amp; Cunningham, A.</t>
   </si>
   <si>
-    <t>Moral foundations of U.S. politcal news organizations</t>
-  </si>
-  <si>
     <t>Padfield, W.E. \&amp; Buchanan, E.M.</t>
   </si>
   <si>
@@ -2493,9 +2478,6 @@
     <t>Manley, H., Buchanan, E.M., Sly, J., Cady, R., Cunningham, A., \&amp; Wikowsky, A.</t>
   </si>
   <si>
-    <t>Presentation for the American Headache Society's 61st Annual Scientific Meeting, Philadephia, PA</t>
-  </si>
-  <si>
     <t>2019, July</t>
   </si>
   <si>
@@ -2652,9 +2634,6 @@
     <t>U0iAMwwPxtsC</t>
   </si>
   <si>
-    <t>9shLKfS_uJEC</t>
-  </si>
-  <si>
     <t>natZJ_-F0IUC</t>
   </si>
   <si>
@@ -2802,9 +2781,6 @@
     <t>Spoken presentation for the Annual Meeting of the Society for Computers in Psychology, Montreal, Canada</t>
   </si>
   <si>
-    <t>Workshop for the Soceity for the Improvement of Psychological Science (SIPS) 2019 Meeting</t>
-  </si>
-  <si>
     <t>Spoken presentation for the Annual Meeting of the Society for Computers in Psychology, New Orleans, LA</t>
   </si>
   <si>
@@ -2881,6 +2857,114 @@
   </si>
   <si>
     <t>Expertise within working memory and fluid intelligence</t>
+  </si>
+  <si>
+    <t>10.1007/s10339-019-00939-6</t>
+  </si>
+  <si>
+    <t>10.1080/10615806.2019.1695522</t>
+  </si>
+  <si>
+    <t>vnF2_uLGgtgC</t>
+  </si>
+  <si>
+    <t>59117742, 65217467</t>
+  </si>
+  <si>
+    <t>59816012, 65055132</t>
+  </si>
+  <si>
+    <t>9shLKfS_uJEC, eH23hyXCXa4C</t>
+  </si>
+  <si>
+    <t>hNSvKAmkeYkC, I8rxH6phXEkC, g8uWPOAv7ggC</t>
+  </si>
+  <si>
+    <t>Valued living in daily experience: Relations with mindfulness, meaning, psychological flexibility, and stressors</t>
+  </si>
+  <si>
+    <t>Finkelstein-Fox, L., Pavlacic, J., Buchanan, E.M., Schulenberg, S.E., \&amp; Park, C.L.</t>
+  </si>
+  <si>
+    <t>Cognitive Therapy and Research</t>
+  </si>
+  <si>
+    <t>3A3nxV7CjKIC</t>
+  </si>
+  <si>
+    <t>Wang, A., Fine, A.M., Buchanan, E.M., Janko, M., Nigrovi, L.E., \&amp; Lantos, P.M.</t>
+  </si>
+  <si>
+    <t>Open Forum Infectious Diseases</t>
+  </si>
+  <si>
+    <t>10.1007/s10608-019-10062-7</t>
+  </si>
+  <si>
+    <t>521--537</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://osf.io/8xe4n/</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/APS.Instructor.2019.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/lab_scip_pres.html</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/flt-presentation.html</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/ari%20pnom%2019.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/strep_2019.docx</t>
+  </si>
+  <si>
+    <t>Development of the Functional Assessment of Migraine Scale using a patient guided approach</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/ey326</t>
+  </si>
+  <si>
+    <t>Buchanan, E.M., Manley, H., Sly, J., Cady, R., Wikowsky, A., \&amp; Cunningham, A.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://osf.io/ey326</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/PSAposter2019.png</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/abai_2018.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/fox%202019.docx</t>
+  </si>
+  <si>
+    <t>An extension of the QWERTY effect: Not just the right hand, expertise and typeability predict valence ratings of words</t>
+  </si>
+  <si>
+    <t>Moral foundations of U.S. political news organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bayesian spatiotemporal analysis of pediatric group a streptococcal infections </t>
+  </si>
+  <si>
+    <t>Presentation for the American Headache Society's 61st Annual Scientific Meeting, Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>Poster presentation for the Southwestern Psychological Association Convention, Wichita, KS</t>
+  </si>
+  <si>
+    <t>Workshop for the Society for the Improvement of Psychological Science (SIPS) 2019 Meeting</t>
   </si>
 </sst>
 </file>
@@ -3411,7 +3495,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3467,6 +3551,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3823,11 +3908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q189"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -3853,7 +3938,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17">
       <c r="A1" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3918,7 +4003,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
@@ -3930,7 +4015,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
@@ -3939,7 +4024,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>180</v>
@@ -3954,7 +4039,7 @@
         <v>186</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="51">
@@ -3965,13 +4050,13 @@
         <v>178</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>216</v>
@@ -3986,7 +4071,7 @@
         <v>186</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="68">
@@ -4000,7 +4085,7 @@
         <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -4044,16 +4129,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>216</v>
@@ -4068,7 +4153,7 @@
         <v>196</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="34">
@@ -4076,7 +4161,7 @@
         <v>1.5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>202</v>
@@ -4085,10 +4170,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G6" s="16">
         <v>23</v>
@@ -4097,16 +4182,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="J6" s="1">
         <v>2019</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>180</v>
@@ -4129,16 +4214,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>216</v>
@@ -4153,7 +4238,7 @@
         <v>196</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="34">
@@ -4161,16 +4246,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>216</v>
@@ -4185,7 +4270,7 @@
         <v>186</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="34">
@@ -4202,10 +4287,10 @@
         <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="1">
         <v>25</v>
@@ -4246,16 +4331,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="D10" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E10" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="F10" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -4264,7 +4349,7 @@
         <v>2019</v>
       </c>
       <c r="K10" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="L10">
         <v>59592572</v>
@@ -4282,7 +4367,7 @@
         <v>186</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="34">
@@ -4293,10 +4378,10 @@
         <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>207</v>
@@ -4308,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J11" s="1">
         <v>2019</v>
@@ -4340,16 +4425,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>216</v>
@@ -4364,40 +4449,51 @@
         <v>196</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17">
       <c r="A13" s="18">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>942</v>
       </c>
       <c r="C13" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="F13" t="s">
+        <v>907</v>
+      </c>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" t="s">
+        <v>275</v>
+      </c>
       <c r="J13">
         <v>2019</v>
       </c>
       <c r="K13" t="s">
-        <v>876</v>
-      </c>
-      <c r="L13">
-        <v>59816012</v>
+        <v>869</v>
+      </c>
+      <c r="L13" t="s">
+        <v>946</v>
       </c>
       <c r="M13" t="s">
         <v>180</v>
       </c>
       <c r="N13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O13" t="s">
         <v>210</v>
@@ -4406,7 +4502,7 @@
         <v>186</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51">
@@ -4414,16 +4510,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>216</v>
@@ -4437,22 +4533,25 @@
       <c r="P14" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q14" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="34">
       <c r="A15" s="17">
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>216</v>
@@ -4467,7 +4566,7 @@
         <v>196</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="51">
@@ -4475,16 +4574,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>216</v>
@@ -4499,7 +4598,7 @@
         <v>196</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="51">
@@ -4507,16 +4606,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>216</v>
@@ -4531,7 +4630,7 @@
         <v>196</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4539,13 +4638,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="D18" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E18" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -4555,7 +4654,7 @@
         <v>2019</v>
       </c>
       <c r="K18" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="L18">
         <v>57710195</v>
@@ -4573,7 +4672,7 @@
         <v>186</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="34">
@@ -4666,19 +4765,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>218</v>
+        <v>972</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J21" s="1">
         <v>2018</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="L21" s="1">
         <v>46227693</v>
@@ -4696,7 +4795,7 @@
         <v>186</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="34">
@@ -4704,10 +4803,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -4719,7 +4818,7 @@
         <v>179</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J22" s="1">
         <v>2013</v>
@@ -4728,7 +4827,7 @@
         <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>180</v>
@@ -4743,7 +4842,7 @@
         <v>186</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="68">
@@ -4754,13 +4853,13 @@
         <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="G23" s="1">
         <v>72</v>
@@ -4769,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J23" s="1">
         <v>2016</v>
@@ -4793,7 +4892,7 @@
         <v>196</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="34">
@@ -4807,13 +4906,13 @@
         <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="L24" s="1">
         <v>22716707</v>
@@ -4831,7 +4930,7 @@
         <v>186</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="34">
@@ -4842,16 +4941,16 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="L25" s="1">
         <v>22716691</v>
@@ -4869,7 +4968,7 @@
         <v>186</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="34">
@@ -4877,16 +4976,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>216</v>
@@ -4900,22 +4999,25 @@
       <c r="P26" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q26" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="34">
       <c r="A27" s="17">
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>216</v>
@@ -4930,7 +5032,7 @@
         <v>186</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="34">
@@ -4938,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
@@ -4962,7 +5064,7 @@
         <v>186</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="34">
@@ -4970,16 +5072,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>216</v>
@@ -4994,7 +5096,7 @@
         <v>186</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="34">
@@ -5002,16 +5104,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>216</v>
@@ -5024,6 +5126,9 @@
       </c>
       <c r="P30" s="1" t="s">
         <v>186</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="34">
@@ -5031,16 +5136,16 @@
         <v>1.5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>45</v>
@@ -5052,13 +5157,13 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="J31" s="1">
         <v>2019</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="L31" s="1">
         <v>46227680</v>
@@ -5076,7 +5181,7 @@
         <v>196</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="34">
@@ -5090,7 +5195,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -5102,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J32" s="1">
         <v>2014</v>
@@ -5126,7 +5231,7 @@
         <v>186</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="34">
@@ -5134,13 +5239,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J33" s="1">
         <v>2017</v>
@@ -5164,7 +5269,7 @@
         <v>196</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="34">
@@ -5178,7 +5283,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>183</v>
@@ -5190,13 +5295,13 @@
         <v>179</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J34" s="1">
         <v>2018</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="L34" s="1">
         <v>46227685</v>
@@ -5222,16 +5327,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>216</v>
@@ -5246,7 +5351,7 @@
         <v>186</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="51">
@@ -5254,16 +5359,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>216</v>
@@ -5277,6 +5382,9 @@
       <c r="P36" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q36" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="34">
       <c r="A37" s="17">
@@ -5289,7 +5397,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>32</v>
@@ -5301,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J37" s="1">
         <v>2013</v>
@@ -5325,7 +5433,7 @@
         <v>196</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="34">
@@ -5333,16 +5441,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>216</v>
@@ -5357,7 +5465,7 @@
         <v>196</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="34">
@@ -5368,16 +5476,16 @@
         <v>150</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L39" s="1">
         <v>22716697</v>
@@ -5394,22 +5502,25 @@
       <c r="P39" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q39" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="51">
       <c r="A40" s="17">
         <v>1</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>216</v>
@@ -5423,6 +5534,9 @@
       <c r="P40" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q40" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="41" spans="1:17" ht="85">
       <c r="A41" s="17">
@@ -5430,20 +5544,20 @@
       </c>
       <c r="B41"/>
       <c r="C41" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" s="7" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5459,7 +5573,9 @@
       <c r="P41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q41"/>
+      <c r="Q41" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="42" spans="1:17" ht="51">
       <c r="A42" s="17">
@@ -5469,13 +5585,13 @@
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G42">
         <v>122</v>
@@ -5484,7 +5600,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="J42" s="1">
         <v>2019</v>
@@ -5516,16 +5632,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>216</v>
@@ -5540,7 +5656,7 @@
         <v>196</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="51">
@@ -5551,13 +5667,13 @@
         <v>143</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G44" s="1">
         <v>44</v>
@@ -5566,7 +5682,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J44" s="1">
         <v>2015</v>
@@ -5590,7 +5706,7 @@
         <v>196</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="34">
@@ -5599,20 +5715,20 @@
       </c>
       <c r="B45"/>
       <c r="C45" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="7" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" s="7" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -5629,7 +5745,7 @@
         <v>196</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="34">
@@ -5638,20 +5754,20 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>820</v>
+        <v>975</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -5667,23 +5783,25 @@
       <c r="P46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q46"/>
+      <c r="Q46" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="47" spans="1:17" ht="51">
       <c r="A47" s="17">
         <v>1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>216</v>
@@ -5698,7 +5816,7 @@
         <v>196</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="51">
@@ -5712,7 +5830,7 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>38</v>
@@ -5724,7 +5842,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J48" s="1">
         <v>2013</v>
@@ -5748,7 +5866,7 @@
         <v>196</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="34">
@@ -5756,13 +5874,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>179</v>
@@ -5792,7 +5910,7 @@
         <v>186</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="34">
@@ -5800,19 +5918,19 @@
         <v>1</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>216</v>
@@ -5827,7 +5945,7 @@
         <v>196</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="51">
@@ -5835,16 +5953,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>216</v>
@@ -5858,6 +5976,9 @@
       <c r="P51" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q51" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="52" spans="1:17" ht="51">
       <c r="A52" s="17">
@@ -5867,10 +5988,10 @@
         <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E52" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>114</v>
@@ -5882,7 +6003,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J52" s="1">
         <v>2017</v>
@@ -5906,7 +6027,7 @@
         <v>196</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="51">
@@ -5914,16 +6035,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>216</v>
@@ -5938,7 +6059,7 @@
         <v>186</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="51">
@@ -5955,7 +6076,7 @@
         <v>146</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>45</v>
@@ -5967,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J54" s="1">
         <v>2018</v>
@@ -5976,7 +6097,7 @@
         <v>46</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>180</v>
@@ -5991,7 +6112,7 @@
         <v>196</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="34">
@@ -6002,16 +6123,16 @@
         <v>171</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L55" s="1">
         <v>22716779</v>
@@ -6029,7 +6150,7 @@
         <v>196</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="34">
@@ -6037,16 +6158,16 @@
         <v>1.5</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>121</v>
@@ -6058,7 +6179,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="J56" s="1">
         <v>2019</v>
@@ -6067,7 +6188,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>180</v>
@@ -6082,7 +6203,7 @@
         <v>186</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="51">
@@ -6090,16 +6211,16 @@
         <v>1</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>216</v>
@@ -6114,7 +6235,7 @@
         <v>196</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="34">
@@ -6128,7 +6249,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>121</v>
@@ -6140,7 +6261,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J58" s="1">
         <v>2013</v>
@@ -6149,7 +6270,7 @@
         <v>51</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>180</v>
@@ -6164,7 +6285,7 @@
         <v>186</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="17">
@@ -6172,32 +6293,32 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C59" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F59" t="s">
-        <v>688</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H59" t="s">
-        <v>179</v>
+        <v>685</v>
+      </c>
+      <c r="G59" s="23">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>689</v>
+        <v>956</v>
       </c>
       <c r="J59">
         <v>2019</v>
       </c>
       <c r="K59" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L59">
         <v>52942378</v>
@@ -6215,7 +6336,7 @@
         <v>196</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="34">
@@ -6223,16 +6344,16 @@
         <v>1</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>216</v>
@@ -6247,7 +6368,7 @@
         <v>196</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="34">
@@ -6255,16 +6376,16 @@
         <v>1</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>216</v>
@@ -6279,7 +6400,7 @@
         <v>196</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="51">
@@ -6287,16 +6408,16 @@
         <v>1</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>216</v>
@@ -6311,7 +6432,7 @@
         <v>196</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="51">
@@ -6319,16 +6440,16 @@
         <v>1</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>216</v>
@@ -6343,7 +6464,7 @@
         <v>196</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="51">
@@ -6357,10 +6478,10 @@
         <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G64" s="1">
         <v>22</v>
@@ -6369,7 +6490,7 @@
         <v>179</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J64" s="1">
         <v>2016</v>
@@ -6393,7 +6514,7 @@
         <v>196</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="34">
@@ -6407,7 +6528,7 @@
         <v>55</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>56</v>
@@ -6425,10 +6546,10 @@
         <v>2014</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>180</v>
@@ -6443,7 +6564,7 @@
         <v>196</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="51">
@@ -6451,16 +6572,16 @@
         <v>1</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>216</v>
@@ -6475,7 +6596,7 @@
         <v>186</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="34">
@@ -6483,16 +6604,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>216</v>
@@ -6506,22 +6627,25 @@
       <c r="P67" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q67" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="68" spans="1:17" ht="34">
       <c r="A68" s="17">
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>216</v>
@@ -6536,7 +6660,7 @@
         <v>186</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="34">
@@ -6544,16 +6668,16 @@
         <v>1</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>216</v>
@@ -6567,6 +6691,9 @@
       <c r="P69" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q69" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="70" spans="1:17" ht="34">
       <c r="A70" s="17">
@@ -6576,16 +6703,16 @@
         <v>147</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L70" s="1">
         <v>22716700</v>
@@ -6603,7 +6730,7 @@
         <v>186</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="34">
@@ -6611,16 +6738,16 @@
         <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>216</v>
@@ -6635,7 +6762,7 @@
         <v>186</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="34">
@@ -6643,16 +6770,16 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>216</v>
@@ -6667,7 +6794,7 @@
         <v>186</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="34">
@@ -6678,16 +6805,16 @@
         <v>161</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L73" s="1">
         <v>22716701</v>
@@ -6705,7 +6832,7 @@
         <v>186</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="51">
@@ -6713,16 +6840,16 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>216</v>
@@ -6737,24 +6864,27 @@
         <v>196</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="17">
       <c r="A75" s="18">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>943</v>
       </c>
       <c r="C75" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D75" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E75" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="G75" t="s">
         <v>179</v>
@@ -6763,14 +6893,16 @@
         <v>179</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J75">
         <v>2019</v>
       </c>
-      <c r="K75"/>
-      <c r="L75">
-        <v>59117742</v>
+      <c r="K75" t="s">
+        <v>944</v>
+      </c>
+      <c r="L75" t="s">
+        <v>945</v>
       </c>
       <c r="M75" t="s">
         <v>180</v>
@@ -6785,7 +6917,7 @@
         <v>196</v>
       </c>
       <c r="Q75" s="11" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34">
@@ -6793,13 +6925,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>20</v>
@@ -6811,7 +6943,7 @@
         <v>179</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J76" s="1">
         <v>2018</v>
@@ -6835,7 +6967,7 @@
         <v>186</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="51">
@@ -6849,10 +6981,10 @@
         <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G77" s="1">
         <v>118</v>
@@ -6861,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J77" s="1">
         <v>2014</v>
@@ -6885,7 +7017,7 @@
         <v>196</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="51">
@@ -6894,20 +7026,20 @@
       </c>
       <c r="B78"/>
       <c r="C78" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" s="7" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -6924,7 +7056,7 @@
         <v>196</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -6932,13 +7064,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D79" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E79" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
@@ -6948,7 +7080,7 @@
         <v>2019</v>
       </c>
       <c r="K79" t="s">
-        <v>873</v>
+        <v>947</v>
       </c>
       <c r="L79">
         <v>57614693</v>
@@ -6966,7 +7098,7 @@
         <v>196</v>
       </c>
       <c r="Q79" s="11" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="34">
@@ -6980,13 +7112,13 @@
         <v>63</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J80" s="1">
         <v>2018</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="L80" s="1">
         <v>46227698</v>
@@ -7004,7 +7136,7 @@
         <v>196</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17">
@@ -7012,19 +7144,19 @@
         <v>1.5</v>
       </c>
       <c r="B81" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C81" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D81" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F81" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -7033,13 +7165,13 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J81">
         <v>2018</v>
       </c>
       <c r="K81" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L81">
         <v>46975449</v>
@@ -7057,7 +7189,7 @@
         <v>186</v>
       </c>
       <c r="Q81" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="51">
@@ -7065,19 +7197,19 @@
         <v>1.5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>179</v>
@@ -7086,7 +7218,7 @@
         <v>179</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J82" s="1">
         <v>2019</v>
@@ -7110,7 +7242,7 @@
         <v>186</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="34">
@@ -7118,19 +7250,19 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J83" s="1">
         <v>2018</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L83" s="1">
         <v>46227701</v>
@@ -7148,7 +7280,7 @@
         <v>186</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="51">
@@ -7159,10 +7291,10 @@
         <v>170</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>66</v>
@@ -7174,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J84" s="1">
         <v>2012</v>
@@ -7183,7 +7315,7 @@
         <v>67</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>180</v>
@@ -7198,7 +7330,7 @@
         <v>196</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51">
@@ -7206,16 +7338,16 @@
         <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>216</v>
@@ -7230,7 +7362,7 @@
         <v>186</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="34">
@@ -7238,16 +7370,16 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>216</v>
@@ -7262,7 +7394,7 @@
         <v>196</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="34">
@@ -7270,16 +7402,16 @@
         <v>1</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>216</v>
@@ -7294,7 +7426,7 @@
         <v>196</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="34">
@@ -7302,19 +7434,19 @@
         <v>1.5</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>179</v>
@@ -7323,16 +7455,16 @@
         <v>179</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J88" s="1">
         <v>2019</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>681</v>
+        <v>948</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>180</v>
@@ -7347,7 +7479,7 @@
         <v>186</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="34">
@@ -7358,16 +7490,16 @@
         <v>163</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L89" s="1">
         <v>22716705</v>
@@ -7385,7 +7517,7 @@
         <v>186</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="34">
@@ -7399,7 +7531,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>70</v>
@@ -7411,7 +7543,7 @@
         <v>4</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J90" s="1">
         <v>2013</v>
@@ -7435,7 +7567,7 @@
         <v>186</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="34">
@@ -7443,13 +7575,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>73</v>
@@ -7461,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J91" s="1">
         <v>2012</v>
@@ -7470,7 +7602,7 @@
         <v>74</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>180</v>
@@ -7485,7 +7617,7 @@
         <v>186</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="34">
@@ -7493,16 +7625,16 @@
         <v>1.5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>76</v>
@@ -7514,13 +7646,13 @@
         <v>3</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J92" s="1">
         <v>2018</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L92">
         <v>57294614</v>
@@ -7538,7 +7670,7 @@
         <v>196</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="34">
@@ -7549,16 +7681,16 @@
         <v>156</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L93" s="1">
         <v>22716771</v>
@@ -7576,7 +7708,7 @@
         <v>186</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="34">
@@ -7584,16 +7716,16 @@
         <v>1.5</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>121</v>
@@ -7605,13 +7737,13 @@
         <v>4</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="J94" s="1">
         <v>2019</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L94" s="1">
         <v>46227696</v>
@@ -7629,7 +7761,7 @@
         <v>186</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="34">
@@ -7637,13 +7769,25 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="J95" s="1">
         <v>2019</v>
@@ -7655,7 +7799,7 @@
         <v>180</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>195</v>
@@ -7664,7 +7808,7 @@
         <v>186</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="34">
@@ -7672,22 +7816,22 @@
         <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D96" t="s">
         <v>144</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K96" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L96">
         <v>46227690</v>
@@ -7705,7 +7849,7 @@
         <v>186</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="51">
@@ -7713,16 +7857,16 @@
         <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>216</v>
@@ -7737,7 +7881,7 @@
         <v>186</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="34">
@@ -7751,7 +7895,7 @@
         <v>130</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J98" s="1">
         <v>2017</v>
@@ -7775,7 +7919,7 @@
         <v>186</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="51">
@@ -7783,16 +7927,16 @@
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>216</v>
@@ -7807,7 +7951,7 @@
         <v>186</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="34">
@@ -7821,10 +7965,10 @@
         <v>79</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G100" s="1">
         <v>15</v>
@@ -7833,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J100" s="1">
         <v>2008</v>
@@ -7857,7 +8001,7 @@
         <v>186</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="34">
@@ -7865,16 +8009,16 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>216</v>
@@ -7889,7 +8033,7 @@
         <v>186</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="34">
@@ -7897,16 +8041,16 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>216</v>
@@ -7920,22 +8064,25 @@
       <c r="P102" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q102" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="103" spans="1:17" ht="34">
       <c r="A103" s="17">
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>216</v>
@@ -7950,7 +8097,7 @@
         <v>186</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="34">
@@ -7958,19 +8105,31 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="J104" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L104" s="1">
         <v>46227700</v>
@@ -7979,7 +8138,7 @@
         <v>180</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>181</v>
@@ -7988,7 +8147,7 @@
         <v>186</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="34">
@@ -7996,16 +8155,16 @@
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>216</v>
@@ -8020,7 +8179,7 @@
         <v>186</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="51">
@@ -8034,7 +8193,7 @@
         <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>114</v>
@@ -8046,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J106" s="1">
         <v>2016</v>
@@ -8070,7 +8229,7 @@
         <v>196</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="51">
@@ -8078,16 +8237,16 @@
         <v>1</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>216</v>
@@ -8102,7 +8261,7 @@
         <v>196</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="51">
@@ -8110,16 +8269,16 @@
         <v>1</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>216</v>
@@ -8134,7 +8293,7 @@
         <v>196</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="34">
@@ -8142,16 +8301,16 @@
         <v>1</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>216</v>
@@ -8166,7 +8325,7 @@
         <v>196</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="34">
@@ -8177,10 +8336,10 @@
         <v>169</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E110" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>85</v>
@@ -8192,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J110" s="1">
         <v>2015</v>
@@ -8201,7 +8360,7 @@
         <v>86</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>180</v>
@@ -8216,7 +8375,7 @@
         <v>196</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="51">
@@ -8230,7 +8389,7 @@
         <v>87</v>
       </c>
       <c r="E111" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>88</v>
@@ -8242,7 +8401,7 @@
         <v>3</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J111" s="1">
         <v>2014</v>
@@ -8266,7 +8425,7 @@
         <v>196</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="34">
@@ -8275,14 +8434,14 @@
       </c>
       <c r="B112"/>
       <c r="C112" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -8293,7 +8452,7 @@
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>200</v>
@@ -8305,7 +8464,7 @@
         <v>196</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="34">
@@ -8313,13 +8472,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D113" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -8328,7 +8487,7 @@
         <v>2019</v>
       </c>
       <c r="K113" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="L113">
         <v>52212308</v>
@@ -8346,7 +8505,7 @@
         <v>196</v>
       </c>
       <c r="Q113" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="34">
@@ -8354,16 +8513,16 @@
         <v>1</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>216</v>
@@ -8377,22 +8536,25 @@
       <c r="P114" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q114" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="115" spans="1:17" ht="51">
       <c r="A115" s="17">
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>216</v>
@@ -8407,7 +8569,7 @@
         <v>186</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="34">
@@ -8424,7 +8586,7 @@
         <v>138</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>121</v>
@@ -8436,7 +8598,7 @@
         <v>6</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J116" s="1">
         <v>2018</v>
@@ -8445,7 +8607,7 @@
         <v>91</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>180</v>
@@ -8460,7 +8622,7 @@
         <v>196</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="34">
@@ -8468,16 +8630,16 @@
         <v>1</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>216</v>
@@ -8491,19 +8653,22 @@
       <c r="P117" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q117" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="118" spans="1:17" ht="51">
       <c r="A118" s="17">
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J118" s="1">
         <v>2018</v>
@@ -8527,7 +8692,7 @@
         <v>186</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="51">
@@ -8535,17 +8700,17 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="1" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G119" t="s">
         <v>179</v>
@@ -8560,7 +8725,7 @@
         <v>2019</v>
       </c>
       <c r="K119" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="L119"/>
       <c r="M119" s="1" t="s">
@@ -8576,7 +8741,7 @@
         <v>196</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="34">
@@ -8585,20 +8750,20 @@
       </c>
       <c r="B120"/>
       <c r="C120" s="1" t="s">
-        <v>811</v>
+        <v>973</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" s="7" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -8615,7 +8780,7 @@
         <v>186</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="34">
@@ -8624,14 +8789,14 @@
       </c>
       <c r="B121"/>
       <c r="C121" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -8642,7 +8807,7 @@
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>200</v>
@@ -8654,7 +8819,7 @@
         <v>196</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="51">
@@ -8663,20 +8828,20 @@
       </c>
       <c r="B122"/>
       <c r="C122" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="7" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" s="7" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -8693,7 +8858,7 @@
         <v>186</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
@@ -8707,7 +8872,7 @@
         <v>96</v>
       </c>
       <c r="E123" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>97</v>
@@ -8719,7 +8884,7 @@
         <v>4</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J123" s="1">
         <v>2011</v>
@@ -8728,7 +8893,7 @@
         <v>98</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>180</v>
@@ -8743,7 +8908,7 @@
         <v>196</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="51">
@@ -8751,16 +8916,16 @@
         <v>1</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>216</v>
@@ -8774,22 +8939,25 @@
       <c r="P124" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q124" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="125" spans="1:17" ht="34">
       <c r="A125" s="17">
         <v>1</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>216</v>
@@ -8804,7 +8972,7 @@
         <v>196</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="34">
@@ -8812,16 +8980,16 @@
         <v>1</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>216</v>
@@ -8836,7 +9004,7 @@
         <v>186</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="34">
@@ -8844,19 +9012,19 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E127" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J127" s="1">
         <v>2017</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="L127" s="1">
         <v>46227678</v>
@@ -8874,7 +9042,7 @@
         <v>196</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34">
@@ -8888,7 +9056,7 @@
         <v>134</v>
       </c>
       <c r="E128" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="J128" s="1">
         <v>2018</v>
@@ -8909,7 +9077,7 @@
         <v>196</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="34">
@@ -8917,16 +9085,16 @@
         <v>1</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>432</v>
+        <v>976</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>216</v>
@@ -8941,7 +9109,7 @@
         <v>186</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="34">
@@ -8949,16 +9117,16 @@
         <v>1</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>216</v>
@@ -8973,7 +9141,7 @@
         <v>186</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34">
@@ -8984,16 +9152,16 @@
         <v>164</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L131" s="1">
         <v>22716712</v>
@@ -9011,7 +9179,7 @@
         <v>186</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="51">
@@ -9019,16 +9187,16 @@
         <v>1</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>216</v>
@@ -9042,6 +9210,9 @@
       <c r="P132" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q132" s="2" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="133" spans="1:17" ht="34">
       <c r="A133" s="17">
@@ -9051,10 +9222,10 @@
         <v>101</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>85</v>
@@ -9066,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J133" s="1">
         <v>2017</v>
@@ -9090,7 +9261,7 @@
         <v>196</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34">
@@ -9098,16 +9269,16 @@
         <v>1</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>216</v>
@@ -9122,7 +9293,7 @@
         <v>186</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="51">
@@ -9136,7 +9307,7 @@
         <v>131</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>102</v>
@@ -9148,7 +9319,7 @@
         <v>179</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J135" s="1">
         <v>2018</v>
@@ -9172,7 +9343,7 @@
         <v>196</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="34">
@@ -9183,16 +9354,16 @@
         <v>159</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L136" s="1">
         <v>22716709</v>
@@ -9209,6 +9380,9 @@
       <c r="P136" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q136" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="137" spans="1:17" ht="34">
       <c r="A137" s="17">
@@ -9218,16 +9392,16 @@
         <v>160</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L137" s="1">
         <v>22716719</v>
@@ -9245,7 +9419,7 @@
         <v>196</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="34">
@@ -9256,16 +9430,16 @@
         <v>168</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L138" s="1">
         <v>22716721</v>
@@ -9283,7 +9457,7 @@
         <v>186</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" spans="1:17" customFormat="1" ht="51">
@@ -9298,10 +9472,10 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G139" s="1">
         <v>48</v>
@@ -9310,7 +9484,7 @@
         <v>2</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J139" s="1">
         <v>2016</v>
@@ -9319,7 +9493,7 @@
         <v>105</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>180</v>
@@ -9334,7 +9508,7 @@
         <v>196</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:17" customFormat="1" ht="34">
@@ -9343,20 +9517,20 @@
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -9372,7 +9546,9 @@
       <c r="P140" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q140" s="1"/>
+      <c r="Q140" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="141" spans="1:17" customFormat="1" ht="51">
       <c r="A141" s="17">
@@ -9380,20 +9556,20 @@
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="7" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -9410,7 +9586,7 @@
         <v>196</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="142" spans="1:17" customFormat="1" ht="51">
@@ -9418,16 +9594,16 @@
         <v>1</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G142">
         <v>81</v>
@@ -9436,13 +9612,13 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="J142" s="7">
         <v>2019</v>
       </c>
       <c r="K142" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="L142">
         <v>57294563</v>
@@ -9460,7 +9636,7 @@
         <v>196</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="143" spans="1:17" customFormat="1" ht="102">
@@ -9471,20 +9647,20 @@
         <v>148</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="7" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1">
@@ -9502,7 +9678,9 @@
       <c r="P143" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q143" s="1"/>
+      <c r="Q143" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="144" spans="1:17" customFormat="1" ht="51">
       <c r="A144" s="17">
@@ -9510,20 +9688,20 @@
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="7" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -9540,7 +9718,7 @@
         <v>196</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="145" spans="1:17" customFormat="1" ht="34">
@@ -9549,20 +9727,20 @@
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -9579,7 +9757,7 @@
         <v>196</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146" spans="1:17" customFormat="1" ht="34">
@@ -9588,20 +9766,20 @@
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="7" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -9618,7 +9796,7 @@
         <v>186</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="147" spans="1:17" customFormat="1" ht="34">
@@ -9632,10 +9810,10 @@
         <v>107</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>108</v>
@@ -9647,13 +9825,13 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="J147" s="1">
         <v>2019</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L147" s="1">
         <v>44621959</v>
@@ -9671,7 +9849,7 @@
         <v>196</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:17" customFormat="1" ht="51">
@@ -9679,16 +9857,16 @@
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>216</v>
@@ -9702,6 +9880,9 @@
       <c r="P148" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q148" s="2" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="149" spans="1:17" customFormat="1" ht="51">
       <c r="A149" s="17">
@@ -9709,20 +9890,20 @@
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -9739,7 +9920,7 @@
         <v>196</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:17" customFormat="1" ht="34">
@@ -9748,20 +9929,20 @@
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="7" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -9778,7 +9959,7 @@
         <v>196</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:17" customFormat="1" ht="34">
@@ -9791,7 +9972,7 @@
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="8" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>20</v>
@@ -9803,13 +9984,13 @@
         <v>179</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J151" s="1">
         <v>2016</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L151" s="1">
         <v>30745623</v>
@@ -9827,7 +10008,7 @@
         <v>186</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:17" customFormat="1" ht="34">
@@ -9840,10 +10021,10 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="8" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G152" s="1">
         <v>26</v>
@@ -9852,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J152" s="1">
         <v>2014</v>
@@ -9861,7 +10042,7 @@
         <v>112</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>180</v>
@@ -9876,7 +10057,7 @@
         <v>186</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:17" customFormat="1" ht="51">
@@ -9885,20 +10066,20 @@
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -9914,7 +10095,9 @@
       <c r="P153" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q153" s="1"/>
+      <c r="Q153" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="154" spans="1:17" customFormat="1" ht="34">
       <c r="A154" s="17">
@@ -9922,20 +10105,20 @@
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -9952,7 +10135,7 @@
         <v>186</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="155" spans="1:17" customFormat="1" ht="34">
@@ -9961,13 +10144,13 @@
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -9977,7 +10160,7 @@
         <v>2018</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="L155" s="1">
         <v>46227699</v>
@@ -9995,7 +10178,7 @@
         <v>186</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="156" spans="1:17" customFormat="1" ht="34">
@@ -10006,20 +10189,20 @@
         <v>140</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="7" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1">
@@ -10037,7 +10220,9 @@
       <c r="P156" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q156" s="1"/>
+      <c r="Q156" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="157" spans="1:17" ht="51">
       <c r="A157" s="17">
@@ -10050,7 +10235,7 @@
         <v>166</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>114</v>
@@ -10062,7 +10247,7 @@
         <v>12</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J157" s="1">
         <v>2011</v>
@@ -10071,7 +10256,7 @@
         <v>115</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>180</v>
@@ -10086,7 +10271,7 @@
         <v>196</v>
       </c>
       <c r="Q157" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="68">
@@ -10094,16 +10279,16 @@
         <v>1</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>216</v>
@@ -10118,7 +10303,7 @@
         <v>196</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="34">
@@ -10126,16 +10311,16 @@
         <v>1</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>216</v>
@@ -10150,7 +10335,7 @@
         <v>196</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="34">
@@ -10158,19 +10343,19 @@
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J160" s="1">
         <v>2018</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="L160" s="1">
         <v>46227697</v>
@@ -10188,7 +10373,7 @@
         <v>186</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="34">
@@ -10199,16 +10384,16 @@
         <v>165</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L161" s="1">
         <v>22716710</v>
@@ -10226,7 +10411,7 @@
         <v>196</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="34">
@@ -10240,7 +10425,7 @@
         <v>117</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>88</v>
@@ -10252,7 +10437,7 @@
         <v>5</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J162" s="1">
         <v>2011</v>
@@ -10261,7 +10446,7 @@
         <v>118</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>180</v>
@@ -10276,7 +10461,7 @@
         <v>196</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="51">
@@ -10284,19 +10469,19 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="J163" s="1">
         <v>2018</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L163" s="1">
         <v>46227703</v>
@@ -10314,7 +10499,7 @@
         <v>186</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="51">
@@ -10328,7 +10513,7 @@
         <v>120</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>121</v>
@@ -10340,7 +10525,7 @@
         <v>4</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J164" s="1">
         <v>2013</v>
@@ -10349,7 +10534,7 @@
         <v>122</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>180</v>
@@ -10364,7 +10549,7 @@
         <v>186</v>
       </c>
       <c r="Q164" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="34">
@@ -10372,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>216</v>
@@ -10396,7 +10581,7 @@
         <v>186</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="34">
@@ -10404,19 +10589,19 @@
         <v>1</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>216</v>
@@ -10431,7 +10616,7 @@
         <v>196</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="51">
@@ -10440,20 +10625,20 @@
       </c>
       <c r="B167"/>
       <c r="C167" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
       <c r="I167"/>
       <c r="J167" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="K167"/>
       <c r="L167"/>
@@ -10470,7 +10655,7 @@
         <v>196</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="34">
@@ -10479,20 +10664,20 @@
       </c>
       <c r="B168"/>
       <c r="C168" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
       <c r="J168" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="K168"/>
       <c r="L168"/>
@@ -10509,7 +10694,7 @@
         <v>196</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="51">
@@ -10517,16 +10702,16 @@
         <v>1</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>216</v>
@@ -10541,7 +10726,7 @@
         <v>186</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="34">
@@ -10549,16 +10734,16 @@
         <v>1</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>216</v>
@@ -10573,7 +10758,7 @@
         <v>186</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="34">
@@ -10581,19 +10766,19 @@
         <v>1</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>216</v>
@@ -10608,7 +10793,7 @@
         <v>186</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="34">
@@ -10622,7 +10807,7 @@
         <v>125</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>124</v>
@@ -10666,17 +10851,17 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G173" t="s">
         <v>179</v>
@@ -10705,7 +10890,7 @@
         <v>186</v>
       </c>
       <c r="Q173" s="11" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="34">
@@ -10713,16 +10898,16 @@
         <v>1</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>216</v>
@@ -10736,22 +10921,25 @@
       <c r="P174" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q174" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="175" spans="1:17" ht="34">
       <c r="A175" s="17">
         <v>1</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>216</v>
@@ -10765,6 +10953,9 @@
       <c r="P175" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q175" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="176" spans="1:17" ht="34">
       <c r="A176" s="17">
@@ -10777,7 +10968,7 @@
         <v>126</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
@@ -10789,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J176" s="1">
         <v>2016</v>
@@ -10798,7 +10989,7 @@
         <v>127</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>180</v>
@@ -10813,7 +11004,7 @@
         <v>196</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="34">
@@ -10824,13 +11015,13 @@
         <v>126</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J177" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>216</v>
@@ -10845,7 +11036,7 @@
         <v>196</v>
       </c>
       <c r="Q177" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="34">
@@ -10853,16 +11044,16 @@
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>216</v>
@@ -10877,7 +11068,7 @@
         <v>186</v>
       </c>
       <c r="Q178" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="34">
@@ -10885,13 +11076,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D179" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F179"/>
       <c r="G179"/>
@@ -10901,7 +11092,7 @@
         <v>2019</v>
       </c>
       <c r="K179" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L179">
         <v>53070092</v>
@@ -10919,7 +11110,7 @@
         <v>186</v>
       </c>
       <c r="Q179" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="51">
@@ -10927,16 +11118,16 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D180" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -10959,7 +11150,7 @@
         <v>186</v>
       </c>
       <c r="Q180" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="34">
@@ -10967,19 +11158,19 @@
         <v>1</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>923</v>
+        <v>977</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>216</v>
@@ -10994,7 +11185,7 @@
         <v>196</v>
       </c>
       <c r="Q181" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="51">
@@ -11002,16 +11193,16 @@
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>216</v>
@@ -11025,22 +11216,25 @@
       <c r="P182" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q182" s="2" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="183" spans="1:17" ht="51">
       <c r="A183" s="17">
         <v>1</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>216</v>
@@ -11054,22 +11248,25 @@
       <c r="P183" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q183" s="2" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="184" spans="1:17" ht="34">
       <c r="A184" s="17">
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>216</v>
@@ -11083,22 +11280,25 @@
       <c r="P184" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q184" s="2" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="185" spans="1:17" ht="34">
       <c r="A185" s="17">
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>216</v>
@@ -11112,31 +11312,34 @@
       <c r="P185" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q185" s="2" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="186" spans="1:17" ht="51">
       <c r="A186" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D186" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="K186" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>216</v>
@@ -11151,7 +11354,7 @@
         <v>196</v>
       </c>
       <c r="Q186" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="34">
@@ -11159,19 +11362,19 @@
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J187" s="1">
         <v>2019</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="L187">
         <v>61451311</v>
@@ -11189,7 +11392,7 @@
         <v>196</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="36">
@@ -11198,13 +11401,13 @@
       </c>
       <c r="B188" s="19"/>
       <c r="C188" s="1" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="J188" s="1">
         <v>2019</v>
@@ -11225,7 +11428,7 @@
         <v>186</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="34">
@@ -11233,16 +11436,16 @@
         <v>1</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J189" s="1">
         <v>2016</v>
@@ -11263,8 +11466,137 @@
         <v>196</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>634</v>
-      </c>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="34">
+      <c r="A190" s="17">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J190" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K190" t="s">
+        <v>952</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q190" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="34">
+      <c r="A191" s="17">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J191" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="34">
+      <c r="A192" s="17">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D192" t="s">
+        <v>965</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="J192" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L192">
+        <v>66133660</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q192" s="11" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q181">
@@ -11409,6 +11741,14 @@
     <hyperlink ref="Q187" r:id="rId136" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
     <hyperlink ref="Q188" r:id="rId137" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
     <hyperlink ref="Q189" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
+    <hyperlink ref="Q148" r:id="rId139" xr:uid="{3A350AA0-18E0-7A44-A617-2A23437C2D25}"/>
+    <hyperlink ref="Q183" r:id="rId140" xr:uid="{2CD84B76-BD07-7447-AC85-335724F45069}"/>
+    <hyperlink ref="Q184" r:id="rId141" xr:uid="{0D96B428-C157-194F-BBBB-55BACE11480C}"/>
+    <hyperlink ref="Q190" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
+    <hyperlink ref="Q191" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
+    <hyperlink ref="Q192" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
+    <hyperlink ref="Q182" r:id="rId145" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
+    <hyperlink ref="Q132" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8698A36-ED3F-4E40-B5A7-44D49EEEA0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D72BF12-84C8-2245-A01E-601C774E3D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="984">
   <si>
     <t>title</t>
   </si>
@@ -2965,6 +2965,24 @@
   </si>
   <si>
     <t>Workshop for the Society for the Improvement of Psychological Science (SIPS) 2019 Meeting</t>
+  </si>
+  <si>
+    <t>J3LtWjKFLicC</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/86vms</t>
+  </si>
+  <si>
+    <t>Hypothesize once, plan twice</t>
+  </si>
+  <si>
+    <t>Buchanan, E.M., Valentine, K.D., \&amp; Pavlacic, J.</t>
+  </si>
+  <si>
+    <t>TGkaJS32XoUC</t>
+  </si>
+  <si>
+    <t>https://osf.io/86vms</t>
   </si>
 </sst>
 </file>
@@ -3911,8 +3929,8 @@
   <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q197" sqref="Q197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -11132,8 +11150,8 @@
       <c r="G180"/>
       <c r="H180"/>
       <c r="I180"/>
-      <c r="J180">
-        <v>2019</v>
+      <c r="J180" t="s">
+        <v>317</v>
       </c>
       <c r="K180"/>
       <c r="L180"/>
@@ -11576,11 +11594,14 @@
       <c r="J192" s="1">
         <v>2019</v>
       </c>
+      <c r="K192" t="s">
+        <v>978</v>
+      </c>
       <c r="L192">
         <v>66133660</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>201</v>
@@ -11595,7 +11616,48 @@
         <v>968</v>
       </c>
     </row>
-    <row r="195" spans="3:3">
+    <row r="193" spans="1:17" ht="17">
+      <c r="A193" s="17">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="J193" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K193" t="s">
+        <v>982</v>
+      </c>
+      <c r="L193">
+        <v>66565618</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="L194"/>
+    </row>
+    <row r="195" spans="1:17">
       <c r="C195"/>
     </row>
   </sheetData>
@@ -11749,6 +11811,7 @@
     <hyperlink ref="Q192" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
     <hyperlink ref="Q182" r:id="rId145" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
     <hyperlink ref="Q132" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
+    <hyperlink ref="Q193" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D72BF12-84C8-2245-A01E-601C774E3D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30644F-8D9E-D745-A69C-D6A7DEDB59C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$206</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1043">
   <si>
     <t>title</t>
   </si>
@@ -2067,9 +2067,6 @@
     <t>https://osf.io/5qy7v</t>
   </si>
   <si>
-    <t>7Frjd3zlGBUC, 3_LpOwP6eMYC</t>
-  </si>
-  <si>
     <t>How metacognitive awareness relates to overconfidence in interval judgments</t>
   </si>
   <si>
@@ -2505,9 +2502,6 @@
     <t>Poster presentation for the Annual Meeting of the Association for Psychological Science, Washington, D.C.</t>
   </si>
   <si>
-    <t>MOTE: Measure of the Effect}: Package to assist in effect size calculations and their confidence intervals</t>
-  </si>
-  <si>
     <t>Buchanan, E.M., Gillenwaters, A., Scofield, J.E., \&amp; Valentine, K.D.</t>
   </si>
   <si>
@@ -2556,9 +2550,6 @@
     <t xml:space="preserve">SAGE Research Methods Datasets Part 2 </t>
   </si>
   <si>
-    <t>xm0LlTxljI0C; wyM6WWKXmoIC</t>
-  </si>
-  <si>
     <t>46227694, 56962138</t>
   </si>
   <si>
@@ -2637,9 +2628,6 @@
     <t>natZJ_-F0IUC</t>
   </si>
   <si>
-    <t>PsyArXiv</t>
-  </si>
-  <si>
     <t>VRfTbSk87rEC</t>
   </si>
   <si>
@@ -2709,9 +2697,6 @@
     <t>22716735, 57294613</t>
   </si>
   <si>
-    <t>RMgMIBzvq-4C, WWeOtg8bX_EC</t>
-  </si>
-  <si>
     <t>12273821, 57294601</t>
   </si>
   <si>
@@ -2874,9 +2859,6 @@
     <t>59816012, 65055132</t>
   </si>
   <si>
-    <t>9shLKfS_uJEC, eH23hyXCXa4C</t>
-  </si>
-  <si>
     <t>hNSvKAmkeYkC, I8rxH6phXEkC, g8uWPOAv7ggC</t>
   </si>
   <si>
@@ -2983,6 +2965,201 @@
   </si>
   <si>
     <t>https://osf.io/86vms</t>
+  </si>
+  <si>
+    <t>Advances in Methods and Practices in Psychological Science</t>
+  </si>
+  <si>
+    <t>Applied Neuropsychology: Adult</t>
+  </si>
+  <si>
+    <t>193--206</t>
+  </si>
+  <si>
+    <t>623--633</t>
+  </si>
+  <si>
+    <t>41--53</t>
+  </si>
+  <si>
+    <t>1--27</t>
+  </si>
+  <si>
+    <t>ofz524</t>
+  </si>
+  <si>
+    <t>10.1093/ofid/ofz524</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>10.1080/23279095.2020.1735388</t>
+  </si>
+  <si>
+    <t>Meaning, social support, and resilience as predictors of posttraumatic growth: A study of the Louisiana flooding of August 2016</t>
+  </si>
+  <si>
+    <t>Examining daily-level associations between nightly alcohol use and next-day valued behavior in college students</t>
+  </si>
+  <si>
+    <t>Pavlacic, J. M., Weber, M. C., Torres, V. A., Schulenberg, S. E., \&amp; Buchanan, E. M.</t>
+  </si>
+  <si>
+    <t>Trajectories of psychological functioning and pandemic preparedness for students quarantined during the COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>Grant presentation accepted at the 45th Annual Natural Hazards workshop and Research Meeting of the Natural Hazards Center, Boulder, Colorado.</t>
+  </si>
+  <si>
+    <t>2020, July</t>
+  </si>
+  <si>
+    <t>Pavlacic, J. M., Schulenberg, S. E., \&amp; Buchanan, E. M.</t>
+  </si>
+  <si>
+    <t>Meaning, purpose, and experiential avoidance as predictors of valued behavior: A daily diary study</t>
+  </si>
+  <si>
+    <t>In S. C. Hayes, Discussant, New Research Directions at the Interface of Values and Psychological Flexibility. Symposium accepted to the 54th Annual Convention of the Association for Behavioral and Cognitive Therapies, Philadelphia, Pennsylvania</t>
+  </si>
+  <si>
+    <t>2020, November</t>
+  </si>
+  <si>
+    <t>Pavlacic, J. M., Buchanan, E. M., McCaslin, S. E., \&amp; Schulenberg, S. E.</t>
+  </si>
+  <si>
+    <t>A systematic review of posttraumatic stress and resilience trajectories and covariates in veterans and service members</t>
+  </si>
+  <si>
+    <t>Poster accepted to the 54th Annual Convention of the Association for Behavioral and Cognitive Therapies, Philadelphia, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Unconference: Here’s the PSA!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanan, E.M., Wagge, J., Miller, J., Primbs, M., \&amp; Steltenpohl, C. </t>
+  </si>
+  <si>
+    <t>Hackathon: Contribute, Curate, or Code the Open Scholarship Knowledge Base</t>
+  </si>
+  <si>
+    <t>Buchanan, E.M., Henninger, F., \&amp; Clyburne-Sherin, A.</t>
+  </si>
+  <si>
+    <t>Unconference: Towards a Community-Built Open Scholarship Knowledge Base</t>
+  </si>
+  <si>
+    <t>Clyburne-Sherin, A., Buchanan, E.M., \&amp; Henninger, F.</t>
+  </si>
+  <si>
+    <t>Hackathon: Collaborative Open Science Research with Undergraduates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levitan, C., Wagge, J., Buchanan, E.M., \&amp; Benjamin, J. </t>
+  </si>
+  <si>
+    <t>2020, June</t>
+  </si>
+  <si>
+    <t>https://osf.io/b3hp8/</t>
+  </si>
+  <si>
+    <t>https://osf.io/576pd/</t>
+  </si>
+  <si>
+    <t>https://osf.io/tem7k/</t>
+  </si>
+  <si>
+    <t>https://osf.io/d4q95/</t>
+  </si>
+  <si>
+    <t>10.1080/07448481.2020.1785473</t>
+  </si>
+  <si>
+    <t>Pavlacic, J. M., Dixon, L. J., Schulenberg, S. E., \&amp; Buchanan, E. M.</t>
+  </si>
+  <si>
+    <t>Journal of American College Health</t>
+  </si>
+  <si>
+    <t>10.1037/ort0000464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boullion, G. Q., Pavlacic, J. M., Schulenberg, S. E., Buchanan, E. M., \&amp; Steger, M. F. </t>
+  </si>
+  <si>
+    <t>American Journal of Orthopsychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power simulations for linguistic norm data collection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanan, E. M., Valentine, K. D., Maxwell, N. P., Taylor, J. E., \&amp; Montefinese, M. </t>
+  </si>
+  <si>
+    <t>Spoken presentation for the Annual Meeting of the Psychonomic Society, Austin, TX</t>
+  </si>
+  <si>
+    <t>Unconference presentation for the Annual Meeting of the Society for the Improvement of Psychological Science, Victoria, Canada</t>
+  </si>
+  <si>
+    <t>Hackathon presentation for the Annual Meeting of the Society for the Improvement of Psychological Science, Victoria, Canada</t>
+  </si>
+  <si>
+    <t>Testing the assumption of model similarity across languages</t>
+  </si>
+  <si>
+    <t>Grim II, P. A. \&amp; Buchanan, E.M.</t>
+  </si>
+  <si>
+    <t>Spoken presentation for the Annual Meeting of the Society for Computation in Psychology, Austin TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanan, E.M. \&amp; Korn, J. </t>
+  </si>
+  <si>
+    <t>300-310</t>
+  </si>
+  <si>
+    <t>QaSi33NTfwYC</t>
+  </si>
+  <si>
+    <t>Vno172sVVMwC</t>
+  </si>
+  <si>
+    <t>Ej9njvOgR2oC</t>
+  </si>
+  <si>
+    <t>9shLKfS_uJEC, eH23hyXCXa4C, xyvS_IvSCKsC</t>
+  </si>
+  <si>
+    <t>7Frjd3zlGBUC, 3_LpOwP6eMYC, 3lUAU8Oskd0C</t>
+  </si>
+  <si>
+    <t>JH5k92_tO-AC</t>
+  </si>
+  <si>
+    <t>RMgMIBzvq-4C, WWeOtg8bX_EC, vVJNg6_NJEsC</t>
+  </si>
+  <si>
+    <t>xm0LlTxljI0C; wyM6WWKXmoIC, KI9T_ytC6pkC</t>
+  </si>
+  <si>
+    <t>60iIaj97TE0C</t>
+  </si>
+  <si>
+    <t>Moderators of the Relationship between Implicit and Explicit Measures of Evaluation and Identification</t>
+  </si>
+  <si>
+    <t>Schmidt, K., Buchanan, E. M., \&amp; Hall, B.</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Social Psychology</t>
+  </si>
+  <si>
+    <t>MOTE: Measure of the Effect: Package to assist in effect size calculations and their confidence intervals</t>
   </si>
 </sst>
 </file>
@@ -3926,11 +4103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q197" sqref="Q197"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -4021,7 +4198,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
@@ -4033,7 +4210,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
@@ -4042,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>180</v>
@@ -4068,7 +4245,7 @@
         <v>178</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>432</v>
@@ -4103,7 +4280,7 @@
         <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -4150,7 +4327,7 @@
         <v>450</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>393</v>
@@ -4188,7 +4365,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>284</v>
@@ -4200,16 +4377,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J6" s="1">
         <v>2019</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>180</v>
@@ -4235,7 +4412,7 @@
         <v>348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>391</v>
@@ -4267,7 +4444,7 @@
         <v>367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>445</v>
@@ -4305,7 +4482,7 @@
         <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>257</v>
@@ -4349,16 +4526,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D10" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E10" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F10" t="s">
-        <v>868</v>
+        <v>76</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -4367,7 +4544,7 @@
         <v>2019</v>
       </c>
       <c r="K10" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="L10">
         <v>59592572</v>
@@ -4376,7 +4553,7 @@
         <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>201</v>
+        <v>986</v>
       </c>
       <c r="O10" t="s">
         <v>184</v>
@@ -4385,7 +4562,7 @@
         <v>186</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="34">
@@ -4396,10 +4573,10 @@
         <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>207</v>
@@ -4443,10 +4620,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>380</v>
@@ -4475,19 +4652,19 @@
         <v>1.5</v>
       </c>
       <c r="B13" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C13" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D13" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F13" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G13" t="s">
         <v>179</v>
@@ -4502,10 +4679,10 @@
         <v>2019</v>
       </c>
       <c r="K13" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="L13" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="M13" t="s">
         <v>180</v>
@@ -4520,7 +4697,7 @@
         <v>186</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51">
@@ -4531,7 +4708,7 @@
         <v>455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>381</v>
@@ -4552,7 +4729,7 @@
         <v>196</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="34">
@@ -4563,7 +4740,7 @@
         <v>340</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>369</v>
@@ -4595,7 +4772,7 @@
         <v>340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>370</v>
@@ -4627,7 +4804,7 @@
         <v>457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>378</v>
@@ -4635,6 +4812,9 @@
       <c r="J17" s="7" t="s">
         <v>300</v>
       </c>
+      <c r="K17" t="s">
+        <v>1030</v>
+      </c>
       <c r="M17" s="1" t="s">
         <v>216</v>
       </c>
@@ -4656,15 +4836,17 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E18" t="s">
-        <v>882</v>
-      </c>
-      <c r="F18"/>
+        <v>878</v>
+      </c>
+      <c r="F18" t="s">
+        <v>978</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -4672,7 +4854,7 @@
         <v>2019</v>
       </c>
       <c r="K18" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="L18">
         <v>57710195</v>
@@ -4681,7 +4863,7 @@
         <v>180</v>
       </c>
       <c r="N18" t="s">
-        <v>201</v>
+        <v>986</v>
       </c>
       <c r="O18" t="s">
         <v>184</v>
@@ -4690,7 +4872,7 @@
         <v>186</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="34">
@@ -4783,19 +4965,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J21" s="1">
         <v>2018</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L21" s="1">
         <v>46227693</v>
@@ -4824,7 +5006,7 @@
         <v>218</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -4874,7 +5056,7 @@
         <v>222</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>223</v>
@@ -4924,7 +5106,7 @@
         <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>226</v>
@@ -4962,7 +5144,7 @@
         <v>460</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>229</v>
@@ -5018,7 +5200,7 @@
         <v>186</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="34">
@@ -5146,7 +5328,7 @@
         <v>186</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="34">
@@ -5163,7 +5345,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>45</v>
@@ -5175,13 +5357,13 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="J31" s="1">
         <v>2019</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L31" s="1">
         <v>46227680</v>
@@ -5213,7 +5395,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -5263,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J33" s="1">
         <v>2017</v>
@@ -5301,7 +5483,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>183</v>
@@ -5319,7 +5501,7 @@
         <v>2018</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L34" s="1">
         <v>46227685</v>
@@ -5401,7 +5583,7 @@
         <v>186</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="34">
@@ -5415,7 +5597,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>32</v>
@@ -5497,7 +5679,7 @@
         <v>473</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>426</v>
@@ -5521,7 +5703,7 @@
         <v>186</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="51">
@@ -5532,7 +5714,7 @@
         <v>481</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>387</v>
@@ -5553,7 +5735,7 @@
         <v>196</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="85">
@@ -5562,20 +5744,20 @@
       </c>
       <c r="B41"/>
       <c r="C41" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5592,7 +5774,7 @@
         <v>196</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="51">
@@ -5618,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="J42" s="1">
         <v>2019</v>
@@ -5653,7 +5835,7 @@
         <v>352</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>402</v>
@@ -5688,7 +5870,7 @@
         <v>490</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>489</v>
@@ -5724,7 +5906,7 @@
         <v>196</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="34">
@@ -5733,11 +5915,11 @@
       </c>
       <c r="B45"/>
       <c r="C45" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>374</v>
@@ -5746,7 +5928,7 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -5763,7 +5945,7 @@
         <v>196</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="34">
@@ -5772,22 +5954,24 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="K46"/>
+        <v>814</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1031</v>
+      </c>
       <c r="L46"/>
       <c r="M46" s="1" t="s">
         <v>216</v>
@@ -5802,7 +5986,7 @@
         <v>196</v>
       </c>
       <c r="Q46" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="51">
@@ -5813,7 +5997,7 @@
         <v>345</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>384</v>
@@ -5848,7 +6032,7 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>38</v>
@@ -5892,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>208</v>
@@ -5942,7 +6126,7 @@
         <v>498</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>375</v>
@@ -5974,7 +6158,7 @@
         <v>344</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>383</v>
@@ -5995,7 +6179,7 @@
         <v>196</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="51">
@@ -6056,7 +6240,7 @@
         <v>588</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>441</v>
@@ -6094,7 +6278,7 @@
         <v>146</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>45</v>
@@ -6106,7 +6290,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J54" s="1">
         <v>2018</v>
@@ -6144,7 +6328,7 @@
         <v>500</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>376</v>
@@ -6185,7 +6369,7 @@
         <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>121</v>
@@ -6197,7 +6381,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="J56" s="1">
         <v>2019</v>
@@ -6206,7 +6390,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>180</v>
@@ -6232,7 +6416,7 @@
         <v>502</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>427</v>
@@ -6267,7 +6451,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>121</v>
@@ -6288,7 +6472,7 @@
         <v>51</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>180</v>
@@ -6318,10 +6502,10 @@
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F59" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G59" s="23">
         <v>27</v>
@@ -6330,7 +6514,7 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="J59">
         <v>2019</v>
@@ -6354,7 +6538,7 @@
         <v>196</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="34">
@@ -6429,7 +6613,7 @@
         <v>505</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>399</v>
@@ -6461,7 +6645,7 @@
         <v>351</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>400</v>
@@ -6496,7 +6680,7 @@
         <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>593</v>
@@ -6546,7 +6730,7 @@
         <v>55</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>56</v>
@@ -6593,7 +6777,7 @@
         <v>597</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>433</v>
@@ -6646,7 +6830,7 @@
         <v>186</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="34">
@@ -6710,7 +6894,7 @@
         <v>186</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34">
@@ -6861,7 +7045,7 @@
         <v>356</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>406</v>
@@ -6890,37 +7074,37 @@
         <v>1.5</v>
       </c>
       <c r="B75" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C75" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D75" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E75" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="G75" t="s">
-        <v>179</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>179</v>
+        <v>903</v>
+      </c>
+      <c r="G75">
+        <v>33</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>275</v>
+        <v>980</v>
       </c>
       <c r="J75">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K75" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="L75" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="M75" t="s">
         <v>180</v>
@@ -6935,7 +7119,7 @@
         <v>196</v>
       </c>
       <c r="Q75" s="11" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34">
@@ -6949,7 +7133,7 @@
         <v>59</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>20</v>
@@ -6999,7 +7183,7 @@
         <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>608</v>
@@ -7044,20 +7228,20 @@
       </c>
       <c r="B78"/>
       <c r="C78" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -7074,31 +7258,39 @@
         <v>196</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17">
       <c r="A79" s="18">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D79" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E79" t="s">
-        <v>888</v>
-      </c>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
+        <v>884</v>
+      </c>
+      <c r="F79" t="s">
+        <v>978</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="J79">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K79" t="s">
-        <v>947</v>
+        <v>1033</v>
       </c>
       <c r="L79">
         <v>57614693</v>
@@ -7107,7 +7299,7 @@
         <v>180</v>
       </c>
       <c r="N79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O79" t="s">
         <v>184</v>
@@ -7116,7 +7308,7 @@
         <v>196</v>
       </c>
       <c r="Q79" s="11" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="34">
@@ -7130,13 +7322,13 @@
         <v>63</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J80" s="1">
         <v>2018</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L80" s="1">
         <v>46227698</v>
@@ -7162,16 +7354,16 @@
         <v>1.5</v>
       </c>
       <c r="B81" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C81" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D81" t="s">
         <v>661</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F81" t="s">
         <v>662</v>
@@ -7183,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J81">
         <v>2018</v>
@@ -7207,7 +7399,7 @@
         <v>186</v>
       </c>
       <c r="Q81" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="51">
@@ -7215,7 +7407,7 @@
         <v>1.5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>612</v>
@@ -7224,22 +7416,22 @@
         <v>65</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>179</v>
+        <v>852</v>
+      </c>
+      <c r="G82" s="1">
+        <v>49</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>275</v>
+        <v>981</v>
       </c>
       <c r="J82" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>64</v>
@@ -7274,7 +7466,7 @@
         <v>95</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J83" s="1">
         <v>2018</v>
@@ -7312,7 +7504,7 @@
         <v>614</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>66</v>
@@ -7333,7 +7525,7 @@
         <v>67</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>180</v>
@@ -7359,7 +7551,7 @@
         <v>368</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>448</v>
@@ -7391,7 +7583,7 @@
         <v>350</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>397</v>
@@ -7423,7 +7615,7 @@
         <v>350</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>398</v>
@@ -7452,37 +7644,37 @@
         <v>1.5</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>179</v>
+        <v>902</v>
+      </c>
+      <c r="G88" s="1">
+        <v>21</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>275</v>
+        <v>982</v>
       </c>
       <c r="J88" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>180</v>
@@ -7511,7 +7703,7 @@
         <v>602</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>495</v>
@@ -7549,7 +7741,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>70</v>
@@ -7599,7 +7791,7 @@
         <v>248</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>73</v>
@@ -7702,7 +7894,7 @@
         <v>363</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>430</v>
@@ -7743,7 +7935,7 @@
         <v>113</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>121</v>
@@ -7755,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="J94" s="1">
         <v>2019</v>
@@ -7793,7 +7985,7 @@
         <v>144</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>17</v>
@@ -7840,7 +8032,7 @@
         <v>144</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>437</v>
@@ -7878,7 +8070,7 @@
         <v>364</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>434</v>
@@ -7913,7 +8105,7 @@
         <v>130</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J98" s="1">
         <v>2017</v>
@@ -7948,7 +8140,7 @@
         <v>532</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>386</v>
@@ -7983,7 +8175,7 @@
         <v>79</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>257</v>
@@ -8030,7 +8222,7 @@
         <v>628</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>440</v>
@@ -8083,7 +8275,7 @@
         <v>186</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="34">
@@ -8094,7 +8286,7 @@
         <v>366</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>438</v>
@@ -8129,25 +8321,25 @@
         <v>82</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>179</v>
+      <c r="G104" s="1">
+        <v>25</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>275</v>
+        <v>983</v>
       </c>
       <c r="J104" s="1">
         <v>2019</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>678</v>
+        <v>1034</v>
       </c>
       <c r="L104" s="1">
         <v>46227700</v>
@@ -8176,7 +8368,7 @@
         <v>537</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>439</v>
@@ -8211,7 +8403,7 @@
         <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>114</v>
@@ -8258,7 +8450,7 @@
         <v>354</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>404</v>
@@ -8290,7 +8482,7 @@
         <v>355</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>405</v>
@@ -8322,7 +8514,7 @@
         <v>341</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>374</v>
@@ -8357,7 +8549,7 @@
         <v>633</v>
       </c>
       <c r="E110" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>85</v>
@@ -8378,7 +8570,7 @@
         <v>86</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>180</v>
@@ -8407,7 +8599,7 @@
         <v>87</v>
       </c>
       <c r="E111" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>88</v>
@@ -8452,14 +8644,14 @@
       </c>
       <c r="B112"/>
       <c r="C112" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -8470,7 +8662,7 @@
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>200</v>
@@ -8482,12 +8674,15 @@
         <v>196</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="34">
       <c r="A113" s="18">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>987</v>
       </c>
       <c r="C113" t="s">
         <v>666</v>
@@ -8496,16 +8691,25 @@
         <v>665</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
+        <v>755</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G113" t="s">
+        <v>179</v>
+      </c>
+      <c r="H113" t="s">
+        <v>179</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="J113">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K113" t="s">
-        <v>892</v>
+        <v>1036</v>
       </c>
       <c r="L113">
         <v>52212308</v>
@@ -8514,7 +8718,7 @@
         <v>180</v>
       </c>
       <c r="N113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O113" t="s">
         <v>195</v>
@@ -8555,7 +8759,7 @@
         <v>186</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="51">
@@ -8566,7 +8770,7 @@
         <v>362</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>428</v>
@@ -8604,7 +8808,7 @@
         <v>138</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>121</v>
@@ -8672,7 +8876,7 @@
         <v>186</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="51">
@@ -8686,7 +8890,7 @@
         <v>94</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J118" s="1">
         <v>2018</v>
@@ -8718,17 +8922,17 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G119" t="s">
         <v>179</v>
@@ -8736,14 +8940,14 @@
       <c r="H119" t="s">
         <v>179</v>
       </c>
-      <c r="I119" t="s">
-        <v>179</v>
+      <c r="I119" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="J119">
         <v>2019</v>
       </c>
       <c r="K119" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="L119"/>
       <c r="M119" s="1" t="s">
@@ -8759,7 +8963,7 @@
         <v>196</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="34">
@@ -8768,11 +8972,11 @@
       </c>
       <c r="B120"/>
       <c r="C120" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>374</v>
@@ -8781,7 +8985,7 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -8798,7 +9002,7 @@
         <v>186</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="34">
@@ -8807,14 +9011,14 @@
       </c>
       <c r="B121"/>
       <c r="C121" s="1" t="s">
-        <v>824</v>
+        <v>1042</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -8825,7 +9029,7 @@
       <c r="K121"/>
       <c r="L121"/>
       <c r="M121" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>200</v>
@@ -8837,7 +9041,7 @@
         <v>196</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="51">
@@ -8846,20 +9050,20 @@
       </c>
       <c r="B122"/>
       <c r="C122" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>797</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>798</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
@@ -8876,7 +9080,7 @@
         <v>186</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
@@ -8890,7 +9094,7 @@
         <v>96</v>
       </c>
       <c r="E123" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>97</v>
@@ -8911,7 +9115,7 @@
         <v>98</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>180</v>
@@ -8958,7 +9162,7 @@
         <v>196</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="34">
@@ -8969,7 +9173,7 @@
         <v>342</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>377</v>
@@ -9001,7 +9205,7 @@
         <v>539</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>444</v>
@@ -9036,13 +9240,13 @@
         <v>99</v>
       </c>
       <c r="E127" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J127" s="1">
         <v>2017</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="L127" s="1">
         <v>46227678</v>
@@ -9074,7 +9278,7 @@
         <v>134</v>
       </c>
       <c r="E128" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J128" s="1">
         <v>2018</v>
@@ -9106,10 +9310,10 @@
         <v>540</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>293</v>
@@ -9138,7 +9342,7 @@
         <v>549</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>431</v>
@@ -9173,7 +9377,7 @@
         <v>365</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>435</v>
@@ -9208,7 +9412,7 @@
         <v>349</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>392</v>
@@ -9229,7 +9433,7 @@
         <v>196</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="34">
@@ -9243,7 +9447,7 @@
         <v>649</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>85</v>
@@ -9325,7 +9529,7 @@
         <v>131</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>102</v>
@@ -9375,7 +9579,7 @@
         <v>579</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>394</v>
@@ -9399,7 +9603,7 @@
         <v>196</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="34">
@@ -9413,7 +9617,7 @@
         <v>550</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>395</v>
@@ -9451,7 +9655,7 @@
         <v>551</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>429</v>
@@ -9490,7 +9694,7 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>279</v>
@@ -9539,7 +9743,7 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>407</v>
@@ -9565,7 +9769,7 @@
         <v>196</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="141" spans="1:17" customFormat="1" ht="51">
@@ -9578,7 +9782,7 @@
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>401</v>
@@ -9612,16 +9816,16 @@
         <v>1</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G142">
         <v>81</v>
@@ -9630,13 +9834,13 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="J142" s="7">
         <v>2019</v>
       </c>
       <c r="K142" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L142">
         <v>57294563</v>
@@ -9654,7 +9858,7 @@
         <v>196</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="143" spans="1:17" customFormat="1" ht="102">
@@ -9669,7 +9873,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>385</v>
@@ -9697,7 +9901,7 @@
         <v>196</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="144" spans="1:17" customFormat="1" ht="51">
@@ -9710,7 +9914,7 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>403</v>
@@ -9788,7 +9992,7 @@
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>374</v>
@@ -9831,7 +10035,7 @@
         <v>278</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>108</v>
@@ -9843,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J147" s="1">
         <v>2019</v>
@@ -9875,16 +10079,16 @@
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>823</v>
-      </c>
       <c r="J148" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>216</v>
@@ -9899,7 +10103,7 @@
         <v>196</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="149" spans="1:17" customFormat="1" ht="51">
@@ -9912,7 +10116,7 @@
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>396</v>
@@ -9951,7 +10155,7 @@
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>382</v>
@@ -9990,7 +10194,7 @@
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>20</v>
@@ -10039,7 +10243,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>238</v>
@@ -10088,7 +10292,7 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>442</v>
@@ -10114,7 +10318,7 @@
         <v>186</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="154" spans="1:17" customFormat="1" ht="34">
@@ -10127,7 +10331,7 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>443</v>
@@ -10168,7 +10372,7 @@
         <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -10178,7 +10382,7 @@
         <v>2018</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>841</v>
+        <v>1037</v>
       </c>
       <c r="L155" s="1">
         <v>46227699</v>
@@ -10211,7 +10415,7 @@
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>379</v>
@@ -10239,7 +10443,7 @@
         <v>196</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="51">
@@ -10274,7 +10478,7 @@
         <v>115</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>180</v>
@@ -10300,7 +10504,7 @@
         <v>353</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>402</v>
@@ -10335,7 +10539,7 @@
         <v>286</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J159" s="7" t="s">
         <v>332</v>
@@ -10373,7 +10577,7 @@
         <v>2018</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="L160" s="1">
         <v>46227697</v>
@@ -10405,7 +10609,7 @@
         <v>526</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>535</v>
@@ -10443,7 +10647,7 @@
         <v>117</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>88</v>
@@ -10493,7 +10697,7 @@
         <v>119</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J163" s="1">
         <v>2018</v>
@@ -10531,7 +10735,7 @@
         <v>120</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>121</v>
@@ -10578,7 +10782,7 @@
         <v>524</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>436</v>
@@ -10643,20 +10847,20 @@
       </c>
       <c r="B167"/>
       <c r="C167" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D167"/>
       <c r="E167" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>817</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>818</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
       <c r="I167"/>
       <c r="J167" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K167"/>
       <c r="L167"/>
@@ -10673,7 +10877,7 @@
         <v>196</v>
       </c>
       <c r="Q167" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="34">
@@ -10682,20 +10886,20 @@
       </c>
       <c r="B168"/>
       <c r="C168" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
       <c r="J168" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K168"/>
       <c r="L168"/>
@@ -10712,7 +10916,7 @@
         <v>196</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="51">
@@ -10723,7 +10927,7 @@
         <v>494</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>431</v>
@@ -10825,7 +11029,7 @@
         <v>125</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>124</v>
@@ -10869,17 +11073,17 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D173"/>
       <c r="E173" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F173" s="6" t="s">
         <v>838</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>840</v>
       </c>
       <c r="G173" t="s">
         <v>179</v>
@@ -10893,7 +11097,9 @@
       <c r="J173">
         <v>2019</v>
       </c>
-      <c r="K173"/>
+      <c r="K173" t="s">
+        <v>1038</v>
+      </c>
       <c r="L173"/>
       <c r="M173" s="1" t="s">
         <v>180</v>
@@ -10908,7 +11114,7 @@
         <v>186</v>
       </c>
       <c r="Q173" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="34">
@@ -10940,7 +11146,7 @@
         <v>196</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="34">
@@ -10972,7 +11178,7 @@
         <v>186</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="34">
@@ -10986,7 +11192,7 @@
         <v>126</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
@@ -11033,7 +11239,7 @@
         <v>126</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>446</v>
@@ -11100,7 +11306,7 @@
         <v>667</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F179"/>
       <c r="G179"/>
@@ -11142,10 +11348,10 @@
         <v>667</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -11176,19 +11382,19 @@
         <v>1</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>216</v>
@@ -11203,7 +11409,7 @@
         <v>196</v>
       </c>
       <c r="Q181" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="51">
@@ -11211,16 +11417,16 @@
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>216</v>
@@ -11235,7 +11441,7 @@
         <v>196</v>
       </c>
       <c r="Q182" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="51">
@@ -11243,16 +11449,16 @@
         <v>1</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>216</v>
@@ -11267,7 +11473,7 @@
         <v>186</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="34">
@@ -11275,16 +11481,16 @@
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>216</v>
@@ -11299,7 +11505,7 @@
         <v>186</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="34">
@@ -11307,16 +11513,16 @@
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>216</v>
@@ -11331,7 +11537,7 @@
         <v>196</v>
       </c>
       <c r="Q185" s="2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="51">
@@ -11339,25 +11545,25 @@
         <v>1.5</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D186" t="s">
         <v>665</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="K186" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>216</v>
@@ -11380,19 +11586,19 @@
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J187" s="1">
         <v>2019</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="L187">
         <v>61451311</v>
@@ -11410,7 +11616,7 @@
         <v>196</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="36">
@@ -11419,13 +11625,13 @@
       </c>
       <c r="B188" s="19"/>
       <c r="C188" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="J188" s="1">
         <v>2019</v>
@@ -11446,7 +11652,7 @@
         <v>186</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="34">
@@ -11454,16 +11660,16 @@
         <v>1</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="J189" s="1">
         <v>2016</v>
@@ -11492,31 +11698,31 @@
         <v>1</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>179</v>
+        <v>945</v>
+      </c>
+      <c r="G190" s="1">
+        <v>44</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>275</v>
+        <v>1029</v>
       </c>
       <c r="J190" s="1">
         <v>2019</v>
       </c>
       <c r="K190" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>180</v>
@@ -11531,30 +11737,33 @@
         <v>196</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="34">
       <c r="A191" s="17">
         <v>1</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>985</v>
+      </c>
       <c r="C191" s="1" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>179</v>
+        <v>948</v>
+      </c>
+      <c r="G191" s="1">
+        <v>6</v>
+      </c>
+      <c r="H191" s="1">
+        <v>12</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>275</v>
+        <v>984</v>
       </c>
       <c r="J191" s="1">
         <v>2019</v>
@@ -11572,7 +11781,7 @@
         <v>196</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="34">
@@ -11580,22 +11789,22 @@
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D192" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="J192" s="1">
         <v>2019</v>
       </c>
       <c r="K192" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="L192">
         <v>66133660</v>
@@ -11613,7 +11822,7 @@
         <v>196</v>
       </c>
       <c r="Q192" s="11" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="17">
@@ -11621,19 +11830,19 @@
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="J193" s="1">
         <v>2019</v>
       </c>
       <c r="K193" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="L193">
         <v>66565618</v>
@@ -11651,14 +11860,433 @@
         <v>196</v>
       </c>
       <c r="Q193" s="2" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17">
-      <c r="L194"/>
-    </row>
-    <row r="195" spans="1:17">
-      <c r="C195"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="51">
+      <c r="A194" s="17">
+        <v>1</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J194" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K194" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L194">
+        <v>74750310</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="51">
+      <c r="A195" s="17">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J195" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K195" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L195">
+        <v>77376584</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="51">
+      <c r="A196" s="17">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="85">
+      <c r="A197" s="17">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="51">
+      <c r="A198" s="17">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" ht="51">
+      <c r="A199" s="17">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="51">
+      <c r="A200" s="17">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="51">
+      <c r="A201" s="17">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="51">
+      <c r="A202" s="17">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="34">
+      <c r="A203" s="17">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="34">
+      <c r="A204" s="17">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" ht="34">
+      <c r="A205" s="17">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="34">
+      <c r="A206" s="17">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J206" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q181">

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30644F-8D9E-D745-A69C-D6A7DEDB59C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B8286-C845-1A45-B817-B75D4EF295BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="1065">
   <si>
     <t>title</t>
   </si>
@@ -3160,6 +3160,72 @@
   </si>
   <si>
     <t>MOTE: Measure of the Effect: Package to assist in effect size calculations and their confidence intervals</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/urhc4</t>
+  </si>
+  <si>
+    <t>https://osf.io/urhc4</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/9m2jn</t>
+  </si>
+  <si>
+    <t>https://osf.io/9m2jn</t>
+  </si>
+  <si>
+    <t>Using STRUDEL to create concept-feature norms for many languages</t>
+  </si>
+  <si>
+    <t>https://psyarxiv.com/t2pjv</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/t2pjv</t>
+  </si>
+  <si>
+    <t>Investigating Object Orientation Effects Across 14 Languages</t>
+  </si>
+  <si>
+    <t>Moral thinking across the world: Exploring the influence of personal force and intention in moral dilemma judgments</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/9uaqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bago, B., et al. </t>
+  </si>
+  <si>
+    <t>Chin, S.-C., et al.</t>
+  </si>
+  <si>
+    <t>https://psyarxiv.com/9uaqm/</t>
+  </si>
+  <si>
+    <t>https://psyarxiv.com/m4gpq/</t>
+  </si>
+  <si>
+    <t>A global test of brief reappraisal interventions on emotions during the COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/m4gpq</t>
+  </si>
+  <si>
+    <t>Wang, K., et al.</t>
+  </si>
+  <si>
+    <t>77376584, 79018163</t>
+  </si>
+  <si>
+    <t>74750310, 79017335</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/k4cm8</t>
+  </si>
+  <si>
+    <t>https://osf.io/k4cm8</t>
+  </si>
+  <si>
+    <t>h168fVGZblEC</t>
   </si>
 </sst>
 </file>
@@ -4103,11 +4169,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q206"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -9011,175 +9077,186 @@
       </c>
       <c r="B121"/>
       <c r="C121" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D121"/>
+        <v>967</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>1062</v>
+      </c>
       <c r="E121" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>824</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="F121" s="6"/>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
-      <c r="J121">
+      <c r="J121" s="7">
         <v>2019</v>
       </c>
-      <c r="K121"/>
-      <c r="L121"/>
+      <c r="K121" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L121">
+        <v>78301690</v>
+      </c>
       <c r="M121" s="1" t="s">
-        <v>825</v>
+        <v>180</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q121" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="51">
+        <v>186</v>
+      </c>
+      <c r="Q121" s="11" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="34">
       <c r="A122" s="17">
         <v>1</v>
       </c>
       <c r="B122"/>
       <c r="C122" s="1" t="s">
-        <v>795</v>
+        <v>1042</v>
       </c>
       <c r="D122"/>
-      <c r="E122" s="7" t="s">
-        <v>796</v>
+      <c r="E122" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
-      <c r="J122" s="7" t="s">
-        <v>798</v>
+      <c r="J122">
+        <v>2019</v>
       </c>
       <c r="K122"/>
       <c r="L122"/>
       <c r="M122" s="1" t="s">
-        <v>216</v>
+        <v>825</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
       <c r="A123" s="17">
         <v>1</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="B123"/>
       <c r="C123" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E123" t="s">
-        <v>758</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G123" s="1">
-        <v>51</v>
-      </c>
-      <c r="H123" s="1">
-        <v>4</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="J123" s="1">
-        <v>2011</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>888</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="K123"/>
+      <c r="L123"/>
       <c r="M123" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>645</v>
+        <v>799</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="51">
       <c r="A124" s="17">
         <v>1</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>306</v>
+      <c r="B124" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E124" t="s">
+        <v>758</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G124" s="1">
+        <v>51</v>
+      </c>
+      <c r="H124" s="1">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J124" s="1">
+        <v>2011</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q124" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="34">
+      <c r="Q124" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="51">
       <c r="A125" s="17">
         <v>1</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>342</v>
+        <v>538</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>759</v>
+        <v>287</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>216</v>
@@ -9188,13 +9265,13 @@
         <v>200</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="P125" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q125" s="2" t="s">
-        <v>546</v>
+      <c r="Q125" s="1" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="34">
@@ -9202,16 +9279,16 @@
         <v>1</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>539</v>
+        <v>342</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>216</v>
@@ -9220,51 +9297,45 @@
         <v>200</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="34">
       <c r="A127" s="17">
         <v>1</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E127" t="s">
-        <v>761</v>
-      </c>
-      <c r="J127" s="1">
-        <v>2017</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="L127" s="1">
-        <v>46227678</v>
+      <c r="C127" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>647</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34">
@@ -9272,19 +9343,22 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>133</v>
+        <v>646</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E128" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J128" s="1">
-        <v>2018</v>
+        <v>2017</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="L128" s="1">
-        <v>46227702</v>
+        <v>46227678</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>180</v>
@@ -9299,39 +9373,42 @@
         <v>196</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="34">
       <c r="A129" s="17">
         <v>1</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>293</v>
+      <c r="C129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" t="s">
+        <v>762</v>
+      </c>
+      <c r="J129" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L129" s="1">
+        <v>46227702</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>548</v>
+        <v>648</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="34">
@@ -9339,16 +9416,16 @@
         <v>1</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>431</v>
+        <v>970</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>216</v>
@@ -9363,30 +9440,24 @@
         <v>186</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34">
       <c r="A131" s="17">
         <v>1</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C131" s="6" t="s">
-        <v>365</v>
+        <v>549</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L131" s="1">
-        <v>22716712</v>
+        <v>334</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>216</v>
@@ -9401,24 +9472,30 @@
         <v>186</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" ht="51">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="34">
       <c r="A132" s="17">
         <v>1</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C132" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
+      </c>
+      <c r="L132" s="1">
+        <v>22716712</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>216</v>
@@ -9430,80 +9507,80 @@
         <v>195</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" ht="34">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="51">
       <c r="A133" s="17">
         <v>1</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G133" s="1">
-        <v>99</v>
-      </c>
-      <c r="H133" s="1">
-        <v>1</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J133" s="1">
-        <v>2017</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L133" s="1">
-        <v>30745635</v>
+      <c r="C133" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>196</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>650</v>
+        <v>964</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34">
       <c r="A134" s="17">
         <v>1</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>302</v>
+      <c r="B134" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G134" s="1">
+        <v>99</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J134" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L134" s="1">
+        <v>30745635</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N134" s="1" t="s">
         <v>200</v>
@@ -9512,48 +9589,30 @@
         <v>210</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" ht="51">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="34">
       <c r="A135" s="17">
         <v>1</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G135" s="1">
-        <v>8</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J135" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L135" s="1">
-        <v>46227946</v>
+      <c r="C135" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>200</v>
@@ -9562,48 +9621,60 @@
         <v>210</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" ht="34">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="51">
       <c r="A136" s="17">
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>310</v>
+        <v>131</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G136" s="1">
+        <v>8</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J136" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="L136" s="1">
-        <v>22716709</v>
+        <v>46227946</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q136" s="1" t="s">
-        <v>951</v>
+      <c r="Q136" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="34">
@@ -9611,22 +9682,22 @@
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>550</v>
+        <v>159</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L137" s="1">
-        <v>22716719</v>
+        <v>22716709</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>216</v>
@@ -9640,8 +9711,8 @@
       <c r="P137" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q137" s="2" t="s">
-        <v>557</v>
+      <c r="Q137" s="1" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="34">
@@ -9649,22 +9720,22 @@
         <v>1</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L138" s="1">
-        <v>22716721</v>
+        <v>22716719</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>216</v>
@@ -9676,122 +9747,121 @@
         <v>195</v>
       </c>
       <c r="P138" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="34">
+      <c r="A139" s="17">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L139" s="1">
+        <v>22716721</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P139" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q138" s="1" t="s">
+      <c r="Q139" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:17" customFormat="1" ht="51">
-      <c r="A139" s="17">
-        <v>1</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:17" customFormat="1" ht="51">
+      <c r="A140" s="17">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1" t="s">
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G140" s="1">
         <v>48</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H140" s="1">
         <v>2</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I140" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J139" s="1">
+      <c r="J140" s="1">
         <v>2016</v>
       </c>
-      <c r="K139" s="1" t="s">
+      <c r="K140" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L139" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="M139" s="1" t="s">
+      <c r="M140" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N139" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O139" s="1" t="s">
+      <c r="N140" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O140" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q139" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" customFormat="1" ht="34">
-      <c r="A140" s="17">
-        <v>1</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q140" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" customFormat="1" ht="51">
+      <c r="Q140" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" customFormat="1" ht="34">
       <c r="A141" s="17">
         <v>1</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -9807,46 +9877,35 @@
       <c r="P141" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q141" s="2" t="s">
-        <v>577</v>
+      <c r="Q141" s="1" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="142" spans="1:17" customFormat="1" ht="51">
       <c r="A142" s="17">
         <v>1</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>846</v>
+      <c r="B142" s="1"/>
+      <c r="C142" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="7" t="s">
+        <v>773</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="G142">
-        <v>81</v>
-      </c>
-      <c r="H142">
-        <v>2</v>
-      </c>
-      <c r="I142" t="s">
-        <v>890</v>
-      </c>
-      <c r="J142" s="7">
-        <v>2019</v>
-      </c>
-      <c r="K142" t="s">
-        <v>863</v>
-      </c>
-      <c r="L142">
-        <v>57294563</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
       <c r="M142" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>200</v>
@@ -9858,75 +9917,86 @@
         <v>196</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" customFormat="1" ht="102">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" customFormat="1" ht="51">
       <c r="A143" s="17">
         <v>1</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="7" t="s">
-        <v>774</v>
+      <c r="B143" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1">
-        <v>22716695</v>
+        <v>847</v>
+      </c>
+      <c r="G143">
+        <v>81</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>890</v>
+      </c>
+      <c r="J143" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K143" t="s">
+        <v>863</v>
+      </c>
+      <c r="L143">
+        <v>57294563</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q143" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" customFormat="1" ht="51">
+      <c r="Q143" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" customFormat="1" ht="102">
       <c r="A144" s="17">
         <v>1</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C144" s="6" t="s">
-        <v>552</v>
+        <v>346</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
+      <c r="L144" s="1">
+        <v>22716695</v>
+      </c>
       <c r="M144" s="1" t="s">
         <v>216</v>
       </c>
@@ -9934,35 +10004,35 @@
         <v>200</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q144" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" customFormat="1" ht="34">
+      <c r="Q144" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" customFormat="1" ht="51">
       <c r="A145" s="17">
         <v>1</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="7" t="s">
-        <v>286</v>
+        <v>775</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -9973,13 +10043,13 @@
         <v>200</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>196</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="1:17" customFormat="1" ht="34">
@@ -9988,20 +10058,20 @@
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="7" t="s">
-        <v>776</v>
+        <v>286</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -10012,54 +10082,40 @@
         <v>200</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q146" s="1" t="s">
-        <v>561</v>
+        <v>196</v>
+      </c>
+      <c r="Q146" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="1:17" customFormat="1" ht="34">
       <c r="A147" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G147" s="15">
-        <v>87</v>
-      </c>
-      <c r="H147" s="15">
-        <v>2</v>
-      </c>
-      <c r="I147" t="s">
-        <v>843</v>
-      </c>
-      <c r="J147" s="1">
-        <v>2019</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="L147" s="1">
-        <v>44621959</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
       <c r="M147" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>200</v>
@@ -10068,30 +10124,51 @@
         <v>195</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q147" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" customFormat="1" ht="51">
+        <v>186</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" customFormat="1" ht="34">
       <c r="A148" s="17">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>820</v>
+        <v>107</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>803</v>
+        <v>794</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G148" s="15">
+        <v>87</v>
+      </c>
+      <c r="H148" s="15">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>843</v>
+      </c>
+      <c r="J148" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L148" s="1">
+        <v>44621959</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>200</v>
@@ -10102,33 +10179,26 @@
       <c r="P148" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q148" s="2" t="s">
-        <v>953</v>
+      <c r="Q148" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:17" customFormat="1" ht="51">
       <c r="A149" s="17">
         <v>1</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="7" t="s">
-        <v>777</v>
+      <c r="C149" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
+        <v>822</v>
+      </c>
       <c r="J149" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
+        <v>803</v>
+      </c>
       <c r="M149" s="1" t="s">
         <v>216</v>
       </c>
@@ -10142,29 +10212,29 @@
         <v>196</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" customFormat="1" ht="34">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" customFormat="1" ht="51">
       <c r="A150" s="17">
         <v>1</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="6" t="s">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -10175,13 +10245,13 @@
         <v>200</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>196</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:17" customFormat="1" ht="34">
@@ -10189,48 +10259,38 @@
         <v>1</v>
       </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="1" t="s">
-        <v>110</v>
+      <c r="C151" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="D151" s="1"/>
-      <c r="E151" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" s="1">
-        <v>9</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J151" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="L151" s="1">
-        <v>30745623</v>
-      </c>
+      <c r="E151" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
       <c r="M151" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q151" s="4" t="s">
-        <v>237</v>
+        <v>196</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:17" customFormat="1" ht="34">
@@ -10239,32 +10299,32 @@
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="8" t="s">
-        <v>779</v>
+        <v>745</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="G152" s="1">
-        <v>26</v>
-      </c>
-      <c r="H152" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J152" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>240</v>
+        <v>657</v>
+      </c>
+      <c r="L152" s="1">
+        <v>30745623</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>180</v>
@@ -10273,40 +10333,50 @@
         <v>200</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="P152" s="1" t="s">
         <v>186</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" customFormat="1" ht="51">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" customFormat="1" ht="34">
       <c r="A153" s="17">
         <v>1</v>
       </c>
       <c r="B153" s="1"/>
-      <c r="C153" s="6" t="s">
-        <v>528</v>
+      <c r="C153" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D153" s="1"/>
-      <c r="E153" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
+      <c r="E153" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G153" s="1">
+        <v>26</v>
+      </c>
+      <c r="H153" s="1">
+        <v>1</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J153" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="M153" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>200</v>
@@ -10317,30 +10387,30 @@
       <c r="P153" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q153" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" customFormat="1" ht="34">
+      <c r="Q153" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" customFormat="1" ht="51">
       <c r="A154" s="17">
         <v>1</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -10356,8 +10426,8 @@
       <c r="P154" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q154" s="2" t="s">
-        <v>563</v>
+      <c r="Q154" s="1" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="155" spans="1:17" customFormat="1" ht="34">
@@ -10365,33 +10435,29 @@
         <v>1</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E155" t="s">
-        <v>782</v>
-      </c>
-      <c r="F155" s="1"/>
+      <c r="C155" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L155" s="1">
-        <v>46227699</v>
-      </c>
+      <c r="J155" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
       <c r="M155" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O155" s="1" t="s">
         <v>195</v>
@@ -10400,149 +10466,160 @@
         <v>186</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
     </row>
     <row r="156" spans="1:17" customFormat="1" ht="34">
       <c r="A156" s="17">
         <v>1</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>379</v>
-      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" t="s">
+        <v>782</v>
+      </c>
+      <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K156" s="1"/>
+      <c r="J156" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>1037</v>
+      </c>
       <c r="L156" s="1">
-        <v>22716703</v>
+        <v>46227699</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q156" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" ht="51">
+        <v>186</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" customFormat="1" ht="34">
       <c r="A157" s="17">
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G157" s="1">
-        <v>67</v>
-      </c>
-      <c r="H157" s="1">
-        <v>12</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J157" s="1">
-        <v>2011</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>891</v>
+        <v>140</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1">
+        <v>22716703</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q157" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" ht="68">
+      <c r="Q157" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="51">
       <c r="A158" s="17">
         <v>1</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>227</v>
+      <c r="B158" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G158" s="1">
+        <v>67</v>
+      </c>
+      <c r="H158" s="1">
+        <v>12</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J158" s="1">
+        <v>2011</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q158" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" ht="34">
+      <c r="Q158" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="68">
       <c r="A159" s="17">
         <v>1</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>286</v>
+        <v>713</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>849</v>
+        <v>402</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>216</v>
@@ -10551,89 +10628,83 @@
         <v>200</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>196</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="34">
       <c r="A160" s="17">
         <v>1</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J160" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="L160" s="1">
-        <v>46227697</v>
+      <c r="C160" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q160" s="1" t="s">
-        <v>269</v>
+        <v>196</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="34">
       <c r="A161" s="17">
         <v>1</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="J161" s="7" t="s">
-        <v>292</v>
+      <c r="C161" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J161" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>892</v>
       </c>
       <c r="L161" s="1">
-        <v>22716710</v>
+        <v>46227697</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q161" s="2" t="s">
-        <v>536</v>
+        <v>186</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="34">
@@ -10641,37 +10712,25 @@
         <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G162" s="1">
-        <v>12</v>
-      </c>
-      <c r="H162" s="1">
-        <v>5</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J162" s="1">
-        <v>2011</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>673</v>
+        <v>165</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L162" s="1">
+        <v>22716710</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N162" s="1" t="s">
         <v>200</v>
@@ -10682,87 +10741,87 @@
       <c r="P162" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q162" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="51">
+      <c r="Q162" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="34">
       <c r="A163" s="17">
         <v>1</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C163" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G163" s="1">
+        <v>12</v>
+      </c>
+      <c r="H163" s="1">
+        <v>5</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="J163" s="1">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="L163" s="1">
-        <v>46227703</v>
+        <v>118</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O163" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="51">
       <c r="A164" s="17">
         <v>1</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C164" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G164" s="1">
-        <v>45</v>
-      </c>
-      <c r="H164" s="1">
-        <v>4</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>244</v>
+        <v>263</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="J164" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
+      </c>
+      <c r="L164" s="1">
+        <v>46227703</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>195</v>
@@ -10770,28 +10829,46 @@
       <c r="P164" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q164" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" ht="34">
+      <c r="Q164" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="51">
       <c r="A165" s="17">
         <v>1</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J165" s="7" t="s">
-        <v>293</v>
+      <c r="B165" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G165" s="1">
+        <v>45</v>
+      </c>
+      <c r="H165" s="1">
+        <v>4</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J165" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>200</v>
@@ -10802,8 +10879,8 @@
       <c r="P165" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q165" s="2" t="s">
-        <v>525</v>
+      <c r="Q165" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="34">
@@ -10811,19 +10888,16 @@
         <v>1</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D166" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>286</v>
+        <v>788</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>216</v>
@@ -10832,38 +10906,34 @@
         <v>200</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q166" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" ht="51">
+        <v>186</v>
+      </c>
+      <c r="Q166" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="34">
       <c r="A167" s="17">
         <v>1</v>
       </c>
-      <c r="B167"/>
-      <c r="C167" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D167"/>
-      <c r="E167" s="1" t="s">
-        <v>816</v>
+      <c r="C167" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D167" t="s">
+        <v>571</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="G167"/>
-      <c r="H167"/>
-      <c r="I167"/>
+        <v>373</v>
+      </c>
       <c r="J167" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="K167"/>
-      <c r="L167"/>
+        <v>297</v>
+      </c>
       <c r="M167" s="1" t="s">
         <v>216</v>
       </c>
@@ -10871,16 +10941,16 @@
         <v>200</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P167" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q167" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" ht="34">
+      <c r="Q167" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="51">
       <c r="A168" s="17">
         <v>1</v>
       </c>
@@ -10890,16 +10960,16 @@
       </c>
       <c r="D168"/>
       <c r="E168" s="1" t="s">
-        <v>208</v>
+        <v>816</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
-      <c r="J168" t="s">
-        <v>803</v>
+      <c r="J168" s="7" t="s">
+        <v>818</v>
       </c>
       <c r="K168"/>
       <c r="L168"/>
@@ -10910,31 +10980,38 @@
         <v>200</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P168" s="1" t="s">
         <v>196</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" ht="51">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="34">
       <c r="A169" s="17">
         <v>1</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>789</v>
+      <c r="B169"/>
+      <c r="C169" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="J169" s="7" t="s">
-        <v>334</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169" t="s">
+        <v>803</v>
+      </c>
+      <c r="K169"/>
+      <c r="L169"/>
       <c r="M169" s="1" t="s">
         <v>216</v>
       </c>
@@ -10942,30 +11019,30 @@
         <v>200</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" ht="34">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="51">
       <c r="A170" s="17">
         <v>1</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>286</v>
+        <v>789</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>216</v>
@@ -10974,13 +11051,13 @@
         <v>200</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P170" s="1" t="s">
         <v>186</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>569</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="34">
@@ -10988,19 +11065,16 @@
         <v>1</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D171" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>216</v>
@@ -11009,98 +11083,84 @@
         <v>200</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P171" s="1" t="s">
         <v>186</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="34">
       <c r="A172" s="17">
         <v>1</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G172" s="1">
-        <v>23</v>
-      </c>
-      <c r="H172" s="1">
-        <v>2</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J172" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K172" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L172" s="1">
-        <v>46227684</v>
+      <c r="C172" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D172" t="s">
+        <v>522</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J172" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="P172" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q172" s="4" t="s">
-        <v>190</v>
+      <c r="Q172" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="34">
       <c r="A173" s="17">
         <v>1</v>
       </c>
-      <c r="B173" t="s">
-        <v>837</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D173"/>
+        <v>187</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E173" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="G173" t="s">
-        <v>179</v>
-      </c>
-      <c r="H173" t="s">
-        <v>179</v>
-      </c>
-      <c r="I173" t="s">
-        <v>179</v>
-      </c>
-      <c r="J173">
-        <v>2019</v>
-      </c>
-      <c r="K173" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L173"/>
+        <v>790</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G173" s="1">
+        <v>23</v>
+      </c>
+      <c r="H173" s="1">
+        <v>2</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J173" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L173" s="1">
+        <v>46227684</v>
+      </c>
       <c r="M173" s="1" t="s">
         <v>180</v>
       </c>
@@ -11108,45 +11168,62 @@
         <v>200</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q173" s="11" t="s">
-        <v>834</v>
+      <c r="Q173" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="34">
       <c r="A174" s="17">
         <v>1</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>286</v>
+      <c r="B174" t="s">
+        <v>837</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="J174" s="7" t="s">
-        <v>295</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="G174" t="s">
+        <v>179</v>
+      </c>
+      <c r="H174" t="s">
+        <v>179</v>
+      </c>
+      <c r="I174" t="s">
+        <v>179</v>
+      </c>
+      <c r="J174">
+        <v>2019</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L174"/>
       <c r="M174" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q174" s="1" t="s">
-        <v>951</v>
+        <v>186</v>
+      </c>
+      <c r="Q174" s="11" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="34">
@@ -11154,16 +11231,16 @@
         <v>1</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>358</v>
+        <v>492</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>216</v>
@@ -11175,7 +11252,7 @@
         <v>210</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q175" s="1" t="s">
         <v>951</v>
@@ -11185,70 +11262,70 @@
       <c r="A176" s="17">
         <v>1</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G176" s="1">
-        <v>36</v>
-      </c>
-      <c r="H176" s="1">
-        <v>1</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J176" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>259</v>
+      <c r="C176" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q176" s="4" t="s">
-        <v>260</v>
+        <v>186</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="34">
       <c r="A177" s="17">
         <v>1</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E177" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="J177" s="7" t="s">
-        <v>338</v>
+      <c r="E177" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177" s="1">
+        <v>36</v>
+      </c>
+      <c r="H177" s="1">
+        <v>1</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J177" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>200</v>
@@ -11259,8 +11336,8 @@
       <c r="P177" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q177" s="2" t="s">
-        <v>476</v>
+      <c r="Q177" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="34">
@@ -11268,16 +11345,16 @@
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>474</v>
+        <v>126</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>286</v>
+        <v>791</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>216</v>
@@ -11286,58 +11363,48 @@
         <v>200</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q178" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="34">
       <c r="A179" s="17">
         <v>1</v>
       </c>
-      <c r="C179" t="s">
-        <v>669</v>
-      </c>
-      <c r="D179" t="s">
-        <v>667</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
-      <c r="J179">
-        <v>2019</v>
-      </c>
-      <c r="K179" t="s">
-        <v>668</v>
-      </c>
-      <c r="L179">
-        <v>53070092</v>
+      <c r="C179" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J179" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N179" t="s">
-        <v>201</v>
-      </c>
-      <c r="O179" t="s">
-        <v>195</v>
-      </c>
-      <c r="P179" t="s">
+        <v>216</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P179" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q179" s="11" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" ht="51">
+      <c r="Q179" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="34">
       <c r="A180" s="17">
         <v>1</v>
       </c>
@@ -11350,22 +11417,24 @@
       <c r="E180" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="F180" s="6" t="s">
-        <v>911</v>
-      </c>
+      <c r="F180"/>
       <c r="G180"/>
       <c r="H180"/>
       <c r="I180"/>
-      <c r="J180" t="s">
-        <v>317</v>
-      </c>
-      <c r="K180"/>
-      <c r="L180"/>
+      <c r="J180">
+        <v>2019</v>
+      </c>
+      <c r="K180" t="s">
+        <v>668</v>
+      </c>
+      <c r="L180">
+        <v>53070092</v>
+      </c>
       <c r="M180" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N180" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O180" t="s">
         <v>195</v>
@@ -11377,56 +11446,64 @@
         <v>670</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="34">
+    <row r="181" spans="1:17" ht="51">
       <c r="A181" s="17">
         <v>1</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>854</v>
+      <c r="C181" t="s">
+        <v>669</v>
+      </c>
+      <c r="D181" t="s">
+        <v>667</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>814</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181" t="s">
+        <v>317</v>
+      </c>
+      <c r="K181"/>
+      <c r="L181"/>
       <c r="M181" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="N181" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O181" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P181" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q181" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" ht="51">
+      <c r="N181" t="s">
+        <v>200</v>
+      </c>
+      <c r="O181" t="s">
+        <v>195</v>
+      </c>
+      <c r="P181" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q181" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="34">
       <c r="A182" s="17">
         <v>1</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>904</v>
+      <c r="C182" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>905</v>
+        <v>855</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>906</v>
+        <v>971</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>907</v>
+        <v>814</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>216</v>
@@ -11441,21 +11518,21 @@
         <v>196</v>
       </c>
       <c r="Q182" s="2" t="s">
-        <v>963</v>
+        <v>856</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="51">
       <c r="A183" s="17">
         <v>1</v>
       </c>
-      <c r="C183" s="21" t="s">
-        <v>908</v>
+      <c r="C183" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>910</v>
+        <v>905</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>907</v>
@@ -11467,27 +11544,27 @@
         <v>200</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" ht="34">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="51">
       <c r="A184" s="17">
         <v>1</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>912</v>
+      <c r="C184" s="21" t="s">
+        <v>908</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>874</v>
+        <v>909</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>907</v>
@@ -11505,7 +11582,7 @@
         <v>186</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="34">
@@ -11513,13 +11590,13 @@
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>807</v>
+        <v>874</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>907</v>
@@ -11534,37 +11611,28 @@
         <v>195</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q185" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" ht="51">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="34">
       <c r="A186" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>919</v>
+        <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D186" t="s">
-        <v>665</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>915</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="K186" t="s">
-        <v>922</v>
-      </c>
       <c r="M186" s="1" t="s">
         <v>216</v>
       </c>
@@ -11577,37 +11645,40 @@
       <c r="P186" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q186" s="11" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" ht="34">
+      <c r="Q186" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="51">
       <c r="A187" s="17">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="J187" s="1">
-        <v>2019</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="L187">
-        <v>61451311</v>
+        <v>920</v>
+      </c>
+      <c r="D187" t="s">
+        <v>665</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="K187" t="s">
+        <v>922</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>195</v>
@@ -11615,29 +11686,31 @@
       <c r="P187" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q187" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" ht="36">
+      <c r="Q187" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="34">
       <c r="A188" s="17">
         <v>1</v>
       </c>
-      <c r="B188" s="19"/>
       <c r="C188" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D188" s="22" t="s">
-        <v>929</v>
+        <v>923</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>931</v>
+        <v>715</v>
       </c>
       <c r="J188" s="1">
         <v>2019</v>
       </c>
+      <c r="K188" s="1" t="s">
+        <v>925</v>
+      </c>
       <c r="L188">
-        <v>61994708</v>
+        <v>61451311</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>180</v>
@@ -11649,48 +11722,46 @@
         <v>195</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" ht="34">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="36">
       <c r="A189" s="17">
         <v>1</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>933</v>
-      </c>
+      <c r="B189" s="19"/>
       <c r="C189" s="1" t="s">
-        <v>932</v>
+        <v>936</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>929</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J189" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="L189">
-        <v>46227876</v>
+        <v>61994708</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>632</v>
+        <v>930</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="34">
@@ -11698,31 +11769,22 @@
         <v>1</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>943</v>
+        <v>933</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="G190" s="1">
-        <v>44</v>
-      </c>
-      <c r="H190" s="1">
-        <v>2</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>1029</v>
+        <v>935</v>
       </c>
       <c r="J190" s="1">
-        <v>2019</v>
-      </c>
-      <c r="K190" t="s">
-        <v>946</v>
+        <v>2016</v>
+      </c>
+      <c r="L190">
+        <v>46227876</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>180</v>
@@ -11737,7 +11799,7 @@
         <v>196</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>965</v>
+        <v>632</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="34">
@@ -11745,29 +11807,32 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>968</v>
+        <v>949</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>943</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G191" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H191" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>984</v>
+        <v>1029</v>
       </c>
       <c r="J191" s="1">
         <v>2019</v>
       </c>
+      <c r="K191" t="s">
+        <v>946</v>
+      </c>
       <c r="M191" s="1" t="s">
         <v>180</v>
       </c>
@@ -11781,39 +11846,42 @@
         <v>196</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="34">
       <c r="A192" s="17">
         <v>1</v>
       </c>
+      <c r="B192" s="1" t="s">
+        <v>985</v>
+      </c>
       <c r="C192" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="D192" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>961</v>
+        <v>948</v>
+      </c>
+      <c r="G192" s="1">
+        <v>6</v>
+      </c>
+      <c r="H192" s="1">
+        <v>12</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>984</v>
       </c>
       <c r="J192" s="1">
         <v>2019</v>
       </c>
-      <c r="K192" t="s">
-        <v>972</v>
-      </c>
-      <c r="L192">
-        <v>66133660</v>
-      </c>
       <c r="M192" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>195</v>
@@ -11821,31 +11889,34 @@
       <c r="P192" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q192" s="11" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" ht="17">
+      <c r="Q192" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="34">
       <c r="A193" s="17">
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>973</v>
+        <v>958</v>
+      </c>
+      <c r="D193" t="s">
+        <v>959</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>975</v>
+        <v>960</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>961</v>
       </c>
       <c r="J193" s="1">
         <v>2019</v>
       </c>
       <c r="K193" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="L193">
-        <v>66565618</v>
+        <v>66133660</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>180</v>
@@ -11859,49 +11930,37 @@
       <c r="P193" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q193" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" ht="51">
+      <c r="Q193" s="11" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="17">
       <c r="A194" s="17">
         <v>1</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="C194" s="1" t="s">
-        <v>988</v>
+        <v>974</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>973</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>275</v>
+        <v>975</v>
       </c>
       <c r="J194" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K194" t="s">
-        <v>1035</v>
+        <v>976</v>
       </c>
       <c r="L194">
-        <v>74750310</v>
+        <v>66565618</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>195</v>
@@ -11909,22 +11968,28 @@
       <c r="P194" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q194" s="2" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="195" spans="1:17" ht="51">
       <c r="A195" s="17">
         <v>1</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>1043</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>179</v>
@@ -11939,10 +12004,10 @@
         <v>2020</v>
       </c>
       <c r="K195" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L195">
-        <v>77376584</v>
+        <v>1035</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1061</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>180</v>
@@ -11956,25 +12021,49 @@
       <c r="P195" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="Q195" s="2" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="196" spans="1:17" ht="51">
       <c r="A196" s="17">
         <v>1</v>
       </c>
+      <c r="B196" s="1" t="s">
+        <v>1014</v>
+      </c>
       <c r="C196" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1045</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>993</v>
+        <v>1016</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J196" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K196" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1060</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>200</v>
@@ -11985,22 +12074,25 @@
       <c r="P196" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" ht="85">
+      <c r="Q196" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="51">
       <c r="A197" s="17">
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>216</v>
@@ -12015,18 +12107,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="51">
+    <row r="198" spans="1:17" ht="85">
       <c r="A198" s="17">
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>997</v>
@@ -12049,16 +12141,16 @@
         <v>1</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>216</v>
@@ -12067,27 +12159,24 @@
         <v>200</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P199" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q199" s="1" t="s">
-        <v>1011</v>
-      </c>
     </row>
     <row r="200" spans="1:17" ht="51">
       <c r="A200" s="17">
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>1009</v>
@@ -12105,7 +12194,7 @@
         <v>196</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="51">
@@ -12113,13 +12202,13 @@
         <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>1009</v>
@@ -12137,7 +12226,7 @@
         <v>196</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="51">
@@ -12145,13 +12234,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>1009</v>
@@ -12169,24 +12258,24 @@
         <v>196</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" ht="34">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="51">
       <c r="A203" s="17">
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>216</v>
@@ -12198,7 +12287,10 @@
         <v>210</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="34">
@@ -12206,13 +12298,13 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>997</v>
@@ -12235,10 +12327,10 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>1027</v>
@@ -12264,36 +12356,170 @@
         <v>1</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="34">
+      <c r="A207" s="17">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="F207" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="J206" s="1">
+      <c r="J207" s="1">
         <v>2020</v>
       </c>
-      <c r="M206" s="1" t="s">
+      <c r="M207" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N206" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="O206" s="1" t="s">
+      <c r="O207" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="P206" s="1" t="s">
+      <c r="P207" s="1" t="s">
         <v>196</v>
       </c>
     </row>
+    <row r="208" spans="1:17" ht="34">
+      <c r="A208" s="17">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J208" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="51">
+      <c r="A209" s="17">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J209" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="34">
+      <c r="A210" s="17">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J210" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q210" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q181">
-    <sortCondition ref="C2:C181"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q182">
+    <sortCondition ref="C2:C182"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="Q172" r:id="rId1" display="https://scholar.utc.edu/mps/vol23/iss2/2/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q173" r:id="rId1" display="https://scholar.utc.edu/mps/vol23/iss2/2/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="Q4" r:id="rId2" xr:uid="{8DBC9A66-17FD-134E-8349-4AD589473D31}"/>
     <hyperlink ref="Q6" r:id="rId3" xr:uid="{87AB72C3-9098-A544-927E-E80711BFAFD4}"/>
     <hyperlink ref="Q9" r:id="rId4" xr:uid="{36FFD1D9-7B90-594C-A2F7-42E8D063CAE6}"/>
@@ -12302,17 +12528,17 @@
     <hyperlink ref="Q22" r:id="rId7" xr:uid="{A7432939-477A-3F42-AB2E-D2FC38500BB0}"/>
     <hyperlink ref="Q24" r:id="rId8" xr:uid="{84961CAD-06D7-FA4C-986E-E6A3B93C66C9}"/>
     <hyperlink ref="Q25" r:id="rId9" xr:uid="{85627334-1CB7-9D43-B832-FB913FB4E7E4}"/>
-    <hyperlink ref="Q151" r:id="rId10" xr:uid="{E0619CBD-E43D-AB46-B509-B91A6FF26C6B}"/>
-    <hyperlink ref="Q152" r:id="rId11" xr:uid="{A1D43CDB-3A11-C24F-BF5C-7F8826FF0CA6}"/>
+    <hyperlink ref="Q152" r:id="rId10" xr:uid="{E0619CBD-E43D-AB46-B509-B91A6FF26C6B}"/>
+    <hyperlink ref="Q153" r:id="rId11" xr:uid="{A1D43CDB-3A11-C24F-BF5C-7F8826FF0CA6}"/>
     <hyperlink ref="Q90" r:id="rId12" xr:uid="{C83D6F8F-6721-1543-A1B8-FC60B0A7B914}"/>
-    <hyperlink ref="Q164" r:id="rId13" xr:uid="{6E4B8B08-755D-264E-BE0D-D296C8F4A20C}"/>
+    <hyperlink ref="Q165" r:id="rId13" xr:uid="{6E4B8B08-755D-264E-BE0D-D296C8F4A20C}"/>
     <hyperlink ref="Q91" r:id="rId14" xr:uid="{FAFA90CD-32F6-D345-947E-F91CF92F58FA}"/>
     <hyperlink ref="Q100" r:id="rId15" xr:uid="{6C4907CA-10A0-9B4C-9A62-1FE6FC352F82}"/>
     <hyperlink ref="Q54" r:id="rId16" xr:uid="{4A207CBD-19E9-2D4E-A4D9-63BAF4AB79ED}"/>
     <hyperlink ref="Q33" r:id="rId17" xr:uid="{7FBC8068-1817-FC4C-9E1B-A1275E6C5CCC}"/>
-    <hyperlink ref="Q176" r:id="rId18" xr:uid="{F2ED3028-06BE-5F48-9EF3-8F12A45FA125}"/>
-    <hyperlink ref="Q147" r:id="rId19" xr:uid="{12B58A2E-54A5-BB40-A69C-EA34C8C68D82}"/>
-    <hyperlink ref="Q139" r:id="rId20" xr:uid="{0504A5F8-9366-B043-95F3-E7CCD5AB73B0}"/>
+    <hyperlink ref="Q177" r:id="rId18" xr:uid="{F2ED3028-06BE-5F48-9EF3-8F12A45FA125}"/>
+    <hyperlink ref="Q148" r:id="rId19" xr:uid="{12B58A2E-54A5-BB40-A69C-EA34C8C68D82}"/>
+    <hyperlink ref="Q140" r:id="rId20" xr:uid="{0504A5F8-9366-B043-95F3-E7CCD5AB73B0}"/>
     <hyperlink ref="Q3" r:id="rId21" xr:uid="{DA3923E0-2377-744D-A2AD-CC8523FE6334}"/>
     <hyperlink ref="Q5" r:id="rId22" xr:uid="{EE590AF9-78DD-2C42-BDBE-8579877FD45F}"/>
     <hyperlink ref="Q7" r:id="rId23" xr:uid="{D682EA1E-E67D-784A-9051-5B995CAB1EF3}"/>
@@ -12325,8 +12551,8 @@
     <hyperlink ref="Q28" r:id="rId30" xr:uid="{433F3048-8FD6-8945-A2AD-A9D5152250CB}"/>
     <hyperlink ref="Q29" r:id="rId31" xr:uid="{72DD37BB-6FCD-B74F-B84B-427D13792E33}"/>
     <hyperlink ref="Q35" r:id="rId32" xr:uid="{2BF826B8-391A-3940-BBC7-F8AC014E5722}"/>
-    <hyperlink ref="Q178" r:id="rId33" xr:uid="{CD950F33-1684-7146-8575-9C1B4A02057B}"/>
-    <hyperlink ref="Q177" r:id="rId34" xr:uid="{764EEF56-5930-354D-826D-5D02D5A89AF3}"/>
+    <hyperlink ref="Q179" r:id="rId33" xr:uid="{CD950F33-1684-7146-8575-9C1B4A02057B}"/>
+    <hyperlink ref="Q178" r:id="rId34" xr:uid="{764EEF56-5930-354D-826D-5D02D5A89AF3}"/>
     <hyperlink ref="Q37" r:id="rId35" xr:uid="{06593989-D385-494F-A9F9-31B34CEC45E5}"/>
     <hyperlink ref="Q38" r:id="rId36" xr:uid="{C63BABD9-5552-1741-BB73-4F216E95EC2A}"/>
     <hyperlink ref="Q83" r:id="rId37" xr:uid="{20359264-08FC-644A-991A-8B39DD22F5BB}"/>
@@ -12350,40 +12576,40 @@
     <hyperlink ref="Q87" r:id="rId55" xr:uid="{E2EC361B-81AC-9D44-9D08-CE5DF25DB039}"/>
     <hyperlink ref="Q89" r:id="rId56" xr:uid="{DAAB00D7-9F59-9749-938F-53D42BC41A0E}"/>
     <hyperlink ref="Q93" r:id="rId57" xr:uid="{B0AD0C16-B794-044D-B9B3-6A5D75CDE3D0}"/>
-    <hyperlink ref="Q169" r:id="rId58" xr:uid="{EB7B5724-4C30-8A4F-BEC3-94A833FC82C8}"/>
-    <hyperlink ref="Q171" r:id="rId59" xr:uid="{0229265F-3685-E44B-854D-3F3EF58E4C9F}"/>
-    <hyperlink ref="Q165" r:id="rId60" xr:uid="{A5AB602A-BED5-B540-9A96-F47799F0BB16}"/>
+    <hyperlink ref="Q170" r:id="rId58" xr:uid="{EB7B5724-4C30-8A4F-BEC3-94A833FC82C8}"/>
+    <hyperlink ref="Q172" r:id="rId59" xr:uid="{0229265F-3685-E44B-854D-3F3EF58E4C9F}"/>
+    <hyperlink ref="Q166" r:id="rId60" xr:uid="{A5AB602A-BED5-B540-9A96-F47799F0BB16}"/>
     <hyperlink ref="Q96" r:id="rId61" xr:uid="{271950B6-AF60-5F46-AED4-42E02EAC542C}"/>
     <hyperlink ref="Q103" r:id="rId62" xr:uid="{14452DC6-E3BF-0348-8B1A-851CFC130AB0}"/>
-    <hyperlink ref="Q161" r:id="rId63" xr:uid="{D63E5EF9-DD99-BC46-8F05-F73B3A65D3AB}"/>
+    <hyperlink ref="Q162" r:id="rId63" xr:uid="{D63E5EF9-DD99-BC46-8F05-F73B3A65D3AB}"/>
     <hyperlink ref="Q105" r:id="rId64" xr:uid="{BA8E4640-7D03-8948-8C77-81CD10E92E24}"/>
     <hyperlink ref="Q108" r:id="rId65" xr:uid="{1DF68450-D52C-6D47-A114-7910A05B0BE8}"/>
     <hyperlink ref="Q107" r:id="rId66" xr:uid="{CBE13EB0-7A8E-9141-B760-3D8B1AE2B35F}"/>
     <hyperlink ref="Q109" r:id="rId67" xr:uid="{53548EB8-9105-9E4D-B216-DDC279E73A15}"/>
-    <hyperlink ref="Q125" r:id="rId68" xr:uid="{EA3636FA-4FEF-C045-AAA5-4F1E9B2F6A00}"/>
-    <hyperlink ref="Q126" r:id="rId69" xr:uid="{62E7513E-F253-AB4E-A5FF-A13AA6AC50AF}"/>
-    <hyperlink ref="Q129" r:id="rId70" xr:uid="{90B1A84B-83DD-5741-8671-40D0BC30B0D7}"/>
-    <hyperlink ref="Q130" r:id="rId71" xr:uid="{9B7F6123-4B19-1943-85F4-A0522C2B682E}"/>
-    <hyperlink ref="Q131" r:id="rId72" xr:uid="{09C6CA12-7ED6-AD48-92C6-CB256F7F36C1}"/>
-    <hyperlink ref="Q137" r:id="rId73" xr:uid="{A3E6D747-A49B-354E-AE1D-AB5BD38723D2}"/>
-    <hyperlink ref="Q144" r:id="rId74" xr:uid="{E845C569-6D88-D746-952C-71DB6AF49026}"/>
-    <hyperlink ref="Q145" r:id="rId75" xr:uid="{86EC8B64-D1EB-A24C-A5BB-7E3DEFA22AF2}"/>
-    <hyperlink ref="Q150" r:id="rId76" xr:uid="{9CCB06D8-A39C-0649-AA09-D83FD1592BC5}"/>
-    <hyperlink ref="Q154" r:id="rId77" xr:uid="{287782BB-04F0-0F49-8E68-94AFB58FDAEB}"/>
-    <hyperlink ref="Q158" r:id="rId78" xr:uid="{6E798C00-5591-8D4C-8137-7896DE6E1F1A}"/>
+    <hyperlink ref="Q126" r:id="rId68" xr:uid="{EA3636FA-4FEF-C045-AAA5-4F1E9B2F6A00}"/>
+    <hyperlink ref="Q127" r:id="rId69" xr:uid="{62E7513E-F253-AB4E-A5FF-A13AA6AC50AF}"/>
+    <hyperlink ref="Q130" r:id="rId70" xr:uid="{90B1A84B-83DD-5741-8671-40D0BC30B0D7}"/>
+    <hyperlink ref="Q131" r:id="rId71" xr:uid="{9B7F6123-4B19-1943-85F4-A0522C2B682E}"/>
+    <hyperlink ref="Q132" r:id="rId72" xr:uid="{09C6CA12-7ED6-AD48-92C6-CB256F7F36C1}"/>
+    <hyperlink ref="Q138" r:id="rId73" xr:uid="{A3E6D747-A49B-354E-AE1D-AB5BD38723D2}"/>
+    <hyperlink ref="Q145" r:id="rId74" xr:uid="{E845C569-6D88-D746-952C-71DB6AF49026}"/>
+    <hyperlink ref="Q146" r:id="rId75" xr:uid="{86EC8B64-D1EB-A24C-A5BB-7E3DEFA22AF2}"/>
+    <hyperlink ref="Q151" r:id="rId76" xr:uid="{9CCB06D8-A39C-0649-AA09-D83FD1592BC5}"/>
+    <hyperlink ref="Q155" r:id="rId77" xr:uid="{287782BB-04F0-0F49-8E68-94AFB58FDAEB}"/>
+    <hyperlink ref="Q159" r:id="rId78" xr:uid="{6E798C00-5591-8D4C-8137-7896DE6E1F1A}"/>
     <hyperlink ref="Q49" r:id="rId79" xr:uid="{584B5458-E2FC-444F-90EE-1CCB33F77375}"/>
-    <hyperlink ref="Q170" r:id="rId80" xr:uid="{3E12F086-04A8-9E43-BE61-7BBC06FFB569}"/>
-    <hyperlink ref="Q159" r:id="rId81" xr:uid="{418CB6F6-7582-1949-B8DB-B76A0557D620}"/>
-    <hyperlink ref="Q149" r:id="rId82" xr:uid="{675E8E68-7CF3-4143-B1FC-1545455815E7}"/>
-    <hyperlink ref="Q141" r:id="rId83" xr:uid="{80E1C882-2A37-1C42-A9C1-A410ABE2AFEC}"/>
-    <hyperlink ref="Q135" r:id="rId84" xr:uid="{539D13DF-C919-D647-90E8-5FB10752502F}"/>
-    <hyperlink ref="Q134" r:id="rId85" xr:uid="{491135AC-3986-0848-90F5-9F9D42F78F0F}"/>
+    <hyperlink ref="Q171" r:id="rId80" xr:uid="{3E12F086-04A8-9E43-BE61-7BBC06FFB569}"/>
+    <hyperlink ref="Q160" r:id="rId81" xr:uid="{418CB6F6-7582-1949-B8DB-B76A0557D620}"/>
+    <hyperlink ref="Q150" r:id="rId82" xr:uid="{675E8E68-7CF3-4143-B1FC-1545455815E7}"/>
+    <hyperlink ref="Q142" r:id="rId83" xr:uid="{80E1C882-2A37-1C42-A9C1-A410ABE2AFEC}"/>
+    <hyperlink ref="Q136" r:id="rId84" xr:uid="{539D13DF-C919-D647-90E8-5FB10752502F}"/>
+    <hyperlink ref="Q135" r:id="rId85" xr:uid="{491135AC-3986-0848-90F5-9F9D42F78F0F}"/>
     <hyperlink ref="Q52" r:id="rId86" xr:uid="{4E1A262E-6E8C-C346-B626-A9F238D2AB66}"/>
     <hyperlink ref="Q53" r:id="rId87" xr:uid="{7A1F52D8-56E7-A845-90B5-3FB11CF3E984}"/>
     <hyperlink ref="Q65" r:id="rId88" xr:uid="{9AE43FE7-D389-7045-80DB-B92387B3F9FC}"/>
     <hyperlink ref="Q66" r:id="rId89" xr:uid="{707E0CC3-8597-3544-BFCA-B6AFD8937A11}"/>
     <hyperlink ref="Q68" r:id="rId90" xr:uid="{1B0AF018-C249-F849-B489-83D881250376}"/>
-    <hyperlink ref="Q155" r:id="rId91" xr:uid="{425B7113-ACFE-3149-8C2F-01C9B2D8E631}"/>
+    <hyperlink ref="Q156" r:id="rId91" xr:uid="{425B7113-ACFE-3149-8C2F-01C9B2D8E631}"/>
     <hyperlink ref="Q76" r:id="rId92" xr:uid="{D4BB0AC9-51E9-614E-A21C-997DD817F4AE}"/>
     <hyperlink ref="Q77" r:id="rId93" xr:uid="{8157AD0D-E645-9745-A6FE-914B4948D699}"/>
     <hyperlink ref="Q80" r:id="rId94" xr:uid="{3EB09505-96EA-9044-AB9E-9DE8D96D58EF}"/>
@@ -12401,21 +12627,21 @@
     <hyperlink ref="Q111" r:id="rId106" xr:uid="{26BFD440-8FCA-5D44-9346-BC792059F4A3}"/>
     <hyperlink ref="Q116" r:id="rId107" xr:uid="{6777A63C-407D-FF40-A6EF-6F97B3BEC660}"/>
     <hyperlink ref="Q118" r:id="rId108" xr:uid="{188921C8-7F9D-6348-80B9-B0E3611CD9C6}"/>
-    <hyperlink ref="Q123" r:id="rId109" xr:uid="{FCB70DD3-2074-1944-B4DB-A7C155A41A79}"/>
-    <hyperlink ref="Q127" r:id="rId110" xr:uid="{3C9F6339-86E5-1E42-8AC1-E3AFE4506773}"/>
-    <hyperlink ref="Q128" r:id="rId111" xr:uid="{0AF73A99-F03F-CA42-B0E0-5D1B5C41F133}"/>
-    <hyperlink ref="Q133" r:id="rId112" xr:uid="{E08FB853-7081-2A4C-B606-6E031C7423BB}"/>
-    <hyperlink ref="Q180" r:id="rId113" xr:uid="{14CFFB1C-FCBC-6B4A-82E6-0193947BBD5D}"/>
+    <hyperlink ref="Q124" r:id="rId109" xr:uid="{FCB70DD3-2074-1944-B4DB-A7C155A41A79}"/>
+    <hyperlink ref="Q128" r:id="rId110" xr:uid="{3C9F6339-86E5-1E42-8AC1-E3AFE4506773}"/>
+    <hyperlink ref="Q129" r:id="rId111" xr:uid="{0AF73A99-F03F-CA42-B0E0-5D1B5C41F133}"/>
+    <hyperlink ref="Q134" r:id="rId112" xr:uid="{E08FB853-7081-2A4C-B606-6E031C7423BB}"/>
+    <hyperlink ref="Q181" r:id="rId113" xr:uid="{14CFFB1C-FCBC-6B4A-82E6-0193947BBD5D}"/>
     <hyperlink ref="Q113" r:id="rId114" xr:uid="{4C5912D0-5972-7C4F-973E-8B0E87926534}"/>
-    <hyperlink ref="Q122" r:id="rId115" xr:uid="{B10ED486-0ADE-AE45-920D-FAC73C4AA860}"/>
+    <hyperlink ref="Q123" r:id="rId115" xr:uid="{B10ED486-0ADE-AE45-920D-FAC73C4AA860}"/>
     <hyperlink ref="Q78" r:id="rId116" xr:uid="{CB8136AE-839D-214E-81C9-21399BA363BB}"/>
-    <hyperlink ref="Q167" r:id="rId117" xr:uid="{0ECD14C3-3FA9-DF47-AB14-A9EE26B98ADB}"/>
-    <hyperlink ref="Q121" r:id="rId118" xr:uid="{776EC25A-53BD-434D-B721-149E4E27B9B7}"/>
+    <hyperlink ref="Q168" r:id="rId117" xr:uid="{0ECD14C3-3FA9-DF47-AB14-A9EE26B98ADB}"/>
+    <hyperlink ref="Q122" r:id="rId118" xr:uid="{776EC25A-53BD-434D-B721-149E4E27B9B7}"/>
     <hyperlink ref="Q112" r:id="rId119" xr:uid="{A81E9D40-AA44-9C46-A29E-557E6E169917}"/>
     <hyperlink ref="Q120" r:id="rId120" xr:uid="{E35C24D6-FEF3-DD47-B648-38ABE30A2C7C}"/>
     <hyperlink ref="Q45" r:id="rId121" xr:uid="{E710289F-EDC4-7E4F-9815-FA960D1815A2}"/>
-    <hyperlink ref="Q173" r:id="rId122" xr:uid="{3A0EA199-9046-C047-AA3E-49D8071BF47C}"/>
-    <hyperlink ref="Q181" r:id="rId123" xr:uid="{1D628C24-2304-F143-9C88-BCEA198497C3}"/>
+    <hyperlink ref="Q174" r:id="rId122" xr:uid="{3A0EA199-9046-C047-AA3E-49D8071BF47C}"/>
+    <hyperlink ref="Q182" r:id="rId123" xr:uid="{1D628C24-2304-F143-9C88-BCEA198497C3}"/>
     <hyperlink ref="Q10" r:id="rId124" xr:uid="{DEC95570-3575-1F45-AAD2-56BA0FD294B5}"/>
     <hyperlink ref="Q13" r:id="rId125" xr:uid="{746FAB7B-FED8-F245-9FAB-1F5B1CCBAF43}"/>
     <hyperlink ref="Q18" r:id="rId126" xr:uid="{8134279C-1DCF-3D42-B28B-2D24B5A0103E}"/>
@@ -12424,22 +12650,25 @@
     <hyperlink ref="Q44" r:id="rId129" xr:uid="{44A33D6F-43C4-0943-BCB1-AF9DE4C147F6}"/>
     <hyperlink ref="Q59" r:id="rId130" xr:uid="{E02BB8E3-0BAF-C248-8EB0-3267BA432805}"/>
     <hyperlink ref="Q119" r:id="rId131" xr:uid="{BEFDCC98-9BB2-3D49-BA3F-3405DCD9093D}"/>
-    <hyperlink ref="Q142" r:id="rId132" xr:uid="{693C6CA7-F3B0-8046-A1AC-2290A31A325D}"/>
-    <hyperlink ref="Q168" r:id="rId133" xr:uid="{6E05A9E4-528C-5340-8605-BE0FDAF71DEA}"/>
-    <hyperlink ref="Q179" r:id="rId134" xr:uid="{0F1FAD95-0848-E049-9406-AFFA1592BDF6}"/>
-    <hyperlink ref="Q186" r:id="rId135" xr:uid="{3F83EA70-AEE6-8846-8419-3AD79B91EB73}"/>
-    <hyperlink ref="Q187" r:id="rId136" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
-    <hyperlink ref="Q188" r:id="rId137" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
-    <hyperlink ref="Q189" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
-    <hyperlink ref="Q148" r:id="rId139" xr:uid="{3A350AA0-18E0-7A44-A617-2A23437C2D25}"/>
-    <hyperlink ref="Q183" r:id="rId140" xr:uid="{2CD84B76-BD07-7447-AC85-335724F45069}"/>
-    <hyperlink ref="Q184" r:id="rId141" xr:uid="{0D96B428-C157-194F-BBBB-55BACE11480C}"/>
-    <hyperlink ref="Q190" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
-    <hyperlink ref="Q191" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
-    <hyperlink ref="Q192" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
-    <hyperlink ref="Q182" r:id="rId145" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
-    <hyperlink ref="Q132" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
-    <hyperlink ref="Q193" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
+    <hyperlink ref="Q143" r:id="rId132" xr:uid="{693C6CA7-F3B0-8046-A1AC-2290A31A325D}"/>
+    <hyperlink ref="Q169" r:id="rId133" xr:uid="{6E05A9E4-528C-5340-8605-BE0FDAF71DEA}"/>
+    <hyperlink ref="Q180" r:id="rId134" xr:uid="{0F1FAD95-0848-E049-9406-AFFA1592BDF6}"/>
+    <hyperlink ref="Q187" r:id="rId135" xr:uid="{3F83EA70-AEE6-8846-8419-3AD79B91EB73}"/>
+    <hyperlink ref="Q188" r:id="rId136" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
+    <hyperlink ref="Q189" r:id="rId137" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
+    <hyperlink ref="Q190" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
+    <hyperlink ref="Q149" r:id="rId139" xr:uid="{3A350AA0-18E0-7A44-A617-2A23437C2D25}"/>
+    <hyperlink ref="Q184" r:id="rId140" xr:uid="{2CD84B76-BD07-7447-AC85-335724F45069}"/>
+    <hyperlink ref="Q185" r:id="rId141" xr:uid="{0D96B428-C157-194F-BBBB-55BACE11480C}"/>
+    <hyperlink ref="Q191" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
+    <hyperlink ref="Q192" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
+    <hyperlink ref="Q193" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
+    <hyperlink ref="Q183" r:id="rId145" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
+    <hyperlink ref="Q133" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
+    <hyperlink ref="Q194" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
+    <hyperlink ref="Q195" r:id="rId148" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
+    <hyperlink ref="Q210" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
+    <hyperlink ref="Q121" r:id="rId150" xr:uid="{3EC4565A-606A-904D-A00D-7C065BC8A9CB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B8286-C845-1A45-B817-B75D4EF295BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C8DDD-D009-564D-BD86-82527210C568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1067">
   <si>
     <t>title</t>
   </si>
@@ -3226,6 +3226,12 @@
   </si>
   <si>
     <t>h168fVGZblEC</t>
+  </si>
+  <si>
+    <t>578--585</t>
+  </si>
+  <si>
+    <t>8VtEwCQfWZkC</t>
   </si>
 </sst>
 </file>
@@ -4171,9 +4177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q209" sqref="Q209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -11991,14 +11997,14 @@
       <c r="F195" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>179</v>
+      <c r="G195" s="1">
+        <v>90</v>
+      </c>
+      <c r="H195" s="1">
+        <v>5</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>275</v>
+        <v>1065</v>
       </c>
       <c r="J195" s="1">
         <v>2020</v>
@@ -12462,6 +12468,9 @@
       </c>
       <c r="J209" s="1">
         <v>2019</v>
+      </c>
+      <c r="K209" t="s">
+        <v>1066</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>180</v>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C8DDD-D009-564D-BD86-82527210C568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC46688-A12B-4842-96A0-2FAD18ABD6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$216</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1088">
   <si>
     <t>title</t>
   </si>
@@ -3231,14 +3231,77 @@
     <t>578--585</t>
   </si>
   <si>
-    <t>8VtEwCQfWZkC</t>
+    <t>Editorial Into a new decade</t>
+  </si>
+  <si>
+    <t>Brysbaert, M., et al.</t>
+  </si>
+  <si>
+    <t>10.3758/s13428-020-01497-y</t>
+  </si>
+  <si>
+    <t>uUvzmPk0f8oC</t>
+  </si>
+  <si>
+    <t>8VtEwCQfWZkC, XAp-VaTZjjwC</t>
+  </si>
+  <si>
+    <t>https://youtu.be/80B_Mxk4BpQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AyT1vx768Wg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/R0_QYTPPmVM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/v02cSZMQLGc</t>
+  </si>
+  <si>
+    <t>lrd: An R Package and Shiny Application for Lexical Response Data</t>
+  </si>
+  <si>
+    <t>Maxwell, N. P., Huff, M., \&amp; Buchanan, E. M.</t>
+  </si>
+  <si>
+    <t>The Psychological Science Accelerator</t>
+  </si>
+  <si>
+    <t>Basnight-Brown, D., Chin, S.-C., Wagge, J., \&amp; Buchanan, E. M.</t>
+  </si>
+  <si>
+    <t>Poster presentation for the Annual Meeting of the Psychonomic Society, Austin, TX</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iN_nEfaF2nI</t>
+  </si>
+  <si>
+    <t>Young-Jones, A., Yadon, C.A., Hart, B., \&amp; Buchanan, E.M.</t>
+  </si>
+  <si>
+    <t>587--599</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>1--15</t>
+  </si>
+  <si>
+    <t>266--277</t>
+  </si>
+  <si>
+    <t>Professional Psychology Research and Practice</t>
+  </si>
+  <si>
+    <t>Journal of Prevention and Health Promotion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3417,6 +3480,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPSMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3762,7 +3831,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3819,6 +3888,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4175,11 +4245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q209" sqref="Q209"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R215" sqref="R215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -4738,17 +4808,17 @@
       <c r="F13" t="s">
         <v>902</v>
       </c>
-      <c r="G13" t="s">
-        <v>179</v>
+      <c r="G13">
+        <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>275</v>
+        <v>1082</v>
       </c>
       <c r="J13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K13" t="s">
         <v>865</v>
@@ -8063,16 +8133,16 @@
         <v>17</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>179</v>
+        <v>1083</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>275</v>
+        <v>1084</v>
       </c>
       <c r="J95" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L95" s="1">
         <v>46227690</v>
@@ -9006,17 +9076,17 @@
       <c r="F119" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="G119" t="s">
-        <v>179</v>
-      </c>
-      <c r="H119" t="s">
-        <v>179</v>
+      <c r="G119">
+        <v>26</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>275</v>
+        <v>1085</v>
       </c>
       <c r="J119">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K119" t="s">
         <v>927</v>
@@ -12327,6 +12397,9 @@
       <c r="P204" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q204" s="11" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="205" spans="1:17" ht="34">
       <c r="A205" s="17">
@@ -12356,6 +12429,9 @@
       <c r="P205" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q205" s="11" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="206" spans="1:17" ht="34">
       <c r="A206" s="17">
@@ -12385,34 +12461,40 @@
       <c r="P206" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="Q206" s="11" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="207" spans="1:17" ht="34">
       <c r="A207" s="17">
         <v>1</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>1039</v>
+      <c r="C207" s="24" t="s">
+        <v>1075</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1040</v>
+        <v>1076</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J207" s="1">
-        <v>2020</v>
+        <v>1027</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>997</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>986</v>
+        <v>200</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
+      </c>
+      <c r="Q207" s="11" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="34">
@@ -12420,57 +12502,48 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1054</v>
+        <v>1078</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J208" s="1">
-        <v>2019</v>
+        <v>1079</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>997</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>986</v>
+        <v>200</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="P208" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q208" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" ht="51">
+      <c r="Q208" s="24" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="34">
       <c r="A209" s="17">
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>76</v>
+        <v>1041</v>
       </c>
       <c r="J209" s="1">
-        <v>2019</v>
-      </c>
-      <c r="K209" t="s">
-        <v>1066</v>
+        <v>2020</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>180</v>
@@ -12479,33 +12552,30 @@
         <v>986</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="P209" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q209" s="1" t="s">
-        <v>1055</v>
-      </c>
     </row>
     <row r="210" spans="1:17" ht="34">
       <c r="A210" s="17">
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="J210" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>180</v>
@@ -12517,10 +12587,215 @@
         <v>184</v>
       </c>
       <c r="P210" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" ht="51">
+      <c r="A211" s="17">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J211" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P211" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Q210" s="2" t="s">
+      <c r="Q211" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" ht="34">
+      <c r="A212" s="17">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J212" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q212" s="2" t="s">
         <v>1056</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" ht="17">
+      <c r="A213" s="17">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J213" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" ht="51">
+      <c r="A214" s="17">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J214" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" ht="34">
+      <c r="A215" s="17">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J215" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" ht="34">
+      <c r="A216" s="17">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J216" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -12676,8 +12951,12 @@
     <hyperlink ref="Q133" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
     <hyperlink ref="Q194" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
     <hyperlink ref="Q195" r:id="rId148" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
-    <hyperlink ref="Q210" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
+    <hyperlink ref="Q212" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
     <hyperlink ref="Q121" r:id="rId150" xr:uid="{3EC4565A-606A-904D-A00D-7C065BC8A9CB}"/>
+    <hyperlink ref="Q204" r:id="rId151" xr:uid="{11D1FB42-933A-D642-A0A9-1D751F8B8F73}"/>
+    <hyperlink ref="Q205" r:id="rId152" xr:uid="{3AB784A4-BDB2-CF40-96CB-4EE5B7EB8ED2}"/>
+    <hyperlink ref="Q206" r:id="rId153" xr:uid="{2352F29F-A1AD-2E44-B32C-934B4E87D28F}"/>
+    <hyperlink ref="Q207" r:id="rId154" xr:uid="{8C880241-2719-8844-9AC7-9FD10D4835EE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/Websites/cv markdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC46688-A12B-4842-96A0-2FAD18ABD6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFBB702-5020-AD4E-8E23-E7D841513327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$Q$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="1105">
   <si>
     <t>title</t>
   </si>
@@ -1629,9 +1629,6 @@
     <t>https://osf.io/wfbqd/</t>
   </si>
   <si>
-    <t>Latent semantic analysis of personality and mate preference</t>
-  </si>
-  <si>
     <t>https://mfr.osf.io/render?url=https://osf.io/udnb3/?action=download%26mode=render</t>
   </si>
   <si>
@@ -1842,9 +1839,6 @@
     <t>JAM-boree: A meta-analysis of judgment of memory</t>
   </si>
   <si>
-    <t>The Language of War: A Replication and Extension of Abe (2012) and Matsumoto et al. (2015)</t>
-  </si>
-  <si>
     <t>https://osf.io/9fgu8/</t>
   </si>
   <si>
@@ -3117,9 +3111,6 @@
     <t>Spoken presentation for the Annual Meeting of the Society for Computation in Psychology, Austin TX</t>
   </si>
   <si>
-    <t xml:space="preserve">Buchanan, E.M. \&amp; Korn, J. </t>
-  </si>
-  <si>
     <t>300-310</t>
   </si>
   <si>
@@ -3295,6 +3286,66 @@
   </si>
   <si>
     <t>Journal of Prevention and Health Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanan, E.M., Korn, J., \&amp; Newman, M. </t>
+  </si>
+  <si>
+    <t>Collective efficacy and accurate threat perception facilitate pandemic preparedness and prevention efforts among international students during COVID-19</t>
+  </si>
+  <si>
+    <t>Weber, M.C., Pavlacic, J.M., Torres, V., Schulenberg, S., &amp; Buchanan, E.</t>
+  </si>
+  <si>
+    <t>It’s never too late to start being resilient: A time-series study of social support and meaning in life among international students in the U.S. during the COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>Pavlacic, J.M., Weber, M.C., Torres, V., Schulenberg, S., &amp; Buchanan, E.</t>
+  </si>
+  <si>
+    <t>Paper presented at the 7th International Positive Psychology Association World Congress 2021, Vancouver, BC, Canada</t>
+  </si>
+  <si>
+    <t>2021, July</t>
+  </si>
+  <si>
+    <t>Social and Personality Psychology Compass</t>
+  </si>
+  <si>
+    <t>Meta-Psychology</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>The Language of War: A Replication and Extension of Abe (2012) and Matsumoto and Hwang (2013)</t>
+  </si>
+  <si>
+    <t>https://osf.io/3g4sm</t>
+  </si>
+  <si>
+    <t>10.31219/osf.io/3g4sm</t>
+  </si>
+  <si>
+    <t>10.1177/2515245920928007</t>
+  </si>
+  <si>
+    <t>57294599, 84628626</t>
+  </si>
+  <si>
+    <t>57614693, 88193923</t>
+  </si>
+  <si>
+    <t>2021, November</t>
+  </si>
+  <si>
+    <t>Pavlacic, J. M., Weber, M. C., Torres, V. A., Buchanan, E. M., &amp; Schulenberg, S. E.</t>
+  </si>
+  <si>
+    <t>Trajectories of psychological functioning in international students during the COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>Poster submitted to the 55th annual Convention of the Association for Behavioral and Cognitive Therapies, New Orleans, Louisiana</t>
   </si>
 </sst>
 </file>
@@ -3489,7 +3540,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3669,6 +3720,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3831,7 +3888,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3889,6 +3946,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4245,11 +4305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q216"/>
+  <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R215" sqref="R215"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -4340,7 +4400,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
@@ -4352,7 +4412,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
@@ -4361,7 +4421,7 @@
         <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>180</v>
@@ -4387,7 +4447,7 @@
         <v>178</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>432</v>
@@ -4422,7 +4482,7 @@
         <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -4469,7 +4529,7 @@
         <v>450</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>393</v>
@@ -4507,7 +4567,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>284</v>
@@ -4519,16 +4579,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J6" s="1">
         <v>2019</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>180</v>
@@ -4554,7 +4614,7 @@
         <v>348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>391</v>
@@ -4586,7 +4646,7 @@
         <v>367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>445</v>
@@ -4624,7 +4684,7 @@
         <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>257</v>
@@ -4668,13 +4728,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E10" t="s">
         <v>871</v>
-      </c>
-      <c r="D10" t="s">
-        <v>862</v>
-      </c>
-      <c r="E10" t="s">
-        <v>873</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -4686,7 +4746,7 @@
         <v>2019</v>
       </c>
       <c r="K10" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L10">
         <v>59592572</v>
@@ -4695,7 +4755,7 @@
         <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O10" t="s">
         <v>184</v>
@@ -4704,7 +4764,7 @@
         <v>186</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="34">
@@ -4715,10 +4775,10 @@
         <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>207</v>
@@ -4738,8 +4798,8 @@
       <c r="K11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L11">
-        <v>57294599</v>
+      <c r="L11" t="s">
+        <v>1099</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>180</v>
@@ -4762,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>380</v>
@@ -4794,19 +4854,19 @@
         <v>1.5</v>
       </c>
       <c r="B13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C13" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F13" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G13">
         <v>21</v>
@@ -4815,16 +4875,16 @@
         <v>179</v>
       </c>
       <c r="I13" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="J13">
         <v>2020</v>
       </c>
       <c r="K13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L13" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="M13" t="s">
         <v>180</v>
@@ -4839,7 +4899,7 @@
         <v>186</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51">
@@ -4850,7 +4910,7 @@
         <v>455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>381</v>
@@ -4871,7 +4931,7 @@
         <v>196</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="34">
@@ -4882,7 +4942,7 @@
         <v>340</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>369</v>
@@ -4914,7 +4974,7 @@
         <v>340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>370</v>
@@ -4946,7 +5006,7 @@
         <v>457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>378</v>
@@ -4955,7 +5015,7 @@
         <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>216</v>
@@ -4978,16 +5038,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F18" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -4996,7 +5056,7 @@
         <v>2019</v>
       </c>
       <c r="K18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L18">
         <v>57710195</v>
@@ -5005,7 +5065,7 @@
         <v>180</v>
       </c>
       <c r="N18" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O18" t="s">
         <v>184</v>
@@ -5014,7 +5074,7 @@
         <v>186</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="34">
@@ -5107,19 +5167,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J21" s="1">
         <v>2018</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L21" s="1">
         <v>46227693</v>
@@ -5148,7 +5208,7 @@
         <v>218</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -5198,7 +5258,7 @@
         <v>222</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>223</v>
@@ -5248,7 +5308,7 @@
         <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>226</v>
@@ -5286,7 +5346,7 @@
         <v>460</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>229</v>
@@ -5342,7 +5402,7 @@
         <v>186</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="34">
@@ -5470,7 +5530,7 @@
         <v>186</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="34">
@@ -5487,7 +5547,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>45</v>
@@ -5499,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J31" s="1">
         <v>2019</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L31" s="1">
         <v>46227680</v>
@@ -5537,7 +5597,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -5587,7 +5647,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J33" s="1">
         <v>2017</v>
@@ -5625,7 +5685,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>183</v>
@@ -5643,7 +5703,7 @@
         <v>2018</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L34" s="1">
         <v>46227685</v>
@@ -5725,7 +5785,7 @@
         <v>186</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="34">
@@ -5739,7 +5799,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>32</v>
@@ -5821,7 +5881,7 @@
         <v>473</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>426</v>
@@ -5845,7 +5905,7 @@
         <v>186</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="51">
@@ -5856,7 +5916,7 @@
         <v>481</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>387</v>
@@ -5877,7 +5937,7 @@
         <v>196</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="85">
@@ -5886,20 +5946,20 @@
       </c>
       <c r="B41"/>
       <c r="C41" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>800</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>802</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
@@ -5916,7 +5976,7 @@
         <v>196</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="51">
@@ -5942,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J42" s="1">
         <v>2019</v>
@@ -5977,7 +6037,7 @@
         <v>352</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>402</v>
@@ -6012,7 +6072,7 @@
         <v>490</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>489</v>
@@ -6048,7 +6108,7 @@
         <v>196</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="34">
@@ -6057,11 +6117,11 @@
       </c>
       <c r="B45"/>
       <c r="C45" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>374</v>
@@ -6070,7 +6130,7 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -6087,7 +6147,7 @@
         <v>196</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="34">
@@ -6096,23 +6156,23 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K46" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L46"/>
       <c r="M46" s="1" t="s">
@@ -6128,7 +6188,7 @@
         <v>196</v>
       </c>
       <c r="Q46" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="51">
@@ -6139,7 +6199,7 @@
         <v>345</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>384</v>
@@ -6174,7 +6234,7 @@
         <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>38</v>
@@ -6186,7 +6246,7 @@
         <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J48" s="1">
         <v>2013</v>
@@ -6210,21 +6270,21 @@
         <v>196</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="34">
       <c r="A49" s="17">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>833</v>
+      <c r="C49" s="25" t="s">
+        <v>831</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>179</v>
@@ -6254,7 +6314,7 @@
         <v>186</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="34">
@@ -6268,7 +6328,7 @@
         <v>498</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>375</v>
@@ -6300,7 +6360,7 @@
         <v>344</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>383</v>
@@ -6321,7 +6381,7 @@
         <v>196</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="51">
@@ -6332,10 +6392,10 @@
         <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>114</v>
@@ -6347,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J52" s="1">
         <v>2017</v>
@@ -6371,7 +6431,7 @@
         <v>196</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="51">
@@ -6379,10 +6439,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>441</v>
@@ -6403,7 +6463,7 @@
         <v>186</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="51">
@@ -6420,7 +6480,7 @@
         <v>146</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>45</v>
@@ -6432,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J54" s="1">
         <v>2018</v>
@@ -6470,7 +6530,7 @@
         <v>500</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>376</v>
@@ -6502,16 +6562,16 @@
         <v>1.5</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>121</v>
@@ -6523,7 +6583,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J56" s="1">
         <v>2019</v>
@@ -6532,7 +6592,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>180</v>
@@ -6547,7 +6607,7 @@
         <v>186</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="51">
@@ -6558,7 +6618,7 @@
         <v>502</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>427</v>
@@ -6593,7 +6653,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>121</v>
@@ -6614,7 +6674,7 @@
         <v>51</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>180</v>
@@ -6637,17 +6697,17 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C59" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F59" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G59" s="23">
         <v>27</v>
@@ -6656,13 +6716,13 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J59">
         <v>2019</v>
       </c>
       <c r="K59" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L59">
         <v>52942378</v>
@@ -6680,7 +6740,7 @@
         <v>196</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="34">
@@ -6755,7 +6815,7 @@
         <v>505</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>399</v>
@@ -6787,7 +6847,7 @@
         <v>351</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>400</v>
@@ -6822,10 +6882,10 @@
         <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G64" s="1">
         <v>22</v>
@@ -6834,7 +6894,7 @@
         <v>179</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J64" s="1">
         <v>2016</v>
@@ -6858,7 +6918,7 @@
         <v>196</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="34">
@@ -6872,7 +6932,7 @@
         <v>55</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>56</v>
@@ -6890,10 +6950,10 @@
         <v>2014</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>180</v>
@@ -6908,7 +6968,7 @@
         <v>196</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="51">
@@ -6916,10 +6976,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>433</v>
@@ -6940,7 +7000,7 @@
         <v>186</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="34">
@@ -6972,7 +7032,7 @@
         <v>186</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="34">
@@ -6980,13 +7040,13 @@
         <v>1</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>333</v>
@@ -7004,7 +7064,7 @@
         <v>186</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="34">
@@ -7036,7 +7096,7 @@
         <v>186</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34">
@@ -7187,7 +7247,7 @@
         <v>356</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>406</v>
@@ -7216,19 +7276,19 @@
         <v>1.5</v>
       </c>
       <c r="B75" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C75" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D75" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E75" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G75">
         <v>33</v>
@@ -7237,16 +7297,16 @@
         <v>2</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J75">
         <v>2020</v>
       </c>
       <c r="K75" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L75" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="M75" t="s">
         <v>180</v>
@@ -7261,7 +7321,7 @@
         <v>196</v>
       </c>
       <c r="Q75" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34">
@@ -7269,13 +7329,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>20</v>
@@ -7287,7 +7347,7 @@
         <v>179</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J76" s="1">
         <v>2018</v>
@@ -7311,7 +7371,7 @@
         <v>186</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="51">
@@ -7325,10 +7385,10 @@
         <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G77" s="1">
         <v>118</v>
@@ -7337,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J77" s="1">
         <v>2014</v>
@@ -7361,7 +7421,7 @@
         <v>196</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="51">
@@ -7370,20 +7430,20 @@
       </c>
       <c r="B78"/>
       <c r="C78" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D78"/>
       <c r="E78" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>807</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>809</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K78"/>
       <c r="L78"/>
@@ -7400,24 +7460,27 @@
         <v>196</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="17">
       <c r="A79" s="18">
         <v>1</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>1098</v>
+      </c>
       <c r="C79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D79" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E79" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F79" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>179</v>
@@ -7432,10 +7495,10 @@
         <v>2020</v>
       </c>
       <c r="K79" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L79">
-        <v>57614693</v>
+        <v>1030</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1100</v>
       </c>
       <c r="M79" t="s">
         <v>180</v>
@@ -7450,7 +7513,7 @@
         <v>196</v>
       </c>
       <c r="Q79" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="34">
@@ -7464,13 +7527,25 @@
         <v>63</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="J80" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L80" s="1">
         <v>46227698</v>
@@ -7479,7 +7554,7 @@
         <v>180</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>184</v>
@@ -7488,7 +7563,7 @@
         <v>196</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="17">
@@ -7496,19 +7571,19 @@
         <v>1.5</v>
       </c>
       <c r="B81" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C81" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D81" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F81" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -7517,13 +7592,13 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J81">
         <v>2018</v>
       </c>
       <c r="K81" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L81">
         <v>46975449</v>
@@ -7541,7 +7616,7 @@
         <v>186</v>
       </c>
       <c r="Q81" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="51">
@@ -7549,19 +7624,19 @@
         <v>1.5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G82" s="1">
         <v>49</v>
@@ -7570,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J82" s="1">
         <v>2020</v>
@@ -7594,7 +7669,7 @@
         <v>186</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="34">
@@ -7608,13 +7683,13 @@
         <v>95</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J83" s="1">
         <v>2018</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L83" s="1">
         <v>46227701</v>
@@ -7643,10 +7718,10 @@
         <v>170</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>66</v>
@@ -7658,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J84" s="1">
         <v>2012</v>
@@ -7667,7 +7742,7 @@
         <v>67</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>180</v>
@@ -7682,7 +7757,7 @@
         <v>196</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="51">
@@ -7693,7 +7768,7 @@
         <v>368</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>448</v>
@@ -7725,7 +7800,7 @@
         <v>350</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>397</v>
@@ -7757,7 +7832,7 @@
         <v>350</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>398</v>
@@ -7786,19 +7861,19 @@
         <v>1.5</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G88" s="1">
         <v>21</v>
@@ -7807,16 +7882,16 @@
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J88" s="1">
         <v>2020</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>180</v>
@@ -7831,7 +7906,7 @@
         <v>186</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="34">
@@ -7842,10 +7917,10 @@
         <v>163</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>495</v>
@@ -7883,7 +7958,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>70</v>
@@ -7933,7 +8008,7 @@
         <v>248</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>73</v>
@@ -7977,16 +8052,16 @@
         <v>1.5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>76</v>
@@ -7998,13 +8073,13 @@
         <v>3</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J92" s="1">
         <v>2018</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L92">
         <v>57294614</v>
@@ -8022,7 +8097,7 @@
         <v>196</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="34">
@@ -8036,7 +8111,7 @@
         <v>363</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>430</v>
@@ -8077,7 +8152,7 @@
         <v>113</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>121</v>
@@ -8089,13 +8164,13 @@
         <v>4</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J94" s="1">
         <v>2019</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L94" s="1">
         <v>46227696</v>
@@ -8121,25 +8196,25 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="H95" s="1">
         <v>1</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="J95" s="1">
         <v>2020</v>
@@ -8160,7 +8235,7 @@
         <v>186</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="34">
@@ -8174,7 +8249,7 @@
         <v>144</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>437</v>
@@ -8183,7 +8258,7 @@
         <v>304</v>
       </c>
       <c r="K96" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L96">
         <v>46227690</v>
@@ -8212,7 +8287,7 @@
         <v>364</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>434</v>
@@ -8233,7 +8308,7 @@
         <v>186</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="34">
@@ -8247,7 +8322,7 @@
         <v>130</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J98" s="1">
         <v>2017</v>
@@ -8271,18 +8346,18 @@
         <v>186</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="51">
       <c r="A99" s="17">
         <v>1</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>532</v>
+      <c r="C99" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>386</v>
@@ -8303,7 +8378,7 @@
         <v>186</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="34">
@@ -8317,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>257</v>
@@ -8361,10 +8436,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>440</v>
@@ -8385,7 +8460,7 @@
         <v>186</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="34">
@@ -8417,7 +8492,7 @@
         <v>186</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="34">
@@ -8428,7 +8503,7 @@
         <v>366</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>438</v>
@@ -8449,7 +8524,7 @@
         <v>186</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="34">
@@ -8457,13 +8532,13 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>124</v>
@@ -8475,13 +8550,13 @@
         <v>1</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J104" s="1">
         <v>2019</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L104" s="1">
         <v>46227700</v>
@@ -8499,7 +8574,7 @@
         <v>186</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="34">
@@ -8507,10 +8582,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>439</v>
@@ -8531,7 +8606,7 @@
         <v>186</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="51">
@@ -8545,7 +8620,7 @@
         <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>114</v>
@@ -8557,7 +8632,7 @@
         <v>12</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J106" s="1">
         <v>2016</v>
@@ -8581,7 +8656,7 @@
         <v>196</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="51">
@@ -8592,7 +8667,7 @@
         <v>354</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>404</v>
@@ -8613,7 +8688,7 @@
         <v>196</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="51">
@@ -8624,7 +8699,7 @@
         <v>355</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>405</v>
@@ -8645,7 +8720,7 @@
         <v>196</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="34">
@@ -8656,7 +8731,7 @@
         <v>341</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>374</v>
@@ -8677,7 +8752,7 @@
         <v>196</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="34">
@@ -8688,10 +8763,10 @@
         <v>169</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E110" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>85</v>
@@ -8703,7 +8778,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J110" s="1">
         <v>2015</v>
@@ -8712,7 +8787,7 @@
         <v>86</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>180</v>
@@ -8727,7 +8802,7 @@
         <v>196</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="51">
@@ -8741,7 +8816,7 @@
         <v>87</v>
       </c>
       <c r="E111" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>88</v>
@@ -8753,7 +8828,7 @@
         <v>3</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J111" s="1">
         <v>2014</v>
@@ -8777,7 +8852,7 @@
         <v>196</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="34">
@@ -8786,14 +8861,14 @@
       </c>
       <c r="B112"/>
       <c r="C112" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D112"/>
       <c r="E112" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -8804,7 +8879,7 @@
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>200</v>
@@ -8816,7 +8891,7 @@
         <v>196</v>
       </c>
       <c r="Q112" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="34">
@@ -8824,19 +8899,19 @@
         <v>1.5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C113" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D113" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G113" t="s">
         <v>179</v>
@@ -8851,7 +8926,7 @@
         <v>2020</v>
       </c>
       <c r="K113" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="L113">
         <v>52212308</v>
@@ -8869,7 +8944,7 @@
         <v>196</v>
       </c>
       <c r="Q113" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="34">
@@ -8877,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>286</v>
@@ -8901,7 +8976,7 @@
         <v>186</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="51">
@@ -8912,7 +8987,7 @@
         <v>362</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>428</v>
@@ -8933,7 +9008,7 @@
         <v>186</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="34">
@@ -8950,7 +9025,7 @@
         <v>138</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>121</v>
@@ -8962,7 +9037,7 @@
         <v>6</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J116" s="1">
         <v>2018</v>
@@ -8971,7 +9046,7 @@
         <v>91</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>180</v>
@@ -8986,7 +9061,7 @@
         <v>196</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="34">
@@ -9000,7 +9075,7 @@
         <v>286</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>330</v>
@@ -9018,7 +9093,7 @@
         <v>186</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="51">
@@ -9026,13 +9101,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J118" s="1">
         <v>2018</v>
@@ -9056,7 +9131,7 @@
         <v>186</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="51">
@@ -9064,17 +9139,17 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D119"/>
       <c r="E119" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G119">
         <v>26</v>
@@ -9083,13 +9158,13 @@
         <v>3</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="J119">
         <v>2020</v>
       </c>
       <c r="K119" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="L119"/>
       <c r="M119" s="1" t="s">
@@ -9105,7 +9180,7 @@
         <v>196</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="34">
@@ -9114,11 +9189,11 @@
       </c>
       <c r="B120"/>
       <c r="C120" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D120"/>
       <c r="E120" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>374</v>
@@ -9127,7 +9202,7 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K120"/>
       <c r="L120"/>
@@ -9144,7 +9219,7 @@
         <v>186</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="34">
@@ -9153,13 +9228,13 @@
       </c>
       <c r="B121"/>
       <c r="C121" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121"/>
@@ -9169,7 +9244,7 @@
         <v>2019</v>
       </c>
       <c r="K121" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="L121">
         <v>78301690</v>
@@ -9187,7 +9262,7 @@
         <v>186</v>
       </c>
       <c r="Q121" s="11" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="34">
@@ -9196,14 +9271,14 @@
       </c>
       <c r="B122"/>
       <c r="C122" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
@@ -9214,7 +9289,7 @@
       <c r="K122"/>
       <c r="L122"/>
       <c r="M122" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>200</v>
@@ -9226,7 +9301,7 @@
         <v>196</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="51">
@@ -9235,20 +9310,20 @@
       </c>
       <c r="B123"/>
       <c r="C123" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D123"/>
       <c r="E123" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K123"/>
       <c r="L123"/>
@@ -9265,7 +9340,7 @@
         <v>186</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="51">
@@ -9279,7 +9354,7 @@
         <v>96</v>
       </c>
       <c r="E124" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>97</v>
@@ -9291,7 +9366,7 @@
         <v>4</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J124" s="1">
         <v>2011</v>
@@ -9300,7 +9375,7 @@
         <v>98</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>180</v>
@@ -9315,7 +9390,7 @@
         <v>196</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="51">
@@ -9323,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>287</v>
@@ -9347,7 +9422,7 @@
         <v>196</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="34">
@@ -9358,7 +9433,7 @@
         <v>342</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>377</v>
@@ -9379,7 +9454,7 @@
         <v>196</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="34">
@@ -9387,10 +9462,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>444</v>
@@ -9411,7 +9486,7 @@
         <v>186</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="34">
@@ -9419,19 +9494,19 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E128" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J128" s="1">
         <v>2017</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L128" s="1">
         <v>46227678</v>
@@ -9449,7 +9524,7 @@
         <v>196</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="34">
@@ -9463,7 +9538,7 @@
         <v>134</v>
       </c>
       <c r="E129" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J129" s="1">
         <v>2018</v>
@@ -9484,7 +9559,7 @@
         <v>196</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="34">
@@ -9492,13 +9567,13 @@
         <v>1</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>293</v>
@@ -9516,7 +9591,7 @@
         <v>186</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="34">
@@ -9524,10 +9599,10 @@
         <v>1</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>431</v>
@@ -9548,7 +9623,7 @@
         <v>186</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="34">
@@ -9562,7 +9637,7 @@
         <v>365</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>435</v>
@@ -9586,7 +9661,7 @@
         <v>186</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="51">
@@ -9597,7 +9672,7 @@
         <v>349</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>392</v>
@@ -9618,7 +9693,7 @@
         <v>196</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="34">
@@ -9629,10 +9704,10 @@
         <v>101</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>85</v>
@@ -9644,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J134" s="1">
         <v>2017</v>
@@ -9668,7 +9743,7 @@
         <v>196</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="34">
@@ -9676,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>286</v>
@@ -9700,7 +9775,7 @@
         <v>186</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="51">
@@ -9714,7 +9789,7 @@
         <v>131</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>102</v>
@@ -9726,7 +9801,7 @@
         <v>179</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J136" s="1">
         <v>2018</v>
@@ -9750,7 +9825,7 @@
         <v>196</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="34">
@@ -9761,10 +9836,10 @@
         <v>159</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>394</v>
@@ -9788,7 +9863,7 @@
         <v>196</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="34">
@@ -9799,10 +9874,10 @@
         <v>160</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>395</v>
@@ -9826,7 +9901,7 @@
         <v>196</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="34">
@@ -9837,10 +9912,10 @@
         <v>168</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>429</v>
@@ -9864,7 +9939,7 @@
         <v>186</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:17" customFormat="1" ht="51">
@@ -9879,7 +9954,7 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>279</v>
@@ -9900,7 +9975,7 @@
         <v>105</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>180</v>
@@ -9924,11 +9999,11 @@
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>407</v>
@@ -9954,7 +10029,7 @@
         <v>196</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="142" spans="1:17" customFormat="1" ht="51">
@@ -9963,11 +10038,11 @@
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>401</v>
@@ -9993,7 +10068,7 @@
         <v>196</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:17" customFormat="1" ht="51">
@@ -10001,16 +10076,16 @@
         <v>1</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>847</v>
       </c>
       <c r="G143">
         <v>81</v>
@@ -10019,13 +10094,13 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J143" s="7">
         <v>2019</v>
       </c>
       <c r="K143" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="L143">
         <v>57294563</v>
@@ -10043,7 +10118,7 @@
         <v>196</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="144" spans="1:17" customFormat="1" ht="102">
@@ -10058,7 +10133,7 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>385</v>
@@ -10086,7 +10161,7 @@
         <v>196</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="145" spans="1:17" customFormat="1" ht="51">
@@ -10095,11 +10170,11 @@
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>403</v>
@@ -10125,7 +10200,7 @@
         <v>196</v>
       </c>
       <c r="Q145" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:17" customFormat="1" ht="34">
@@ -10134,7 +10209,7 @@
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="7" t="s">
@@ -10164,7 +10239,7 @@
         <v>196</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:17" customFormat="1" ht="34">
@@ -10173,11 +10248,11 @@
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>374</v>
@@ -10203,7 +10278,7 @@
         <v>186</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="148" spans="1:17" customFormat="1" ht="34">
@@ -10220,7 +10295,7 @@
         <v>278</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>108</v>
@@ -10232,13 +10307,13 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J148" s="1">
         <v>2019</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L148" s="1">
         <v>44621959</v>
@@ -10264,16 +10339,16 @@
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>822</v>
-      </c>
       <c r="J149" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>216</v>
@@ -10288,7 +10363,7 @@
         <v>196</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="150" spans="1:17" customFormat="1" ht="51">
@@ -10297,11 +10372,11 @@
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>396</v>
@@ -10327,7 +10402,7 @@
         <v>196</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" spans="1:17" customFormat="1" ht="34">
@@ -10340,7 +10415,7 @@
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>382</v>
@@ -10366,7 +10441,7 @@
         <v>196</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:17" customFormat="1" ht="34">
@@ -10379,7 +10454,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>20</v>
@@ -10397,7 +10472,7 @@
         <v>2016</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L152" s="1">
         <v>30745623</v>
@@ -10428,7 +10503,7 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="8" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>238</v>
@@ -10477,7 +10552,7 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>442</v>
@@ -10503,7 +10578,7 @@
         <v>186</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="155" spans="1:17" customFormat="1" ht="34">
@@ -10516,7 +10591,7 @@
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>443</v>
@@ -10542,7 +10617,7 @@
         <v>186</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="156" spans="1:17" customFormat="1" ht="34">
@@ -10551,23 +10626,31 @@
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1" t="s">
-        <v>603</v>
+        <v>1095</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E156" t="s">
-        <v>782</v>
-      </c>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
+        <v>780</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="J156" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="L156" s="1">
         <v>46227699</v>
@@ -10576,7 +10659,7 @@
         <v>180</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>195</v>
@@ -10585,7 +10668,7 @@
         <v>186</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="157" spans="1:17" customFormat="1" ht="34">
@@ -10600,7 +10683,7 @@
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>379</v>
@@ -10628,7 +10711,7 @@
         <v>196</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="51">
@@ -10663,7 +10746,7 @@
         <v>115</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>180</v>
@@ -10689,7 +10772,7 @@
         <v>353</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>402</v>
@@ -10710,7 +10793,7 @@
         <v>196</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="34">
@@ -10724,7 +10807,7 @@
         <v>286</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J160" s="7" t="s">
         <v>332</v>
@@ -10742,7 +10825,7 @@
         <v>196</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="34">
@@ -10762,7 +10845,7 @@
         <v>2018</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="L161" s="1">
         <v>46227697</v>
@@ -10794,10 +10877,10 @@
         <v>526</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J162" s="7" t="s">
         <v>292</v>
@@ -10818,7 +10901,7 @@
         <v>196</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="34">
@@ -10832,7 +10915,7 @@
         <v>117</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>88</v>
@@ -10853,7 +10936,7 @@
         <v>118</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>180</v>
@@ -10882,13 +10965,13 @@
         <v>119</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J164" s="1">
         <v>2018</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L164" s="1">
         <v>46227703</v>
@@ -10920,7 +11003,7 @@
         <v>120</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>121</v>
@@ -10941,7 +11024,7 @@
         <v>122</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>180</v>
@@ -10967,7 +11050,7 @@
         <v>524</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>436</v>
@@ -10996,10 +11079,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D167" t="s">
         <v>570</v>
-      </c>
-      <c r="D167" t="s">
-        <v>571</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>286</v>
@@ -11023,7 +11106,7 @@
         <v>196</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="51">
@@ -11032,20 +11115,20 @@
       </c>
       <c r="B168"/>
       <c r="C168" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D168"/>
       <c r="E168" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
       <c r="J168" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K168"/>
       <c r="L168"/>
@@ -11062,7 +11145,7 @@
         <v>196</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="34">
@@ -11071,20 +11154,20 @@
       </c>
       <c r="B169"/>
       <c r="C169" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D169"/>
       <c r="E169" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
       <c r="I169"/>
       <c r="J169" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="K169"/>
       <c r="L169"/>
@@ -11101,7 +11184,7 @@
         <v>196</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="170" spans="1:17" ht="51">
@@ -11112,7 +11195,7 @@
         <v>494</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>431</v>
@@ -11165,7 +11248,7 @@
         <v>186</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="34">
@@ -11214,7 +11297,7 @@
         <v>125</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>124</v>
@@ -11258,17 +11341,17 @@
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D174"/>
       <c r="E174" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F174" s="6" t="s">
         <v>836</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>838</v>
       </c>
       <c r="G174" t="s">
         <v>179</v>
@@ -11283,7 +11366,7 @@
         <v>2019</v>
       </c>
       <c r="K174" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="L174"/>
       <c r="M174" s="1" t="s">
@@ -11299,7 +11382,7 @@
         <v>186</v>
       </c>
       <c r="Q174" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="34">
@@ -11331,7 +11414,7 @@
         <v>196</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="34">
@@ -11363,7 +11446,7 @@
         <v>186</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="34">
@@ -11377,7 +11460,7 @@
         <v>126</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>32</v>
@@ -11424,7 +11507,7 @@
         <v>126</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>446</v>
@@ -11485,13 +11568,13 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D180" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F180"/>
       <c r="G180"/>
@@ -11501,7 +11584,7 @@
         <v>2019</v>
       </c>
       <c r="K180" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L180">
         <v>53070092</v>
@@ -11519,7 +11602,7 @@
         <v>186</v>
       </c>
       <c r="Q180" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="51">
@@ -11527,16 +11610,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D181" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G181"/>
       <c r="H181"/>
@@ -11559,7 +11642,7 @@
         <v>186</v>
       </c>
       <c r="Q181" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="34">
@@ -11567,19 +11650,19 @@
         <v>1</v>
       </c>
       <c r="C182" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>855</v>
-      </c>
       <c r="F182" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>216</v>
@@ -11594,7 +11677,7 @@
         <v>196</v>
       </c>
       <c r="Q182" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="51">
@@ -11602,16 +11685,16 @@
         <v>1</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="J183" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>216</v>
@@ -11626,7 +11709,7 @@
         <v>196</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="51">
@@ -11634,16 +11717,16 @@
         <v>1</v>
       </c>
       <c r="C184" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F184" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>910</v>
-      </c>
       <c r="J184" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>216</v>
@@ -11658,7 +11741,7 @@
         <v>186</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="34">
@@ -11666,16 +11749,16 @@
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>216</v>
@@ -11690,7 +11773,7 @@
         <v>186</v>
       </c>
       <c r="Q185" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="34">
@@ -11698,16 +11781,16 @@
         <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>216</v>
@@ -11722,7 +11805,7 @@
         <v>196</v>
       </c>
       <c r="Q186" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="51">
@@ -11730,25 +11813,25 @@
         <v>1.5</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D187" t="s">
+        <v>663</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="J187" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="K187" t="s">
         <v>920</v>
-      </c>
-      <c r="D187" t="s">
-        <v>665</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="K187" t="s">
-        <v>922</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>216</v>
@@ -11763,7 +11846,7 @@
         <v>196</v>
       </c>
       <c r="Q187" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="34">
@@ -11771,19 +11854,19 @@
         <v>1</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J188" s="1">
         <v>2019</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="L188">
         <v>61451311</v>
@@ -11801,7 +11884,7 @@
         <v>196</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="36">
@@ -11810,13 +11893,13 @@
       </c>
       <c r="B189" s="19"/>
       <c r="C189" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D189" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="J189" s="1">
         <v>2019</v>
@@ -11837,7 +11920,7 @@
         <v>186</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="34">
@@ -11845,16 +11928,16 @@
         <v>1</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="J190" s="1">
         <v>2016</v>
@@ -11875,7 +11958,7 @@
         <v>196</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="34">
@@ -11883,16 +11966,16 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C191" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="G191" s="1">
         <v>44</v>
@@ -11901,13 +11984,13 @@
         <v>2</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="J191" s="1">
         <v>2019</v>
       </c>
       <c r="K191" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>180</v>
@@ -11922,7 +12005,7 @@
         <v>196</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="34">
@@ -11930,16 +12013,16 @@
         <v>1</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G192" s="1">
         <v>6</v>
@@ -11948,7 +12031,7 @@
         <v>12</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J192" s="1">
         <v>2019</v>
@@ -11966,7 +12049,7 @@
         <v>196</v>
       </c>
       <c r="Q192" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="34">
@@ -11974,22 +12057,22 @@
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D193" t="s">
+        <v>957</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="J193" s="1">
         <v>2019</v>
       </c>
       <c r="K193" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="L193">
         <v>66133660</v>
@@ -12007,7 +12090,7 @@
         <v>196</v>
       </c>
       <c r="Q193" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="194" spans="1:17" ht="17">
@@ -12015,19 +12098,19 @@
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D194" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="J194" s="1">
         <v>2019</v>
       </c>
       <c r="K194" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="L194">
         <v>66565618</v>
@@ -12045,7 +12128,7 @@
         <v>196</v>
       </c>
       <c r="Q194" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="51">
@@ -12053,19 +12136,19 @@
         <v>1</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="G195" s="1">
         <v>90</v>
@@ -12074,16 +12157,16 @@
         <v>5</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="J195" s="1">
         <v>2020</v>
       </c>
       <c r="K195" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="L195" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>180</v>
@@ -12098,7 +12181,7 @@
         <v>196</v>
       </c>
       <c r="Q195" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="51">
@@ -12106,19 +12189,19 @@
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>179</v>
@@ -12133,10 +12216,10 @@
         <v>2020</v>
       </c>
       <c r="K196" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="L196" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>180</v>
@@ -12151,7 +12234,7 @@
         <v>196</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="51">
@@ -12159,16 +12242,16 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="J197" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>216</v>
@@ -12188,16 +12271,16 @@
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="J198" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>216</v>
@@ -12217,16 +12300,16 @@
         <v>1</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="J199" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>216</v>
@@ -12246,16 +12329,16 @@
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>216</v>
@@ -12270,7 +12353,7 @@
         <v>196</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="201" spans="1:17" ht="51">
@@ -12278,16 +12361,16 @@
         <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M201" s="1" t="s">
         <v>216</v>
@@ -12302,7 +12385,7 @@
         <v>196</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="51">
@@ -12310,16 +12393,16 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>216</v>
@@ -12334,7 +12417,7 @@
         <v>196</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="51">
@@ -12342,16 +12425,16 @@
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J203" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J203" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>216</v>
@@ -12366,7 +12449,7 @@
         <v>196</v>
       </c>
       <c r="Q203" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="34">
@@ -12374,16 +12457,16 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>1022</v>
-      </c>
       <c r="J204" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>216</v>
@@ -12398,7 +12481,7 @@
         <v>186</v>
       </c>
       <c r="Q204" s="11" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="205" spans="1:17" ht="34">
@@ -12406,16 +12489,16 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="J205" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>216</v>
@@ -12430,7 +12513,7 @@
         <v>186</v>
       </c>
       <c r="Q205" s="11" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="34">
@@ -12438,16 +12521,16 @@
         <v>1</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1028</v>
+        <v>1085</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>216</v>
@@ -12462,7 +12545,7 @@
         <v>186</v>
       </c>
       <c r="Q206" s="11" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="207" spans="1:17" ht="34">
@@ -12470,16 +12553,16 @@
         <v>1</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>216</v>
@@ -12494,7 +12577,7 @@
         <v>186</v>
       </c>
       <c r="Q207" s="11" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="34">
@@ -12502,16 +12585,16 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>216</v>
@@ -12526,7 +12609,7 @@
         <v>186</v>
       </c>
       <c r="Q208" s="24" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="34">
@@ -12534,13 +12617,13 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J209" s="1">
         <v>2020</v>
@@ -12549,7 +12632,7 @@
         <v>180</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>195</v>
@@ -12563,13 +12646,13 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>257</v>
@@ -12581,7 +12664,7 @@
         <v>180</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>184</v>
@@ -12590,7 +12673,7 @@
         <v>186</v>
       </c>
       <c r="Q210" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="211" spans="1:17" ht="51">
@@ -12598,13 +12681,13 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>76</v>
@@ -12613,13 +12696,13 @@
         <v>2019</v>
       </c>
       <c r="K211" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>184</v>
@@ -12628,7 +12711,7 @@
         <v>196</v>
       </c>
       <c r="Q211" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="212" spans="1:17" ht="34">
@@ -12636,13 +12719,13 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>76</v>
@@ -12654,7 +12737,7 @@
         <v>180</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>184</v>
@@ -12663,7 +12746,7 @@
         <v>196</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="17">
@@ -12671,31 +12754,31 @@
         <v>1</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>1063</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>275</v>
+      <c r="G213" s="1">
+        <v>53</v>
+      </c>
+      <c r="H213" s="1">
+        <v>1</v>
+      </c>
+      <c r="I213" s="5">
+        <v>44199</v>
       </c>
       <c r="J213" s="1">
         <v>2020</v>
       </c>
       <c r="K213" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>180</v>
@@ -12715,13 +12798,13 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="J214" s="1">
         <v>2020</v>
@@ -12744,22 +12827,31 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="J215" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>195</v>
@@ -12773,28 +12865,132 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D216"/>
+        <v>818</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1097</v>
+      </c>
       <c r="E216" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>486</v>
       </c>
+      <c r="G216" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="J216" s="1">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="L216">
+        <v>90220674</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>180</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>195</v>
       </c>
       <c r="P216" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" ht="68">
+      <c r="A217" s="17">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" ht="68">
+      <c r="A218" s="17">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="51">
+      <c r="A219" s="17">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P219" s="1" t="s">
         <v>196</v>
       </c>
     </row>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B67CFB-8223-CB45-BACC-861C46D5EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6456E3B5-38C0-7944-8D96-A62B21474CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$256</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1313">
   <si>
     <t>title</t>
   </si>
@@ -2906,9 +2906,6 @@
     <t>Buchanan, E.M., Manley, H., Sly, J., Cady, R., Wikowsky, A., \&amp; Cunningham, A.L.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>https://osf.io/ey326</t>
   </si>
   <si>
@@ -3485,18 +3482,12 @@
     <t>https://psyarxiv.com/6s8bj</t>
   </si>
   <si>
-    <t>Discrimination, meaning, pandemic self-efficacy, and social support predict trajectories of peri-pandemic growth and resilience for marginalized university students</t>
-  </si>
-  <si>
     <t>Pavlacic, J. M., Weber, M. C., Torres, V. A., Ho, L. Y.,  Buchanan, E. M., \&amp; Schulenberg, S. E.</t>
   </si>
   <si>
     <t>https://osf.io/sevkf</t>
   </si>
   <si>
-    <t>A global test of message framing on behavioural intentions, policy support, information seeking, and experienced anxiety during the COVID-19 pandemic</t>
-  </si>
-  <si>
     <t>10.31234/osf.io/sevkf</t>
   </si>
   <si>
@@ -3818,9 +3809,6 @@
     <t>104340998, 104340998</t>
   </si>
   <si>
-    <t>8VtEwCQfWZkC, XAp-VaTZjjwC, e84hm74t-eoC, uAPFzskPt0AC, oqD4_j7ulsYC</t>
-  </si>
-  <si>
     <t>BJtnxTr0fRcC; yIeBiWEAh44C, yIeBiWEAh44C, BJtnxTr0fRcC</t>
   </si>
   <si>
@@ -3834,13 +3822,166 @@
   </si>
   <si>
     <t xml:space="preserve">xm0LlTxljI0C, wyM6WWKXmoIC, KI9T_ytC6pkC, qsWQJNntlusC </t>
+  </si>
+  <si>
+    <t>10.1007/s11136-022-03279-9</t>
+  </si>
+  <si>
+    <t>Quality of Life Research</t>
+  </si>
+  <si>
+    <t>XX-XX</t>
+  </si>
+  <si>
+    <t>Meaning, pandemic self-efficacy, social support, and discrimination predict trajectories of peri-pandemic growth and distress for international students</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/Pavlacic_22_PT.docx</t>
+  </si>
+  <si>
+    <t>Assessing the Effectiveness and Utility of a Mindfulness-Based Ecological Momentary Intervention</t>
+  </si>
+  <si>
+    <t>Pavlacic, J.M., Schulenberg, S.E., Witcraft, S.M., \&amp; Buchanan, E.M.</t>
+  </si>
+  <si>
+    <t>Poster presentation for the 56th annual meeting of the Association for Behavioral and Cognitive Therapies, New York, NY </t>
+  </si>
+  <si>
+    <t>2022, November</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Is Priming Consistent Across Languages? Preliminary Findings from the SPAML: Semantic Priming Across Many Languages</t>
+  </si>
+  <si>
+    <t>Spoken presentation at the annual meeting of the Psychonomic Society, Boston, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heyman, T., Buchanan, E.M., et al. </t>
+  </si>
+  <si>
+    <t>Spoken presentation for the Annual Meeting of the Society for Computation in Psychology, Boston, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crowdsourcing Multiverse Analyses to Examine the Robustness of Research Findings </t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/MDM_0322.pptx</t>
+  </si>
+  <si>
+    <t>Improving Patient’s Assessment of Their Migraine</t>
+  </si>
+  <si>
+    <t>2022, March</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for the Medical Decision Making Research Group at Massachusetts General Hospital</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for the University of Mississippi's clinical research students, Oxford, MS</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/UM_032522.pptx</t>
+  </si>
+  <si>
+    <t>A PSA on the PSA: Big Team Science with the Psychological Science Accelerator</t>
+  </si>
+  <si>
+    <t>Power to the Stimuli: Not the Effect</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for Princeton University's Statistics Research Series, Princeton, NJ</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/SPAML_03_29.pptx</t>
+  </si>
+  <si>
+    <t>SPAM-L: Semantic Priming Across Many Languages</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for Stanford University's brown bag series</t>
+  </si>
+  <si>
+    <t>Big Team Science Infrastructure</t>
+  </si>
+  <si>
+    <t>Invited presentation for the Big Team Science Conference 2022</t>
+  </si>
+  <si>
+    <t>2022, October</t>
+  </si>
+  <si>
+    <t>How to setup a big Team Science project within PSA</t>
+  </si>
+  <si>
+    <t>Buchanan, E. M. \&amp; Chartier, C.</t>
+  </si>
+  <si>
+    <t>Invited presentation for the Advancing Big-team Reproducible science through Increased Representation Conference 2022</t>
+  </si>
+  <si>
+    <t>2022, September</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/ABRIR_22.pptx</t>
+  </si>
+  <si>
+    <t>Invited presentation for the University of Utah Linguistics program</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/spam_open.pptx</t>
+  </si>
+  <si>
+    <t>BTS Comes for Linguistics</t>
+  </si>
+  <si>
+    <t>63--68</t>
+  </si>
+  <si>
+    <t>10.1177/1745691622110042</t>
+  </si>
+  <si>
+    <t>554–-566</t>
+  </si>
+  <si>
+    <t>101888659, 119378183</t>
+  </si>
+  <si>
+    <t>Data from an International Multi-centre Study of Statistics and Mathematics Anxieties and Related Variables in University Students (the SMARVUS Dataset)</t>
+  </si>
+  <si>
+    <t>Terry, J. et al.</t>
+  </si>
+  <si>
+    <t>l6Q3WhenKVUC</t>
+  </si>
+  <si>
+    <t>https://psyarxiv.com/au9vp/</t>
+  </si>
+  <si>
+    <t>In COVID-19 health messaging, loss framing increases anxiety with little-to-no concomitant benefits: Experimental evidence from 84 countries</t>
+  </si>
+  <si>
+    <t>1--26</t>
+  </si>
+  <si>
+    <t>u3T1itk59dMC</t>
+  </si>
+  <si>
+    <t>8VtEwCQfWZkC, XAp-VaTZjjwC, e84hm74t-eoC, uAPFzskPt0AC, oqD4_j7ulsYC, DQNrXyjhriIC</t>
+  </si>
+  <si>
+    <t>Nature Scientific Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3995,13 +4136,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
     <font>
@@ -4381,7 +4515,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4429,24 +4563,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4835,11 +4978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R252"/>
+  <dimension ref="A1:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R244" sqref="R244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -4918,7 +5061,7 @@
         <v>190</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="34">
@@ -5777,7 +5920,7 @@
         <v>726</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>178</v>
@@ -5786,7 +5929,7 @@
         <v>178</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J18" s="1">
         <v>2014</v>
@@ -6651,7 +6794,7 @@
         <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>179</v>
@@ -7593,7 +7736,7 @@
         <v>179</v>
       </c>
       <c r="N54" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O54" t="s">
         <v>183</v>
@@ -7623,7 +7766,7 @@
       <c r="F55" t="s">
         <v>681</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="21">
         <v>27</v>
       </c>
       <c r="H55">
@@ -7674,7 +7817,7 @@
         <v>875</v>
       </c>
       <c r="F56" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -7692,7 +7835,7 @@
         <v>179</v>
       </c>
       <c r="N56" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O56" t="s">
         <v>183</v>
@@ -7716,7 +7859,7 @@
         <v>832</v>
       </c>
       <c r="D57" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>833</v>
@@ -7731,13 +7874,13 @@
         <v>178</v>
       </c>
       <c r="I57" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J57">
         <v>2019</v>
       </c>
       <c r="K57" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L57"/>
       <c r="M57" s="1" t="s">
@@ -8005,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J62">
         <v>2020</v>
@@ -8039,10 +8182,10 @@
       </c>
       <c r="B63"/>
       <c r="C63" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>1052</v>
+        <v>1211</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>1051</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>803</v>
@@ -8055,7 +8198,7 @@
         <v>2019</v>
       </c>
       <c r="K63" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L63">
         <v>78301690</v>
@@ -8073,7 +8216,7 @@
         <v>185</v>
       </c>
       <c r="Q63" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="R63" s="1"/>
     </row>
@@ -8083,13 +8226,13 @@
       </c>
       <c r="B64"/>
       <c r="C64" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D64" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64"/>
@@ -8115,7 +8258,7 @@
         <v>185</v>
       </c>
       <c r="Q64" s="11" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="R64" s="1"/>
     </row>
@@ -8125,7 +8268,7 @@
       </c>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="1" t="s">
@@ -8141,7 +8284,7 @@
         <v>2019</v>
       </c>
       <c r="K65" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L65"/>
       <c r="M65" s="1" t="s">
@@ -8187,7 +8330,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J66" s="1">
         <v>2020</v>
@@ -8221,7 +8364,7 @@
       <c r="A67" s="16">
         <v>1.5</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="18" t="s">
         <v>897</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -8243,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J67" s="1">
         <v>2020</v>
@@ -8299,7 +8442,7 @@
         <v>2</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J68">
         <v>2020</v>
@@ -8411,15 +8554,15 @@
       </c>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" ht="36">
+    <row r="71" spans="1:18" ht="34">
       <c r="A71" s="16">
         <v>1</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="20" t="s">
         <v>924</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -8471,13 +8614,13 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J72" s="1">
         <v>2019</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L72" s="1">
         <v>46227700</v>
@@ -8527,7 +8670,7 @@
         <v>178</v>
       </c>
       <c r="I73" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J73">
         <v>2020</v>
@@ -8557,36 +8700,42 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="34">
+    <row r="74" spans="1:18" ht="51">
       <c r="A74" s="16">
         <v>1</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D74" t="s">
-        <v>954</v>
+      <c r="B74" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>938</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>956</v>
+        <v>940</v>
+      </c>
+      <c r="G74" s="1">
+        <v>44</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>1021</v>
       </c>
       <c r="J74" s="1">
         <v>2019</v>
       </c>
       <c r="K74" t="s">
-        <v>967</v>
-      </c>
-      <c r="L74">
-        <v>66133660</v>
+        <v>941</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>179</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>194</v>
@@ -8594,42 +8743,41 @@
       <c r="P74" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q74" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" ht="51">
+      <c r="Q74" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="R74" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="34">
       <c r="A75" s="16">
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>938</v>
+        <v>979</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="G75" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H75" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1022</v>
+        <v>978</v>
       </c>
       <c r="J75" s="1">
         <v>2019</v>
       </c>
-      <c r="K75" t="s">
-        <v>941</v>
-      </c>
       <c r="M75" s="1" t="s">
         <v>179</v>
       </c>
@@ -8643,10 +8791,10 @@
         <v>195</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="R75" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="34">
@@ -8654,13 +8802,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>256</v>
@@ -8672,7 +8820,7 @@
         <v>179</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>183</v>
@@ -8681,7 +8829,7 @@
         <v>185</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R76" s="1"/>
     </row>
@@ -8689,29 +8837,32 @@
       <c r="A77" s="16">
         <v>1</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>980</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>963</v>
+        <v>620</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>942</v>
+        <v>739</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="G77" s="1">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1069</v>
       </c>
       <c r="H77" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>979</v>
+        <v>1070</v>
       </c>
       <c r="J77" s="1">
-        <v>2019</v>
+        <v>2020</v>
+      </c>
+      <c r="L77" s="1">
+        <v>46227690</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>179</v>
@@ -8723,101 +8874,107 @@
         <v>194</v>
       </c>
       <c r="P77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="R77" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="34">
+      <c r="A78" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D78" t="s">
+        <v>662</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="G78">
+        <v>29</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J78">
+        <v>2020</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L78">
+        <v>52212308</v>
+      </c>
+      <c r="M78" t="s">
+        <v>179</v>
+      </c>
+      <c r="N78" t="s">
+        <v>199</v>
+      </c>
+      <c r="O78" t="s">
+        <v>194</v>
+      </c>
+      <c r="P78" t="s">
         <v>195</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="R77" s="8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="34">
-      <c r="A78" s="16">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H78" s="1">
-        <v>1</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J78" s="1">
-        <v>2020</v>
-      </c>
-      <c r="L78" s="1">
-        <v>46227690</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>621</v>
+      <c r="Q78" s="11" t="s">
+        <v>674</v>
       </c>
       <c r="R78" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="34">
       <c r="A79" s="17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>982</v>
+        <v>1087</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>663</v>
+        <v>879</v>
       </c>
       <c r="D79" t="s">
-        <v>662</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="G79">
-        <v>29</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1243</v>
+        <v>857</v>
+      </c>
+      <c r="E79" t="s">
+        <v>880</v>
+      </c>
+      <c r="F79" t="s">
+        <v>972</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>251524592092800</v>
       </c>
       <c r="J79">
         <v>2020</v>
       </c>
       <c r="K79" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L79">
-        <v>52212308</v>
+        <v>1025</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1089</v>
       </c>
       <c r="M79" t="s">
         <v>179</v>
@@ -8826,72 +8983,72 @@
         <v>199</v>
       </c>
       <c r="O79" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P79" t="s">
         <v>195</v>
       </c>
       <c r="Q79" s="11" t="s">
-        <v>674</v>
+        <v>881</v>
       </c>
       <c r="R79" s="8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="34">
-      <c r="A80" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="51">
+      <c r="A80" s="16">
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>879</v>
+        <v>1007</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>983</v>
       </c>
       <c r="D80" t="s">
-        <v>857</v>
-      </c>
-      <c r="E80" t="s">
-        <v>880</v>
-      </c>
-      <c r="F80" t="s">
-        <v>973</v>
+        <v>1036</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>1009</v>
       </c>
       <c r="G80" s="1">
+        <v>70</v>
+      </c>
+      <c r="H80" s="1">
         <v>4</v>
       </c>
-      <c r="H80" s="1">
-        <v>1</v>
-      </c>
-      <c r="I80" s="1">
-        <v>251524592092800</v>
-      </c>
-      <c r="J80">
+      <c r="I80" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J80" s="1">
         <v>2020</v>
       </c>
       <c r="K80" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="L80" t="s">
-        <v>1090</v>
-      </c>
-      <c r="M80" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N80" t="s">
-        <v>199</v>
-      </c>
-      <c r="O80" t="s">
-        <v>183</v>
-      </c>
-      <c r="P80" t="s">
+      <c r="N80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P80" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q80" s="11" t="s">
-        <v>881</v>
+      <c r="Q80" s="1" t="s">
+        <v>1037</v>
       </c>
       <c r="R80" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="51">
@@ -8899,34 +9056,34 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1037</v>
+        <v>982</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1034</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="G81" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H81" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1227</v>
+        <v>1054</v>
       </c>
       <c r="J81" s="1">
         <v>2020</v>
       </c>
       <c r="K81" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="L81" t="s">
         <v>1050</v>
@@ -8943,49 +9100,49 @@
       <c r="P81" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q81" s="1" t="s">
-        <v>1038</v>
+      <c r="Q81" s="2" t="s">
+        <v>1035</v>
       </c>
       <c r="R81" s="8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="34">
       <c r="A82" s="16">
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1011</v>
+        <v>1093</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>983</v>
+        <v>61</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1035</v>
+        <v>62</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1012</v>
+        <v>730</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1013</v>
+        <v>1081</v>
       </c>
       <c r="G82" s="1">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="H82" s="1">
         <v>5</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1055</v>
+        <v>1110</v>
       </c>
       <c r="J82" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1051</v>
+        <v>2021</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>1111</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>179</v>
@@ -8994,16 +9151,16 @@
         <v>199</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>195</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>1036</v>
+        <v>608</v>
       </c>
       <c r="R82" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="34">
@@ -9013,35 +9170,35 @@
       <c r="B83" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>62</v>
+      <c r="C83" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1086</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>730</v>
+        <v>1067</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1082</v>
+        <v>485</v>
       </c>
       <c r="G83" s="1">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H83" s="1">
-        <v>5</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>1111</v>
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1227</v>
       </c>
       <c r="J83" s="1">
         <v>2021</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>1112</v>
+      <c r="K83" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1128</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>179</v>
@@ -9050,54 +9207,51 @@
         <v>199</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>195</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>608</v>
+        <v>1085</v>
       </c>
       <c r="R83" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="34">
       <c r="A84" s="16">
         <v>1</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1087</v>
+      <c r="B84" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1107</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1068</v>
+        <v>988</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>485</v>
+        <v>1073</v>
       </c>
       <c r="G84" s="1">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="H84" s="1">
-        <v>3</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1230</v>
+        <v>1</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>1108</v>
       </c>
       <c r="J84" s="1">
         <v>2021</v>
       </c>
       <c r="K84" t="s">
-        <v>1128</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1129</v>
+        <v>1109</v>
+      </c>
+      <c r="L84">
+        <v>92236335</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>179</v>
@@ -9112,45 +9266,45 @@
         <v>195</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>1086</v>
+        <v>1140</v>
       </c>
       <c r="R84" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="34">
       <c r="A85" s="16">
         <v>1</v>
       </c>
-      <c r="B85" t="s">
-        <v>1107</v>
+      <c r="B85" s="1" t="s">
+        <v>1219</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>989</v>
+        <v>1084</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" t="s">
+        <v>779</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="G85" s="1">
-        <v>2</v>
-      </c>
-      <c r="H85" s="1">
-        <v>1</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>1109</v>
+        <v>6</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>1220</v>
       </c>
       <c r="J85" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1110</v>
-      </c>
-      <c r="L85">
-        <v>92236335</v>
+        <v>2022</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>1221</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>179</v>
@@ -9162,48 +9316,42 @@
         <v>194</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="R85" s="8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="34">
+        <v>601</v>
+      </c>
+      <c r="R85">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="68">
       <c r="A86" s="16">
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1222</v>
+        <v>1098</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" t="s">
-        <v>779</v>
+        <v>1095</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>1096</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G86" s="1">
-        <v>6</v>
-      </c>
-      <c r="I86" s="23" t="s">
-        <v>1223</v>
+        <v>1097</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="I86" s="1">
+        <v>100141</v>
       </c>
       <c r="J86" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>1224</v>
+        <v>1105</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>179</v>
@@ -9215,42 +9363,45 @@
         <v>194</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="R86">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="68">
+        <v>195</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R86" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="34">
       <c r="A87" s="16">
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>1096</v>
+        <v>1056</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>1100</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1097</v>
+        <v>1055</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G87">
-        <v>5</v>
-      </c>
-      <c r="I87" s="1">
-        <v>100141</v>
+        <v>120</v>
+      </c>
+      <c r="G87" s="1">
+        <v>54</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>1102</v>
       </c>
       <c r="J87" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>1106</v>
+        <v>2020</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1233</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>179</v>
@@ -9259,16 +9410,16 @@
         <v>199</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q87" s="1" t="s">
-        <v>1100</v>
+      <c r="Q87" s="2" t="s">
+        <v>1139</v>
       </c>
       <c r="R87" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="34">
@@ -9276,13 +9427,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>1101</v>
+        <v>1133</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>1061</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>120</v>
@@ -9291,16 +9442,16 @@
         <v>54</v>
       </c>
       <c r="H88" s="1">
-        <v>1</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>1103</v>
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1260</v>
       </c>
       <c r="J88" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K88" t="s">
-        <v>1236</v>
+        <v>1119</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>179</v>
@@ -9309,48 +9460,51 @@
         <v>199</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>1140</v>
+        <v>185</v>
+      </c>
+      <c r="Q88" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="R88" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="17">
       <c r="A89" s="16">
         <v>1</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>1062</v>
+      <c r="B89" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>967</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1063</v>
+        <v>969</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" s="1">
-        <v>54</v>
-      </c>
-      <c r="H89" s="1">
-        <v>4</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1264</v>
+        <v>1197</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1274</v>
       </c>
       <c r="J89" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K89" t="s">
-        <v>1120</v>
+        <v>970</v>
+      </c>
+      <c r="L89">
+        <v>66565618</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>179</v>
@@ -9362,48 +9516,39 @@
         <v>194</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q89" s="11" t="s">
-        <v>1135</v>
+        <v>195</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>971</v>
       </c>
       <c r="R89" s="8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="34">
       <c r="A90" s="16">
         <v>1</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>1199</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>968</v>
+        <v>1030</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>970</v>
+        <v>1031</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>1198</v>
+        <v>1032</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
       </c>
       <c r="I90" s="1">
-        <v>1274</v>
+        <v>104280</v>
       </c>
       <c r="J90" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="K90" t="s">
-        <v>971</v>
-      </c>
-      <c r="L90">
-        <v>66565618</v>
+        <v>1214</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>179</v>
@@ -9418,36 +9563,48 @@
         <v>195</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>972</v>
+        <v>1138</v>
       </c>
       <c r="R90" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="34">
       <c r="A91" s="16">
         <v>1</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>1198</v>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>1031</v>
+        <v>1101</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1047</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1033</v>
+        <v>75</v>
       </c>
       <c r="G91">
-        <v>100</v>
-      </c>
-      <c r="I91" s="1">
-        <v>104280</v>
+        <v>5</v>
+      </c>
+      <c r="H91" s="1">
+        <v>8</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="J91" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1217</v>
+        <v>2021</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L91">
+        <v>93001247</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>179</v>
@@ -9456,54 +9613,51 @@
         <v>199</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>195</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>1139</v>
+        <v>1046</v>
       </c>
       <c r="R91" s="8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="51">
       <c r="A92" s="16">
         <v>1</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>1201</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>1048</v>
+        <v>993</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1049</v>
+        <v>1202</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G92">
-        <v>5</v>
+        <v>1072</v>
+      </c>
+      <c r="G92" s="1">
+        <v>53</v>
       </c>
       <c r="H92" s="1">
-        <v>8</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>1104</v>
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1239</v>
       </c>
       <c r="J92" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>1105</v>
+        <v>2022</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1203</v>
       </c>
       <c r="L92">
-        <v>93001247</v>
+        <v>110569695</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>179</v>
@@ -9512,16 +9666,16 @@
         <v>199</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>195</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>1047</v>
+        <v>1141</v>
       </c>
       <c r="R92" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="51">
@@ -9529,34 +9683,34 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>994</v>
+        <v>1242</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1042</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1205</v>
+        <v>1043</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1073</v>
+        <v>75</v>
       </c>
       <c r="G93" s="1">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H93" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I93" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J93" s="1">
         <v>2022</v>
       </c>
       <c r="K93" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L93">
-        <v>110569695</v>
+        <v>1311</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>179</v>
@@ -9565,16 +9719,16 @@
         <v>199</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q93" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="R93" s="8">
-        <v>71</v>
+      <c r="Q93" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R93" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="51">
@@ -9582,34 +9736,37 @@
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>1221</v>
+        <v>1231</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>960</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1043</v>
+        <v>19</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1044</v>
+        <v>1199</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>75</v>
+        <v>1200</v>
       </c>
       <c r="G94" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H94" s="1">
-        <v>6</v>
-      </c>
-      <c r="I94" t="s">
-        <v>1244</v>
+        <v>1</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1232</v>
       </c>
       <c r="J94" s="1">
         <v>2022</v>
       </c>
-      <c r="K94" t="s">
-        <v>1260</v>
+      <c r="K94" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L94" s="1">
+        <v>46227693</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>179</v>
@@ -9618,16 +9775,16 @@
         <v>199</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>1046</v>
+        <v>185</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="R94" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="51">
@@ -9635,37 +9792,37 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>961</v>
+        <v>1301</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1259</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>19</v>
+        <v>1124</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G95" s="1">
-        <v>26</v>
-      </c>
-      <c r="H95" s="1">
-        <v>1</v>
+        <v>1125</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>1083</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1235</v>
+        <v>274</v>
       </c>
       <c r="J95" s="1">
         <v>2022</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L95" s="1">
-        <v>46227693</v>
+        <v>1206</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>1303</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>179</v>
@@ -9677,42 +9834,48 @@
         <v>194</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>458</v>
+        <v>195</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>1147</v>
       </c>
       <c r="R95" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="34">
       <c r="A96" s="16">
         <v>1</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>830</v>
+      <c r="B96" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1153</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>207</v>
+        <v>1155</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>178</v>
+        <v>1205</v>
+      </c>
+      <c r="G96" s="1">
+        <v>119</v>
+      </c>
+      <c r="H96" s="1">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1229</v>
       </c>
       <c r="J96" s="1">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>41</v>
+        <v>1228</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>179</v>
@@ -9721,16 +9884,16 @@
         <v>199</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q96" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="R96" s="8" t="s">
-        <v>946</v>
+        <v>195</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R96" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="34">
@@ -9738,16 +9901,16 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>1116</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>178</v>
@@ -9762,7 +9925,7 @@
         <v>2022</v>
       </c>
       <c r="K97" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="L97">
         <v>93463381</v>
@@ -9780,24 +9943,24 @@
         <v>195</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R97" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="17">
+    <row r="98" spans="1:18" ht="34">
       <c r="A98" s="16">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
-        <v>1237</v>
+      <c r="C98" s="6" t="s">
+        <v>1234</v>
       </c>
       <c r="D98" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>1119</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>75</v>
@@ -9806,16 +9969,16 @@
         <v>2021</v>
       </c>
       <c r="K98" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="L98" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>179</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>194</v>
@@ -9824,31 +9987,40 @@
         <v>185</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" ht="34">
+    <row r="99" spans="1:18" ht="51">
       <c r="A99" s="16">
         <v>1</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>927</v>
+      <c r="C99" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1150</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>929</v>
+        <v>1154</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>930</v>
+        <v>1226</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>1309</v>
       </c>
       <c r="J99" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L99">
-        <v>46227876</v>
+        <v>2022</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1310</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>179</v>
@@ -9862,25 +10034,25 @@
       <c r="P99" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q99" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="R99" s="8" t="s">
-        <v>946</v>
+      <c r="Q99" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R99" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="34">
       <c r="A100" s="16">
         <v>1</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="25" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="J100" s="1">
         <v>2021</v>
@@ -9899,7 +10071,7 @@
         <v>185</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="R100" s="1"/>
     </row>
@@ -9907,35 +10079,32 @@
       <c r="A101" s="16">
         <v>1</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1125</v>
+      <c r="B101" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>1243</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>1084</v>
+        <v>1245</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G101" s="1">
+        <v>7</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>274</v>
+        <v>1302</v>
       </c>
       <c r="J101" s="1">
         <v>2022</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L101" s="1">
-        <v>101888659</v>
+      <c r="K101" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L101">
+        <v>118314400</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>179</v>
@@ -9949,31 +10118,43 @@
       <c r="P101" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q101" s="1" t="s">
+      <c r="Q101" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R101" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="51">
+      <c r="A102" s="16">
+        <v>1</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="R101" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="68">
-      <c r="A102" s="16">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>1150</v>
+      <c r="F102" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="J102" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>179</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>194</v>
@@ -9981,39 +10162,41 @@
       <c r="P102" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q102" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="R102" s="1"/>
-    </row>
-    <row r="103" spans="1:18" ht="51">
+      <c r="Q102" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="R102" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="34">
       <c r="A103" s="16">
         <v>1</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1153</v>
+      <c r="B103" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>1249</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1157</v>
+        <v>1250</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>178</v>
+        <v>1251</v>
+      </c>
+      <c r="G103" s="1">
+        <v>26</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>274</v>
+        <v>1300</v>
       </c>
       <c r="J103" s="1">
         <v>2022</v>
       </c>
+      <c r="K103" t="s">
+        <v>1255</v>
+      </c>
       <c r="M103" s="1" t="s">
         <v>179</v>
       </c>
@@ -10026,11 +10209,11 @@
       <c r="P103" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q103" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="R103" s="1">
-        <v>77</v>
+      <c r="Q103" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="R103" s="8">
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="34">
@@ -10038,34 +10221,37 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1228</v>
+        <v>1262</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>1156</v>
+        <v>953</v>
+      </c>
+      <c r="D104" t="s">
+        <v>954</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1158</v>
+        <v>955</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G104" s="1">
-        <v>119</v>
-      </c>
-      <c r="H104" s="1">
-        <v>22</v>
-      </c>
-      <c r="I104" t="s">
-        <v>1232</v>
+        <v>1263</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>1264</v>
       </c>
       <c r="J104" s="1">
         <v>2022</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>1231</v>
+      <c r="K104" t="s">
+        <v>966</v>
+      </c>
+      <c r="L104">
+        <v>66133660</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>179</v>
@@ -10079,11 +10265,11 @@
       <c r="P104" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q104" s="1" t="s">
-        <v>1154</v>
+      <c r="Q104" s="11" t="s">
+        <v>956</v>
       </c>
       <c r="R104" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="34">
@@ -11414,7 +11600,7 @@
         <v>299</v>
       </c>
       <c r="K142" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1" t="s">
@@ -11935,7 +12121,7 @@
         <v>760</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -13245,7 +13431,7 @@
         <v>195</v>
       </c>
       <c r="Q193" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R193" s="1"/>
     </row>
@@ -13507,7 +13693,7 @@
       </c>
       <c r="B201"/>
       <c r="C201" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D201"/>
       <c r="E201" s="1" t="s">
@@ -13634,7 +13820,7 @@
         <v>810</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G204"/>
       <c r="H204"/>
@@ -13643,7 +13829,7 @@
         <v>811</v>
       </c>
       <c r="K204" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L204"/>
       <c r="M204" s="1" t="s">
@@ -13677,7 +13863,7 @@
         <v>852</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>811</v>
@@ -13888,7 +14074,7 @@
         <v>195</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="R210" s="1"/>
     </row>
@@ -13896,7 +14082,7 @@
       <c r="A211" s="16">
         <v>1</v>
       </c>
-      <c r="C211" s="20" t="s">
+      <c r="C211" s="19" t="s">
         <v>904</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -13930,7 +14116,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>871</v>
@@ -14038,16 +14224,16 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="F215" s="1" t="s">
+      <c r="J215" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>215</v>
@@ -14062,7 +14248,7 @@
         <v>195</v>
       </c>
       <c r="Q215" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R215" s="1"/>
     </row>
@@ -14071,16 +14257,16 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>996</v>
-      </c>
       <c r="F216" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>215</v>
@@ -14095,7 +14281,7 @@
         <v>195</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R216" s="1"/>
     </row>
@@ -14104,16 +14290,16 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>998</v>
-      </c>
       <c r="F217" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>215</v>
@@ -14128,7 +14314,7 @@
         <v>195</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R217" s="1"/>
     </row>
@@ -14137,16 +14323,16 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="F218" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>215</v>
@@ -14161,7 +14347,7 @@
         <v>195</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R218" s="1"/>
     </row>
@@ -14170,16 +14356,16 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J219" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>1003</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>215</v>
@@ -14194,7 +14380,7 @@
         <v>195</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R219" s="1"/>
     </row>
@@ -14203,16 +14389,16 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="F220" s="1" t="s">
+      <c r="J220" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>215</v>
@@ -14227,7 +14413,7 @@
         <v>195</v>
       </c>
       <c r="Q220" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R220" s="1"/>
     </row>
@@ -14236,16 +14422,16 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>215</v>
@@ -14260,7 +14446,7 @@
         <v>195</v>
       </c>
       <c r="Q221" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R221" s="1"/>
     </row>
@@ -14269,16 +14455,16 @@
         <v>1</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="J222" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>215</v>
@@ -14293,7 +14479,7 @@
         <v>185</v>
       </c>
       <c r="Q222" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R222" s="1"/>
     </row>
@@ -14302,16 +14488,16 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="F223" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="J223" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>215</v>
@@ -14326,7 +14512,7 @@
         <v>185</v>
       </c>
       <c r="Q223" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R223" s="1"/>
     </row>
@@ -14335,16 +14521,16 @@
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>215</v>
@@ -14359,7 +14545,7 @@
         <v>185</v>
       </c>
       <c r="Q224" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R224" s="1"/>
     </row>
@@ -14367,17 +14553,17 @@
       <c r="A225" s="16">
         <v>1</v>
       </c>
-      <c r="C225" s="26" t="s">
+      <c r="C225" s="25" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>1063</v>
-      </c>
       <c r="F225" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>215</v>
@@ -14392,7 +14578,7 @@
         <v>185</v>
       </c>
       <c r="Q225" s="11" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R225" s="1"/>
     </row>
@@ -14401,16 +14587,16 @@
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="F226" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>1066</v>
-      </c>
       <c r="J226" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>215</v>
@@ -14424,8 +14610,8 @@
       <c r="P226" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Q226" s="23" t="s">
-        <v>1067</v>
+      <c r="Q226" s="22" t="s">
+        <v>1066</v>
       </c>
       <c r="R226" s="1"/>
     </row>
@@ -14434,16 +14620,16 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>215</v>
@@ -14458,7 +14644,7 @@
         <v>185</v>
       </c>
       <c r="Q227" s="2" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="R227" s="1"/>
     </row>
@@ -14467,16 +14653,16 @@
         <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>215</v>
@@ -14491,7 +14677,7 @@
         <v>195</v>
       </c>
       <c r="Q228" s="2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="R228" s="1"/>
     </row>
@@ -14500,16 +14686,16 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>1077</v>
-      </c>
       <c r="F229" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J229" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>215</v>
@@ -14533,16 +14719,16 @@
         <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="F230" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>215</v>
@@ -14566,16 +14752,16 @@
         <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J231" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>1162</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>215</v>
@@ -14590,7 +14776,7 @@
         <v>195</v>
       </c>
       <c r="Q231" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="R231" s="1"/>
     </row>
@@ -14599,16 +14785,16 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>385</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>215</v>
@@ -14623,7 +14809,7 @@
         <v>195</v>
       </c>
       <c r="Q232" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="R232" s="1"/>
     </row>
@@ -14632,16 +14818,16 @@
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>215</v>
@@ -14656,7 +14842,7 @@
         <v>195</v>
       </c>
       <c r="Q233" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R233" s="1"/>
     </row>
@@ -14665,16 +14851,16 @@
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>1187</v>
-      </c>
       <c r="J234" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>215</v>
@@ -14689,7 +14875,7 @@
         <v>185</v>
       </c>
       <c r="Q234" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="R234" s="1"/>
     </row>
@@ -14698,16 +14884,16 @@
         <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E235" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F235" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F235" s="3" t="s">
-        <v>1188</v>
-      </c>
       <c r="J235" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>215</v>
@@ -14722,7 +14908,7 @@
         <v>185</v>
       </c>
       <c r="Q235" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="R235" s="1"/>
     </row>
@@ -14731,16 +14917,16 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F236" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J236" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>215</v>
@@ -14755,7 +14941,7 @@
         <v>195</v>
       </c>
       <c r="Q236" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="R236" s="1"/>
     </row>
@@ -14764,16 +14950,16 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F237" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J237" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>215</v>
@@ -14788,7 +14974,7 @@
         <v>185</v>
       </c>
       <c r="Q237" s="2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="R237" s="1"/>
     </row>
@@ -14797,16 +14983,16 @@
         <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J238" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>1194</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>215</v>
@@ -14830,16 +15016,16 @@
         <v>1</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>215</v>
@@ -14866,7 +15052,7 @@
         <v>349</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E240" s="7" t="s">
         <v>734</v>
@@ -14876,7 +15062,7 @@
         <v>2022</v>
       </c>
       <c r="K240" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="L240">
         <v>105725802</v>
@@ -14894,7 +15080,7 @@
         <v>195</v>
       </c>
       <c r="Q240" s="2" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="R240" s="1"/>
     </row>
@@ -14902,17 +15088,17 @@
       <c r="A241">
         <v>1</v>
       </c>
-      <c r="C241" t="s">
-        <v>1218</v>
+      <c r="C241" s="6" t="s">
+        <v>1215</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="J241">
         <v>2022</v>
       </c>
       <c r="K241" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>179</v>
@@ -14935,10 +15121,10 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="J242" s="1">
         <v>2022</v>
@@ -14964,19 +15150,31 @@
         <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="J243" s="1">
         <v>2022</v>
       </c>
       <c r="K243" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="L243">
         <v>113656926</v>
@@ -14985,7 +15183,7 @@
         <v>179</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>194</v>
@@ -14994,24 +15192,24 @@
         <v>195</v>
       </c>
       <c r="Q243" s="2" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" ht="51">
+        <v>1238</v>
+      </c>
+      <c r="R243" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" ht="34">
       <c r="A244" s="16">
         <v>1</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C244" s="27" t="s">
-        <v>1246</v>
+      <c r="C244" s="23" t="s">
+        <v>830</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1248</v>
+        <v>207</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1249</v>
+        <v>566</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>178</v>
@@ -15020,16 +15218,13 @@
         <v>178</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="J244" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K244" t="s">
-        <v>1257</v>
-      </c>
-      <c r="L244">
-        <v>118314400</v>
+        <v>2008</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>179</v>
@@ -15038,16 +15233,16 @@
         <v>199</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q244" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="R244" s="8">
-        <v>78</v>
+        <v>185</v>
+      </c>
+      <c r="Q244" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="R244" s="8" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="245" spans="1:18" ht="34">
@@ -15055,31 +15250,22 @@
         <v>1</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C245" s="27" t="s">
-        <v>1252</v>
+        <v>928</v>
+      </c>
+      <c r="C245" s="23" t="s">
+        <v>927</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1253</v>
+        <v>929</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>274</v>
+        <v>930</v>
       </c>
       <c r="J245" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K245" t="s">
-        <v>1258</v>
+        <v>2016</v>
+      </c>
+      <c r="L245">
+        <v>46227876</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>179</v>
@@ -15094,34 +15280,366 @@
         <v>195</v>
       </c>
       <c r="Q245" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="R245" s="8">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18">
-      <c r="C246" s="11"/>
-    </row>
-    <row r="247" spans="1:18">
-      <c r="C247" s="11"/>
-    </row>
-    <row r="248" spans="1:18">
-      <c r="C248" s="11"/>
-    </row>
-    <row r="249" spans="1:18">
-      <c r="C249" s="11"/>
-    </row>
-    <row r="250" spans="1:18">
-      <c r="C250" s="11"/>
-    </row>
-    <row r="251" spans="1:18">
-      <c r="C251" s="11"/>
-    </row>
-    <row r="252" spans="1:18">
-      <c r="C252" s="11"/>
+        <v>629</v>
+      </c>
+      <c r="R245" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" ht="51">
+      <c r="A246" s="16">
+        <v>1</v>
+      </c>
+      <c r="C246" s="29" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" ht="51">
+      <c r="A247" s="16">
+        <v>1</v>
+      </c>
+      <c r="C247" s="28" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E247" s="30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" ht="34">
+      <c r="A248" s="16">
+        <v>1</v>
+      </c>
+      <c r="C248" s="28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E248" s="30" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" ht="51">
+      <c r="A249" s="16">
+        <v>1</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E249" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q249" s="2" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" ht="34">
+      <c r="A250" s="16">
+        <v>1</v>
+      </c>
+      <c r="C250" s="28" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E250" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q250" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" ht="34">
+      <c r="A251" s="16">
+        <v>1</v>
+      </c>
+      <c r="C251" s="28" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" ht="34">
+      <c r="A252" s="16">
+        <v>1</v>
+      </c>
+      <c r="C252" s="28" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q252" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" ht="34">
+      <c r="A253" s="16">
+        <v>1</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" ht="51">
+      <c r="A254" s="16">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q254" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" ht="34">
+      <c r="A255" s="16">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q255" s="2" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="68">
+      <c r="A256" s="16">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J256" s="1">
+        <v>2022</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>1307</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R256" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R239">
     <sortCondition ref="J2:J239"/>
   </sortState>
@@ -15140,7 +15658,7 @@
     <hyperlink ref="Q58" r:id="rId3" xr:uid="{87AB72C3-9098-A544-927E-E80711BFAFD4}"/>
     <hyperlink ref="Q32" r:id="rId4" xr:uid="{36FFD1D9-7B90-594C-A2F7-42E8D063CAE6}"/>
     <hyperlink ref="Q35" r:id="rId5" xr:uid="{662F4851-B5BC-C148-A8A4-D3DB2A8BB74F}"/>
-    <hyperlink ref="Q95" r:id="rId6" xr:uid="{3C7E4C22-E004-1E43-B5DA-014A2C03296E}"/>
+    <hyperlink ref="Q94" r:id="rId6" xr:uid="{3C7E4C22-E004-1E43-B5DA-014A2C03296E}"/>
     <hyperlink ref="Q17" r:id="rId7" xr:uid="{A7432939-477A-3F42-AB2E-D2FC38500BB0}"/>
     <hyperlink ref="Q125" r:id="rId8" xr:uid="{84961CAD-06D7-FA4C-986E-E6A3B93C66C9}"/>
     <hyperlink ref="Q115" r:id="rId9" xr:uid="{85627334-1CB7-9D43-B832-FB913FB4E7E4}"/>
@@ -15213,7 +15731,7 @@
     <hyperlink ref="Q152" r:id="rId76" xr:uid="{9CCB06D8-A39C-0649-AA09-D83FD1592BC5}"/>
     <hyperlink ref="Q188" r:id="rId77" xr:uid="{287782BB-04F0-0F49-8E68-94AFB58FDAEB}"/>
     <hyperlink ref="Q128" r:id="rId78" xr:uid="{6E798C00-5591-8D4C-8137-7896DE6E1F1A}"/>
-    <hyperlink ref="Q96" r:id="rId79" xr:uid="{584B5458-E2FC-444F-90EE-1CCB33F77375}"/>
+    <hyperlink ref="Q244" r:id="rId79" xr:uid="{584B5458-E2FC-444F-90EE-1CCB33F77375}"/>
     <hyperlink ref="Q129" r:id="rId80" xr:uid="{3E12F086-04A8-9E43-BE61-7BBC06FFB569}"/>
     <hyperlink ref="Q135" r:id="rId81" xr:uid="{418CB6F6-7582-1949-B8DB-B76A0557D620}"/>
     <hyperlink ref="Q187" r:id="rId82" xr:uid="{675E8E68-7CF3-4143-B1FC-1545455815E7}"/>
@@ -15225,15 +15743,15 @@
     <hyperlink ref="Q18" r:id="rId88" xr:uid="{9AE43FE7-D389-7045-80DB-B92387B3F9FC}"/>
     <hyperlink ref="Q154" r:id="rId89" xr:uid="{707E0CC3-8597-3544-BFCA-B6AFD8937A11}"/>
     <hyperlink ref="Q138" r:id="rId90" xr:uid="{1B0AF018-C249-F849-B489-83D881250376}"/>
-    <hyperlink ref="Q86" r:id="rId91" xr:uid="{425B7113-ACFE-3149-8C2F-01C9B2D8E631}"/>
+    <hyperlink ref="Q85" r:id="rId91" xr:uid="{425B7113-ACFE-3149-8C2F-01C9B2D8E631}"/>
     <hyperlink ref="Q51" r:id="rId92" xr:uid="{D4BB0AC9-51E9-614E-A21C-997DD817F4AE}"/>
     <hyperlink ref="Q16" r:id="rId93" xr:uid="{8157AD0D-E645-9745-A6FE-914B4948D699}"/>
-    <hyperlink ref="Q83" r:id="rId94" xr:uid="{3EB09505-96EA-9044-AB9E-9DE8D96D58EF}"/>
+    <hyperlink ref="Q82" r:id="rId94" xr:uid="{3EB09505-96EA-9044-AB9E-9DE8D96D58EF}"/>
     <hyperlink ref="Q66" r:id="rId95" xr:uid="{6AF79E23-C131-8F49-9524-0300598114A1}"/>
     <hyperlink ref="Q7" r:id="rId96" xr:uid="{FB2C0487-0616-AA4B-8932-A2C8EBCCAB5D}"/>
     <hyperlink ref="Q67" r:id="rId97" xr:uid="{FC820334-04F2-B74A-9535-FFE6FACA08F6}"/>
     <hyperlink ref="Q37" r:id="rId98" xr:uid="{36D36EC7-A52A-3C4E-91F3-719750EC6EE7}"/>
-    <hyperlink ref="Q78" r:id="rId99" xr:uid="{66BF9FB4-44C0-B641-817E-9F5FA438BC6E}"/>
+    <hyperlink ref="Q77" r:id="rId99" xr:uid="{66BF9FB4-44C0-B641-817E-9F5FA438BC6E}"/>
     <hyperlink ref="Q145" r:id="rId100" xr:uid="{A1FB719C-FEE4-8745-8EC3-B5A62EE0E44E}"/>
     <hyperlink ref="Q33" r:id="rId101" xr:uid="{54B22F91-320C-7F4A-A404-C7B7C4BE8F0A}"/>
     <hyperlink ref="Q166" r:id="rId102" xr:uid="{59E2FD0B-923D-3C42-8D05-1469557BDF68}"/>
@@ -15248,7 +15766,7 @@
     <hyperlink ref="Q47" r:id="rId111" xr:uid="{0AF73A99-F03F-CA42-B0E0-5D1B5C41F133}"/>
     <hyperlink ref="Q27" r:id="rId112" xr:uid="{E08FB853-7081-2A4C-B606-6E031C7423BB}"/>
     <hyperlink ref="Q199" r:id="rId113" xr:uid="{14CFFB1C-FCBC-6B4A-82E6-0193947BBD5D}"/>
-    <hyperlink ref="Q79" r:id="rId114" xr:uid="{4C5912D0-5972-7C4F-973E-8B0E87926534}"/>
+    <hyperlink ref="Q78" r:id="rId114" xr:uid="{4C5912D0-5972-7C4F-973E-8B0E87926534}"/>
     <hyperlink ref="Q202" r:id="rId115" xr:uid="{B10ED486-0ADE-AE45-920D-FAC73C4AA860}"/>
     <hyperlink ref="Q206" r:id="rId116" xr:uid="{CB8136AE-839D-214E-81C9-21399BA363BB}"/>
     <hyperlink ref="Q203" r:id="rId117" xr:uid="{0ECD14C3-3FA9-DF47-AB14-A9EE26B98ADB}"/>
@@ -15262,7 +15780,7 @@
     <hyperlink ref="Q73" r:id="rId125" xr:uid="{746FAB7B-FED8-F245-9FAB-1F5B1CCBAF43}"/>
     <hyperlink ref="Q56" r:id="rId126" xr:uid="{8134279C-1DCF-3D42-B28B-2D24B5A0103E}"/>
     <hyperlink ref="Q68" r:id="rId127" xr:uid="{22E6B370-27F9-0E49-8CA5-6758D6E54579}"/>
-    <hyperlink ref="Q80" r:id="rId128" xr:uid="{1C446669-E5AB-8D4D-9123-31185050C640}"/>
+    <hyperlink ref="Q79" r:id="rId128" xr:uid="{1C446669-E5AB-8D4D-9123-31185050C640}"/>
     <hyperlink ref="Q22" r:id="rId129" xr:uid="{44A33D6F-43C4-0943-BCB1-AF9DE4C147F6}"/>
     <hyperlink ref="Q55" r:id="rId130" xr:uid="{E02BB8E3-0BAF-C248-8EB0-3267BA432805}"/>
     <hyperlink ref="Q62" r:id="rId131" xr:uid="{BEFDCC98-9BB2-3D49-BA3F-3405DCD9093D}"/>
@@ -15272,30 +15790,30 @@
     <hyperlink ref="Q214" r:id="rId135" xr:uid="{3F83EA70-AEE6-8846-8419-3AD79B91EB73}"/>
     <hyperlink ref="Q70" r:id="rId136" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
     <hyperlink ref="Q71" r:id="rId137" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
-    <hyperlink ref="Q99" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
+    <hyperlink ref="Q245" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
     <hyperlink ref="Q208" r:id="rId139" xr:uid="{3A350AA0-18E0-7A44-A617-2A23437C2D25}"/>
     <hyperlink ref="Q211" r:id="rId140" xr:uid="{2CD84B76-BD07-7447-AC85-335724F45069}"/>
     <hyperlink ref="Q212" r:id="rId141" xr:uid="{0D96B428-C157-194F-BBBB-55BACE11480C}"/>
-    <hyperlink ref="Q75" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
-    <hyperlink ref="Q77" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
-    <hyperlink ref="Q74" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
+    <hyperlink ref="Q74" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
+    <hyperlink ref="Q75" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
+    <hyperlink ref="Q104" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
     <hyperlink ref="Q210" r:id="rId145" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
     <hyperlink ref="Q193" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
-    <hyperlink ref="Q90" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
-    <hyperlink ref="Q82" r:id="rId148" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
-    <hyperlink ref="Q92" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
+    <hyperlink ref="Q89" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
+    <hyperlink ref="Q81" r:id="rId148" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
+    <hyperlink ref="Q91" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
     <hyperlink ref="Q63" r:id="rId150" xr:uid="{3EC4565A-606A-904D-A00D-7C065BC8A9CB}"/>
     <hyperlink ref="Q222" r:id="rId151" xr:uid="{11D1FB42-933A-D642-A0A9-1D751F8B8F73}"/>
     <hyperlink ref="Q223" r:id="rId152" xr:uid="{3AB784A4-BDB2-CF40-96CB-4EE5B7EB8ED2}"/>
     <hyperlink ref="Q224" r:id="rId153" xr:uid="{2352F29F-A1AD-2E44-B32C-934B4E87D28F}"/>
     <hyperlink ref="Q225" r:id="rId154" xr:uid="{8C880241-2719-8844-9AC7-9FD10D4835EE}"/>
-    <hyperlink ref="Q84" r:id="rId155" xr:uid="{9F1FE709-13B2-7542-B65F-1B593D0872D1}"/>
+    <hyperlink ref="Q83" r:id="rId155" xr:uid="{9F1FE709-13B2-7542-B65F-1B593D0872D1}"/>
     <hyperlink ref="Q215" r:id="rId156" xr:uid="{6917739B-949C-844A-A1B9-3BC57F6EA0CB}"/>
     <hyperlink ref="Q220" r:id="rId157" xr:uid="{22CD3B85-A12B-7940-A9D0-31167434C1F2}"/>
-    <hyperlink ref="Q91" r:id="rId158" xr:uid="{CF1362CC-10D9-464B-A4C2-4733A7A05746}"/>
-    <hyperlink ref="Q88" r:id="rId159" xr:uid="{60624615-A498-7B44-85E2-9675C84BE16F}"/>
-    <hyperlink ref="Q85" r:id="rId160" xr:uid="{BCE50138-0053-F442-92E8-958FA01416A1}"/>
-    <hyperlink ref="Q93" r:id="rId161" xr:uid="{3DEF2CF1-6AB5-6649-B66A-F141D76CC38F}"/>
+    <hyperlink ref="Q90" r:id="rId158" xr:uid="{CF1362CC-10D9-464B-A4C2-4733A7A05746}"/>
+    <hyperlink ref="Q87" r:id="rId159" xr:uid="{60624615-A498-7B44-85E2-9675C84BE16F}"/>
+    <hyperlink ref="Q84" r:id="rId160" xr:uid="{BCE50138-0053-F442-92E8-958FA01416A1}"/>
+    <hyperlink ref="Q92" r:id="rId161" xr:uid="{3DEF2CF1-6AB5-6649-B66A-F141D76CC38F}"/>
     <hyperlink ref="Q233" r:id="rId162" xr:uid="{13351AD9-151F-F84E-80D0-1B03FA8267C1}"/>
     <hyperlink ref="Q221" r:id="rId163" xr:uid="{20569A93-EB7A-4E47-A53B-8E5EDA719F82}"/>
     <hyperlink ref="Q231" r:id="rId164" xr:uid="{3E3EF4F9-D701-8E47-AE8A-BA3B863E5DF3}"/>
@@ -15306,12 +15824,18 @@
     <hyperlink ref="Q236" r:id="rId169" xr:uid="{26A12168-5A7B-7143-8285-FFDE7130F545}"/>
     <hyperlink ref="Q234" r:id="rId170" xr:uid="{98183D84-684A-5644-91AE-6881A42B6798}"/>
     <hyperlink ref="Q235" r:id="rId171" xr:uid="{FB65EF3E-1604-BA49-A777-BC22F86BA023}"/>
-    <hyperlink ref="B90" r:id="rId172" display="https://doi.org/10.20935/AL1274" xr:uid="{240C9844-798D-0B49-A453-CDA085161615}"/>
+    <hyperlink ref="B89" r:id="rId172" display="https://doi.org/10.20935/AL1274" xr:uid="{240C9844-798D-0B49-A453-CDA085161615}"/>
     <hyperlink ref="Q240" r:id="rId173" xr:uid="{1DFC1F7F-1957-B34C-A2D6-3630D0AF81F1}"/>
     <hyperlink ref="Q64" r:id="rId174" xr:uid="{07F1B89C-B381-984C-857C-4706FD61A432}"/>
     <hyperlink ref="Q243" r:id="rId175" xr:uid="{964D6BFA-35DA-834C-90ED-329D4CC344C2}"/>
-    <hyperlink ref="Q244" r:id="rId176" xr:uid="{FB0A5519-B7ED-FA4B-8017-6F734806C61F}"/>
-    <hyperlink ref="Q245" r:id="rId177" xr:uid="{031D270D-AE15-8F48-9950-82177BE16E1E}"/>
+    <hyperlink ref="Q101" r:id="rId176" xr:uid="{FB0A5519-B7ED-FA4B-8017-6F734806C61F}"/>
+    <hyperlink ref="Q103" r:id="rId177" xr:uid="{031D270D-AE15-8F48-9950-82177BE16E1E}"/>
+    <hyperlink ref="Q102" r:id="rId178" xr:uid="{B58C16B8-0C67-EC46-8FA2-669CBD477884}"/>
+    <hyperlink ref="Q249" r:id="rId179" xr:uid="{90345C85-218A-7945-97FC-0E6F4241CCC9}"/>
+    <hyperlink ref="Q250" r:id="rId180" xr:uid="{05A6C6B1-235B-5E4B-AE38-D43B4CCBE8D6}"/>
+    <hyperlink ref="Q252" r:id="rId181" xr:uid="{C32CB911-DC2F-1947-AB0C-5BAE829340DC}"/>
+    <hyperlink ref="Q254" r:id="rId182" xr:uid="{F26A7C8B-169A-6B48-8485-05BA0B48F7EB}"/>
+    <hyperlink ref="Q255" r:id="rId183" xr:uid="{E9ADE19D-E739-0140-80BE-AE3FB6DEA0AF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6456E3B5-38C0-7944-8D96-A62B21474CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377A282-D3EE-9B4B-9285-B4DCC2ADE2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1317">
   <si>
     <t>title</t>
   </si>
@@ -3965,9 +3965,6 @@
     <t>In COVID-19 health messaging, loss framing increases anxiety with little-to-no concomitant benefits: Experimental evidence from 84 countries</t>
   </si>
   <si>
-    <t>1--26</t>
-  </si>
-  <si>
     <t>u3T1itk59dMC</t>
   </si>
   <si>
@@ -3975,6 +3972,21 @@
   </si>
   <si>
     <t>Nature Scientific Data</t>
+  </si>
+  <si>
+    <t>577--602</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/area_perspectives.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/area_oskb.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/bts_presentation.pptx</t>
+  </si>
+  <si>
+    <t>https://github.com/SemanticPriming/SPAML/blob/master/10_Presentations/pnom_22/pnom_presentation.pdf</t>
   </si>
 </sst>
 </file>
@@ -4980,9 +4992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R244" sqref="R244"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M257" sqref="M257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -5003,7 +5015,7 @@
     <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="44.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="49.1640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="44.1640625" style="8"/>
     <col min="19" max="16384" width="44.1640625" style="1"/>
   </cols>
@@ -9710,7 +9722,7 @@
         <v>2022</v>
       </c>
       <c r="K93" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>179</v>
@@ -10007,20 +10019,20 @@
       <c r="F99" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>178</v>
+      <c r="G99" s="1">
+        <v>3</v>
+      </c>
+      <c r="H99" s="1">
+        <v>3</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="J99" s="1">
         <v>2022</v>
       </c>
       <c r="K99" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>179</v>
@@ -15006,8 +15018,8 @@
       <c r="P238" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q238" s="1" t="s">
-        <v>946</v>
+      <c r="Q238" s="2" t="s">
+        <v>1313</v>
       </c>
       <c r="R238" s="1"/>
     </row>
@@ -15039,8 +15051,8 @@
       <c r="P239" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q239" s="1" t="s">
-        <v>946</v>
+      <c r="Q239" s="2" t="s">
+        <v>1314</v>
       </c>
       <c r="R239" s="1"/>
     </row>
@@ -15159,7 +15171,7 @@
         <v>1182</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>178</v>
@@ -15346,8 +15358,8 @@
       <c r="P247" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Q247" s="1" t="s">
-        <v>1271</v>
+      <c r="Q247" s="2" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="34">
@@ -15538,8 +15550,8 @@
       <c r="P253" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q253" s="1" t="s">
-        <v>1271</v>
+      <c r="Q253" s="2" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="51">
@@ -15639,7 +15651,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R256" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R239">
     <sortCondition ref="J2:J239"/>
   </sortState>
@@ -15836,6 +15847,9 @@
     <hyperlink ref="Q252" r:id="rId181" xr:uid="{C32CB911-DC2F-1947-AB0C-5BAE829340DC}"/>
     <hyperlink ref="Q254" r:id="rId182" xr:uid="{F26A7C8B-169A-6B48-8485-05BA0B48F7EB}"/>
     <hyperlink ref="Q255" r:id="rId183" xr:uid="{E9ADE19D-E739-0140-80BE-AE3FB6DEA0AF}"/>
+    <hyperlink ref="Q238" r:id="rId184" xr:uid="{FF7A446A-0CE4-274E-848F-8AB117F62274}"/>
+    <hyperlink ref="Q239" r:id="rId185" xr:uid="{6A9C7243-5925-EF4E-96A6-88443C19A6D0}"/>
+    <hyperlink ref="Q253" r:id="rId186" xr:uid="{AE094212-5C8B-E04A-BA5F-2FD3ED72206B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377A282-D3EE-9B4B-9285-B4DCC2ADE2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F01867-DFF0-114D-99FF-BBAA1217176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$256</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$257</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="1321">
   <si>
     <t>title</t>
   </si>
@@ -3987,6 +3987,18 @@
   </si>
   <si>
     <t>https://github.com/SemanticPriming/SPAML/blob/master/10_Presentations/pnom_22/pnom_presentation.pdf</t>
+  </si>
+  <si>
+    <t>Power Simulation Workshop</t>
+  </si>
+  <si>
+    <t>Invited workshop for Princeton University's Statistics Research Series, Princeton, NJ</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/prince_power_pres.html</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/prince_simulation_pres.html</t>
   </si>
 </sst>
 </file>
@@ -4990,11 +5002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M257" sqref="M257"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q253" sqref="Q253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -14627,7 +14639,7 @@
       </c>
       <c r="R226" s="1"/>
     </row>
-    <row r="227" spans="1:18" ht="34">
+    <row r="227" spans="1:18" ht="17">
       <c r="A227" s="16">
         <v>1</v>
       </c>
@@ -15486,8 +15498,8 @@
       <c r="P251" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q251" s="1" t="s">
-        <v>1271</v>
+      <c r="Q251" s="2" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="34">
@@ -15495,16 +15507,16 @@
         <v>1</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>1287</v>
+        <v>1317</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1288</v>
+        <v>1318</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>215</v>
@@ -15516,27 +15528,27 @@
         <v>209</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q252" s="2" t="s">
-        <v>1286</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="34">
       <c r="A253" s="16">
         <v>1</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>1289</v>
+      <c r="C253" s="28" t="s">
+        <v>1287</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1166</v>
+        <v>207</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>215</v>
@@ -15548,27 +15560,27 @@
         <v>209</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q253" s="2" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="254" spans="1:18" ht="51">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" ht="34">
       <c r="A254" s="16">
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1293</v>
+        <v>1166</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>215</v>
@@ -15583,21 +15595,21 @@
         <v>195</v>
       </c>
       <c r="Q254" s="2" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18" ht="34">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" ht="51">
       <c r="A255" s="16">
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1166</v>
+        <v>1293</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>1295</v>
@@ -15612,41 +15624,73 @@
         <v>209</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q255" s="2" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" ht="68">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="34">
       <c r="A256" s="16">
         <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="J256" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K256" s="1" t="s">
-        <v>1306</v>
+        <v>1166</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N256" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q256" s="2" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" ht="68">
+      <c r="A257" s="16">
+        <v>1</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J257" s="1">
+        <v>2022</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O256" s="1" t="s">
+      <c r="O257" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P256" s="1" t="s">
+      <c r="P257" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q256" s="1" t="s">
+      <c r="Q257" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -15654,7 +15698,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R239">
     <sortCondition ref="J2:J239"/>
   </sortState>
-  <conditionalFormatting sqref="R241:R1048576 R1:R63 R65:R239">
+  <conditionalFormatting sqref="R1:R63 R65:R239 R241:R1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R240">
@@ -15844,12 +15888,14 @@
     <hyperlink ref="Q102" r:id="rId178" xr:uid="{B58C16B8-0C67-EC46-8FA2-669CBD477884}"/>
     <hyperlink ref="Q249" r:id="rId179" xr:uid="{90345C85-218A-7945-97FC-0E6F4241CCC9}"/>
     <hyperlink ref="Q250" r:id="rId180" xr:uid="{05A6C6B1-235B-5E4B-AE38-D43B4CCBE8D6}"/>
-    <hyperlink ref="Q252" r:id="rId181" xr:uid="{C32CB911-DC2F-1947-AB0C-5BAE829340DC}"/>
-    <hyperlink ref="Q254" r:id="rId182" xr:uid="{F26A7C8B-169A-6B48-8485-05BA0B48F7EB}"/>
-    <hyperlink ref="Q255" r:id="rId183" xr:uid="{E9ADE19D-E739-0140-80BE-AE3FB6DEA0AF}"/>
+    <hyperlink ref="Q253" r:id="rId181" xr:uid="{C32CB911-DC2F-1947-AB0C-5BAE829340DC}"/>
+    <hyperlink ref="Q255" r:id="rId182" xr:uid="{F26A7C8B-169A-6B48-8485-05BA0B48F7EB}"/>
+    <hyperlink ref="Q256" r:id="rId183" xr:uid="{E9ADE19D-E739-0140-80BE-AE3FB6DEA0AF}"/>
     <hyperlink ref="Q238" r:id="rId184" xr:uid="{FF7A446A-0CE4-274E-848F-8AB117F62274}"/>
     <hyperlink ref="Q239" r:id="rId185" xr:uid="{6A9C7243-5925-EF4E-96A6-88443C19A6D0}"/>
-    <hyperlink ref="Q253" r:id="rId186" xr:uid="{AE094212-5C8B-E04A-BA5F-2FD3ED72206B}"/>
+    <hyperlink ref="Q254" r:id="rId186" xr:uid="{AE094212-5C8B-E04A-BA5F-2FD3ED72206B}"/>
+    <hyperlink ref="Q251" r:id="rId187" xr:uid="{10CE384F-86C7-E849-9F3A-C729E115B809}"/>
+    <hyperlink ref="Q252" r:id="rId188" xr:uid="{72E6E786-291C-874D-AA75-878577703733}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F01867-DFF0-114D-99FF-BBAA1217176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D1D98-9B66-334F-8A7F-06F255D3F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3995,10 +3995,10 @@
     <t>Invited workshop for Princeton University's Statistics Research Series, Princeton, NJ</t>
   </si>
   <si>
-    <t>https://www.aggieerin.com/pubs/prince_power_pres.html</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/prince_simulation_pres.html</t>
+    <t>https://www.aggieerin.com/pubs/prince_power_pres.zip</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/prince_simulation_pres.zip</t>
   </si>
 </sst>
 </file>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/doomlab_build/content/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D1D98-9B66-334F-8A7F-06F255D3F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A262B8-95D1-484B-B329-22294025A72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="1322">
   <si>
     <t>title</t>
   </si>
@@ -3851,154 +3851,157 @@
     <t>2022, November</t>
   </si>
   <si>
+    <t>Is Priming Consistent Across Languages? Preliminary Findings from the SPAML: Semantic Priming Across Many Languages</t>
+  </si>
+  <si>
+    <t>Spoken presentation at the annual meeting of the Psychonomic Society, Boston, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heyman, T., Buchanan, E.M., et al. </t>
+  </si>
+  <si>
+    <t>Spoken presentation for the Annual Meeting of the Society for Computation in Psychology, Boston, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crowdsourcing Multiverse Analyses to Examine the Robustness of Research Findings </t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/MDM_0322.pptx</t>
+  </si>
+  <si>
+    <t>Improving Patient’s Assessment of Their Migraine</t>
+  </si>
+  <si>
+    <t>2022, March</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for the Medical Decision Making Research Group at Massachusetts General Hospital</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for the University of Mississippi's clinical research students, Oxford, MS</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/UM_032522.pptx</t>
+  </si>
+  <si>
+    <t>A PSA on the PSA: Big Team Science with the Psychological Science Accelerator</t>
+  </si>
+  <si>
+    <t>Power to the Stimuli: Not the Effect</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for Princeton University's Statistics Research Series, Princeton, NJ</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/SPAML_03_29.pptx</t>
+  </si>
+  <si>
+    <t>SPAM-L: Semantic Priming Across Many Languages</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for Stanford University's brown bag series</t>
+  </si>
+  <si>
+    <t>Big Team Science Infrastructure</t>
+  </si>
+  <si>
+    <t>Invited presentation for the Big Team Science Conference 2022</t>
+  </si>
+  <si>
+    <t>2022, October</t>
+  </si>
+  <si>
+    <t>How to setup a big Team Science project within PSA</t>
+  </si>
+  <si>
+    <t>Buchanan, E. M. \&amp; Chartier, C.</t>
+  </si>
+  <si>
+    <t>Invited presentation for the Advancing Big-team Reproducible science through Increased Representation Conference 2022</t>
+  </si>
+  <si>
+    <t>2022, September</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/ABRIR_22.pptx</t>
+  </si>
+  <si>
+    <t>Invited presentation for the University of Utah Linguistics program</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/spam_open.pptx</t>
+  </si>
+  <si>
+    <t>BTS Comes for Linguistics</t>
+  </si>
+  <si>
+    <t>63--68</t>
+  </si>
+  <si>
+    <t>10.1177/1745691622110042</t>
+  </si>
+  <si>
+    <t>554–-566</t>
+  </si>
+  <si>
+    <t>101888659, 119378183</t>
+  </si>
+  <si>
+    <t>Data from an International Multi-centre Study of Statistics and Mathematics Anxieties and Related Variables in University Students (the SMARVUS Dataset)</t>
+  </si>
+  <si>
+    <t>Terry, J. et al.</t>
+  </si>
+  <si>
+    <t>l6Q3WhenKVUC</t>
+  </si>
+  <si>
+    <t>https://psyarxiv.com/au9vp/</t>
+  </si>
+  <si>
+    <t>In COVID-19 health messaging, loss framing increases anxiety with little-to-no concomitant benefits: Experimental evidence from 84 countries</t>
+  </si>
+  <si>
+    <t>u3T1itk59dMC</t>
+  </si>
+  <si>
+    <t>8VtEwCQfWZkC, XAp-VaTZjjwC, e84hm74t-eoC, uAPFzskPt0AC, oqD4_j7ulsYC, DQNrXyjhriIC</t>
+  </si>
+  <si>
+    <t>Nature Scientific Data</t>
+  </si>
+  <si>
+    <t>577--602</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/area_perspectives.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/area_oskb.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/bts_presentation.pptx</t>
+  </si>
+  <si>
+    <t>Power Simulation Workshop</t>
+  </si>
+  <si>
+    <t>Invited workshop for Princeton University's Statistics Research Series, Princeton, NJ</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/prince_power_pres.zip</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/prince_simulation_pres.zip</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/SCIP_22.pptx</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/pnom_22.zip</t>
+  </si>
+  <si>
     <t>TBA</t>
-  </si>
-  <si>
-    <t>Is Priming Consistent Across Languages? Preliminary Findings from the SPAML: Semantic Priming Across Many Languages</t>
-  </si>
-  <si>
-    <t>Spoken presentation at the annual meeting of the Psychonomic Society, Boston, MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heyman, T., Buchanan, E.M., et al. </t>
-  </si>
-  <si>
-    <t>Spoken presentation for the Annual Meeting of the Society for Computation in Psychology, Boston, MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crowdsourcing Multiverse Analyses to Examine the Robustness of Research Findings </t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/MDM_0322.pptx</t>
-  </si>
-  <si>
-    <t>Improving Patient’s Assessment of Their Migraine</t>
-  </si>
-  <si>
-    <t>2022, March</t>
-  </si>
-  <si>
-    <t>Invited spoken presentation for the Medical Decision Making Research Group at Massachusetts General Hospital</t>
-  </si>
-  <si>
-    <t>Invited spoken presentation for the University of Mississippi's clinical research students, Oxford, MS</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/UM_032522.pptx</t>
-  </si>
-  <si>
-    <t>A PSA on the PSA: Big Team Science with the Psychological Science Accelerator</t>
-  </si>
-  <si>
-    <t>Power to the Stimuli: Not the Effect</t>
-  </si>
-  <si>
-    <t>Invited spoken presentation for Princeton University's Statistics Research Series, Princeton, NJ</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/SPAML_03_29.pptx</t>
-  </si>
-  <si>
-    <t>SPAM-L: Semantic Priming Across Many Languages</t>
-  </si>
-  <si>
-    <t>Invited spoken presentation for Stanford University's brown bag series</t>
-  </si>
-  <si>
-    <t>Big Team Science Infrastructure</t>
-  </si>
-  <si>
-    <t>Invited presentation for the Big Team Science Conference 2022</t>
-  </si>
-  <si>
-    <t>2022, October</t>
-  </si>
-  <si>
-    <t>How to setup a big Team Science project within PSA</t>
-  </si>
-  <si>
-    <t>Buchanan, E. M. \&amp; Chartier, C.</t>
-  </si>
-  <si>
-    <t>Invited presentation for the Advancing Big-team Reproducible science through Increased Representation Conference 2022</t>
-  </si>
-  <si>
-    <t>2022, September</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/ABRIR_22.pptx</t>
-  </si>
-  <si>
-    <t>Invited presentation for the University of Utah Linguistics program</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/spam_open.pptx</t>
-  </si>
-  <si>
-    <t>BTS Comes for Linguistics</t>
-  </si>
-  <si>
-    <t>63--68</t>
-  </si>
-  <si>
-    <t>10.1177/1745691622110042</t>
-  </si>
-  <si>
-    <t>554–-566</t>
-  </si>
-  <si>
-    <t>101888659, 119378183</t>
-  </si>
-  <si>
-    <t>Data from an International Multi-centre Study of Statistics and Mathematics Anxieties and Related Variables in University Students (the SMARVUS Dataset)</t>
-  </si>
-  <si>
-    <t>Terry, J. et al.</t>
-  </si>
-  <si>
-    <t>l6Q3WhenKVUC</t>
-  </si>
-  <si>
-    <t>https://psyarxiv.com/au9vp/</t>
-  </si>
-  <si>
-    <t>In COVID-19 health messaging, loss framing increases anxiety with little-to-no concomitant benefits: Experimental evidence from 84 countries</t>
-  </si>
-  <si>
-    <t>u3T1itk59dMC</t>
-  </si>
-  <si>
-    <t>8VtEwCQfWZkC, XAp-VaTZjjwC, e84hm74t-eoC, uAPFzskPt0AC, oqD4_j7ulsYC, DQNrXyjhriIC</t>
-  </si>
-  <si>
-    <t>Nature Scientific Data</t>
-  </si>
-  <si>
-    <t>577--602</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/area_perspectives.pptx</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/area_oskb.pptx</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/bts_presentation.pptx</t>
-  </si>
-  <si>
-    <t>https://github.com/SemanticPriming/SPAML/blob/master/10_Presentations/pnom_22/pnom_presentation.pdf</t>
-  </si>
-  <si>
-    <t>Power Simulation Workshop</t>
-  </si>
-  <si>
-    <t>Invited workshop for Princeton University's Statistics Research Series, Princeton, NJ</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/prince_power_pres.zip</t>
-  </si>
-  <si>
-    <t>https://www.aggieerin.com/pubs/prince_simulation_pres.zip</t>
   </si>
 </sst>
 </file>
@@ -5005,8 +5008,8 @@
   <dimension ref="A1:R257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q253" sqref="Q253"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q247" sqref="Q247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -9734,7 +9737,7 @@
         <v>2022</v>
       </c>
       <c r="K93" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>179</v>
@@ -9816,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>1259</v>
@@ -9846,7 +9849,7 @@
         <v>1206</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>179</v>
@@ -10020,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1150</v>
@@ -10038,13 +10041,13 @@
         <v>3</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J99" s="1">
         <v>2022</v>
       </c>
       <c r="K99" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>179</v>
@@ -10119,7 +10122,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="J101" s="1">
         <v>2022</v>
@@ -10213,7 +10216,7 @@
         <v>26</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J103" s="1">
         <v>2022</v>
@@ -15031,7 +15034,7 @@
         <v>195</v>
       </c>
       <c r="Q238" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R238" s="1"/>
     </row>
@@ -15064,7 +15067,7 @@
         <v>195</v>
       </c>
       <c r="Q239" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="R239" s="1"/>
     </row>
@@ -15183,7 +15186,7 @@
         <v>1182</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>178</v>
@@ -15339,7 +15342,7 @@
         <v>195</v>
       </c>
       <c r="Q246" s="1" t="s">
-        <v>1271</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="51">
@@ -15347,13 +15350,13 @@
         <v>1</v>
       </c>
       <c r="C247" s="28" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E247" s="30" t="s">
         <v>1118</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>1270</v>
@@ -15371,7 +15374,7 @@
         <v>185</v>
       </c>
       <c r="Q247" s="2" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="34">
@@ -15379,13 +15382,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="28" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E248" s="30" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>1275</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>1270</v>
@@ -15402,8 +15405,8 @@
       <c r="P248" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Q248" s="1" t="s">
-        <v>1271</v>
+      <c r="Q248" s="2" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="51">
@@ -15411,16 +15414,16 @@
         <v>1</v>
       </c>
       <c r="C249" s="28" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E249" s="30" t="s">
         <v>207</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>215</v>
@@ -15435,7 +15438,7 @@
         <v>195</v>
       </c>
       <c r="Q249" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="250" spans="1:18" ht="34">
@@ -15443,16 +15446,16 @@
         <v>1</v>
       </c>
       <c r="C250" s="28" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E250" s="30" t="s">
         <v>207</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>215</v>
@@ -15467,7 +15470,7 @@
         <v>185</v>
       </c>
       <c r="Q250" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="34">
@@ -15475,13 +15478,13 @@
         <v>1</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>1270</v>
@@ -15499,7 +15502,7 @@
         <v>195</v>
       </c>
       <c r="Q251" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="34">
@@ -15507,13 +15510,13 @@
         <v>1</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>1270</v>
@@ -15531,7 +15534,7 @@
         <v>195</v>
       </c>
       <c r="Q252" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="34">
@@ -15539,16 +15542,16 @@
         <v>1</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>215</v>
@@ -15563,7 +15566,7 @@
         <v>185</v>
       </c>
       <c r="Q253" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="34">
@@ -15571,16 +15574,16 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>1166</v>
       </c>
       <c r="F254" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J254" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>1291</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>215</v>
@@ -15595,7 +15598,7 @@
         <v>195</v>
       </c>
       <c r="Q254" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="255" spans="1:18" ht="51">
@@ -15603,16 +15606,16 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="F255" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="J255" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>1295</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>215</v>
@@ -15627,7 +15630,7 @@
         <v>195</v>
       </c>
       <c r="Q255" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="256" spans="1:18" ht="34">
@@ -15635,16 +15638,16 @@
         <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>1166</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>215</v>
@@ -15659,7 +15662,7 @@
         <v>185</v>
       </c>
       <c r="Q256" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="257" spans="1:17" ht="68">
@@ -15667,16 +15670,16 @@
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="J257" s="1">
         <v>2022</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>215</v>
@@ -15691,7 +15694,7 @@
         <v>195</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -15896,6 +15899,8 @@
     <hyperlink ref="Q254" r:id="rId186" xr:uid="{AE094212-5C8B-E04A-BA5F-2FD3ED72206B}"/>
     <hyperlink ref="Q251" r:id="rId187" xr:uid="{10CE384F-86C7-E849-9F3A-C729E115B809}"/>
     <hyperlink ref="Q252" r:id="rId188" xr:uid="{72E6E786-291C-874D-AA75-878577703733}"/>
+    <hyperlink ref="Q248" r:id="rId189" xr:uid="{CCB5C3CC-A0A8-DF4C-8FA7-A989BFCA7E7D}"/>
+    <hyperlink ref="Q247" r:id="rId190" xr:uid="{23185960-6CE5-8741-B85B-A11162ED99D9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/doomlab_build/content/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A262B8-95D1-484B-B329-22294025A72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18CB3AE-431D-1840-9DCD-C71DB95F18E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1341">
   <si>
     <t>title</t>
   </si>
@@ -3833,9 +3833,6 @@
     <t>XX-XX</t>
   </si>
   <si>
-    <t>Meaning, pandemic self-efficacy, social support, and discrimination predict trajectories of peri-pandemic growth and distress for international students</t>
-  </si>
-  <si>
     <t>https://www.aggieerin.com/pubs/Pavlacic_22_PT.docx</t>
   </si>
   <si>
@@ -3965,9 +3962,6 @@
     <t>u3T1itk59dMC</t>
   </si>
   <si>
-    <t>8VtEwCQfWZkC, XAp-VaTZjjwC, e84hm74t-eoC, uAPFzskPt0AC, oqD4_j7ulsYC, DQNrXyjhriIC</t>
-  </si>
-  <si>
     <t>Nature Scientific Data</t>
   </si>
   <si>
@@ -4002,6 +3996,69 @@
   </si>
   <si>
     <t>TBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.52041/serj.v21i3.29 </t>
+  </si>
+  <si>
+    <t>10.1016/j.dib.2022.108803</t>
+  </si>
+  <si>
+    <t>The Functional Assessment of Migraine Scale Development Datasets</t>
+  </si>
+  <si>
+    <t>Buchanan, E.M., Cady, R.J., Manley, H.R., Sly, J.S., \&amp; Wikowsky, A.</t>
+  </si>
+  <si>
+    <t>Data in Brief</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.dib.2022.108803</t>
+  </si>
+  <si>
+    <t>66133660, 121460393</t>
+  </si>
+  <si>
+    <t>10.1037/tra0001417</t>
+  </si>
+  <si>
+    <t>Perceived meaning, pandemic self-efficacy, social support, and discrimination predict trajectories of peri-pandemic growth and distress for international students</t>
+  </si>
+  <si>
+    <t>w2UhwfzvF0QC</t>
+  </si>
+  <si>
+    <t>10.31222/osf.io/rcews</t>
+  </si>
+  <si>
+    <t>Bochynska, A., et al.</t>
+  </si>
+  <si>
+    <t>https://osf.io/rcews</t>
+  </si>
+  <si>
+    <t>8VtEwCQfWZkC, XAp-VaTZjjwC, e84hm74t-eoC, uAPFzskPt0AC, oqD4_j7ulsYC, DQNrXyjhriIC, gV6rEsy15s0C</t>
+  </si>
+  <si>
+    <t>We don't know what you did last summer. On the importance of transparent reporting of reaction time data pre-processing</t>
+  </si>
+  <si>
+    <t>Loenneker, H., et al.</t>
+  </si>
+  <si>
+    <t>qCpRzq7zkD8C</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/tgzdk</t>
+  </si>
+  <si>
+    <t>https://osf.io/tgzdk</t>
+  </si>
+  <si>
+    <t>Predicting the replicability of social and behavioral science claims from the COVID 19 Preprint Replication Project with structured expert and novice groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcoci, A., et al. </t>
   </si>
 </sst>
 </file>
@@ -5005,11 +5062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R257"/>
+  <dimension ref="A1:R261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q247" sqref="Q247"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -9737,7 +9794,7 @@
         <v>2022</v>
       </c>
       <c r="K93" t="s">
-        <v>1309</v>
+        <v>1333</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>179</v>
@@ -9819,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>1259</v>
@@ -9849,7 +9906,7 @@
         <v>1206</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>179</v>
@@ -9927,6 +9984,9 @@
       <c r="A97" s="16">
         <v>1</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>1320</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>1113</v>
       </c>
@@ -9939,14 +9999,14 @@
       <c r="F97" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>178</v>
+      <c r="G97" s="1">
+        <v>21</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J97" s="1">
         <v>2022</v>
@@ -10023,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1150</v>
@@ -10041,13 +10101,13 @@
         <v>3</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="J99" s="1">
         <v>2022</v>
       </c>
       <c r="K99" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>179</v>
@@ -10122,7 +10182,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="1">
         <v>2022</v>
@@ -10152,12 +10212,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="51">
+    <row r="102" spans="1:18" ht="68">
       <c r="A102" s="16">
         <v>1</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>1327</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>1265</v>
+        <v>1328</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>1148</v>
@@ -10175,7 +10238,13 @@
         <v>274</v>
       </c>
       <c r="J102" s="1">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L102">
+        <v>126109116</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>179</v>
@@ -10190,7 +10259,7 @@
         <v>195</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="R102" s="1">
         <v>81</v>
@@ -10216,7 +10285,7 @@
         <v>26</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J103" s="1">
         <v>2022</v>
@@ -10247,7 +10316,7 @@
       <c r="A104" s="16">
         <v>1</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>1262</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -10277,8 +10346,8 @@
       <c r="K104" t="s">
         <v>966</v>
       </c>
-      <c r="L104">
-        <v>66133660</v>
+      <c r="L104" t="s">
+        <v>1326</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>179</v>
@@ -15034,7 +15103,7 @@
         <v>195</v>
       </c>
       <c r="Q238" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R238" s="1"/>
     </row>
@@ -15067,7 +15136,7 @@
         <v>195</v>
       </c>
       <c r="Q239" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="R239" s="1"/>
     </row>
@@ -15186,7 +15255,7 @@
         <v>1182</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>178</v>
@@ -15318,16 +15387,16 @@
         <v>1</v>
       </c>
       <c r="C246" s="29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="F246" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="F246" s="1" t="s">
+      <c r="J246" s="1" t="s">
         <v>1269</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>1270</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>215</v>
@@ -15342,7 +15411,7 @@
         <v>195</v>
       </c>
       <c r="Q246" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="51">
@@ -15350,16 +15419,16 @@
         <v>1</v>
       </c>
       <c r="C247" s="28" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E247" s="30" t="s">
         <v>1118</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>215</v>
@@ -15374,7 +15443,7 @@
         <v>185</v>
       </c>
       <c r="Q247" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="34">
@@ -15382,16 +15451,16 @@
         <v>1</v>
       </c>
       <c r="C248" s="28" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E248" s="30" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>1274</v>
-      </c>
       <c r="J248" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>215</v>
@@ -15406,7 +15475,7 @@
         <v>185</v>
       </c>
       <c r="Q248" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="51">
@@ -15414,16 +15483,16 @@
         <v>1</v>
       </c>
       <c r="C249" s="28" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E249" s="30" t="s">
         <v>207</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>215</v>
@@ -15438,7 +15507,7 @@
         <v>195</v>
       </c>
       <c r="Q249" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="250" spans="1:18" ht="34">
@@ -15446,16 +15515,16 @@
         <v>1</v>
       </c>
       <c r="C250" s="28" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E250" s="30" t="s">
         <v>207</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>215</v>
@@ -15470,7 +15539,7 @@
         <v>185</v>
       </c>
       <c r="Q250" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="34">
@@ -15478,16 +15547,16 @@
         <v>1</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>215</v>
@@ -15502,7 +15571,7 @@
         <v>195</v>
       </c>
       <c r="Q251" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="34">
@@ -15510,16 +15579,16 @@
         <v>1</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>215</v>
@@ -15534,7 +15603,7 @@
         <v>195</v>
       </c>
       <c r="Q252" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="34">
@@ -15542,16 +15611,16 @@
         <v>1</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>215</v>
@@ -15566,7 +15635,7 @@
         <v>185</v>
       </c>
       <c r="Q253" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="34">
@@ -15574,16 +15643,16 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>1166</v>
       </c>
       <c r="F254" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J254" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>1290</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>215</v>
@@ -15598,7 +15667,7 @@
         <v>195</v>
       </c>
       <c r="Q254" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="255" spans="1:18" ht="51">
@@ -15606,16 +15675,16 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="F255" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="J255" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>1294</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>215</v>
@@ -15630,7 +15699,7 @@
         <v>195</v>
       </c>
       <c r="Q255" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="256" spans="1:18" ht="34">
@@ -15638,16 +15707,16 @@
         <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>1166</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>215</v>
@@ -15662,27 +15731,27 @@
         <v>185</v>
       </c>
       <c r="Q256" s="2" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17" ht="68">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" ht="68">
       <c r="A257" s="16">
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1304</v>
       </c>
       <c r="J257" s="1">
         <v>2022</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="N257" s="1" t="s">
         <v>200</v>
@@ -15694,7 +15763,162 @@
         <v>195</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" ht="34">
+      <c r="A258" s="16">
+        <v>1</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G258" s="1">
+        <v>46</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I258">
+        <v>108803</v>
+      </c>
+      <c r="J258" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q258" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="R258" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" ht="34">
+      <c r="A259" s="16">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J259" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K259" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L259">
+        <v>126336455</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q259" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" ht="51">
+      <c r="A260" s="16">
+        <v>1</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J260" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K260" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L260">
+        <v>125625045</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q260" s="2" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" ht="68">
+      <c r="A261" s="16">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J261" s="1">
+        <v>2023</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -15901,6 +16125,9 @@
     <hyperlink ref="Q252" r:id="rId188" xr:uid="{72E6E786-291C-874D-AA75-878577703733}"/>
     <hyperlink ref="Q248" r:id="rId189" xr:uid="{CCB5C3CC-A0A8-DF4C-8FA7-A989BFCA7E7D}"/>
     <hyperlink ref="Q247" r:id="rId190" xr:uid="{23185960-6CE5-8741-B85B-A11162ED99D9}"/>
+    <hyperlink ref="Q258" r:id="rId191" xr:uid="{89DF0D51-3963-0242-9050-B48506698F57}"/>
+    <hyperlink ref="Q259" r:id="rId192" xr:uid="{BE84FD2D-9113-F34C-9AA1-EF7278924714}"/>
+    <hyperlink ref="Q260" r:id="rId193" xr:uid="{8D80FEC9-D23B-D647-BD8F-8AA2B650036E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E8DCBA-8431-914F-AD49-CEFD8A661E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD18006-6513-1A43-BBA1-00D17B972022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$290</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1500">
   <si>
     <t>title</t>
   </si>
@@ -3701,9 +3701,6 @@
     <t>85-101</t>
   </si>
   <si>
-    <t>uUvzmPk0f8oC, SpPTWFSNUtQC, sbeIDTyQOFgC, i_7YvbSbtFEC</t>
-  </si>
-  <si>
     <t>Measuring the Semantic Priming Effect Across Many Languages</t>
   </si>
   <si>
@@ -3767,12 +3764,6 @@
     <t>bXQfdp6S9ecC</t>
   </si>
   <si>
-    <t>104340998, 104340998</t>
-  </si>
-  <si>
-    <t>BJtnxTr0fRcC; yIeBiWEAh44C, yIeBiWEAh44C, BJtnxTr0fRcC</t>
-  </si>
-  <si>
     <t>A practical primer on processing semantic property norms</t>
   </si>
   <si>
@@ -4461,13 +4452,97 @@
   </si>
   <si>
     <t>126336455, 146304360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upcoming book chapter for behavioral science book from Busara Center for Behavioral Economics </t>
+  </si>
+  <si>
+    <t>Upcoming book chapter in The Cambridge Handbook of Research Methods and Statistics for the Social and Behavioral Sciences.</t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/power_handbook_24.docx</t>
+  </si>
+  <si>
+    <t>Statistical Power: How Not to Miss What’s Right in Front of You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchanan, E. M. </t>
+  </si>
+  <si>
+    <t>Semantic Feature Production Norms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upcoming chapter in International Encyclopedia of Language and Linguistics, 3rd Edition </t>
+  </si>
+  <si>
+    <t>https://www.aggieerin.com/pubs/feat_prod_buchanan.docx</t>
+  </si>
+  <si>
+    <t>ViSe: Visualizing sensitivity</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.10698072</t>
+  </si>
+  <si>
+    <t>R package version 0.0.1</t>
+  </si>
+  <si>
+    <t>https://github.com/doomlab/ViSe</t>
+  </si>
+  <si>
+    <t>https://github.com/doomlab/visualizemi</t>
+  </si>
+  <si>
+    <t>30--39</t>
+  </si>
+  <si>
+    <t>e56</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/jhsug</t>
+  </si>
+  <si>
+    <t>A Response to a Comment on Hall et al. (2024)</t>
+  </si>
+  <si>
+    <t>Schmidt, K., et al.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.31234/osf.io/jhsug</t>
+  </si>
+  <si>
+    <t>uUvzmPk0f8oC, SpPTWFSNUtQC, sbeIDTyQOFgC, i_7YvbSbtFEC, NtGNdKbuCngC</t>
+  </si>
+  <si>
+    <t>How large must an associational mean difference be to support a causal effect?</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/5jucg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.31234/osf.io/5jucg</t>
+  </si>
+  <si>
+    <t>Höfler, M., Pronizius, E., \&amp; Buchanan, E. M.</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>M0j1y4EgrScC</t>
+  </si>
+  <si>
+    <t>BJtnxTr0fRcC; yIeBiWEAh44C, yIeBiWEAh44C, BJtnxTr0fRcC, pUxgyZctzPYC</t>
+  </si>
+  <si>
+    <t>125625045, 148306285</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4646,6 +4721,19 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4997,7 +5085,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5065,6 +5153,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5156,9 +5246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5196,7 +5286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5302,7 +5392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5444,7 +5534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5452,11 +5542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L259" sqref="L259"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L260" sqref="L260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -6409,7 +6499,7 @@
         <v>2014</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>647</v>
@@ -7524,7 +7614,7 @@
         <v>703</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="G40" s="1">
         <v>26</v>
@@ -7911,7 +8001,7 @@
         <v>2018</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="L48" s="1">
         <v>46227946</v>
@@ -8294,55 +8384,58 @@
     </row>
     <row r="56" spans="1:18" ht="34">
       <c r="A56" s="10">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>1395</v>
-      </c>
-      <c r="J56" s="6">
-        <v>2024</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="L56" s="6">
-        <v>57710195</v>
-      </c>
-      <c r="M56" s="6" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="1">
+        <v>23</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="O56" s="6" t="s">
+      <c r="N56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="P56" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="R56" s="1">
-        <v>92</v>
+      <c r="P56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R56" s="6">
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="34">
@@ -8350,37 +8443,37 @@
         <v>1.5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>280</v>
+        <v>481</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="G57" s="1">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H57" s="1">
-        <v>2</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>851</v>
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>909</v>
       </c>
       <c r="J57" s="1">
         <v>2019</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>863</v>
+        <v>679</v>
+      </c>
+      <c r="L57" s="1">
+        <v>46227680</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>178</v>
@@ -8389,54 +8482,54 @@
         <v>197</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="R57" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="34">
       <c r="A58" s="10">
         <v>1.5</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>481</v>
+      <c r="B58" s="12" t="s">
+        <v>588</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>229</v>
+        <v>586</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="G58" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>909</v>
+        <v>4</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="J58" s="1">
         <v>2019</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="L58" s="1">
-        <v>46227680</v>
+        <v>48</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>178</v>
@@ -8448,51 +8541,49 @@
         <v>192</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>230</v>
+        <v>183</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="R58" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="51">
       <c r="A59" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>588</v>
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="1">
-        <v>51</v>
-      </c>
-      <c r="H59" s="1">
-        <v>4</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="J59" s="1">
+        <v>839</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="G59" s="6">
+        <v>81</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J59" s="5">
         <v>2019</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>832</v>
+      <c r="K59" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="L59" s="6">
+        <v>57294563</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>178</v>
@@ -8504,13 +8595,13 @@
         <v>192</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>587</v>
+        <v>193</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>887</v>
       </c>
       <c r="R59" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="51">
@@ -8518,36 +8609,34 @@
         <v>1</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G60" s="6">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H60" s="6">
-        <v>2</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="J60" s="5">
-        <v>2019</v>
+        <v>3</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J60" s="6">
+        <v>2020</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="L60" s="6">
-        <v>57294563</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="L60" s="6"/>
       <c r="M60" s="1" t="s">
         <v>178</v>
       </c>
@@ -8561,45 +8650,49 @@
         <v>193</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="R60" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="51">
       <c r="A61" s="10">
-        <v>1</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>833</v>
+        <v>1.5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>607</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="G61" s="6">
-        <v>26</v>
-      </c>
-      <c r="H61" s="6">
-        <v>3</v>
+        <v>687</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G61" s="1">
+        <v>49</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J61" s="6">
+        <v>971</v>
+      </c>
+      <c r="J61" s="1">
         <v>2020</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="L61" s="6"/>
+      <c r="K61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L61" s="1">
+        <v>46227681</v>
+      </c>
       <c r="M61" s="1" t="s">
         <v>178</v>
       </c>
@@ -8610,51 +8703,51 @@
         <v>192</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>888</v>
+        <v>608</v>
       </c>
       <c r="R61" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="34">
       <c r="A62" s="10">
         <v>1.5</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>844</v>
+      <c r="B62" s="6" t="s">
+        <v>893</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>607</v>
+        <v>892</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>845</v>
+        <v>894</v>
       </c>
       <c r="G62" s="1">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="J62" s="1">
         <v>2020</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L62" s="1">
-        <v>46227681</v>
+        <v>933</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>178</v>
@@ -8669,10 +8762,10 @@
         <v>183</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="R62" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="34">
@@ -8808,164 +8901,164 @@
         <v>1.5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>731</v>
+        <v>929</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>873</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="G66" s="1">
-        <v>21</v>
+        <v>895</v>
+      </c>
+      <c r="G66" s="6">
+        <v>33</v>
       </c>
       <c r="H66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="J66" s="1">
+        <v>970</v>
+      </c>
+      <c r="J66" s="6">
         <v>2020</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="M66" s="1" t="s">
+      <c r="K66" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O66" s="1" t="s">
+      <c r="N66" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O66" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>612</v>
+      <c r="P66" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>874</v>
       </c>
       <c r="R66" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="34">
       <c r="A67" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>873</v>
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="G67" s="6">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="G67" s="1">
+        <v>25</v>
       </c>
       <c r="H67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="J67" s="6">
-        <v>2020</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="M67" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L67" s="1">
+        <v>46227700</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>874</v>
+      <c r="N67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>625</v>
       </c>
       <c r="R67" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="34">
       <c r="A68" s="10">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>81</v>
+        <v>1.5</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>860</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G68" s="1">
-        <v>25</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="J68" s="1">
-        <v>2019</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L68" s="1">
-        <v>46227700</v>
-      </c>
-      <c r="M68" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="G68" s="6">
+        <v>21</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J68" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="M68" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P68" s="1" t="s">
+      <c r="N68" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P68" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="Q68" s="3" t="s">
-        <v>625</v>
+      <c r="Q68" s="7" t="s">
+        <v>868</v>
       </c>
       <c r="R68" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="34">
@@ -9087,93 +9180,84 @@
       </c>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" ht="34">
+    <row r="72" spans="1:18" ht="51">
       <c r="A72" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>860</v>
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>934</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="G72" s="6">
-        <v>21</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J72" s="6">
-        <v>2020</v>
+        <v>935</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G72" s="1">
+        <v>44</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2019</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="M72" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N72" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="P72" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>868</v>
+      <c r="N72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>955</v>
       </c>
       <c r="R72" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="34">
       <c r="A73" s="10">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>934</v>
+        <v>975</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>958</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="G73" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H73" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1017</v>
+        <v>974</v>
       </c>
       <c r="J73" s="1">
         <v>2019</v>
       </c>
-      <c r="K73" s="6" t="s">
-        <v>937</v>
-      </c>
       <c r="M73" s="1" t="s">
         <v>178</v>
       </c>
@@ -9187,39 +9271,42 @@
         <v>193</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="R73" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="34">
       <c r="A74" s="10">
         <v>1</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>958</v>
+        <v>618</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>938</v>
+        <v>735</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="G74" s="1">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1062</v>
       </c>
       <c r="H74" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>974</v>
+        <v>1063</v>
       </c>
       <c r="J74" s="1">
-        <v>2019</v>
+        <v>2020</v>
+      </c>
+      <c r="L74" s="1">
+        <v>46227690</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>178</v>
@@ -9231,63 +9318,69 @@
         <v>192</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>948</v>
+        <v>619</v>
       </c>
       <c r="R74" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="34">
       <c r="A75" s="10">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>735</v>
+        <v>1.5</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>748</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H75" s="1">
-        <v>1</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="J75" s="1">
+        <v>969</v>
+      </c>
+      <c r="G75" s="6">
+        <v>29</v>
+      </c>
+      <c r="H75" s="6">
+        <v>2</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J75" s="6">
         <v>2020</v>
       </c>
-      <c r="L75" s="1">
-        <v>46227690</v>
-      </c>
-      <c r="M75" s="1" t="s">
+      <c r="K75" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L75" s="6">
+        <v>52212308</v>
+      </c>
+      <c r="M75" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O75" s="1" t="s">
+      <c r="N75" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O75" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q75" s="3" t="s">
-        <v>619</v>
+      <c r="P75" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>670</v>
       </c>
       <c r="R75" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="17">
@@ -9295,10 +9388,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D76" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>1037</v>
@@ -9310,7 +9403,7 @@
         <v>2023</v>
       </c>
       <c r="K76" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="L76">
         <v>136093324</v>
@@ -9328,46 +9421,46 @@
         <v>183</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" ht="34">
+    <row r="77" spans="1:18" ht="51">
       <c r="A77" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>977</v>
+        <v>1079</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>660</v>
+        <v>875</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>659</v>
+        <v>853</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="G77" s="6">
-        <v>29</v>
-      </c>
-      <c r="H77" s="6">
-        <v>2</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>1227</v>
+        <v>876</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>251524592092800</v>
       </c>
       <c r="J77" s="6">
         <v>2020</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L77" s="6">
-        <v>52212308</v>
+        <v>1021</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>1081</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>178</v>
@@ -9376,16 +9469,16 @@
         <v>197</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P77" s="6" t="s">
         <v>193</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>670</v>
+        <v>877</v>
       </c>
       <c r="R77" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="51">
@@ -9393,55 +9486,55 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>875</v>
+        <v>1003</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>968</v>
+        <v>1032</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>1005</v>
       </c>
       <c r="G78" s="1">
+        <v>70</v>
+      </c>
+      <c r="H78" s="1">
         <v>4</v>
       </c>
-      <c r="H78" s="1">
-        <v>1</v>
-      </c>
-      <c r="I78" s="1">
-        <v>251524592092800</v>
-      </c>
-      <c r="J78" s="6">
+      <c r="I78" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J78" s="1">
         <v>2020</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M78" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N78" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P78" s="6" t="s">
+      <c r="N78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q78" s="7" t="s">
-        <v>877</v>
+      <c r="Q78" s="1" t="s">
+        <v>1033</v>
       </c>
       <c r="R78" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="51">
@@ -9449,37 +9542,37 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>1032</v>
+        <v>978</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1030</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="G79" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H79" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1212</v>
+        <v>1047</v>
       </c>
       <c r="J79" s="1">
         <v>2020</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>178</v>
@@ -9493,49 +9586,49 @@
       <c r="P79" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>1033</v>
+      <c r="Q79" s="3" t="s">
+        <v>1031</v>
       </c>
       <c r="R79" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="34">
       <c r="A80" s="10">
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1006</v>
+        <v>1085</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>978</v>
+        <v>61</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1030</v>
+        <v>62</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1007</v>
+        <v>726</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="G80" s="1">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="H80" s="1">
         <v>5</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="J80" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>1043</v>
+        <v>2021</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>1102</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>178</v>
@@ -9544,16 +9637,16 @@
         <v>197</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>1031</v>
+        <v>606</v>
       </c>
       <c r="R80" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="34">
@@ -9561,37 +9654,37 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>62</v>
+        <v>1086</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>1078</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>726</v>
+        <v>1060</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1074</v>
+        <v>483</v>
       </c>
       <c r="G81" s="1">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H81" s="1">
-        <v>5</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>1101</v>
+        <v>3</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>1215</v>
       </c>
       <c r="J81" s="1">
         <v>2021</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>1102</v>
+      <c r="K81" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>1118</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>178</v>
@@ -9600,54 +9693,51 @@
         <v>197</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>606</v>
+        <v>1077</v>
       </c>
       <c r="R81" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="34">
       <c r="A82" s="10">
         <v>1</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>1078</v>
+      <c r="B82" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1098</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1060</v>
+        <v>984</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>483</v>
+        <v>1066</v>
       </c>
       <c r="G82" s="1">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="H82" s="1">
-        <v>3</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>1215</v>
+        <v>1</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>1099</v>
       </c>
       <c r="J82" s="1">
         <v>2021</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>1118</v>
+        <v>1100</v>
+      </c>
+      <c r="L82" s="6">
+        <v>92236335</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>178</v>
@@ -9662,45 +9752,45 @@
         <v>193</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>1077</v>
+        <v>1130</v>
       </c>
       <c r="R82" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="34">
       <c r="A83" s="10">
         <v>1</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>1097</v>
+      <c r="B83" s="1" t="s">
+        <v>1209</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>984</v>
+        <v>1076</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>775</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1066</v>
+        <v>1075</v>
       </c>
       <c r="G83" s="1">
-        <v>2</v>
-      </c>
-      <c r="H83" s="1">
-        <v>1</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>1099</v>
+        <v>6</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>1210</v>
       </c>
       <c r="J83" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>1100</v>
-      </c>
-      <c r="L83" s="6">
-        <v>92236335</v>
+        <v>2022</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>1211</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>178</v>
@@ -9712,48 +9802,42 @@
         <v>192</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>1130</v>
+        <v>599</v>
       </c>
       <c r="R83" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="68">
       <c r="A84" s="10">
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1209</v>
+        <v>1090</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>775</v>
+        <v>1087</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1088</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G84" s="1">
-        <v>6</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>1210</v>
+        <v>1089</v>
+      </c>
+      <c r="G84" s="6">
+        <v>5</v>
+      </c>
+      <c r="I84" s="1">
+        <v>100141</v>
       </c>
       <c r="J84" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>1211</v>
+        <v>1096</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>178</v>
@@ -9765,42 +9849,45 @@
         <v>192</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q84" s="3" t="s">
-        <v>599</v>
+        <v>193</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>1091</v>
       </c>
       <c r="R84" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="68">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="51">
       <c r="A85" s="10">
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1087</v>
+        <v>1049</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>1092</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1088</v>
+        <v>1048</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G85" s="6">
-        <v>5</v>
-      </c>
-      <c r="I85" s="1">
-        <v>100141</v>
+        <v>119</v>
+      </c>
+      <c r="G85" s="1">
+        <v>54</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="J85" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>1096</v>
+        <v>2020</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>1491</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>178</v>
@@ -9809,16 +9896,16 @@
         <v>197</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q85" s="1" t="s">
-        <v>1091</v>
+      <c r="Q85" s="3" t="s">
+        <v>1129</v>
       </c>
       <c r="R85" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="34">
@@ -9826,13 +9913,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>1092</v>
+        <v>1123</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>1054</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>119</v>
@@ -9841,16 +9928,16 @@
         <v>54</v>
       </c>
       <c r="H86" s="1">
-        <v>1</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>1094</v>
+        <v>4</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>1244</v>
       </c>
       <c r="J86" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>1221</v>
+        <v>1110</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>178</v>
@@ -9859,48 +9946,51 @@
         <v>197</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>1129</v>
+        <v>183</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>1124</v>
       </c>
       <c r="R86" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="17">
       <c r="A87" s="10">
         <v>1</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>1054</v>
+      <c r="B87" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>963</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1055</v>
+        <v>965</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G87" s="1">
-        <v>54</v>
-      </c>
-      <c r="H87" s="1">
-        <v>4</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>1247</v>
+        <v>1187</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1274</v>
       </c>
       <c r="J87" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>1110</v>
+        <v>966</v>
+      </c>
+      <c r="L87" s="6">
+        <v>66565618</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>178</v>
@@ -9912,48 +10002,42 @@
         <v>192</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>1124</v>
+        <v>193</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>967</v>
       </c>
       <c r="R87" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="34">
       <c r="A88" s="10">
         <v>1</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>1186</v>
+      <c r="B88" s="1" t="s">
+        <v>1322</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>963</v>
+        <v>1026</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>965</v>
+        <v>1027</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>1185</v>
+        <v>1028</v>
+      </c>
+      <c r="G88" s="6">
+        <v>100</v>
       </c>
       <c r="I88" s="1">
-        <v>1274</v>
+        <v>104280</v>
       </c>
       <c r="J88" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="L88" s="6">
-        <v>66565618</v>
+        <v>1204</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>178</v>
@@ -9968,10 +10052,10 @@
         <v>193</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>967</v>
+        <v>1128</v>
       </c>
       <c r="R88" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="34">
@@ -9979,28 +10063,37 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1325</v>
+        <v>1188</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1026</v>
+        <v>1093</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1040</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1027</v>
+        <v>1041</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1028</v>
+        <v>75</v>
       </c>
       <c r="G89" s="6">
-        <v>100</v>
-      </c>
-      <c r="I89" s="1">
-        <v>104280</v>
+        <v>5</v>
+      </c>
+      <c r="H89" s="1">
+        <v>8</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>1095</v>
       </c>
       <c r="J89" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>1204</v>
+        <v>2021</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L89" s="6">
+        <v>93001247</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>178</v>
@@ -10009,54 +10102,51 @@
         <v>197</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>1128</v>
+        <v>1039</v>
       </c>
       <c r="R89" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="51">
       <c r="A90" s="10">
         <v>1</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>1188</v>
+      <c r="B90" s="6" t="s">
+        <v>1191</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>1040</v>
+        <v>989</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1041</v>
+        <v>1192</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G90" s="6">
-        <v>5</v>
+        <v>1065</v>
+      </c>
+      <c r="G90" s="1">
+        <v>53</v>
       </c>
       <c r="H90" s="1">
-        <v>8</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>1095</v>
+        <v>3</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>1225</v>
       </c>
       <c r="J90" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>1411</v>
+        <v>2022</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>1193</v>
       </c>
       <c r="L90" s="6">
-        <v>93001247</v>
+        <v>110569695</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>178</v>
@@ -10065,16 +10155,16 @@
         <v>197</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>1039</v>
+        <v>1131</v>
       </c>
       <c r="R90" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="51">
@@ -10082,34 +10172,34 @@
         <v>1</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>989</v>
+        <v>1228</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1035</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1192</v>
+        <v>1036</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1065</v>
+        <v>75</v>
       </c>
       <c r="G91" s="1">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H91" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="J91" s="1">
         <v>2022</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L91" s="6">
-        <v>110569695</v>
+        <v>1456</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>178</v>
@@ -10118,51 +10208,54 @@
         <v>197</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="R91" s="6">
-        <v>71</v>
+      <c r="Q91" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R91" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="51">
       <c r="A92" s="10">
         <v>1</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>1208</v>
+      <c r="B92" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>956</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1035</v>
+        <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1036</v>
+        <v>1189</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>75</v>
+        <v>1190</v>
       </c>
       <c r="G92" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H92" s="1">
-        <v>6</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>1228</v>
+        <v>1</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>1220</v>
       </c>
       <c r="J92" s="1">
         <v>2022</v>
       </c>
-      <c r="K92" s="6" t="s">
-        <v>1459</v>
+      <c r="K92" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L92" s="1">
+        <v>46227693</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>178</v>
@@ -10171,16 +10264,16 @@
         <v>197</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>1038</v>
+        <v>183</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="R92" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="51">
@@ -10188,37 +10281,37 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>956</v>
+        <v>1342</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>1243</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>1115</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>1190</v>
+        <v>1116</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>1194</v>
       </c>
       <c r="G93" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H93" s="1">
-        <v>1</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>1220</v>
+        <v>2</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>1343</v>
       </c>
       <c r="J93" s="1">
         <v>2022</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="L93" s="1">
-        <v>46227693</v>
+        <v>1196</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>1283</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>178</v>
@@ -10230,51 +10323,48 @@
         <v>192</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>456</v>
+        <v>193</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>1137</v>
       </c>
       <c r="R93" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="51">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="34">
       <c r="A94" s="10">
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>1246</v>
+        <v>1213</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1142</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1115</v>
+        <v>1143</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>1194</v>
+        <v>1145</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>1195</v>
       </c>
       <c r="G94" s="1">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="H94" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>1346</v>
+        <v>1217</v>
       </c>
       <c r="J94" s="1">
         <v>2022</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>1286</v>
+        <v>1216</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>178</v>
@@ -10289,10 +10379,10 @@
         <v>193</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="R94" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="34">
@@ -10300,34 +10390,37 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1213</v>
+        <v>1302</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1142</v>
+        <v>1104</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1143</v>
+        <v>1105</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1145</v>
+        <v>1106</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1195</v>
+        <v>1233</v>
       </c>
       <c r="G95" s="1">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="H95" s="1">
-        <v>22</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>1217</v>
+        <v>3</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="J95" s="1">
         <v>2022</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>1216</v>
+      <c r="K95" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L95" s="6">
+        <v>93463381</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>178</v>
@@ -10336,54 +10429,51 @@
         <v>197</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="R95" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="34">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="51">
       <c r="A96" s="10">
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1305</v>
+        <v>1323</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1104</v>
+        <v>1288</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1105</v>
+        <v>1140</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1106</v>
+        <v>1144</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1234</v>
+        <v>1214</v>
       </c>
       <c r="G96" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H96" s="1">
         <v>3</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>185</v>
+        <v>1291</v>
       </c>
       <c r="J96" s="1">
         <v>2022</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L96" s="6">
-        <v>93463381</v>
+        <v>1289</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>178</v>
@@ -10392,16 +10482,16 @@
         <v>197</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="R96" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="51">
@@ -10409,34 +10499,31 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>1140</v>
+        <v>1230</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>1229</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1144</v>
+        <v>1231</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
       <c r="G97" s="1">
-        <v>3</v>
-      </c>
-      <c r="H97" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="J97" s="1">
         <v>2022</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>1292</v>
+        <v>1240</v>
+      </c>
+      <c r="L97" s="6">
+        <v>118314400</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>178</v>
@@ -10450,11 +10537,11 @@
       <c r="P97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q97" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="R97" s="1">
-        <v>77</v>
+      <c r="Q97" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R97" s="6">
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="34">
@@ -10462,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>1108</v>
@@ -10477,10 +10564,10 @@
         <v>2021</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>1243</v>
+        <v>1498</v>
+      </c>
+      <c r="L98" s="6">
+        <v>104340998</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>178</v>
@@ -10499,27 +10586,27 @@
       </c>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" ht="51">
+    <row r="99" spans="1:18" ht="34">
       <c r="A99" s="10">
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="G99" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="J99" s="1">
         <v>2022</v>
@@ -10527,9 +10614,6 @@
       <c r="K99" s="6" t="s">
         <v>1241</v>
       </c>
-      <c r="L99" s="6">
-        <v>118314400</v>
-      </c>
       <c r="M99" s="1" t="s">
         <v>178</v>
       </c>
@@ -10543,10 +10627,10 @@
         <v>193</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="R99" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="17">
@@ -10587,29 +10671,35 @@
       <c r="A101" s="10">
         <v>1</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>1236</v>
+      <c r="B101" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>950</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1237</v>
+        <v>951</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G101" s="1">
-        <v>26</v>
+        <v>1247</v>
+      </c>
+      <c r="G101" s="6">
+        <v>32</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1284</v>
+        <v>1344</v>
       </c>
       <c r="J101" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>1242</v>
+        <v>962</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>1308</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>178</v>
@@ -10623,46 +10713,46 @@
       <c r="P101" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="R101" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="34">
+      <c r="Q101" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="R101" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="68">
       <c r="A102" s="10">
         <v>1</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>950</v>
+      <c r="B102" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>1310</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>951</v>
+        <v>1138</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G102" s="6">
-        <v>32</v>
+        <v>204</v>
+      </c>
+      <c r="G102" s="1">
+        <v>15</v>
+      </c>
+      <c r="H102" s="1">
+        <v>3</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="J102" s="1">
         <v>2023</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>1311</v>
+        <v>1330</v>
+      </c>
+      <c r="L102" s="6">
+        <v>126109116</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>178</v>
@@ -10676,46 +10766,49 @@
       <c r="P102" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q102" s="7" t="s">
-        <v>952</v>
+      <c r="Q102" s="3" t="s">
+        <v>1248</v>
       </c>
       <c r="R102" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="68">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="34">
       <c r="A103" s="10">
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>1313</v>
+        <v>1324</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1223</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1138</v>
+        <v>1172</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>204</v>
+        <v>1290</v>
       </c>
       <c r="G103" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H103" s="1">
-        <v>3</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>1348</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>87</v>
       </c>
       <c r="J103" s="1">
         <v>2023</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>1333</v>
-      </c>
-      <c r="L103" s="6">
-        <v>126109116</v>
+        <v>1338</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>1332</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>178</v>
@@ -10730,10 +10823,10 @@
         <v>193</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="R103" s="1">
-        <v>81</v>
+        <v>1224</v>
+      </c>
+      <c r="R103" s="6">
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="34">
@@ -10741,37 +10834,31 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1327</v>
+        <v>1303</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>1224</v>
+        <v>1304</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1172</v>
+        <v>1305</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
       <c r="G104" s="1">
-        <v>10</v>
-      </c>
-      <c r="H104" s="1">
-        <v>1</v>
-      </c>
-      <c r="I104" s="1">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="I104" s="6">
+        <v>108803</v>
       </c>
       <c r="J104" s="1">
         <v>2023</v>
       </c>
-      <c r="K104" s="6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>1335</v>
+      <c r="K104" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L104" s="6">
+        <v>124160258</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>178</v>
@@ -10780,16 +10867,16 @@
         <v>197</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P104" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>1225</v>
+        <v>1307</v>
       </c>
       <c r="R104" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="34">
@@ -13738,7 +13825,7 @@
         <v>295</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>213</v>
@@ -14631,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>867</v>
@@ -15522,7 +15609,7 @@
         <v>193</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="R238" s="1"/>
     </row>
@@ -15555,7 +15642,7 @@
         <v>193</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="R239" s="1"/>
     </row>
@@ -15599,36 +15686,42 @@
       </c>
       <c r="R240" s="1"/>
     </row>
-    <row r="241" spans="1:18" ht="34">
+    <row r="241" spans="1:18" ht="51">
       <c r="A241" s="10">
         <v>1</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1306</v>
+        <v>1356</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1307</v>
+        <v>260</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1308</v>
+        <v>779</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="G241" s="1">
-        <v>46</v>
-      </c>
-      <c r="I241" s="6">
-        <v>108803</v>
+        <v>14</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I241" s="1">
+        <v>61</v>
       </c>
       <c r="J241" s="1">
         <v>2023</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="L241" s="6">
-        <v>124160258</v>
+        <v>1333</v>
+      </c>
+      <c r="L241" s="1">
+        <v>46227703</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>178</v>
@@ -15637,16 +15730,16 @@
         <v>197</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q241" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="R241" s="6">
-        <v>83</v>
+        <v>183</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R241" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="242" spans="1:18" ht="51">
@@ -15654,37 +15747,34 @@
         <v>1</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1359</v>
+        <v>1393</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>779</v>
+        <v>1326</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>1327</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1328</v>
+        <v>968</v>
       </c>
       <c r="G242" s="1">
-        <v>14</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I242" s="1">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="H242" s="1">
+        <v>3</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="J242" s="1">
         <v>2023</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L242" s="1">
-        <v>46227703</v>
+        <v>1329</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>178</v>
@@ -15693,51 +15783,51 @@
         <v>197</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P242" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="Q242" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="R242" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" ht="51">
+      <c r="Q242" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R242" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" ht="68">
       <c r="A243" s="10">
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1396</v>
+        <v>1357</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>1330</v>
+        <v>1284</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>1285</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>968</v>
+        <v>1347</v>
       </c>
       <c r="G243" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H243" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>1397</v>
+        <v>212</v>
       </c>
       <c r="J243" s="1">
         <v>2023</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1332</v>
+        <v>1286</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>178</v>
@@ -15749,42 +15839,48 @@
         <v>181</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q243" s="3" t="s">
-        <v>1331</v>
+        <v>193</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>1287</v>
       </c>
       <c r="R243" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" ht="34">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" ht="68">
       <c r="A244" s="10">
         <v>1</v>
       </c>
-      <c r="C244" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>177</v>
+      <c r="B244" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E244" s="19" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F244" s="20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G244" s="1">
+        <v>17</v>
+      </c>
+      <c r="H244" s="21" t="s">
+        <v>1352</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>177</v>
+        <v>1353</v>
       </c>
       <c r="J244" s="1">
-        <v>2008</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>41</v>
+        <v>2023</v>
+      </c>
+      <c r="K244" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L244" s="1">
+        <v>136474193</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>178</v>
@@ -15793,16 +15889,16 @@
         <v>197</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q244" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="R244" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q244" s="1" t="s">
         <v>942</v>
+      </c>
+      <c r="R244" s="6">
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:18" ht="51">
@@ -15810,16 +15906,16 @@
         <v>1</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E245" s="16" t="s">
         <v>205</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>213</v>
@@ -15834,7 +15930,7 @@
         <v>193</v>
       </c>
       <c r="Q245" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="246" spans="1:18" ht="34">
@@ -15842,16 +15938,16 @@
         <v>1</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E246" s="16" t="s">
         <v>205</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>213</v>
@@ -15866,7 +15962,7 @@
         <v>183</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="34">
@@ -15874,16 +15970,16 @@
         <v>1</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>213</v>
@@ -15898,7 +15994,7 @@
         <v>183</v>
       </c>
       <c r="Q247" s="3" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="51">
@@ -15906,16 +16002,16 @@
         <v>1</v>
       </c>
       <c r="C248" s="15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J248" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>1255</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>213</v>
@@ -15930,7 +16026,7 @@
         <v>193</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="51">
@@ -15938,16 +16034,16 @@
         <v>1</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E249" s="16" t="s">
         <v>1109</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>213</v>
@@ -15962,7 +16058,7 @@
         <v>183</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="250" spans="1:18" ht="34">
@@ -15970,16 +16066,16 @@
         <v>1</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>213</v>
@@ -15994,7 +16090,7 @@
         <v>183</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="34">
@@ -16002,16 +16098,16 @@
         <v>1</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>213</v>
@@ -16026,7 +16122,7 @@
         <v>193</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="34">
@@ -16034,16 +16130,16 @@
         <v>1</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>213</v>
@@ -16058,7 +16154,7 @@
         <v>193</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="34">
@@ -16066,16 +16162,16 @@
         <v>1</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>213</v>
@@ -16090,7 +16186,7 @@
         <v>193</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="51">
@@ -16098,16 +16194,16 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J254" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>1279</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>213</v>
@@ -16122,7 +16218,7 @@
         <v>193</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="255" spans="1:18" ht="34">
@@ -16130,16 +16226,16 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>213</v>
@@ -16154,42 +16250,42 @@
         <v>183</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" ht="68">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="34">
       <c r="A256" s="10">
         <v>1</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>1360</v>
+      <c r="B256" s="23" t="s">
+        <v>1398</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>1349</v>
+        <v>1337</v>
+      </c>
+      <c r="D256" s="22" t="s">
+        <v>1354</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1288</v>
+        <v>1369</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="G256" s="1">
-        <v>11</v>
-      </c>
-      <c r="H256" s="1">
-        <v>1</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
+      </c>
+      <c r="I256" t="s">
+        <v>1486</v>
       </c>
       <c r="J256" s="1">
         <v>2023</v>
       </c>
-      <c r="K256" s="1" t="s">
-        <v>1289</v>
+      <c r="K256" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L256" t="s">
+        <v>1460</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>178</v>
@@ -16203,34 +16299,43 @@
       <c r="P256" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q256" s="1" t="s">
-        <v>1290</v>
+      <c r="Q256" s="23" t="s">
+        <v>1336</v>
       </c>
       <c r="R256" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" ht="68">
       <c r="A257" s="10">
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>923</v>
+        <v>1397</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1334</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>925</v>
+        <v>1335</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>926</v>
+        <v>1374</v>
+      </c>
+      <c r="G257" s="1">
+        <v>10</v>
+      </c>
+      <c r="H257" s="1">
+        <v>1</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>1485</v>
       </c>
       <c r="J257" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L257" s="6">
-        <v>46227876</v>
+        <v>2023</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>1458</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>178</v>
@@ -16244,11 +16349,11 @@
       <c r="P257" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q257" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="R257" s="6" t="s">
-        <v>942</v>
+      <c r="Q257" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="R257" s="6">
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:18" ht="51">
@@ -16256,19 +16361,19 @@
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>1207</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G258" s="1">
         <v>2</v>
@@ -16277,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="J258" s="1">
         <v>2023</v>
@@ -16286,7 +16391,7 @@
         <v>1206</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>178</v>
@@ -16301,7 +16406,7 @@
         <v>183</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="R258" s="6">
         <v>90</v>
@@ -16312,19 +16417,19 @@
         <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C259" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>1319</v>
-      </c>
       <c r="E259" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="G259" s="1">
         <v>172</v>
@@ -16333,16 +16438,16 @@
         <v>177</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="J259" s="1">
         <v>2024</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>1318</v>
-      </c>
-      <c r="L259" s="6">
-        <v>125625045</v>
+        <v>1315</v>
+      </c>
+      <c r="L259" s="6" t="s">
+        <v>1499</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>178</v>
@@ -16357,83 +16462,92 @@
         <v>193</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="R259" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="68">
+    <row r="260" spans="1:18" ht="34">
       <c r="A260" s="10">
         <v>1</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J260" s="1">
-        <v>2023</v>
+      <c r="C260" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I260" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J260" s="6">
+        <v>2024</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>1342</v>
+        <v>857</v>
       </c>
       <c r="L260" s="6">
-        <v>128883185</v>
-      </c>
-      <c r="M260" s="1" t="s">
+        <v>57710195</v>
+      </c>
+      <c r="M260" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N260" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O260" s="1" t="s">
+      <c r="N260" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O260" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="P260" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q260" s="3" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" ht="68">
+      <c r="P260" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q260" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="R260" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" ht="34">
       <c r="A261" s="10">
         <v>1</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E261" s="19" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F261" s="20" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G261" s="1">
-        <v>17</v>
-      </c>
-      <c r="H261" s="21" t="s">
-        <v>1355</v>
+      <c r="C261" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>1356</v>
+        <v>177</v>
       </c>
       <c r="J261" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K261" t="s">
-        <v>1361</v>
-      </c>
-      <c r="L261" s="1">
-        <v>136474193</v>
+        <v>2008</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>178</v>
@@ -16442,48 +16556,39 @@
         <v>197</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q261" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q261" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="R261" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="R261" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18" ht="68">
+    </row>
+    <row r="262" spans="1:18" ht="34">
       <c r="A262" s="10">
         <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>1337</v>
+        <v>924</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>923</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1338</v>
+        <v>925</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>272</v>
+        <v>926</v>
       </c>
       <c r="J262" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>1461</v>
+        <v>2016</v>
+      </c>
+      <c r="L262" s="6">
+        <v>46227876</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>178</v>
@@ -16497,31 +16602,28 @@
       <c r="P262" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q262" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="R262" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18" ht="34">
+      <c r="Q262" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="R262" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" ht="68">
       <c r="A263" s="10">
         <v>1</v>
       </c>
-      <c r="B263" s="23" t="s">
-        <v>1401</v>
-      </c>
       <c r="C263" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="D263" s="22" t="s">
-        <v>1357</v>
-      </c>
       <c r="E263" s="1" t="s">
-        <v>1372</v>
+        <v>1319</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1358</v>
+        <v>75</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>177</v>
@@ -16533,13 +16635,13 @@
         <v>272</v>
       </c>
       <c r="J263" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K263" t="s">
-        <v>1362</v>
-      </c>
-      <c r="L263" t="s">
-        <v>1463</v>
+        <v>2024</v>
+      </c>
+      <c r="K263" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L263" s="6">
+        <v>128883185</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>178</v>
@@ -16553,11 +16655,11 @@
       <c r="P263" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q263" s="23" t="s">
-        <v>1339</v>
+      <c r="Q263" s="3" t="s">
+        <v>1320</v>
       </c>
       <c r="R263" s="6">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264" spans="1:18" ht="34">
@@ -16565,10 +16667,10 @@
         <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>1172</v>
@@ -16592,7 +16694,7 @@
         <v>193</v>
       </c>
       <c r="Q264" s="23" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="17">
@@ -16600,10 +16702,10 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D265" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>1156</v>
@@ -16612,7 +16714,7 @@
         <v>2023</v>
       </c>
       <c r="K265" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="L265">
         <v>132105671</v>
@@ -16630,7 +16732,7 @@
         <v>193</v>
       </c>
       <c r="Q265" s="23" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="266" spans="1:18" ht="34">
@@ -16638,16 +16740,16 @@
         <v>1</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>213</v>
@@ -16662,7 +16764,7 @@
         <v>183</v>
       </c>
       <c r="Q266" s="23" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="34">
@@ -16670,16 +16772,16 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>213</v>
@@ -16694,7 +16796,7 @@
         <v>193</v>
       </c>
       <c r="Q267" s="23" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="268" spans="1:18" ht="34">
@@ -16702,16 +16804,16 @@
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>213</v>
@@ -16726,7 +16828,7 @@
         <v>193</v>
       </c>
       <c r="Q268" s="23" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="17">
@@ -16734,16 +16836,16 @@
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>213</v>
@@ -16758,7 +16860,7 @@
         <v>183</v>
       </c>
       <c r="Q269" s="23" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="34">
@@ -16766,16 +16868,16 @@
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>213</v>
@@ -16790,7 +16892,7 @@
         <v>193</v>
       </c>
       <c r="Q270" s="23" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="271" spans="1:18" ht="51">
@@ -16798,16 +16900,16 @@
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>213</v>
@@ -16822,7 +16924,7 @@
         <v>193</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="51">
@@ -16830,16 +16932,16 @@
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>213</v>
@@ -16854,24 +16956,24 @@
         <v>193</v>
       </c>
       <c r="Q272" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" ht="51">
+      <c r="A273" s="10">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" ht="51">
-      <c r="A273" s="10">
-        <v>1</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>1433</v>
-      </c>
       <c r="F273" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>213</v>
@@ -16886,24 +16988,24 @@
         <v>193</v>
       </c>
       <c r="Q273" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" ht="51">
+      <c r="A274" s="10">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" ht="51">
-      <c r="A274" s="10">
-        <v>1</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>1434</v>
-      </c>
       <c r="F274" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>213</v>
@@ -16918,24 +17020,24 @@
         <v>193</v>
       </c>
       <c r="Q274" s="23" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" ht="51">
+      <c r="A275" s="10">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" ht="51">
-      <c r="A275" s="10">
-        <v>1</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>1438</v>
-      </c>
       <c r="F275" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>213</v>
@@ -16950,24 +17052,24 @@
         <v>183</v>
       </c>
       <c r="Q275" s="23" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="276" spans="1:17" ht="51">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" ht="51">
       <c r="A276" s="10">
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>213</v>
@@ -16982,24 +17084,24 @@
         <v>193</v>
       </c>
       <c r="Q276" s="23" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="277" spans="1:17" ht="34">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" ht="34">
       <c r="A277" s="10">
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>213</v>
@@ -17014,24 +17116,24 @@
         <v>193</v>
       </c>
       <c r="Q277" s="1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="278" spans="1:17" ht="51">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" ht="51">
       <c r="A278" s="10">
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M278" s="1" t="s">
         <v>213</v>
@@ -17046,24 +17148,24 @@
         <v>183</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="34">
+    <row r="279" spans="1:18" ht="34">
       <c r="A279" s="10">
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="J279" s="1">
         <v>2024</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>178</v>
@@ -17078,18 +17180,18 @@
         <v>193</v>
       </c>
       <c r="Q279" s="23" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" ht="51">
+      <c r="A280" s="10">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" ht="51">
-      <c r="A280" s="10">
-        <v>1</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>1408</v>
-      </c>
       <c r="D280" s="24" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>1172</v>
@@ -17098,7 +17200,7 @@
         <v>2024</v>
       </c>
       <c r="K280" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="L280">
         <v>149569377</v>
@@ -17116,24 +17218,24 @@
         <v>193</v>
       </c>
       <c r="Q280" s="23" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" ht="17">
+      <c r="A281" s="10">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" ht="17">
-      <c r="A281" s="10">
-        <v>1</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>1413</v>
-      </c>
       <c r="J281" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>213</v>
@@ -17148,24 +17250,24 @@
         <v>193</v>
       </c>
       <c r="Q281" s="23" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" ht="17">
+      <c r="A282" s="10">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" ht="17">
-      <c r="A282" s="10">
-        <v>1</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>1419</v>
-      </c>
       <c r="F282" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>213</v>
@@ -17180,27 +17282,27 @@
         <v>183</v>
       </c>
       <c r="Q282" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17" ht="17">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" ht="17">
       <c r="A283" s="10">
         <v>1</v>
       </c>
       <c r="C283" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>1448</v>
-      </c>
       <c r="E283" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="J283" s="1">
         <v>2024</v>
       </c>
       <c r="K283" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="L283">
         <v>141328945</v>
@@ -17218,27 +17320,27 @@
         <v>193</v>
       </c>
       <c r="Q283" s="23" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="284" spans="1:17" ht="17">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" ht="17">
       <c r="A284" s="10">
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="J284" s="1">
         <v>2023</v>
       </c>
       <c r="K284" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="L284">
         <v>143293641</v>
@@ -17256,27 +17358,39 @@
         <v>193</v>
       </c>
       <c r="Q284" s="23" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17" ht="34">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" ht="34">
       <c r="A285" s="10">
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1466</v>
+        <v>1463</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="J285" s="1">
         <v>2024</v>
       </c>
       <c r="K285" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="L285">
         <v>151131314</v>
@@ -17285,7 +17399,7 @@
         <v>178</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>192</v>
@@ -17294,27 +17408,30 @@
         <v>193</v>
       </c>
       <c r="Q285" s="23" t="s">
+        <v>1465</v>
+      </c>
+      <c r="R285" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" ht="51">
+      <c r="A286" s="10">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" ht="51">
-      <c r="A286" s="10">
-        <v>1</v>
-      </c>
-      <c r="C286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1469</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>1472</v>
       </c>
       <c r="J286" s="1">
         <v>2023</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>178</v>
@@ -17329,8 +17446,245 @@
         <v>193</v>
       </c>
       <c r="Q286" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" ht="51">
+      <c r="A287" s="10">
+        <v>1</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>1473</v>
       </c>
+      <c r="G287" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J287" s="1">
+        <v>2024</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P287" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q287" s="23" t="s">
+        <v>1474</v>
+      </c>
+      <c r="R287" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" ht="34">
+      <c r="A288" s="10">
+        <v>1</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J288" s="1">
+        <v>2024</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P288" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q288" s="23" t="s">
+        <v>1479</v>
+      </c>
+      <c r="R288" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" ht="17">
+      <c r="A289" s="10">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J289" s="1">
+        <v>2024</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P289" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" ht="51">
+      <c r="A290" s="10">
+        <v>1</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J290" s="1">
+        <v>2024</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P290" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" ht="34">
+      <c r="A291" s="10">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D291" s="25" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="J291" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L291">
+        <v>160698988</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P291" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q291" s="23" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" ht="17">
+      <c r="A292" s="10">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E292" s="25" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J292" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K292" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L292">
+        <v>158745381</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N292" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P292" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q292" s="23" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17">
+      <c r="E294" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R239">
@@ -17348,10 +17702,10 @@
   <hyperlinks>
     <hyperlink ref="Q39" r:id="rId1" display="https://scholar.utc.edu/mps/vol23/iss2/2/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="Q10" r:id="rId2" xr:uid="{8DBC9A66-17FD-134E-8349-4AD589473D31}"/>
-    <hyperlink ref="Q57" r:id="rId3" xr:uid="{87AB72C3-9098-A544-927E-E80711BFAFD4}"/>
+    <hyperlink ref="Q56" r:id="rId3" xr:uid="{87AB72C3-9098-A544-927E-E80711BFAFD4}"/>
     <hyperlink ref="Q32" r:id="rId4" xr:uid="{36FFD1D9-7B90-594C-A2F7-42E8D063CAE6}"/>
     <hyperlink ref="Q35" r:id="rId5" xr:uid="{662F4851-B5BC-C148-A8A4-D3DB2A8BB74F}"/>
-    <hyperlink ref="Q93" r:id="rId6" xr:uid="{3C7E4C22-E004-1E43-B5DA-014A2C03296E}"/>
+    <hyperlink ref="Q92" r:id="rId6" xr:uid="{3C7E4C22-E004-1E43-B5DA-014A2C03296E}"/>
     <hyperlink ref="Q17" r:id="rId7" xr:uid="{A7432939-477A-3F42-AB2E-D2FC38500BB0}"/>
     <hyperlink ref="Q125" r:id="rId8" xr:uid="{84961CAD-06D7-FA4C-986E-E6A3B93C66C9}"/>
     <hyperlink ref="Q115" r:id="rId9" xr:uid="{85627334-1CB7-9D43-B832-FB913FB4E7E4}"/>
@@ -17424,7 +17778,7 @@
     <hyperlink ref="Q152" r:id="rId76" xr:uid="{9CCB06D8-A39C-0649-AA09-D83FD1592BC5}"/>
     <hyperlink ref="Q188" r:id="rId77" xr:uid="{287782BB-04F0-0F49-8E68-94AFB58FDAEB}"/>
     <hyperlink ref="Q128" r:id="rId78" xr:uid="{6E798C00-5591-8D4C-8137-7896DE6E1F1A}"/>
-    <hyperlink ref="Q244" r:id="rId79" xr:uid="{584B5458-E2FC-444F-90EE-1CCB33F77375}"/>
+    <hyperlink ref="Q261" r:id="rId79" xr:uid="{584B5458-E2FC-444F-90EE-1CCB33F77375}"/>
     <hyperlink ref="Q129" r:id="rId80" xr:uid="{3E12F086-04A8-9E43-BE61-7BBC06FFB569}"/>
     <hyperlink ref="Q135" r:id="rId81" xr:uid="{418CB6F6-7582-1949-B8DB-B76A0557D620}"/>
     <hyperlink ref="Q187" r:id="rId82" xr:uid="{675E8E68-7CF3-4143-B1FC-1545455815E7}"/>
@@ -17436,19 +17790,19 @@
     <hyperlink ref="Q18" r:id="rId88" xr:uid="{9AE43FE7-D389-7045-80DB-B92387B3F9FC}"/>
     <hyperlink ref="Q154" r:id="rId89" xr:uid="{707E0CC3-8597-3544-BFCA-B6AFD8937A11}"/>
     <hyperlink ref="Q138" r:id="rId90" xr:uid="{1B0AF018-C249-F849-B489-83D881250376}"/>
-    <hyperlink ref="Q84" r:id="rId91" xr:uid="{425B7113-ACFE-3149-8C2F-01C9B2D8E631}"/>
+    <hyperlink ref="Q83" r:id="rId91" xr:uid="{425B7113-ACFE-3149-8C2F-01C9B2D8E631}"/>
     <hyperlink ref="Q50" r:id="rId92" xr:uid="{D4BB0AC9-51E9-614E-A21C-997DD817F4AE}"/>
     <hyperlink ref="Q16" r:id="rId93" xr:uid="{8157AD0D-E645-9745-A6FE-914B4948D699}"/>
-    <hyperlink ref="Q81" r:id="rId94" xr:uid="{3EB09505-96EA-9044-AB9E-9DE8D96D58EF}"/>
-    <hyperlink ref="Q62" r:id="rId95" xr:uid="{6AF79E23-C131-8F49-9524-0300598114A1}"/>
+    <hyperlink ref="Q80" r:id="rId94" xr:uid="{3EB09505-96EA-9044-AB9E-9DE8D96D58EF}"/>
+    <hyperlink ref="Q61" r:id="rId95" xr:uid="{6AF79E23-C131-8F49-9524-0300598114A1}"/>
     <hyperlink ref="Q7" r:id="rId96" xr:uid="{FB2C0487-0616-AA4B-8932-A2C8EBCCAB5D}"/>
-    <hyperlink ref="Q66" r:id="rId97" xr:uid="{FC820334-04F2-B74A-9535-FFE6FACA08F6}"/>
+    <hyperlink ref="Q62" r:id="rId97" xr:uid="{FC820334-04F2-B74A-9535-FFE6FACA08F6}"/>
     <hyperlink ref="Q37" r:id="rId98" xr:uid="{36D36EC7-A52A-3C4E-91F3-719750EC6EE7}"/>
-    <hyperlink ref="Q75" r:id="rId99" xr:uid="{66BF9FB4-44C0-B641-817E-9F5FA438BC6E}"/>
+    <hyperlink ref="Q74" r:id="rId99" xr:uid="{66BF9FB4-44C0-B641-817E-9F5FA438BC6E}"/>
     <hyperlink ref="Q145" r:id="rId100" xr:uid="{A1FB719C-FEE4-8745-8EC3-B5A62EE0E44E}"/>
     <hyperlink ref="Q33" r:id="rId101" xr:uid="{54B22F91-320C-7F4A-A404-C7B7C4BE8F0A}"/>
     <hyperlink ref="Q166" r:id="rId102" xr:uid="{59E2FD0B-923D-3C42-8D05-1469557BDF68}"/>
-    <hyperlink ref="Q68" r:id="rId103" xr:uid="{CCC684A7-8500-1D4F-8D02-361D7C01F3E3}"/>
+    <hyperlink ref="Q67" r:id="rId103" xr:uid="{CCC684A7-8500-1D4F-8D02-361D7C01F3E3}"/>
     <hyperlink ref="Q23" r:id="rId104" xr:uid="{7DA5414F-BD31-5747-A9FC-4E2D69077A53}"/>
     <hyperlink ref="Q21" r:id="rId105" xr:uid="{43E07E9C-350C-8848-AC26-DF7D9B7193F0}"/>
     <hyperlink ref="Q15" r:id="rId106" xr:uid="{26BFD440-8FCA-5D44-9346-BC792059F4A3}"/>
@@ -17459,7 +17813,7 @@
     <hyperlink ref="Q47" r:id="rId111" xr:uid="{0AF73A99-F03F-CA42-B0E0-5D1B5C41F133}"/>
     <hyperlink ref="Q27" r:id="rId112" xr:uid="{E08FB853-7081-2A4C-B606-6E031C7423BB}"/>
     <hyperlink ref="Q199" r:id="rId113" xr:uid="{14CFFB1C-FCBC-6B4A-82E6-0193947BBD5D}"/>
-    <hyperlink ref="Q77" r:id="rId114" xr:uid="{4C5912D0-5972-7C4F-973E-8B0E87926534}"/>
+    <hyperlink ref="Q75" r:id="rId114" xr:uid="{4C5912D0-5972-7C4F-973E-8B0E87926534}"/>
     <hyperlink ref="Q202" r:id="rId115" xr:uid="{B10ED486-0ADE-AE45-920D-FAC73C4AA860}"/>
     <hyperlink ref="Q206" r:id="rId116" xr:uid="{CB8136AE-839D-214E-81C9-21399BA363BB}"/>
     <hyperlink ref="Q203" r:id="rId117" xr:uid="{0ECD14C3-3FA9-DF47-AB14-A9EE26B98ADB}"/>
@@ -17470,43 +17824,43 @@
     <hyperlink ref="Q55" r:id="rId122" xr:uid="{3A0EA199-9046-C047-AA3E-49D8071BF47C}"/>
     <hyperlink ref="Q205" r:id="rId123" xr:uid="{1D628C24-2304-F143-9C88-BCEA198497C3}"/>
     <hyperlink ref="Q54" r:id="rId124" xr:uid="{DEC95570-3575-1F45-AAD2-56BA0FD294B5}"/>
-    <hyperlink ref="Q72" r:id="rId125" xr:uid="{746FAB7B-FED8-F245-9FAB-1F5B1CCBAF43}"/>
-    <hyperlink ref="Q56" r:id="rId126" xr:uid="{8134279C-1DCF-3D42-B28B-2D24B5A0103E}"/>
-    <hyperlink ref="Q67" r:id="rId127" xr:uid="{22E6B370-27F9-0E49-8CA5-6758D6E54579}"/>
-    <hyperlink ref="Q78" r:id="rId128" xr:uid="{1C446669-E5AB-8D4D-9123-31185050C640}"/>
+    <hyperlink ref="Q68" r:id="rId125" xr:uid="{746FAB7B-FED8-F245-9FAB-1F5B1CCBAF43}"/>
+    <hyperlink ref="Q260" r:id="rId126" xr:uid="{8134279C-1DCF-3D42-B28B-2D24B5A0103E}"/>
+    <hyperlink ref="Q66" r:id="rId127" xr:uid="{22E6B370-27F9-0E49-8CA5-6758D6E54579}"/>
+    <hyperlink ref="Q77" r:id="rId128" xr:uid="{1C446669-E5AB-8D4D-9123-31185050C640}"/>
     <hyperlink ref="Q22" r:id="rId129" xr:uid="{44A33D6F-43C4-0943-BCB1-AF9DE4C147F6}"/>
     <hyperlink ref="Q53" r:id="rId130" xr:uid="{E02BB8E3-0BAF-C248-8EB0-3267BA432805}"/>
-    <hyperlink ref="Q61" r:id="rId131" xr:uid="{BEFDCC98-9BB2-3D49-BA3F-3405DCD9093D}"/>
-    <hyperlink ref="Q60" r:id="rId132" xr:uid="{693C6CA7-F3B0-8046-A1AC-2290A31A325D}"/>
+    <hyperlink ref="Q60" r:id="rId131" xr:uid="{BEFDCC98-9BB2-3D49-BA3F-3405DCD9093D}"/>
+    <hyperlink ref="Q59" r:id="rId132" xr:uid="{693C6CA7-F3B0-8046-A1AC-2290A31A325D}"/>
     <hyperlink ref="Q209" r:id="rId133" xr:uid="{6E05A9E4-528C-5340-8605-BE0FDAF71DEA}"/>
     <hyperlink ref="Q69" r:id="rId134" xr:uid="{0F1FAD95-0848-E049-9406-AFFA1592BDF6}"/>
     <hyperlink ref="Q214" r:id="rId135" xr:uid="{3F83EA70-AEE6-8846-8419-3AD79B91EB73}"/>
     <hyperlink ref="Q70" r:id="rId136" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
     <hyperlink ref="Q71" r:id="rId137" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
-    <hyperlink ref="Q257" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
+    <hyperlink ref="Q262" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
     <hyperlink ref="Q208" r:id="rId139" xr:uid="{3A350AA0-18E0-7A44-A617-2A23437C2D25}"/>
     <hyperlink ref="Q211" r:id="rId140" xr:uid="{2CD84B76-BD07-7447-AC85-335724F45069}"/>
     <hyperlink ref="Q212" r:id="rId141" xr:uid="{0D96B428-C157-194F-BBBB-55BACE11480C}"/>
-    <hyperlink ref="Q73" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
-    <hyperlink ref="Q74" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
-    <hyperlink ref="Q102" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
+    <hyperlink ref="Q72" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
+    <hyperlink ref="Q73" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
+    <hyperlink ref="Q101" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
     <hyperlink ref="Q210" r:id="rId145" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
     <hyperlink ref="Q193" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
-    <hyperlink ref="Q88" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
-    <hyperlink ref="Q80" r:id="rId148" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
-    <hyperlink ref="Q90" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
+    <hyperlink ref="Q87" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
+    <hyperlink ref="Q79" r:id="rId148" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
+    <hyperlink ref="Q89" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
     <hyperlink ref="Q63" r:id="rId150" xr:uid="{3EC4565A-606A-904D-A00D-7C065BC8A9CB}"/>
     <hyperlink ref="Q222" r:id="rId151" xr:uid="{11D1FB42-933A-D642-A0A9-1D751F8B8F73}"/>
     <hyperlink ref="Q223" r:id="rId152" xr:uid="{3AB784A4-BDB2-CF40-96CB-4EE5B7EB8ED2}"/>
     <hyperlink ref="Q224" r:id="rId153" xr:uid="{2352F29F-A1AD-2E44-B32C-934B4E87D28F}"/>
     <hyperlink ref="Q225" r:id="rId154" xr:uid="{8C880241-2719-8844-9AC7-9FD10D4835EE}"/>
-    <hyperlink ref="Q82" r:id="rId155" xr:uid="{9F1FE709-13B2-7542-B65F-1B593D0872D1}"/>
+    <hyperlink ref="Q81" r:id="rId155" xr:uid="{9F1FE709-13B2-7542-B65F-1B593D0872D1}"/>
     <hyperlink ref="Q215" r:id="rId156" xr:uid="{6917739B-949C-844A-A1B9-3BC57F6EA0CB}"/>
     <hyperlink ref="Q220" r:id="rId157" xr:uid="{22CD3B85-A12B-7940-A9D0-31167434C1F2}"/>
-    <hyperlink ref="Q89" r:id="rId158" xr:uid="{CF1362CC-10D9-464B-A4C2-4733A7A05746}"/>
-    <hyperlink ref="Q86" r:id="rId159" xr:uid="{60624615-A498-7B44-85E2-9675C84BE16F}"/>
-    <hyperlink ref="Q83" r:id="rId160" xr:uid="{BCE50138-0053-F442-92E8-958FA01416A1}"/>
-    <hyperlink ref="Q91" r:id="rId161" xr:uid="{3DEF2CF1-6AB5-6649-B66A-F141D76CC38F}"/>
+    <hyperlink ref="Q88" r:id="rId158" xr:uid="{CF1362CC-10D9-464B-A4C2-4733A7A05746}"/>
+    <hyperlink ref="Q85" r:id="rId159" xr:uid="{60624615-A498-7B44-85E2-9675C84BE16F}"/>
+    <hyperlink ref="Q82" r:id="rId160" xr:uid="{BCE50138-0053-F442-92E8-958FA01416A1}"/>
+    <hyperlink ref="Q90" r:id="rId161" xr:uid="{3DEF2CF1-6AB5-6649-B66A-F141D76CC38F}"/>
     <hyperlink ref="Q233" r:id="rId162" xr:uid="{13351AD9-151F-F84E-80D0-1B03FA8267C1}"/>
     <hyperlink ref="Q221" r:id="rId163" xr:uid="{20569A93-EB7A-4E47-A53B-8E5EDA719F82}"/>
     <hyperlink ref="Q231" r:id="rId164" xr:uid="{3E3EF4F9-D701-8E47-AE8A-BA3B863E5DF3}"/>
@@ -17517,13 +17871,13 @@
     <hyperlink ref="Q236" r:id="rId169" xr:uid="{26A12168-5A7B-7143-8285-FFDE7130F545}"/>
     <hyperlink ref="Q234" r:id="rId170" xr:uid="{98183D84-684A-5644-91AE-6881A42B6798}"/>
     <hyperlink ref="Q235" r:id="rId171" xr:uid="{FB65EF3E-1604-BA49-A777-BC22F86BA023}"/>
-    <hyperlink ref="B88" r:id="rId172" display="https://doi.org/10.20935/AL1274" xr:uid="{240C9844-798D-0B49-A453-CDA085161615}"/>
+    <hyperlink ref="B87" r:id="rId172" display="https://doi.org/10.20935/AL1274" xr:uid="{240C9844-798D-0B49-A453-CDA085161615}"/>
     <hyperlink ref="Q240" r:id="rId173" xr:uid="{1DFC1F7F-1957-B34C-A2D6-3630D0AF81F1}"/>
     <hyperlink ref="Q64" r:id="rId174" xr:uid="{07F1B89C-B381-984C-857C-4706FD61A432}"/>
-    <hyperlink ref="Q104" r:id="rId175" xr:uid="{964D6BFA-35DA-834C-90ED-329D4CC344C2}"/>
-    <hyperlink ref="Q99" r:id="rId176" xr:uid="{FB0A5519-B7ED-FA4B-8017-6F734806C61F}"/>
-    <hyperlink ref="Q101" r:id="rId177" xr:uid="{031D270D-AE15-8F48-9950-82177BE16E1E}"/>
-    <hyperlink ref="Q103" r:id="rId178" xr:uid="{B58C16B8-0C67-EC46-8FA2-669CBD477884}"/>
+    <hyperlink ref="Q103" r:id="rId175" xr:uid="{964D6BFA-35DA-834C-90ED-329D4CC344C2}"/>
+    <hyperlink ref="Q97" r:id="rId176" xr:uid="{FB0A5519-B7ED-FA4B-8017-6F734806C61F}"/>
+    <hyperlink ref="Q99" r:id="rId177" xr:uid="{031D270D-AE15-8F48-9950-82177BE16E1E}"/>
+    <hyperlink ref="Q102" r:id="rId178" xr:uid="{B58C16B8-0C67-EC46-8FA2-669CBD477884}"/>
     <hyperlink ref="Q245" r:id="rId179" xr:uid="{90345C85-218A-7945-97FC-0E6F4241CCC9}"/>
     <hyperlink ref="Q246" r:id="rId180" xr:uid="{05A6C6B1-235B-5E4B-AE38-D43B4CCBE8D6}"/>
     <hyperlink ref="Q247" r:id="rId181" xr:uid="{C32CB911-DC2F-1947-AB0C-5BAE829340DC}"/>
@@ -17536,14 +17890,14 @@
     <hyperlink ref="Q252" r:id="rId188" xr:uid="{72E6E786-291C-874D-AA75-878577703733}"/>
     <hyperlink ref="Q250" r:id="rId189" xr:uid="{CCB5C3CC-A0A8-DF4C-8FA7-A989BFCA7E7D}"/>
     <hyperlink ref="Q249" r:id="rId190" xr:uid="{23185960-6CE5-8741-B85B-A11162ED99D9}"/>
-    <hyperlink ref="Q241" r:id="rId191" xr:uid="{89DF0D51-3963-0242-9050-B48506698F57}"/>
+    <hyperlink ref="Q104" r:id="rId191" xr:uid="{89DF0D51-3963-0242-9050-B48506698F57}"/>
     <hyperlink ref="Q258" r:id="rId192" xr:uid="{BE84FD2D-9113-F34C-9AA1-EF7278924714}"/>
     <hyperlink ref="Q259" r:id="rId193" xr:uid="{8D80FEC9-D23B-D647-BD8F-8AA2B650036E}"/>
-    <hyperlink ref="Q260" r:id="rId194" xr:uid="{3645B597-7AF1-D84F-9533-CC19936A7322}"/>
-    <hyperlink ref="Q243" r:id="rId195" xr:uid="{837A1BD1-5734-DE43-B966-F7FAF870AB6D}"/>
-    <hyperlink ref="D243" r:id="rId196" display="https://doi.org/10.31234/osf.io/q8t2k" xr:uid="{D67E3E00-D918-E745-8635-C556F8211B76}"/>
-    <hyperlink ref="D263" r:id="rId197" display="https://doi.org/10.31222/osf.io/3ks6r" xr:uid="{20D7D5CD-59ED-774A-9CE4-739D50B0DCA3}"/>
-    <hyperlink ref="Q263" r:id="rId198" xr:uid="{6EF1DA69-983A-B346-BA2E-B2E60A168589}"/>
+    <hyperlink ref="Q263" r:id="rId194" xr:uid="{3645B597-7AF1-D84F-9533-CC19936A7322}"/>
+    <hyperlink ref="Q242" r:id="rId195" xr:uid="{837A1BD1-5734-DE43-B966-F7FAF870AB6D}"/>
+    <hyperlink ref="D242" r:id="rId196" display="https://doi.org/10.31234/osf.io/q8t2k" xr:uid="{D67E3E00-D918-E745-8635-C556F8211B76}"/>
+    <hyperlink ref="D256" r:id="rId197" display="https://doi.org/10.31222/osf.io/3ks6r" xr:uid="{20D7D5CD-59ED-774A-9CE4-739D50B0DCA3}"/>
+    <hyperlink ref="Q256" r:id="rId198" xr:uid="{6EF1DA69-983A-B346-BA2E-B2E60A168589}"/>
     <hyperlink ref="Q264" r:id="rId199" xr:uid="{1A1589C3-D687-0B4F-899E-C377621488C3}"/>
     <hyperlink ref="Q265" r:id="rId200" xr:uid="{05AF7943-2189-AE45-858E-F276187DF5EC}"/>
     <hyperlink ref="Q270" r:id="rId201" xr:uid="{576AD991-4FCA-6C4D-B792-7C32AB356368}"/>
@@ -17551,7 +17905,7 @@
     <hyperlink ref="Q266" r:id="rId203" xr:uid="{4FD0D5CB-D6E5-1042-8B4C-16C6FBC9BE70}"/>
     <hyperlink ref="Q267" r:id="rId204" xr:uid="{47B08537-FF2B-8E49-846D-BCEC9243AC9D}"/>
     <hyperlink ref="Q268" r:id="rId205" xr:uid="{34F7BBC8-0DF1-7047-AACF-3380A39D4EC9}"/>
-    <hyperlink ref="B263" r:id="rId206" display="https://doi.org/10.1017/S0140525X23002248" xr:uid="{23676D06-F14C-FA4E-BFC1-63D57F8A2B35}"/>
+    <hyperlink ref="B256" r:id="rId206" display="https://doi.org/10.1017/S0140525X23002248" xr:uid="{23676D06-F14C-FA4E-BFC1-63D57F8A2B35}"/>
     <hyperlink ref="Q279" r:id="rId207" xr:uid="{6ABBFFEE-F302-2C4E-B5C9-3C8A7C154B4C}"/>
     <hyperlink ref="D279" r:id="rId208" display="https://doi.org/10.31234/osf.io/jktnv" xr:uid="{8DA78F8C-4CEC-B640-8FF8-03E6B766FADC}"/>
     <hyperlink ref="Q280" r:id="rId209" xr:uid="{A6DC2824-F959-2E4B-B012-9A86C48B7E0C}"/>
@@ -17562,6 +17916,10 @@
     <hyperlink ref="Q283" r:id="rId214" xr:uid="{4EF4C9CE-2181-4B46-9E81-532FD6FD610D}"/>
     <hyperlink ref="Q284" r:id="rId215" xr:uid="{FD040756-782A-634E-ABFB-168EA270AE84}"/>
     <hyperlink ref="Q285" r:id="rId216" xr:uid="{6C0F3CEC-08F0-3541-B58D-9EEC45120E71}"/>
+    <hyperlink ref="Q287" r:id="rId217" xr:uid="{361CFB9B-864D-7148-B9F0-4F9F35CBC598}"/>
+    <hyperlink ref="Q288" r:id="rId218" xr:uid="{D7BADE60-7389-654A-9EE9-42A8CCE62F45}"/>
+    <hyperlink ref="Q291" r:id="rId219" xr:uid="{6F9388B3-1CA2-2C46-A183-102D4EC3FBE7}"/>
+    <hyperlink ref="Q292" r:id="rId220" xr:uid="{51A12838-70F9-874D-BF3D-EC504C3B5B07}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD18006-6513-1A43-BBA1-00D17B972022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A6538-6BB5-6B45-9597-524B2692EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$300</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1580">
   <si>
     <t>title</t>
   </si>
@@ -1982,9 +1982,6 @@
     <t>22716711, 44622067</t>
   </si>
   <si>
-    <t>PQEM9vzQD9gC, m4fbC6XIj1kC</t>
-  </si>
-  <si>
     <t>46227683, 44621956</t>
   </si>
   <si>
@@ -2609,9 +2606,6 @@
     <t>U0iAMwwPxtsC</t>
   </si>
   <si>
-    <t>natZJ_-F0IUC</t>
-  </si>
-  <si>
     <t>VRfTbSk87rEC</t>
   </si>
   <si>
@@ -2648,9 +2642,6 @@
     <t>https://osf.io/zeux9</t>
   </si>
   <si>
-    <t>Accelerated CREP - RRR: Turri, Buckwalter, \&amp; Blouw (2015)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hall, B., et al. </t>
   </si>
   <si>
@@ -3656,9 +3647,6 @@
     <t>Reproducible research practices and transparency across linguistics</t>
   </si>
   <si>
-    <t>X4-KO54GjGYC</t>
-  </si>
-  <si>
     <t>Bochynska, A., Buchanan, E. M., Casillas, J. V., Champagne, I. A., Chen, K., Halfacre, C., Keeble, L., Roettger, T. B., \&amp; Rothlisberger, M. (alphabetical)</t>
   </si>
   <si>
@@ -3896,9 +3884,6 @@
     <t>Terry, J. et al.</t>
   </si>
   <si>
-    <t>l6Q3WhenKVUC</t>
-  </si>
-  <si>
     <t>https://psyarxiv.com/au9vp/</t>
   </si>
   <si>
@@ -4055,9 +4040,6 @@
     <t>MDX3w3dAD3YC, CMvovTBb2okC, c1AJUTjuCtUC</t>
   </si>
   <si>
-    <t>DquSII9TDu4C</t>
-  </si>
-  <si>
     <t>10.31222/osf.io/xdsjf</t>
   </si>
   <si>
@@ -4262,9 +4244,6 @@
     <t>https://osf.io/e3afx</t>
   </si>
   <si>
-    <t>g_UdREhPGEoC, nWoA1JPTheMC, wGzT3bKASkAC, a2necdfpwlEC</t>
-  </si>
-  <si>
     <t xml:space="preserve">What can we learn about two million priming values? An update to the Semantic Priming Across Many Languages Project (PSA007) </t>
   </si>
   <si>
@@ -4385,9 +4364,6 @@
     <t>M_lZXyI38BkC, RXiHnyRawswC, ojlX30-wUrgC</t>
   </si>
   <si>
-    <t>EaFouW7jFu4C, Tfl4UtY-dJUC</t>
-  </si>
-  <si>
     <t>The Reliability of Student Evaluations of Teaching</t>
   </si>
   <si>
@@ -4478,18 +4454,12 @@
     <t>https://www.aggieerin.com/pubs/feat_prod_buchanan.docx</t>
   </si>
   <si>
-    <t>ViSe: Visualizing sensitivity</t>
-  </si>
-  <si>
     <t>10.5281/zenodo.10698072</t>
   </si>
   <si>
     <t>R package version 0.0.1</t>
   </si>
   <si>
-    <t>https://github.com/doomlab/ViSe</t>
-  </si>
-  <si>
     <t>https://github.com/doomlab/visualizemi</t>
   </si>
   <si>
@@ -4529,20 +4499,290 @@
     <t>Methodology</t>
   </si>
   <si>
-    <t>M0j1y4EgrScC</t>
-  </si>
-  <si>
-    <t>BJtnxTr0fRcC; yIeBiWEAh44C, yIeBiWEAh44C, BJtnxTr0fRcC, pUxgyZctzPYC</t>
-  </si>
-  <si>
     <t>125625045, 148306285</t>
+  </si>
+  <si>
+    <t>10.1016/B978-0-323-95504-1.00045-4</t>
+  </si>
+  <si>
+    <t>10.1177/10731911241280763</t>
+  </si>
+  <si>
+    <t>VALID: A Checklist-Based Approach for Improving Validity in Psychological Research</t>
+  </si>
+  <si>
+    <t>Kerschbaumer, S. et al.</t>
+  </si>
+  <si>
+    <t>10.17605/OSF.IO/GWAVU</t>
+  </si>
+  <si>
+    <t>10.1177/25152459241306432/</t>
+  </si>
+  <si>
+    <t>10.32614/CRAN.package.MOTE</t>
+  </si>
+  <si>
+    <t>10.32614/CRAN.package.lrd</t>
+  </si>
+  <si>
+    <t>Registered Replication Report: A Large Multilab Cross-Cultural Conceptual Replication of Turri et al. (2015)</t>
+  </si>
+  <si>
+    <t>10.1177/25152459241267902</t>
+  </si>
+  <si>
+    <t>R package version 0.1.3</t>
+  </si>
+  <si>
+    <t>10.32614/CRAN.package.ViSe</t>
+  </si>
+  <si>
+    <t>Visualizing Sensitivity</t>
+  </si>
+  <si>
+    <t>https://github.com/doomlab/vise</t>
+  </si>
+  <si>
+    <t>(In)Alienable Worth? Cultural Logics of Dignity, Honor, and Face and their Links to Prosociality Across the World</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/9hb8k</t>
+  </si>
+  <si>
+    <t>Grigoryan, L. et al.</t>
+  </si>
+  <si>
+    <t>ujxm2eEBZHIC</t>
+  </si>
+  <si>
+    <t>https://osf.io/9hb8k</t>
+  </si>
+  <si>
+    <t>10.1177/25152459241268249</t>
+  </si>
+  <si>
+    <t>4QKQTXcH0q8C</t>
+  </si>
+  <si>
+    <t>160698988, 170510533</t>
+  </si>
+  <si>
+    <t>Crowdsourcing Multiverse Analyses to Examine the Robustness of Research Findings</t>
+  </si>
+  <si>
+    <t>Heyman, T., Pronizius, E., \&amp; Buchanan, E. M.</t>
+  </si>
+  <si>
+    <t>Proceedings of the Annual Meeting of the Cognitive Science Society</t>
+  </si>
+  <si>
+    <t>i91s68tWr-MC</t>
+  </si>
+  <si>
+    <t>https://escholarship.org/uc/item/5q86s63s</t>
+  </si>
+  <si>
+    <t>M0j1y4EgrScC, htyGaKyDgHMC</t>
+  </si>
+  <si>
+    <t>PQEM9vzQD9gC, m4fbC6XIj1kC, QKtdBID3u5MC</t>
+  </si>
+  <si>
+    <t>Large-scale cross-societal examination of real-and minimal-group biases</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/5gpr4</t>
+  </si>
+  <si>
+    <t>Yang, X., et al.</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>5LPo_wSKItgC</t>
+  </si>
+  <si>
+    <t>https://osf.io/5gpr4</t>
+  </si>
+  <si>
+    <t>Multi-region investigation of "man" as default in attitudes</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/nkbjc</t>
+  </si>
+  <si>
+    <t>Phills, C., et al.</t>
+  </si>
+  <si>
+    <t>HqhvjgTjE9cC</t>
+  </si>
+  <si>
+    <t>https://osf.io/nkbjc</t>
+  </si>
+  <si>
+    <t>DquSII9TDu4C, AFXcoJnoRH0C</t>
+  </si>
+  <si>
+    <t>g_UdREhPGEoC, nWoA1JPTheMC, wGzT3bKASkAC, a2necdfpwlEC, vxA22ZmNLkoC</t>
+  </si>
+  <si>
+    <t>EaFouW7jFu4C, Tfl4UtY-dJUC, adHtZc2wMuEC</t>
+  </si>
+  <si>
+    <t>natZJ_-F0IUC, j8pvxH-kN2QC</t>
+  </si>
+  <si>
+    <t>CRzUtm-VnGAC</t>
+  </si>
+  <si>
+    <t>BJtnxTr0fRcC; yIeBiWEAh44C, yIeBiWEAh44C, BJtnxTr0fRcC, pUxgyZctzPYC, 3BvdIg-l-ZAC</t>
+  </si>
+  <si>
+    <t>The Impact of Migraine on Career Mobility and Opportunities among Working Women: An Exploratory Study</t>
+  </si>
+  <si>
+    <t>The Advantage of Big Team Science: Lessons Learned from Cognitive Science</t>
+  </si>
+  <si>
+    <t>oldoQiaHq2UC</t>
+  </si>
+  <si>
+    <t>IHkkN1K1AlAC</t>
+  </si>
+  <si>
+    <t>Vaidis, D. C., et al.</t>
+  </si>
+  <si>
+    <t>Smith, T. et al.</t>
+  </si>
+  <si>
+    <t>https://osf.io/yvm5h</t>
+  </si>
+  <si>
+    <t>https://osf.io/wmzye</t>
+  </si>
+  <si>
+    <t>132105671, 170596978</t>
+  </si>
+  <si>
+    <t>l6Q3WhenKVUC, pRWBApOjXDcC</t>
+  </si>
+  <si>
+    <t>X4-KO54GjGYC, I9gX6wnfuA8C</t>
+  </si>
+  <si>
+    <t>Big Team Science for language science: opportunities and challenges</t>
+  </si>
+  <si>
+    <t>https://osf.io/3pkj6</t>
+  </si>
+  <si>
+    <t>Faytak, M., et al.</t>
+  </si>
+  <si>
+    <t>Practical tools for impact through Open Science</t>
+  </si>
+  <si>
+    <t>Invited Spoken presentation for the Conference for Open Science and Societial Impact hosted by Advancing &amp; Evaluating the Societal Impact of Sciences.</t>
+  </si>
+  <si>
+    <t>https://doomlab.quarto.pub/staple-software-for-scientists</t>
+  </si>
+  <si>
+    <t>2024, April</t>
+  </si>
+  <si>
+    <t>2024, May</t>
+  </si>
+  <si>
+    <t>On the Nature of Research: Fostering Transparency, Innovation, and Quality in Science Collaboration</t>
+  </si>
+  <si>
+    <t>https://doomlab.quarto.pub/aps_24</t>
+  </si>
+  <si>
+    <t>2024, June</t>
+  </si>
+  <si>
+    <t>2024, July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invited workshop for WoProc 2024 an International Word Processing Conference. Belgrade, Serbia. </t>
+  </si>
+  <si>
+    <t>Invited workshop for ELTE University, Budapest, Hungary.</t>
+  </si>
+  <si>
+    <t>Invited workshop for the University of Vienna, Vienna, Austria.</t>
+  </si>
+  <si>
+    <t>Invited spoken presentation for the Annual Meeting of the Association for Psychological Science's session on On the Nature of Research: Fostering Transparency, Innovation, and Quality in Science Collaboration. San Fransico, CA.</t>
+  </si>
+  <si>
+    <t>Workshop for the Society for the Improvement of Psychological Science (SIPS) 2024 Meeting.</t>
+  </si>
+  <si>
+    <t>10.17605/OSF.IO/VT6CX</t>
+  </si>
+  <si>
+    <t>Multiverse Analyses</t>
+  </si>
+  <si>
+    <t>https://osf.io/vt6cx/</t>
+  </si>
+  <si>
+    <t>https://osf.io/xuzr6/</t>
+  </si>
+  <si>
+    <t>Invited workshop for the Psych #rstats Club.</t>
+  </si>
+  <si>
+    <t>2024, August</t>
+  </si>
+  <si>
+    <t>10.17605/OSF.IO/XUZR6</t>
+  </si>
+  <si>
+    <t>Workshop for Big Team Science Conference.</t>
+  </si>
+  <si>
+    <t>2024, October</t>
+  </si>
+  <si>
+    <t>Presentation for the Annual Meeting of the Society for Computation in Psychology, New York, NY.</t>
+  </si>
+  <si>
+    <t>2024, November</t>
+  </si>
+  <si>
+    <t>https://doomlab.quarto.pub/scip-2024</t>
+  </si>
+  <si>
+    <t>https://doomlab.quarto.pub/tech-and-psyc</t>
+  </si>
+  <si>
+    <t>Technology and Psychology’s Renaissance</t>
+  </si>
+  <si>
+    <t>Presentation for the Annual Meeting of the Psychonomic Society, New York, NY.</t>
+  </si>
+  <si>
+    <t>https://doomlab.quarto.pub/pnom-2024</t>
+  </si>
+  <si>
+    <t>Priming is consistent but different across languages: The data release and results from the Semantic Priming Across Many Languages Project</t>
+  </si>
+  <si>
+    <t>Multilevel Modeling Psych \#rstats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4727,13 +4967,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5154,7 +5387,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5542,11 +5777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R294"/>
+  <dimension ref="A1:R312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L260" sqref="L260"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A289" sqref="A289:XFD289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -5625,7 +5860,7 @@
         <v>188</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="34">
@@ -5639,7 +5874,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>254</v>
@@ -5742,7 +5977,7 @@
         <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>87</v>
@@ -5763,7 +5998,7 @@
         <v>116</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>178</v>
@@ -5795,7 +6030,7 @@
         <v>95</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>96</v>
@@ -5816,7 +6051,7 @@
         <v>97</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>178</v>
@@ -5869,7 +6104,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>178</v>
@@ -5901,7 +6136,7 @@
         <v>609</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>65</v>
@@ -5922,7 +6157,7 @@
         <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>178</v>
@@ -5954,7 +6189,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>38</v>
@@ -6007,7 +6242,7 @@
         <v>245</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>72</v>
@@ -6060,7 +6295,7 @@
         <v>190</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -6113,7 +6348,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>119</v>
@@ -6134,7 +6369,7 @@
         <v>51</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>178</v>
@@ -6166,7 +6401,7 @@
         <v>118</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>119</v>
@@ -6187,7 +6422,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>178</v>
@@ -6219,7 +6454,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>69</v>
@@ -6272,7 +6507,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
@@ -6325,7 +6560,7 @@
         <v>86</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>87</v>
@@ -6378,7 +6613,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>603</v>
@@ -6428,7 +6663,7 @@
         <v>215</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -6481,10 +6716,10 @@
         <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>177</v>
@@ -6493,13 +6728,13 @@
         <v>177</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="J18" s="1">
         <v>2014</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>647</v>
@@ -6531,7 +6766,7 @@
         <v>109</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>235</v>
@@ -6584,7 +6819,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>25</v>
@@ -6637,7 +6872,7 @@
         <v>628</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>84</v>
@@ -6658,7 +6893,7 @@
         <v>85</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>178</v>
@@ -6690,7 +6925,7 @@
         <v>487</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>486</v>
@@ -6726,7 +6961,7 @@
         <v>193</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="R22" s="6">
         <v>19</v>
@@ -6743,7 +6978,7 @@
         <v>82</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>112</v>
@@ -6796,7 +7031,7 @@
         <v>102</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>276</v>
@@ -6817,7 +7052,7 @@
         <v>103</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>178</v>
@@ -6849,7 +7084,7 @@
         <v>124</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
@@ -6902,7 +7137,7 @@
         <v>219</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>220</v>
@@ -6955,7 +7190,7 @@
         <v>644</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>84</v>
@@ -7008,7 +7243,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>589</v>
@@ -7058,7 +7293,7 @@
         <v>108</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
@@ -7076,7 +7311,7 @@
         <v>2016</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L29" s="1">
         <v>30745623</v>
@@ -7164,7 +7399,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J31" s="1">
         <v>2017</v>
@@ -7206,7 +7441,7 @@
         <v>155</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>254</v>
@@ -7259,7 +7494,7 @@
         <v>128</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J33" s="1">
         <v>2017</v>
@@ -7298,13 +7533,13 @@
         <v>98</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J34" s="1">
         <v>2017</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="L34" s="1">
         <v>46227678</v>
@@ -7334,10 +7569,10 @@
         <v>203</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>204</v>
@@ -7358,7 +7593,7 @@
         <v>15</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>178</v>
@@ -7393,7 +7628,7 @@
         <v>275</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>106</v>
@@ -7405,13 +7640,13 @@
         <v>2</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J36" s="1">
         <v>2019</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L36" s="1">
         <v>44621959</v>
@@ -7467,7 +7702,7 @@
         <v>2018</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>648</v>
+        <v>1516</v>
       </c>
       <c r="L37" s="6">
         <v>57294614</v>
@@ -7505,7 +7740,7 @@
         <v>136</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>119</v>
@@ -7526,7 +7761,7 @@
         <v>90</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>178</v>
@@ -7558,7 +7793,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>122</v>
@@ -7611,10 +7846,10 @@
         <v>30</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="G40" s="1">
         <v>26</v>
@@ -7629,7 +7864,7 @@
         <v>2018</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L40" s="1">
         <v>46227685</v>
@@ -7667,7 +7902,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>25</v>
@@ -7679,7 +7914,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="J41" s="1">
         <v>2019</v>
@@ -7688,7 +7923,7 @@
         <v>7</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>178</v>
@@ -7720,13 +7955,13 @@
         <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J42" s="1">
         <v>2018</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L42" s="1">
         <v>46227701</v>
@@ -7771,7 +8006,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J43" s="1">
         <v>2019</v>
@@ -7807,14 +8042,14 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -7825,7 +8060,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>197</v>
@@ -7837,7 +8072,7 @@
         <v>193</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R44" s="1"/>
     </row>
@@ -7855,7 +8090,7 @@
         <v>144</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>45</v>
@@ -7867,7 +8102,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J45" s="1">
         <v>2018</v>
@@ -7908,7 +8143,7 @@
         <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J46" s="1">
         <v>2018</v>
@@ -7947,7 +8182,7 @@
         <v>132</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J47" s="1">
         <v>2018</v>
@@ -7983,7 +8218,7 @@
         <v>129</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>101</v>
@@ -8001,7 +8236,7 @@
         <v>2018</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1449</v>
+        <v>1530</v>
       </c>
       <c r="L48" s="1">
         <v>46227946</v>
@@ -8042,7 +8277,7 @@
         <v>2018</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="L49" s="1">
         <v>46227697</v>
@@ -8075,7 +8310,7 @@
         <v>58</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>20</v>
@@ -8131,7 +8366,7 @@
         <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>119</v>
@@ -8143,13 +8378,13 @@
         <v>4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J51" s="1">
         <v>2019</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L51" s="1">
         <v>46227696</v>
@@ -8178,19 +8413,19 @@
         <v>1.5</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="G52" s="6">
         <v>10</v>
@@ -8199,13 +8434,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J52" s="6">
         <v>2018</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L52" s="6">
         <v>46975449</v>
@@ -8223,7 +8458,7 @@
         <v>183</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R52" s="6">
         <v>41</v>
@@ -8234,17 +8469,17 @@
         <v>1</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G53" s="17">
         <v>27</v>
@@ -8253,13 +8488,13 @@
         <v>6</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J53" s="6">
         <v>2019</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L53" s="6">
         <v>52942378</v>
@@ -8277,7 +8512,7 @@
         <v>193</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="R53" s="6">
         <v>42</v>
@@ -8288,13 +8523,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>866</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>75</v>
@@ -8306,7 +8541,7 @@
         <v>2019</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L54" s="6">
         <v>59592572</v>
@@ -8315,7 +8550,7 @@
         <v>178</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>181</v>
@@ -8324,7 +8559,7 @@
         <v>183</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="R54" s="1"/>
     </row>
@@ -8333,19 +8568,19 @@
         <v>1</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>831</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>177</v>
@@ -8354,13 +8589,13 @@
         <v>177</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="J55" s="6">
         <v>2019</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="1" t="s">
@@ -8376,7 +8611,7 @@
         <v>183</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R55" s="6">
         <v>43</v>
@@ -8396,7 +8631,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>281</v>
@@ -8408,16 +8643,16 @@
         <v>2</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J56" s="1">
         <v>2019</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>178</v>
@@ -8452,7 +8687,7 @@
         <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>45</v>
@@ -8464,13 +8699,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J57" s="1">
         <v>2019</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L57" s="1">
         <v>46227680</v>
@@ -8508,7 +8743,7 @@
         <v>49</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>119</v>
@@ -8520,7 +8755,7 @@
         <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J58" s="1">
         <v>2019</v>
@@ -8529,7 +8764,7 @@
         <v>48</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>178</v>
@@ -8555,17 +8790,17 @@
         <v>1</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>839</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>840</v>
       </c>
       <c r="G59" s="6">
         <v>81</v>
@@ -8574,13 +8809,13 @@
         <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J59" s="5">
         <v>2019</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L59" s="6">
         <v>57294563</v>
@@ -8598,7 +8833,7 @@
         <v>193</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="R59" s="6">
         <v>47</v>
@@ -8609,17 +8844,17 @@
         <v>1</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>834</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>835</v>
       </c>
       <c r="G60" s="6">
         <v>26</v>
@@ -8628,13 +8863,13 @@
         <v>3</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="J60" s="6">
         <v>2020</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="1" t="s">
@@ -8650,7 +8885,7 @@
         <v>193</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="R60" s="6">
         <v>48</v>
@@ -8661,7 +8896,7 @@
         <v>1.5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>607</v>
@@ -8670,10 +8905,10 @@
         <v>64</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G61" s="1">
         <v>49</v>
@@ -8682,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="J61" s="1">
         <v>2020</v>
@@ -8717,19 +8952,19 @@
         <v>1.5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G62" s="1">
         <v>21</v>
@@ -8738,16 +8973,16 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J62" s="1">
         <v>2020</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>178</v>
@@ -8774,13 +9009,13 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -8790,7 +9025,7 @@
         <v>2019</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="L63" s="6">
         <v>78301690</v>
@@ -8808,7 +9043,7 @@
         <v>183</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="R63" s="1"/>
     </row>
@@ -8818,13 +9053,13 @@
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -8850,7 +9085,7 @@
         <v>183</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="R64" s="1"/>
     </row>
@@ -8858,16 +9093,18 @@
       <c r="A65" s="10">
         <v>1</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>1494</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>816</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>817</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -8876,11 +9113,11 @@
         <v>2019</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>197</v>
@@ -8892,7 +9129,7 @@
         <v>193</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R65" s="1"/>
     </row>
@@ -8901,19 +9138,19 @@
         <v>1.5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G66" s="6">
         <v>33</v>
@@ -8922,16 +9159,16 @@
         <v>2</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="J66" s="6">
         <v>2020</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>178</v>
@@ -8946,7 +9183,7 @@
         <v>193</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="R66" s="6">
         <v>51</v>
@@ -8963,7 +9200,7 @@
         <v>81</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>122</v>
@@ -8975,13 +9212,13 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="J67" s="1">
         <v>2019</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="L67" s="1">
         <v>46227700</v>
@@ -9010,19 +9247,19 @@
         <v>1.5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G68" s="6">
         <v>21</v>
@@ -9031,16 +9268,16 @@
         <v>177</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="J68" s="6">
         <v>2020</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>178</v>
@@ -9055,7 +9292,7 @@
         <v>183</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="R68" s="6">
         <v>53</v>
@@ -9066,13 +9303,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -9082,7 +9319,7 @@
         <v>2019</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L69" s="6">
         <v>53070092</v>
@@ -9100,7 +9337,7 @@
         <v>183</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R69" s="1"/>
     </row>
@@ -9109,19 +9346,19 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J70" s="1">
         <v>2019</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="L70" s="6">
         <v>61451311</v>
@@ -9139,7 +9376,7 @@
         <v>193</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="R70" s="1"/>
     </row>
@@ -9149,13 +9386,13 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J71" s="1">
         <v>2019</v>
@@ -9176,7 +9413,7 @@
         <v>183</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="R71" s="1"/>
     </row>
@@ -9185,16 +9422,16 @@
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G72" s="1">
         <v>44</v>
@@ -9203,13 +9440,13 @@
         <v>2</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="J72" s="1">
         <v>2019</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>178</v>
@@ -9224,7 +9461,7 @@
         <v>193</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="R72" s="6">
         <v>54</v>
@@ -9235,16 +9472,16 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="G73" s="1">
         <v>6</v>
@@ -9253,7 +9490,7 @@
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J73" s="1">
         <v>2019</v>
@@ -9271,7 +9508,7 @@
         <v>193</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="R73" s="6">
         <v>55</v>
@@ -9288,19 +9525,19 @@
         <v>142</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="H74" s="1">
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J74" s="1">
         <v>2020</v>
@@ -9332,19 +9569,19 @@
         <v>1.5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G75" s="6">
         <v>29</v>
@@ -9353,13 +9590,13 @@
         <v>2</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="J75" s="6">
         <v>2020</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="L75" s="6">
         <v>52212308</v>
@@ -9377,24 +9614,24 @@
         <v>193</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R75" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="17">
+    <row r="76" spans="1:18" ht="34">
       <c r="A76" s="10">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
-        <v>1360</v>
+      <c r="C76" s="26" t="s">
+        <v>1354</v>
       </c>
       <c r="D76" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>254</v>
@@ -9403,7 +9640,7 @@
         <v>2023</v>
       </c>
       <c r="K76" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="L76">
         <v>136093324</v>
@@ -9412,7 +9649,7 @@
         <v>178</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>181</v>
@@ -9421,7 +9658,7 @@
         <v>183</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="R76" s="1"/>
     </row>
@@ -9430,19 +9667,19 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G77" s="1">
         <v>4</v>
@@ -9457,10 +9694,10 @@
         <v>2020</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>178</v>
@@ -9475,7 +9712,7 @@
         <v>193</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R77" s="6">
         <v>58</v>
@@ -9486,19 +9723,19 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="G78" s="1">
         <v>70</v>
@@ -9507,16 +9744,16 @@
         <v>4</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="J78" s="1">
         <v>2020</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>178</v>
@@ -9531,7 +9768,7 @@
         <v>193</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="R78" s="6">
         <v>59</v>
@@ -9542,19 +9779,19 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G79" s="1">
         <v>90</v>
@@ -9563,16 +9800,16 @@
         <v>5</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="J79" s="1">
         <v>2020</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>178</v>
@@ -9587,7 +9824,7 @@
         <v>193</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="R79" s="6">
         <v>60</v>
@@ -9598,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>61</v>
@@ -9607,10 +9844,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G80" s="1">
         <v>15</v>
@@ -9619,16 +9856,16 @@
         <v>5</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="J80" s="1">
         <v>2021</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>178</v>
@@ -9654,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>483</v>
@@ -9675,16 +9912,16 @@
         <v>3</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="J81" s="1">
         <v>2021</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>178</v>
@@ -9699,7 +9936,7 @@
         <v>193</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="R81" s="6">
         <v>62</v>
@@ -9710,16 +9947,16 @@
         <v>1</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G82" s="1">
         <v>2</v>
@@ -9728,13 +9965,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="J82" s="1">
         <v>2021</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L82" s="6">
         <v>92236335</v>
@@ -9752,7 +9989,7 @@
         <v>193</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="R82" s="6">
         <v>63</v>
@@ -9763,34 +10000,34 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G83" s="1">
         <v>6</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="J83" s="1">
         <v>2022</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>178</v>
@@ -9816,16 +10053,16 @@
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="G84" s="6">
         <v>5</v>
@@ -9837,7 +10074,7 @@
         <v>2021</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>178</v>
@@ -9852,7 +10089,7 @@
         <v>193</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="R84" s="6">
         <v>65</v>
@@ -9863,13 +10100,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>119</v>
@@ -9881,13 +10118,13 @@
         <v>1</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="J85" s="1">
         <v>2020</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>178</v>
@@ -9902,7 +10139,7 @@
         <v>193</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="R85" s="6">
         <v>66</v>
@@ -9913,13 +10150,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>119</v>
@@ -9931,13 +10168,13 @@
         <v>4</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="J86" s="1">
         <v>2022</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>178</v>
@@ -9952,7 +10189,7 @@
         <v>183</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="R86" s="6">
         <v>67</v>
@@ -9963,22 +10200,22 @@
         <v>1</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="I87" s="1">
         <v>1274</v>
@@ -9987,7 +10224,7 @@
         <v>2021</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="L87" s="6">
         <v>66565618</v>
@@ -10005,7 +10242,7 @@
         <v>193</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="R87" s="6">
         <v>68</v>
@@ -10016,16 +10253,16 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G88" s="6">
         <v>100</v>
@@ -10037,7 +10274,7 @@
         <v>2022</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>178</v>
@@ -10052,27 +10289,27 @@
         <v>193</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="R88" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="34">
+    <row r="89" spans="1:18" ht="51">
       <c r="A89" s="10">
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>75</v>
@@ -10084,13 +10321,13 @@
         <v>8</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="J89" s="1">
         <v>2021</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1408</v>
+        <v>1529</v>
       </c>
       <c r="L89" s="6">
         <v>93001247</v>
@@ -10108,7 +10345,7 @@
         <v>193</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="R89" s="6">
         <v>70</v>
@@ -10119,16 +10356,16 @@
         <v>1</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G90" s="1">
         <v>53</v>
@@ -10137,13 +10374,13 @@
         <v>3</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="J90" s="1">
         <v>2022</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="L90" s="6">
         <v>110569695</v>
@@ -10161,27 +10398,27 @@
         <v>193</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="R90" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="51">
+    <row r="91" spans="1:18" ht="68">
       <c r="A91" s="10">
         <v>1</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>75</v>
@@ -10193,13 +10430,13 @@
         <v>6</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="J91" s="1">
         <v>2022</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>178</v>
@@ -10214,7 +10451,7 @@
         <v>193</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="R91" s="1">
         <v>72</v>
@@ -10225,19 +10462,19 @@
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="G92" s="1">
         <v>26</v>
@@ -10246,13 +10483,13 @@
         <v>1</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="J92" s="1">
         <v>2022</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="L92" s="1">
         <v>46227693</v>
@@ -10281,19 +10518,19 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="G93" s="1">
         <v>18</v>
@@ -10302,16 +10539,16 @@
         <v>2</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="J93" s="1">
         <v>2022</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>178</v>
@@ -10326,7 +10563,7 @@
         <v>193</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="R93" s="1">
         <v>74</v>
@@ -10337,19 +10574,19 @@
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>1145</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="G94" s="1">
         <v>119</v>
@@ -10358,13 +10595,13 @@
         <v>22</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="J94" s="1">
         <v>2022</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>178</v>
@@ -10379,7 +10616,7 @@
         <v>193</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="R94" s="1">
         <v>75</v>
@@ -10390,19 +10627,19 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="G95" s="1">
         <v>21</v>
@@ -10417,7 +10654,7 @@
         <v>2022</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L95" s="6">
         <v>93463381</v>
@@ -10435,7 +10672,7 @@
         <v>193</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="R95" s="1">
         <v>76</v>
@@ -10446,19 +10683,19 @@
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G96" s="1">
         <v>3</v>
@@ -10467,13 +10704,13 @@
         <v>3</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J96" s="1">
         <v>2022</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>178</v>
@@ -10488,7 +10725,7 @@
         <v>193</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="R96" s="1">
         <v>77</v>
@@ -10499,28 +10736,28 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G97" s="1">
         <v>7</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="J97" s="1">
         <v>2022</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="L97" s="6">
         <v>118314400</v>
@@ -10538,7 +10775,7 @@
         <v>193</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="R97" s="6">
         <v>78</v>
@@ -10549,13 +10786,13 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>75</v>
@@ -10564,7 +10801,7 @@
         <v>2021</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>1498</v>
+        <v>1533</v>
       </c>
       <c r="L98" s="6">
         <v>104340998</v>
@@ -10573,7 +10810,7 @@
         <v>178</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>192</v>
@@ -10582,7 +10819,7 @@
         <v>183</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="R98" s="1"/>
     </row>
@@ -10591,28 +10828,28 @@
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="G99" s="1">
         <v>26</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="J99" s="1">
         <v>2022</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>178</v>
@@ -10627,31 +10864,34 @@
         <v>193</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="R99" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="17">
+    <row r="100" spans="1:18" ht="34">
       <c r="A100" s="10">
         <v>1</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>1495</v>
+      </c>
       <c r="C100" s="6" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J100" s="1">
         <v>2021</v>
       </c>
       <c r="K100" s="6"/>
       <c r="M100" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>197</v>
@@ -10663,7 +10903,7 @@
         <v>183</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="R100" s="1"/>
     </row>
@@ -10672,34 +10912,34 @@
         <v>1</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="G101" s="6">
         <v>32</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="J101" s="1">
         <v>2023</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>178</v>
@@ -10714,7 +10954,7 @@
         <v>193</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="R101" s="1">
         <v>80</v>
@@ -10725,13 +10965,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>204</v>
@@ -10743,13 +10983,13 @@
         <v>3</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="J102" s="1">
         <v>2023</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="L102" s="6">
         <v>126109116</v>
@@ -10767,7 +11007,7 @@
         <v>193</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="R102" s="1">
         <v>81</v>
@@ -10778,19 +11018,19 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="G103" s="1">
         <v>10</v>
@@ -10805,10 +11045,10 @@
         <v>2023</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>178</v>
@@ -10823,7 +11063,7 @@
         <v>193</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="R103" s="6">
         <v>82</v>
@@ -10834,16 +11074,16 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="G104" s="1">
         <v>46</v>
@@ -10855,7 +11095,7 @@
         <v>2023</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="L104" s="6">
         <v>124160258</v>
@@ -10873,7 +11113,7 @@
         <v>193</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="R104" s="6">
         <v>83</v>
@@ -10908,7 +11148,7 @@
         <v>183</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R105" s="1"/>
     </row>
@@ -10941,7 +11181,7 @@
         <v>183</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R106" s="1"/>
     </row>
@@ -10974,7 +11214,7 @@
         <v>183</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R107" s="1"/>
     </row>
@@ -11226,7 +11466,7 @@
         <v>457</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>226</v>
@@ -11283,7 +11523,7 @@
         <v>183</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R116" s="1"/>
     </row>
@@ -11316,7 +11556,7 @@
         <v>183</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R117" s="1"/>
     </row>
@@ -11349,7 +11589,7 @@
         <v>183</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R118" s="1"/>
     </row>
@@ -11382,7 +11622,7 @@
         <v>183</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R119" s="1"/>
     </row>
@@ -11487,7 +11727,7 @@
         <v>183</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R122" s="1"/>
     </row>
@@ -11520,7 +11760,7 @@
         <v>183</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R123" s="1"/>
     </row>
@@ -11535,7 +11775,7 @@
         <v>575</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>391</v>
@@ -11559,7 +11799,7 @@
         <v>193</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R124" s="1"/>
     </row>
@@ -11574,7 +11814,7 @@
         <v>151</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>223</v>
@@ -11610,7 +11850,7 @@
         <v>349</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>399</v>
@@ -11682,7 +11922,7 @@
         <v>350</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>399</v>
@@ -11751,7 +11991,7 @@
         <v>546</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>392</v>
@@ -11787,7 +12027,7 @@
         <v>452</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>378</v>
@@ -11808,7 +12048,7 @@
         <v>193</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R131" s="1"/>
     </row>
@@ -11823,7 +12063,7 @@
         <v>470</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>423</v>
@@ -11847,7 +12087,7 @@
         <v>183</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R132" s="1"/>
     </row>
@@ -11862,7 +12102,7 @@
         <v>598</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>492</v>
@@ -11934,7 +12174,7 @@
         <v>283</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>329</v>
@@ -11967,7 +12207,7 @@
         <v>340</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>376</v>
@@ -11991,7 +12231,7 @@
         <v>193</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="34">
@@ -12005,7 +12245,7 @@
         <v>523</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>531</v>
@@ -12077,7 +12317,7 @@
         <v>547</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>426</v>
@@ -12105,7 +12345,7 @@
       </c>
       <c r="R139" s="1"/>
     </row>
-    <row r="140" spans="1:18" ht="85">
+    <row r="140" spans="1:18" ht="102">
       <c r="A140" s="10">
         <v>1</v>
       </c>
@@ -12116,7 +12356,7 @@
         <v>343</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>382</v>
@@ -12140,7 +12380,7 @@
         <v>193</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="141" spans="1:18" s="6" customFormat="1" ht="34">
@@ -12193,7 +12433,7 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>375</v>
@@ -12205,7 +12445,7 @@
         <v>297</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1" t="s">
@@ -12237,7 +12477,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>373</v>
@@ -12279,7 +12519,7 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>439</v>
@@ -12305,7 +12545,7 @@
         <v>183</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="145" spans="1:18" s="6" customFormat="1" ht="51">
@@ -12318,7 +12558,7 @@
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>431</v>
@@ -12348,7 +12588,7 @@
       </c>
       <c r="R145" s="1"/>
     </row>
-    <row r="146" spans="1:18" s="6" customFormat="1" ht="34">
+    <row r="146" spans="1:18" s="6" customFormat="1" ht="51">
       <c r="A146" s="10">
         <v>1</v>
       </c>
@@ -12358,7 +12598,7 @@
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>400</v>
@@ -12423,7 +12663,7 @@
         <v>193</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R147" s="1"/>
     </row>
@@ -12437,7 +12677,7 @@
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>443</v>
@@ -12479,7 +12719,7 @@
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>427</v>
@@ -12523,7 +12763,7 @@
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>432</v>
@@ -12604,7 +12844,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>379</v>
@@ -12643,7 +12883,7 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>366</v>
@@ -12683,7 +12923,7 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>430</v>
@@ -12723,10 +12963,10 @@
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -12763,7 +13003,7 @@
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>433</v>
@@ -12803,7 +13043,7 @@
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>367</v>
@@ -12843,7 +13083,7 @@
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>380</v>
@@ -12869,7 +13109,7 @@
         <v>193</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R158" s="1"/>
     </row>
@@ -12881,7 +13121,7 @@
         <v>499</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>424</v>
@@ -12914,7 +13154,7 @@
         <v>365</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>445</v>
@@ -12947,7 +13187,7 @@
         <v>176</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>429</v>
@@ -12980,7 +13220,7 @@
         <v>533</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>436</v>
@@ -13013,7 +13253,7 @@
         <v>535</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>441</v>
@@ -13046,7 +13286,7 @@
         <v>545</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>428</v>
@@ -13071,7 +13311,7 @@
       </c>
       <c r="R164" s="1"/>
     </row>
-    <row r="165" spans="1:18" ht="34">
+    <row r="165" spans="1:18" ht="51">
       <c r="A165" s="10">
         <v>1</v>
       </c>
@@ -13079,7 +13319,7 @@
         <v>491</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>428</v>
@@ -13112,7 +13352,7 @@
         <v>623</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>437</v>
@@ -13145,7 +13385,7 @@
         <v>364</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>442</v>
@@ -13178,7 +13418,7 @@
         <v>347</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>394</v>
@@ -13211,7 +13451,7 @@
         <v>363</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>435</v>
@@ -13244,7 +13484,7 @@
         <v>359</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>425</v>
@@ -13277,7 +13517,7 @@
         <v>348</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>397</v>
@@ -13343,7 +13583,7 @@
         <v>347</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>395</v>
@@ -13376,7 +13616,7 @@
         <v>447</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>390</v>
@@ -13409,7 +13649,7 @@
         <v>478</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>384</v>
@@ -13430,7 +13670,7 @@
         <v>193</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R175" s="1"/>
     </row>
@@ -13442,7 +13682,7 @@
         <v>584</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>438</v>
@@ -13496,7 +13736,7 @@
         <v>193</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R177" s="1"/>
     </row>
@@ -13508,7 +13748,7 @@
         <v>572</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>398</v>
@@ -13573,7 +13813,7 @@
         <v>351</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>401</v>
@@ -13606,7 +13846,7 @@
         <v>352</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>402</v>
@@ -13636,10 +13876,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>377</v>
@@ -13672,7 +13912,7 @@
         <v>342</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>381</v>
@@ -13708,7 +13948,7 @@
         <v>495</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>372</v>
@@ -13741,7 +13981,7 @@
         <v>502</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>396</v>
@@ -13777,7 +14017,7 @@
         <v>142</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>434</v>
@@ -13786,7 +14026,7 @@
         <v>301</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L186" s="6">
         <v>46227690</v>
@@ -13816,7 +14056,7 @@
         <v>570</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>393</v>
@@ -13825,7 +14065,7 @@
         <v>295</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>213</v>
@@ -13851,7 +14091,7 @@
         <v>524</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>440</v>
@@ -13883,7 +14123,7 @@
         <v>353</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>403</v>
@@ -13916,7 +14156,7 @@
         <v>76</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>383</v>
@@ -13949,7 +14189,7 @@
         <v>338</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>371</v>
@@ -13982,7 +14222,7 @@
         <v>339</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>374</v>
@@ -14007,7 +14247,7 @@
       </c>
       <c r="R192" s="1"/>
     </row>
-    <row r="193" spans="1:18" ht="34">
+    <row r="193" spans="1:18" ht="51">
       <c r="A193" s="10">
         <v>1</v>
       </c>
@@ -14015,7 +14255,7 @@
         <v>346</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>389</v>
@@ -14036,7 +14276,7 @@
         <v>193</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="R193" s="1"/>
     </row>
@@ -14048,7 +14288,7 @@
         <v>550</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>371</v>
@@ -14116,7 +14356,7 @@
         <v>574</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>404</v>
@@ -14137,7 +14377,7 @@
         <v>193</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="197" spans="1:18" ht="51">
@@ -14148,7 +14388,7 @@
         <v>345</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>388</v>
@@ -14214,16 +14454,16 @@
         <v>1</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -14246,7 +14486,7 @@
         <v>183</v>
       </c>
       <c r="Q199" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R199" s="1"/>
     </row>
@@ -14256,11 +14496,11 @@
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>371</v>
@@ -14269,7 +14509,7 @@
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
       <c r="J200" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
@@ -14286,7 +14526,7 @@
         <v>193</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="R200" s="1"/>
     </row>
@@ -14296,11 +14536,11 @@
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>371</v>
@@ -14309,7 +14549,7 @@
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
       <c r="J201" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
@@ -14326,7 +14566,7 @@
         <v>183</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R201" s="1"/>
     </row>
@@ -14336,20 +14576,20 @@
       </c>
       <c r="B202" s="6"/>
       <c r="C202" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D202" s="6"/>
       <c r="E202" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F202" s="6" t="s">
         <v>789</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>790</v>
       </c>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
       <c r="J202" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
@@ -14366,7 +14606,7 @@
         <v>183</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R202" s="1"/>
     </row>
@@ -14376,20 +14616,20 @@
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F203" s="6" t="s">
         <v>809</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>810</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
       <c r="J203" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
@@ -14406,7 +14646,7 @@
         <v>193</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R203" s="1"/>
     </row>
@@ -14416,23 +14656,23 @@
       </c>
       <c r="B204" s="6"/>
       <c r="C204" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
       <c r="J204" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="1" t="s">
@@ -14448,7 +14688,7 @@
         <v>193</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="R204" s="1"/>
     </row>
@@ -14457,19 +14697,19 @@
         <v>1</v>
       </c>
       <c r="C205" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="F205" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>213</v>
@@ -14484,7 +14724,7 @@
         <v>193</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="R205" s="1"/>
     </row>
@@ -14494,20 +14734,20 @@
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D206" s="6"/>
       <c r="E206" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
       <c r="J206" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
@@ -14524,7 +14764,7 @@
         <v>193</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R206" s="1"/>
     </row>
@@ -14534,20 +14774,20 @@
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
       <c r="J207" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
@@ -14564,7 +14804,7 @@
         <v>193</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R207" s="1"/>
     </row>
@@ -14574,20 +14814,20 @@
       </c>
       <c r="B208" s="6"/>
       <c r="C208" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F208" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
       <c r="J208" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
@@ -14604,7 +14844,7 @@
         <v>193</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="209" spans="1:18" ht="34">
@@ -14613,20 +14853,20 @@
       </c>
       <c r="B209" s="6"/>
       <c r="C209" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
@@ -14643,7 +14883,7 @@
         <v>193</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="R209" s="1"/>
     </row>
@@ -14652,16 +14892,16 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J210" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>213</v>
@@ -14676,7 +14916,7 @@
         <v>193</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="R210" s="1"/>
     </row>
@@ -14685,16 +14925,16 @@
         <v>1</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>213</v>
@@ -14709,7 +14949,7 @@
         <v>183</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="R211" s="1"/>
     </row>
@@ -14718,16 +14958,16 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>213</v>
@@ -14742,7 +14982,7 @@
         <v>183</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="R212" s="1"/>
     </row>
@@ -14751,16 +14991,16 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>213</v>
@@ -14775,7 +15015,7 @@
         <v>193</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="R213" s="1"/>
     </row>
@@ -14784,25 +15024,25 @@
         <v>1.5</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>910</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="J214" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="K214" s="6" t="s">
-        <v>913</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>213</v>
@@ -14817,7 +15057,7 @@
         <v>193</v>
       </c>
       <c r="Q214" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R214" s="1"/>
     </row>
@@ -14826,16 +15066,16 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="J215" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>213</v>
@@ -14850,7 +15090,7 @@
         <v>193</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="R215" s="1"/>
     </row>
@@ -14859,16 +15099,16 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>213</v>
@@ -14883,7 +15123,7 @@
         <v>193</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="R216" s="1"/>
     </row>
@@ -14892,16 +15132,16 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>213</v>
@@ -14916,7 +15156,7 @@
         <v>193</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="R217" s="1"/>
     </row>
@@ -14925,16 +15165,16 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J218" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J218" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>213</v>
@@ -14949,7 +15189,7 @@
         <v>193</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="R218" s="1"/>
     </row>
@@ -14958,16 +15198,16 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>213</v>
@@ -14982,7 +15222,7 @@
         <v>193</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="R219" s="1"/>
     </row>
@@ -14991,16 +15231,16 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="J220" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>213</v>
@@ -15015,7 +15255,7 @@
         <v>193</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="R220" s="1"/>
     </row>
@@ -15024,16 +15264,16 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>213</v>
@@ -15048,7 +15288,7 @@
         <v>193</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="R221" s="1"/>
     </row>
@@ -15057,16 +15297,16 @@
         <v>1</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>213</v>
@@ -15081,7 +15321,7 @@
         <v>183</v>
       </c>
       <c r="Q222" s="7" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="R222" s="1"/>
     </row>
@@ -15090,16 +15330,16 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>213</v>
@@ -15114,7 +15354,7 @@
         <v>183</v>
       </c>
       <c r="Q223" s="7" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="R223" s="1"/>
     </row>
@@ -15123,16 +15363,16 @@
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>213</v>
@@ -15147,7 +15387,7 @@
         <v>183</v>
       </c>
       <c r="Q224" s="7" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="R224" s="1"/>
     </row>
@@ -15156,16 +15396,16 @@
         <v>1</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>213</v>
@@ -15180,7 +15420,7 @@
         <v>183</v>
       </c>
       <c r="Q225" s="7" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="R225" s="1"/>
     </row>
@@ -15189,16 +15429,16 @@
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>213</v>
@@ -15213,7 +15453,7 @@
         <v>183</v>
       </c>
       <c r="Q226" s="6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="R226" s="1"/>
     </row>
@@ -15222,16 +15462,16 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>213</v>
@@ -15246,7 +15486,7 @@
         <v>183</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="R227" s="1"/>
     </row>
@@ -15255,16 +15495,16 @@
         <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>213</v>
@@ -15279,7 +15519,7 @@
         <v>193</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="R228" s="1"/>
     </row>
@@ -15288,16 +15528,16 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>1072</v>
-      </c>
       <c r="J229" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>213</v>
@@ -15312,7 +15552,7 @@
         <v>193</v>
       </c>
       <c r="Q229" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R229" s="1"/>
     </row>
@@ -15321,16 +15561,16 @@
         <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J230" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>213</v>
@@ -15345,7 +15585,7 @@
         <v>193</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R230" s="1"/>
     </row>
@@ -15354,16 +15594,16 @@
         <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J231" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>213</v>
@@ -15378,7 +15618,7 @@
         <v>193</v>
       </c>
       <c r="Q231" s="3" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="R231" s="1"/>
     </row>
@@ -15387,16 +15627,16 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>383</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>213</v>
@@ -15411,7 +15651,7 @@
         <v>193</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="R232" s="1"/>
     </row>
@@ -15420,16 +15660,16 @@
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>213</v>
@@ -15444,7 +15684,7 @@
         <v>193</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="R233" s="1"/>
     </row>
@@ -15453,16 +15693,16 @@
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>1174</v>
-      </c>
       <c r="J234" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>213</v>
@@ -15477,7 +15717,7 @@
         <v>183</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="R234" s="1"/>
     </row>
@@ -15486,16 +15726,16 @@
         <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E235" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="F235" s="2" t="s">
-        <v>1175</v>
-      </c>
       <c r="J235" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>213</v>
@@ -15510,7 +15750,7 @@
         <v>183</v>
       </c>
       <c r="Q235" s="3" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="R235" s="1"/>
     </row>
@@ -15519,16 +15759,16 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F236" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J236" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>213</v>
@@ -15543,7 +15783,7 @@
         <v>193</v>
       </c>
       <c r="Q236" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="R236" s="1"/>
     </row>
@@ -15552,16 +15792,16 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F237" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J237" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>213</v>
@@ -15576,7 +15816,7 @@
         <v>183</v>
       </c>
       <c r="Q237" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="R237" s="1"/>
     </row>
@@ -15585,16 +15825,16 @@
         <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J238" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>1181</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>213</v>
@@ -15609,7 +15849,7 @@
         <v>193</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="R238" s="1"/>
     </row>
@@ -15618,16 +15858,16 @@
         <v>1</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>213</v>
@@ -15642,7 +15882,7 @@
         <v>193</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="R239" s="1"/>
     </row>
@@ -15654,17 +15894,17 @@
         <v>347</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F240" s="6"/>
       <c r="J240" s="5">
         <v>2022</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="L240" s="6">
         <v>105725802</v>
@@ -15682,7 +15922,7 @@
         <v>193</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="R240" s="1"/>
     </row>
@@ -15691,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>260</v>
@@ -15700,10 +15940,10 @@
         <v>117</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="G241" s="1">
         <v>14</v>
@@ -15718,7 +15958,7 @@
         <v>2023</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="L241" s="1">
         <v>46227703</v>
@@ -15747,19 +15987,19 @@
         <v>1</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G242" s="1">
         <v>6</v>
@@ -15768,13 +16008,13 @@
         <v>3</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="J242" s="1">
         <v>2023</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>178</v>
@@ -15789,7 +16029,7 @@
         <v>183</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="R242" s="6">
         <v>85</v>
@@ -15800,19 +16040,19 @@
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="G243" s="1">
         <v>11</v>
@@ -15827,8 +16067,9 @@
         <v>2023</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1286</v>
-      </c>
+        <v>1543</v>
+      </c>
+      <c r="L243"/>
       <c r="M243" s="1" t="s">
         <v>178</v>
       </c>
@@ -15842,7 +16083,7 @@
         <v>193</v>
       </c>
       <c r="Q243" s="1" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="R243" s="6">
         <v>86</v>
@@ -15853,31 +16094,31 @@
         <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="G244" s="1">
         <v>17</v>
       </c>
       <c r="H244" s="21" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="J244" s="1">
         <v>2023</v>
       </c>
       <c r="K244" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="L244" s="1">
         <v>136474193</v>
@@ -15895,7 +16136,7 @@
         <v>193</v>
       </c>
       <c r="Q244" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="R244" s="6">
         <v>87</v>
@@ -15906,16 +16147,16 @@
         <v>1</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E245" s="16" t="s">
         <v>205</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>213</v>
@@ -15930,7 +16171,7 @@
         <v>193</v>
       </c>
       <c r="Q245" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="246" spans="1:18" ht="34">
@@ -15938,16 +16179,16 @@
         <v>1</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E246" s="16" t="s">
         <v>205</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>213</v>
@@ -15962,7 +16203,7 @@
         <v>183</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="34">
@@ -15970,16 +16211,16 @@
         <v>1</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>213</v>
@@ -15994,7 +16235,7 @@
         <v>183</v>
       </c>
       <c r="Q247" s="3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="51">
@@ -16002,16 +16243,16 @@
         <v>1</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>213</v>
@@ -16026,7 +16267,7 @@
         <v>193</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="51">
@@ -16034,16 +16275,16 @@
         <v>1</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>213</v>
@@ -16058,7 +16299,7 @@
         <v>183</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="250" spans="1:18" ht="34">
@@ -16066,16 +16307,16 @@
         <v>1</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>213</v>
@@ -16090,7 +16331,7 @@
         <v>183</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="34">
@@ -16098,16 +16339,16 @@
         <v>1</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>213</v>
@@ -16122,7 +16363,7 @@
         <v>193</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="34">
@@ -16130,16 +16371,16 @@
         <v>1</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>213</v>
@@ -16154,7 +16395,7 @@
         <v>193</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="34">
@@ -16162,16 +16403,16 @@
         <v>1</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>213</v>
@@ -16186,7 +16427,7 @@
         <v>193</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="51">
@@ -16194,16 +16435,16 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>213</v>
@@ -16218,7 +16459,7 @@
         <v>193</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="255" spans="1:18" ht="34">
@@ -16226,16 +16467,16 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>213</v>
@@ -16250,7 +16491,7 @@
         <v>183</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="256" spans="1:18" ht="34">
@@ -16258,34 +16499,34 @@
         <v>1</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="D256" s="22" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="G256" s="1">
         <v>47</v>
       </c>
       <c r="I256" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="J256" s="1">
         <v>2023</v>
       </c>
       <c r="K256" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="L256" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>178</v>
@@ -16300,7 +16541,7 @@
         <v>193</v>
       </c>
       <c r="Q256" s="23" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="R256" s="6">
         <v>88</v>
@@ -16311,16 +16552,16 @@
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="G257" s="1">
         <v>10</v>
@@ -16329,13 +16570,13 @@
         <v>1</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="J257" s="1">
         <v>2023</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>178</v>
@@ -16350,30 +16591,30 @@
         <v>193</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="R257" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="51">
+    <row r="258" spans="1:18" ht="68">
       <c r="A258" s="10">
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="G258" s="1">
         <v>2</v>
@@ -16382,16 +16623,16 @@
         <v>1</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="J258" s="1">
         <v>2023</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>1206</v>
+        <v>1544</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>178</v>
@@ -16406,7 +16647,7 @@
         <v>183</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="R258" s="6">
         <v>90</v>
@@ -16417,19 +16658,19 @@
         <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="G259" s="1">
         <v>172</v>
@@ -16438,16 +16679,16 @@
         <v>177</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="J259" s="1">
         <v>2024</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>178</v>
@@ -16462,27 +16703,30 @@
         <v>193</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="R259" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="34">
+    <row r="260" spans="1:18" ht="51">
       <c r="A260" s="10">
         <v>1</v>
       </c>
+      <c r="B260" s="1" t="s">
+        <v>1497</v>
+      </c>
       <c r="C260" s="6" t="s">
-        <v>870</v>
+        <v>1496</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G260" s="6" t="s">
         <v>177</v>
@@ -16491,13 +16735,13 @@
         <v>177</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="J260" s="6">
         <v>2024</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>857</v>
+        <v>1531</v>
       </c>
       <c r="L260" s="6">
         <v>57710195</v>
@@ -16515,7 +16759,7 @@
         <v>183</v>
       </c>
       <c r="Q260" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="R260" s="1">
         <v>92</v>
@@ -16526,7 +16770,7 @@
         <v>1</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>205</v>
@@ -16565,7 +16809,7 @@
         <v>563</v>
       </c>
       <c r="R261" s="6" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="262" spans="1:18" ht="34">
@@ -16573,16 +16817,16 @@
         <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C262" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F262" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="J262" s="1">
         <v>2016</v>
@@ -16606,7 +16850,7 @@
         <v>627</v>
       </c>
       <c r="R262" s="6" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="263" spans="1:18" ht="68">
@@ -16614,13 +16858,13 @@
         <v>1</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>75</v>
@@ -16638,7 +16882,7 @@
         <v>2024</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>1339</v>
+        <v>1528</v>
       </c>
       <c r="L263" s="6">
         <v>128883185</v>
@@ -16656,7 +16900,7 @@
         <v>193</v>
       </c>
       <c r="Q263" s="3" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="R263" s="6">
         <v>93</v>
@@ -16667,13 +16911,13 @@
         <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="J264" s="1">
         <v>2023</v>
@@ -16694,36 +16938,51 @@
         <v>193</v>
       </c>
       <c r="Q264" s="23" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" ht="17">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" ht="51">
       <c r="A265" s="10">
         <v>1</v>
       </c>
-      <c r="C265" t="s">
-        <v>1446</v>
+      <c r="B265" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>1439</v>
       </c>
       <c r="D265" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>1386</v>
       </c>
       <c r="J265" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K265" t="s">
-        <v>1447</v>
-      </c>
-      <c r="L265">
-        <v>132105671</v>
+        <v>1440</v>
+      </c>
+      <c r="L265" t="s">
+        <v>1542</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>178</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>207</v>
@@ -16732,7 +16991,10 @@
         <v>193</v>
       </c>
       <c r="Q265" s="23" t="s">
-        <v>1368</v>
+        <v>1362</v>
+      </c>
+      <c r="R265" s="6">
+        <v>98</v>
       </c>
     </row>
     <row r="266" spans="1:18" ht="34">
@@ -16740,17 +17002,19 @@
         <v>1</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>1380</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="K266"/>
+      <c r="L266"/>
       <c r="M266" s="1" t="s">
         <v>213</v>
       </c>
@@ -16764,24 +17028,24 @@
         <v>183</v>
       </c>
       <c r="Q266" s="23" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="34">
       <c r="A267" s="10">
         <v>1</v>
       </c>
-      <c r="C267" t="s">
-        <v>1384</v>
+      <c r="C267" s="26" t="s">
+        <v>1378</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>213</v>
@@ -16796,24 +17060,24 @@
         <v>193</v>
       </c>
       <c r="Q267" s="23" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" ht="34">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" ht="51">
       <c r="A268" s="10">
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>213</v>
@@ -16828,7 +17092,7 @@
         <v>193</v>
       </c>
       <c r="Q268" s="23" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="17">
@@ -16836,16 +17100,16 @@
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>213</v>
@@ -16860,7 +17124,7 @@
         <v>183</v>
       </c>
       <c r="Q269" s="23" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="34">
@@ -16868,16 +17132,16 @@
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>213</v>
@@ -16892,7 +17156,7 @@
         <v>193</v>
       </c>
       <c r="Q270" s="23" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="271" spans="1:18" ht="51">
@@ -16900,16 +17164,16 @@
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>213</v>
@@ -16924,7 +17188,7 @@
         <v>193</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="51">
@@ -16932,16 +17196,16 @@
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>213</v>
@@ -16956,7 +17220,7 @@
         <v>193</v>
       </c>
       <c r="Q272" s="1" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="273" spans="1:18" ht="51">
@@ -16964,16 +17228,16 @@
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>213</v>
@@ -16988,7 +17252,7 @@
         <v>193</v>
       </c>
       <c r="Q273" s="1" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="274" spans="1:18" ht="51">
@@ -16996,16 +17260,16 @@
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>213</v>
@@ -17020,7 +17284,7 @@
         <v>193</v>
       </c>
       <c r="Q274" s="23" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="275" spans="1:18" ht="51">
@@ -17028,16 +17292,16 @@
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>213</v>
@@ -17052,7 +17316,7 @@
         <v>183</v>
       </c>
       <c r="Q275" s="23" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="276" spans="1:18" ht="51">
@@ -17060,16 +17324,16 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>213</v>
@@ -17084,7 +17348,7 @@
         <v>193</v>
       </c>
       <c r="Q276" s="23" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="277" spans="1:18" ht="34">
@@ -17092,16 +17356,16 @@
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>213</v>
@@ -17116,7 +17380,7 @@
         <v>193</v>
       </c>
       <c r="Q277" s="1" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="278" spans="1:18" ht="51">
@@ -17124,16 +17388,16 @@
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="M278" s="1" t="s">
         <v>213</v>
@@ -17153,19 +17417,19 @@
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="J279" s="1">
         <v>2024</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>178</v>
@@ -17180,7 +17444,7 @@
         <v>193</v>
       </c>
       <c r="Q279" s="23" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="280" spans="1:18" ht="51">
@@ -17188,19 +17452,19 @@
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="J280" s="1">
         <v>2024</v>
       </c>
       <c r="K280" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="L280">
         <v>149569377</v>
@@ -17218,24 +17482,24 @@
         <v>193</v>
       </c>
       <c r="Q280" s="23" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="281" spans="1:18" ht="17">
       <c r="A281" s="10">
         <v>1</v>
       </c>
-      <c r="C281" t="s">
-        <v>1414</v>
+      <c r="C281" s="26" t="s">
+        <v>1407</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>213</v>
@@ -17250,7 +17514,7 @@
         <v>193</v>
       </c>
       <c r="Q281" s="23" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="282" spans="1:18" ht="17">
@@ -17258,16 +17522,16 @@
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>213</v>
@@ -17282,27 +17546,27 @@
         <v>183</v>
       </c>
       <c r="Q282" s="1" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="283" spans="1:18" ht="17">
       <c r="A283" s="10">
         <v>1</v>
       </c>
-      <c r="C283" t="s">
-        <v>1442</v>
+      <c r="C283" s="26" t="s">
+        <v>1435</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="J283" s="1">
         <v>2024</v>
       </c>
       <c r="K283" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="L283">
         <v>141328945</v>
@@ -17320,7 +17584,7 @@
         <v>193</v>
       </c>
       <c r="Q283" s="23" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="284" spans="1:18" ht="17">
@@ -17328,19 +17592,19 @@
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="J284" s="1">
         <v>2023</v>
       </c>
       <c r="K284" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="L284">
         <v>143293641</v>
@@ -17358,7 +17622,7 @@
         <v>193</v>
       </c>
       <c r="Q284" s="23" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="285" spans="1:18" ht="34">
@@ -17366,16 +17630,16 @@
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>177</v>
@@ -17390,7 +17654,7 @@
         <v>2024</v>
       </c>
       <c r="K285" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="L285">
         <v>151131314</v>
@@ -17408,7 +17672,7 @@
         <v>193</v>
       </c>
       <c r="Q285" s="23" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="R285" s="6">
         <v>94</v>
@@ -17419,19 +17683,19 @@
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="J286" s="1">
         <v>2023</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>178</v>
@@ -17446,7 +17710,7 @@
         <v>193</v>
       </c>
       <c r="Q286" s="1" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="287" spans="1:18" ht="51">
@@ -17454,13 +17718,13 @@
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>177</v>
@@ -17487,7 +17751,7 @@
         <v>193</v>
       </c>
       <c r="Q287" s="23" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="R287" s="6">
         <v>95</v>
@@ -17497,14 +17761,17 @@
       <c r="A288" s="10">
         <v>1</v>
       </c>
+      <c r="B288" s="1" t="s">
+        <v>1488</v>
+      </c>
       <c r="C288" s="1" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>177</v>
@@ -17518,6 +17785,9 @@
       <c r="J288" s="1">
         <v>2024</v>
       </c>
+      <c r="K288" s="1" t="s">
+        <v>1532</v>
+      </c>
       <c r="M288" s="1" t="s">
         <v>178</v>
       </c>
@@ -17531,33 +17801,30 @@
         <v>183</v>
       </c>
       <c r="Q288" s="23" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="R288" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="17">
+    <row r="289" spans="1:18" ht="51">
       <c r="A289" s="10">
         <v>1</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>1481</v>
-      </c>
       <c r="C289" s="1" t="s">
-        <v>1480</v>
+        <v>1439</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="J289" s="1">
         <v>2024</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N289" s="1" t="s">
         <v>197</v>
@@ -17569,122 +17836,855 @@
         <v>193</v>
       </c>
       <c r="Q289" s="1" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="290" spans="1:17" ht="51">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" ht="34">
       <c r="A290" s="10">
         <v>1</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>1446</v>
+      <c r="B290" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C290" s="26" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D290" s="25" t="s">
+        <v>1477</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1156</v>
+        <v>1479</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1482</v>
+        <v>965</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="J290" s="1">
         <v>2024</v>
       </c>
+      <c r="K290" t="s">
+        <v>1508</v>
+      </c>
+      <c r="L290" t="s">
+        <v>1509</v>
+      </c>
       <c r="M290" s="1" t="s">
-        <v>818</v>
+        <v>178</v>
       </c>
       <c r="N290" s="1" t="s">
         <v>197</v>
       </c>
       <c r="O290" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="P290" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q290" s="1" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="291" spans="1:17" ht="34">
+      <c r="Q290" s="23" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R290" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" ht="34">
       <c r="A291" s="10">
         <v>1</v>
       </c>
-      <c r="C291" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>1489</v>
+      <c r="C291" s="26" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E291" s="25" t="s">
+        <v>1485</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>968</v>
+        <v>1486</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="J291" s="1">
         <v>2024</v>
       </c>
+      <c r="K291" t="s">
+        <v>1515</v>
+      </c>
       <c r="L291">
-        <v>160698988</v>
+        <v>158745381</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>178</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O291" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P291" s="1" t="s">
         <v>193</v>
       </c>
       <c r="Q291" s="23" t="s">
+        <v>1484</v>
+      </c>
+      <c r="R291" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" ht="34">
+      <c r="A292" s="10">
+        <v>1</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" ht="17">
-      <c r="A292" s="10">
-        <v>1</v>
-      </c>
-      <c r="C292" t="s">
+      <c r="D292" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="D292" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E292" s="25" t="s">
-        <v>1495</v>
+      <c r="E292" s="1" t="s">
+        <v>1491</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1496</v>
+        <v>965</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="J292" s="1">
         <v>2024</v>
       </c>
-      <c r="K292" t="s">
-        <v>1497</v>
-      </c>
-      <c r="L292">
-        <v>158745381</v>
-      </c>
       <c r="M292" s="1" t="s">
         <v>178</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O292" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="P292" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q292" s="23" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="294" spans="1:17">
-      <c r="E294" s="26"/>
+      <c r="Q292" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R292" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" ht="34">
+      <c r="A293" s="10">
+        <v>1</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J293" s="1">
+        <v>2024</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P293" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q293" s="23" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" ht="51">
+      <c r="A294" s="10">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J294" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L294" s="1">
+        <v>168756903</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P294" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q294" s="23" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" ht="34">
+      <c r="A295" s="10">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G295" s="1">
+        <v>46</v>
+      </c>
+      <c r="J295" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P295" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q295" s="23" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" ht="34">
+      <c r="A296" s="10">
+        <v>1</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J296" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K296" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L296">
+        <v>165180913</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N296" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P296" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q296" s="23" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" ht="34">
+      <c r="A297" s="10">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J297" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K297" t="s">
+        <v>1526</v>
+      </c>
+      <c r="L297">
+        <v>170018939</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N297" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P297" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q297" s="23" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" ht="34">
+      <c r="A298" s="10">
+        <v>1</v>
+      </c>
+      <c r="C298" s="26" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J298" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K298" t="s">
+        <v>1537</v>
+      </c>
+      <c r="L298">
+        <v>170497247</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N298" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P298" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q298" s="22" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" ht="51">
+      <c r="A299" s="10">
+        <v>1</v>
+      </c>
+      <c r="C299" s="26" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J299" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K299" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L299">
+        <v>161287658</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P299" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q299" s="22" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" ht="34">
+      <c r="A300" s="10">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J300" s="1">
+        <v>2024</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P300" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q300" s="23" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" ht="17">
+      <c r="A301" s="10">
+        <v>1</v>
+      </c>
+      <c r="C301" s="26" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D301"/>
+      <c r="E301" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="J301" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P301" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q301" s="23" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" ht="34">
+      <c r="A302" s="10">
+        <v>1</v>
+      </c>
+      <c r="C302" s="26" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D302"/>
+      <c r="E302" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="J302" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O302" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P302" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q302" s="23" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" ht="34">
+      <c r="A303" s="10">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P303" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q303" s="23" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" ht="34">
+      <c r="A304" s="10">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P304" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q304" s="23" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" ht="34">
+      <c r="A305" s="10">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O305" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P305" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q305" s="23" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" ht="34">
+      <c r="A306" s="10">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O306" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P306" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q306" s="23" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" ht="34">
+      <c r="A307" s="10">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O307" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P307" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q307" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" ht="34">
+      <c r="A308" s="10">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O308" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P308" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q308" s="23" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" ht="17">
+      <c r="A309" s="10">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P309" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q309" s="23" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" ht="34">
+      <c r="A310" s="10">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P310" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q310" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" ht="34">
+      <c r="A311" s="10">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P311" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q311" s="23" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" ht="51">
+      <c r="A312" s="10">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N312" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P312" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>1577</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R239">
@@ -17817,109 +18817,126 @@
     <hyperlink ref="Q202" r:id="rId115" xr:uid="{B10ED486-0ADE-AE45-920D-FAC73C4AA860}"/>
     <hyperlink ref="Q206" r:id="rId116" xr:uid="{CB8136AE-839D-214E-81C9-21399BA363BB}"/>
     <hyperlink ref="Q203" r:id="rId117" xr:uid="{0ECD14C3-3FA9-DF47-AB14-A9EE26B98ADB}"/>
-    <hyperlink ref="Q65" r:id="rId118" xr:uid="{776EC25A-53BD-434D-B721-149E4E27B9B7}"/>
-    <hyperlink ref="Q44" r:id="rId119" xr:uid="{A81E9D40-AA44-9C46-A29E-557E6E169917}"/>
-    <hyperlink ref="Q201" r:id="rId120" xr:uid="{E35C24D6-FEF3-DD47-B648-38ABE30A2C7C}"/>
-    <hyperlink ref="Q200" r:id="rId121" xr:uid="{E710289F-EDC4-7E4F-9815-FA960D1815A2}"/>
-    <hyperlink ref="Q55" r:id="rId122" xr:uid="{3A0EA199-9046-C047-AA3E-49D8071BF47C}"/>
-    <hyperlink ref="Q205" r:id="rId123" xr:uid="{1D628C24-2304-F143-9C88-BCEA198497C3}"/>
-    <hyperlink ref="Q54" r:id="rId124" xr:uid="{DEC95570-3575-1F45-AAD2-56BA0FD294B5}"/>
-    <hyperlink ref="Q68" r:id="rId125" xr:uid="{746FAB7B-FED8-F245-9FAB-1F5B1CCBAF43}"/>
-    <hyperlink ref="Q260" r:id="rId126" xr:uid="{8134279C-1DCF-3D42-B28B-2D24B5A0103E}"/>
-    <hyperlink ref="Q66" r:id="rId127" xr:uid="{22E6B370-27F9-0E49-8CA5-6758D6E54579}"/>
-    <hyperlink ref="Q77" r:id="rId128" xr:uid="{1C446669-E5AB-8D4D-9123-31185050C640}"/>
-    <hyperlink ref="Q22" r:id="rId129" xr:uid="{44A33D6F-43C4-0943-BCB1-AF9DE4C147F6}"/>
-    <hyperlink ref="Q53" r:id="rId130" xr:uid="{E02BB8E3-0BAF-C248-8EB0-3267BA432805}"/>
-    <hyperlink ref="Q60" r:id="rId131" xr:uid="{BEFDCC98-9BB2-3D49-BA3F-3405DCD9093D}"/>
-    <hyperlink ref="Q59" r:id="rId132" xr:uid="{693C6CA7-F3B0-8046-A1AC-2290A31A325D}"/>
-    <hyperlink ref="Q209" r:id="rId133" xr:uid="{6E05A9E4-528C-5340-8605-BE0FDAF71DEA}"/>
-    <hyperlink ref="Q69" r:id="rId134" xr:uid="{0F1FAD95-0848-E049-9406-AFFA1592BDF6}"/>
-    <hyperlink ref="Q214" r:id="rId135" xr:uid="{3F83EA70-AEE6-8846-8419-3AD79B91EB73}"/>
-    <hyperlink ref="Q70" r:id="rId136" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
-    <hyperlink ref="Q71" r:id="rId137" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
-    <hyperlink ref="Q262" r:id="rId138" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
-    <hyperlink ref="Q208" r:id="rId139" xr:uid="{3A350AA0-18E0-7A44-A617-2A23437C2D25}"/>
-    <hyperlink ref="Q211" r:id="rId140" xr:uid="{2CD84B76-BD07-7447-AC85-335724F45069}"/>
-    <hyperlink ref="Q212" r:id="rId141" xr:uid="{0D96B428-C157-194F-BBBB-55BACE11480C}"/>
-    <hyperlink ref="Q72" r:id="rId142" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
-    <hyperlink ref="Q73" r:id="rId143" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
-    <hyperlink ref="Q101" r:id="rId144" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
-    <hyperlink ref="Q210" r:id="rId145" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
-    <hyperlink ref="Q193" r:id="rId146" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
-    <hyperlink ref="Q87" r:id="rId147" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
-    <hyperlink ref="Q79" r:id="rId148" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
-    <hyperlink ref="Q89" r:id="rId149" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
-    <hyperlink ref="Q63" r:id="rId150" xr:uid="{3EC4565A-606A-904D-A00D-7C065BC8A9CB}"/>
-    <hyperlink ref="Q222" r:id="rId151" xr:uid="{11D1FB42-933A-D642-A0A9-1D751F8B8F73}"/>
-    <hyperlink ref="Q223" r:id="rId152" xr:uid="{3AB784A4-BDB2-CF40-96CB-4EE5B7EB8ED2}"/>
-    <hyperlink ref="Q224" r:id="rId153" xr:uid="{2352F29F-A1AD-2E44-B32C-934B4E87D28F}"/>
-    <hyperlink ref="Q225" r:id="rId154" xr:uid="{8C880241-2719-8844-9AC7-9FD10D4835EE}"/>
-    <hyperlink ref="Q81" r:id="rId155" xr:uid="{9F1FE709-13B2-7542-B65F-1B593D0872D1}"/>
-    <hyperlink ref="Q215" r:id="rId156" xr:uid="{6917739B-949C-844A-A1B9-3BC57F6EA0CB}"/>
-    <hyperlink ref="Q220" r:id="rId157" xr:uid="{22CD3B85-A12B-7940-A9D0-31167434C1F2}"/>
-    <hyperlink ref="Q88" r:id="rId158" xr:uid="{CF1362CC-10D9-464B-A4C2-4733A7A05746}"/>
-    <hyperlink ref="Q85" r:id="rId159" xr:uid="{60624615-A498-7B44-85E2-9675C84BE16F}"/>
-    <hyperlink ref="Q82" r:id="rId160" xr:uid="{BCE50138-0053-F442-92E8-958FA01416A1}"/>
-    <hyperlink ref="Q90" r:id="rId161" xr:uid="{3DEF2CF1-6AB5-6649-B66A-F141D76CC38F}"/>
-    <hyperlink ref="Q233" r:id="rId162" xr:uid="{13351AD9-151F-F84E-80D0-1B03FA8267C1}"/>
-    <hyperlink ref="Q221" r:id="rId163" xr:uid="{20569A93-EB7A-4E47-A53B-8E5EDA719F82}"/>
-    <hyperlink ref="Q231" r:id="rId164" xr:uid="{3E3EF4F9-D701-8E47-AE8A-BA3B863E5DF3}"/>
-    <hyperlink ref="Q232" r:id="rId165" xr:uid="{BEA56AA6-8479-E94D-8983-04DCE4E5AA34}"/>
-    <hyperlink ref="Q228" r:id="rId166" xr:uid="{783A9DC5-1FEC-C444-AAF2-74C363219B65}"/>
-    <hyperlink ref="Q227" r:id="rId167" xr:uid="{CA92112E-4670-BC4A-999B-11DD75ED1882}"/>
-    <hyperlink ref="Q237" r:id="rId168" xr:uid="{C54D99E9-A0FB-5D41-BC49-1CBF472690EE}"/>
-    <hyperlink ref="Q236" r:id="rId169" xr:uid="{26A12168-5A7B-7143-8285-FFDE7130F545}"/>
-    <hyperlink ref="Q234" r:id="rId170" xr:uid="{98183D84-684A-5644-91AE-6881A42B6798}"/>
-    <hyperlink ref="Q235" r:id="rId171" xr:uid="{FB65EF3E-1604-BA49-A777-BC22F86BA023}"/>
-    <hyperlink ref="B87" r:id="rId172" display="https://doi.org/10.20935/AL1274" xr:uid="{240C9844-798D-0B49-A453-CDA085161615}"/>
-    <hyperlink ref="Q240" r:id="rId173" xr:uid="{1DFC1F7F-1957-B34C-A2D6-3630D0AF81F1}"/>
-    <hyperlink ref="Q64" r:id="rId174" xr:uid="{07F1B89C-B381-984C-857C-4706FD61A432}"/>
-    <hyperlink ref="Q103" r:id="rId175" xr:uid="{964D6BFA-35DA-834C-90ED-329D4CC344C2}"/>
-    <hyperlink ref="Q97" r:id="rId176" xr:uid="{FB0A5519-B7ED-FA4B-8017-6F734806C61F}"/>
-    <hyperlink ref="Q99" r:id="rId177" xr:uid="{031D270D-AE15-8F48-9950-82177BE16E1E}"/>
-    <hyperlink ref="Q102" r:id="rId178" xr:uid="{B58C16B8-0C67-EC46-8FA2-669CBD477884}"/>
-    <hyperlink ref="Q245" r:id="rId179" xr:uid="{90345C85-218A-7945-97FC-0E6F4241CCC9}"/>
-    <hyperlink ref="Q246" r:id="rId180" xr:uid="{05A6C6B1-235B-5E4B-AE38-D43B4CCBE8D6}"/>
-    <hyperlink ref="Q247" r:id="rId181" xr:uid="{C32CB911-DC2F-1947-AB0C-5BAE829340DC}"/>
-    <hyperlink ref="Q254" r:id="rId182" xr:uid="{F26A7C8B-169A-6B48-8485-05BA0B48F7EB}"/>
-    <hyperlink ref="Q255" r:id="rId183" xr:uid="{E9ADE19D-E739-0140-80BE-AE3FB6DEA0AF}"/>
-    <hyperlink ref="Q238" r:id="rId184" xr:uid="{FF7A446A-0CE4-274E-848F-8AB117F62274}"/>
-    <hyperlink ref="Q239" r:id="rId185" xr:uid="{6A9C7243-5925-EF4E-96A6-88443C19A6D0}"/>
-    <hyperlink ref="Q253" r:id="rId186" xr:uid="{AE094212-5C8B-E04A-BA5F-2FD3ED72206B}"/>
-    <hyperlink ref="Q251" r:id="rId187" xr:uid="{10CE384F-86C7-E849-9F3A-C729E115B809}"/>
-    <hyperlink ref="Q252" r:id="rId188" xr:uid="{72E6E786-291C-874D-AA75-878577703733}"/>
-    <hyperlink ref="Q250" r:id="rId189" xr:uid="{CCB5C3CC-A0A8-DF4C-8FA7-A989BFCA7E7D}"/>
-    <hyperlink ref="Q249" r:id="rId190" xr:uid="{23185960-6CE5-8741-B85B-A11162ED99D9}"/>
-    <hyperlink ref="Q104" r:id="rId191" xr:uid="{89DF0D51-3963-0242-9050-B48506698F57}"/>
-    <hyperlink ref="Q258" r:id="rId192" xr:uid="{BE84FD2D-9113-F34C-9AA1-EF7278924714}"/>
-    <hyperlink ref="Q259" r:id="rId193" xr:uid="{8D80FEC9-D23B-D647-BD8F-8AA2B650036E}"/>
-    <hyperlink ref="Q263" r:id="rId194" xr:uid="{3645B597-7AF1-D84F-9533-CC19936A7322}"/>
-    <hyperlink ref="Q242" r:id="rId195" xr:uid="{837A1BD1-5734-DE43-B966-F7FAF870AB6D}"/>
-    <hyperlink ref="D242" r:id="rId196" display="https://doi.org/10.31234/osf.io/q8t2k" xr:uid="{D67E3E00-D918-E745-8635-C556F8211B76}"/>
-    <hyperlink ref="D256" r:id="rId197" display="https://doi.org/10.31222/osf.io/3ks6r" xr:uid="{20D7D5CD-59ED-774A-9CE4-739D50B0DCA3}"/>
-    <hyperlink ref="Q256" r:id="rId198" xr:uid="{6EF1DA69-983A-B346-BA2E-B2E60A168589}"/>
-    <hyperlink ref="Q264" r:id="rId199" xr:uid="{1A1589C3-D687-0B4F-899E-C377621488C3}"/>
-    <hyperlink ref="Q265" r:id="rId200" xr:uid="{05AF7943-2189-AE45-858E-F276187DF5EC}"/>
-    <hyperlink ref="Q270" r:id="rId201" xr:uid="{576AD991-4FCA-6C4D-B792-7C32AB356368}"/>
-    <hyperlink ref="Q269" r:id="rId202" xr:uid="{10FCB8BE-6F52-5C49-A343-AABFD28211B6}"/>
-    <hyperlink ref="Q266" r:id="rId203" xr:uid="{4FD0D5CB-D6E5-1042-8B4C-16C6FBC9BE70}"/>
-    <hyperlink ref="Q267" r:id="rId204" xr:uid="{47B08537-FF2B-8E49-846D-BCEC9243AC9D}"/>
-    <hyperlink ref="Q268" r:id="rId205" xr:uid="{34F7BBC8-0DF1-7047-AACF-3380A39D4EC9}"/>
-    <hyperlink ref="B256" r:id="rId206" display="https://doi.org/10.1017/S0140525X23002248" xr:uid="{23676D06-F14C-FA4E-BFC1-63D57F8A2B35}"/>
-    <hyperlink ref="Q279" r:id="rId207" xr:uid="{6ABBFFEE-F302-2C4E-B5C9-3C8A7C154B4C}"/>
-    <hyperlink ref="D279" r:id="rId208" display="https://doi.org/10.31234/osf.io/jktnv" xr:uid="{8DA78F8C-4CEC-B640-8FF8-03E6B766FADC}"/>
-    <hyperlink ref="Q280" r:id="rId209" xr:uid="{A6DC2824-F959-2E4B-B012-9A86C48B7E0C}"/>
-    <hyperlink ref="Q281" r:id="rId210" xr:uid="{A4182ADC-D083-704C-86A1-B58740988DC0}"/>
-    <hyperlink ref="Q274" r:id="rId211" xr:uid="{5F1FC58D-58B9-6845-A102-DAA60E30C94B}"/>
-    <hyperlink ref="Q275" r:id="rId212" location="/title-slide" xr:uid="{8E8494BA-FCA5-6D49-94DE-064D8ED1D6C7}"/>
-    <hyperlink ref="Q276" r:id="rId213" xr:uid="{98130F43-E49B-D14A-91A9-07C636B6B170}"/>
-    <hyperlink ref="Q283" r:id="rId214" xr:uid="{4EF4C9CE-2181-4B46-9E81-532FD6FD610D}"/>
-    <hyperlink ref="Q284" r:id="rId215" xr:uid="{FD040756-782A-634E-ABFB-168EA270AE84}"/>
-    <hyperlink ref="Q285" r:id="rId216" xr:uid="{6C0F3CEC-08F0-3541-B58D-9EEC45120E71}"/>
-    <hyperlink ref="Q287" r:id="rId217" xr:uid="{361CFB9B-864D-7148-B9F0-4F9F35CBC598}"/>
-    <hyperlink ref="Q288" r:id="rId218" xr:uid="{D7BADE60-7389-654A-9EE9-42A8CCE62F45}"/>
-    <hyperlink ref="Q291" r:id="rId219" xr:uid="{6F9388B3-1CA2-2C46-A183-102D4EC3FBE7}"/>
-    <hyperlink ref="Q292" r:id="rId220" xr:uid="{51A12838-70F9-874D-BF3D-EC504C3B5B07}"/>
+    <hyperlink ref="Q44" r:id="rId118" xr:uid="{A81E9D40-AA44-9C46-A29E-557E6E169917}"/>
+    <hyperlink ref="Q201" r:id="rId119" xr:uid="{E35C24D6-FEF3-DD47-B648-38ABE30A2C7C}"/>
+    <hyperlink ref="Q200" r:id="rId120" xr:uid="{E710289F-EDC4-7E4F-9815-FA960D1815A2}"/>
+    <hyperlink ref="Q55" r:id="rId121" xr:uid="{3A0EA199-9046-C047-AA3E-49D8071BF47C}"/>
+    <hyperlink ref="Q205" r:id="rId122" xr:uid="{1D628C24-2304-F143-9C88-BCEA198497C3}"/>
+    <hyperlink ref="Q54" r:id="rId123" xr:uid="{DEC95570-3575-1F45-AAD2-56BA0FD294B5}"/>
+    <hyperlink ref="Q68" r:id="rId124" xr:uid="{746FAB7B-FED8-F245-9FAB-1F5B1CCBAF43}"/>
+    <hyperlink ref="Q260" r:id="rId125" xr:uid="{8134279C-1DCF-3D42-B28B-2D24B5A0103E}"/>
+    <hyperlink ref="Q77" r:id="rId126" xr:uid="{1C446669-E5AB-8D4D-9123-31185050C640}"/>
+    <hyperlink ref="Q22" r:id="rId127" xr:uid="{44A33D6F-43C4-0943-BCB1-AF9DE4C147F6}"/>
+    <hyperlink ref="Q53" r:id="rId128" xr:uid="{E02BB8E3-0BAF-C248-8EB0-3267BA432805}"/>
+    <hyperlink ref="Q60" r:id="rId129" xr:uid="{BEFDCC98-9BB2-3D49-BA3F-3405DCD9093D}"/>
+    <hyperlink ref="Q59" r:id="rId130" xr:uid="{693C6CA7-F3B0-8046-A1AC-2290A31A325D}"/>
+    <hyperlink ref="Q209" r:id="rId131" xr:uid="{6E05A9E4-528C-5340-8605-BE0FDAF71DEA}"/>
+    <hyperlink ref="Q69" r:id="rId132" xr:uid="{0F1FAD95-0848-E049-9406-AFFA1592BDF6}"/>
+    <hyperlink ref="Q214" r:id="rId133" xr:uid="{3F83EA70-AEE6-8846-8419-3AD79B91EB73}"/>
+    <hyperlink ref="Q70" r:id="rId134" xr:uid="{507E6A3E-3B2F-AF47-ACC6-43771B66EC1D}"/>
+    <hyperlink ref="Q71" r:id="rId135" xr:uid="{F364D77A-F209-8646-B101-E1A004033D75}"/>
+    <hyperlink ref="Q262" r:id="rId136" xr:uid="{E488BDF2-FD76-C345-8345-C514E887B30D}"/>
+    <hyperlink ref="Q208" r:id="rId137" xr:uid="{3A350AA0-18E0-7A44-A617-2A23437C2D25}"/>
+    <hyperlink ref="Q211" r:id="rId138" xr:uid="{2CD84B76-BD07-7447-AC85-335724F45069}"/>
+    <hyperlink ref="Q212" r:id="rId139" xr:uid="{0D96B428-C157-194F-BBBB-55BACE11480C}"/>
+    <hyperlink ref="Q72" r:id="rId140" xr:uid="{68D7FE1B-2DB0-F244-9889-DBC0EF941E62}"/>
+    <hyperlink ref="Q73" r:id="rId141" xr:uid="{403EE16A-EAA6-E740-9294-3EE13C6F53DA}"/>
+    <hyperlink ref="Q101" r:id="rId142" xr:uid="{D699E543-EEDE-A143-BA28-8379A14B5C1E}"/>
+    <hyperlink ref="Q210" r:id="rId143" xr:uid="{3D5A2B0F-23B9-7B48-B38D-6F0A511BA329}"/>
+    <hyperlink ref="Q193" r:id="rId144" xr:uid="{ACAEC6C9-216A-534A-96A5-B91A6CBD58DD}"/>
+    <hyperlink ref="Q87" r:id="rId145" xr:uid="{3B49484B-4276-6241-AE6C-4768F1F60290}"/>
+    <hyperlink ref="Q79" r:id="rId146" xr:uid="{F9C03CE1-22DD-D449-B736-FFD2222FD11B}"/>
+    <hyperlink ref="Q89" r:id="rId147" xr:uid="{4312CDE6-A9CD-CB4F-954E-07A6504249E3}"/>
+    <hyperlink ref="Q63" r:id="rId148" xr:uid="{3EC4565A-606A-904D-A00D-7C065BC8A9CB}"/>
+    <hyperlink ref="Q222" r:id="rId149" xr:uid="{11D1FB42-933A-D642-A0A9-1D751F8B8F73}"/>
+    <hyperlink ref="Q223" r:id="rId150" xr:uid="{3AB784A4-BDB2-CF40-96CB-4EE5B7EB8ED2}"/>
+    <hyperlink ref="Q224" r:id="rId151" xr:uid="{2352F29F-A1AD-2E44-B32C-934B4E87D28F}"/>
+    <hyperlink ref="Q225" r:id="rId152" xr:uid="{8C880241-2719-8844-9AC7-9FD10D4835EE}"/>
+    <hyperlink ref="Q81" r:id="rId153" xr:uid="{9F1FE709-13B2-7542-B65F-1B593D0872D1}"/>
+    <hyperlink ref="Q215" r:id="rId154" xr:uid="{6917739B-949C-844A-A1B9-3BC57F6EA0CB}"/>
+    <hyperlink ref="Q220" r:id="rId155" xr:uid="{22CD3B85-A12B-7940-A9D0-31167434C1F2}"/>
+    <hyperlink ref="Q88" r:id="rId156" xr:uid="{CF1362CC-10D9-464B-A4C2-4733A7A05746}"/>
+    <hyperlink ref="Q85" r:id="rId157" xr:uid="{60624615-A498-7B44-85E2-9675C84BE16F}"/>
+    <hyperlink ref="Q82" r:id="rId158" xr:uid="{BCE50138-0053-F442-92E8-958FA01416A1}"/>
+    <hyperlink ref="Q90" r:id="rId159" xr:uid="{3DEF2CF1-6AB5-6649-B66A-F141D76CC38F}"/>
+    <hyperlink ref="Q233" r:id="rId160" xr:uid="{13351AD9-151F-F84E-80D0-1B03FA8267C1}"/>
+    <hyperlink ref="Q221" r:id="rId161" xr:uid="{20569A93-EB7A-4E47-A53B-8E5EDA719F82}"/>
+    <hyperlink ref="Q231" r:id="rId162" xr:uid="{3E3EF4F9-D701-8E47-AE8A-BA3B863E5DF3}"/>
+    <hyperlink ref="Q232" r:id="rId163" xr:uid="{BEA56AA6-8479-E94D-8983-04DCE4E5AA34}"/>
+    <hyperlink ref="Q228" r:id="rId164" xr:uid="{783A9DC5-1FEC-C444-AAF2-74C363219B65}"/>
+    <hyperlink ref="Q227" r:id="rId165" xr:uid="{CA92112E-4670-BC4A-999B-11DD75ED1882}"/>
+    <hyperlink ref="Q237" r:id="rId166" xr:uid="{C54D99E9-A0FB-5D41-BC49-1CBF472690EE}"/>
+    <hyperlink ref="Q236" r:id="rId167" xr:uid="{26A12168-5A7B-7143-8285-FFDE7130F545}"/>
+    <hyperlink ref="Q234" r:id="rId168" xr:uid="{98183D84-684A-5644-91AE-6881A42B6798}"/>
+    <hyperlink ref="Q235" r:id="rId169" xr:uid="{FB65EF3E-1604-BA49-A777-BC22F86BA023}"/>
+    <hyperlink ref="B87" r:id="rId170" display="https://doi.org/10.20935/AL1274" xr:uid="{240C9844-798D-0B49-A453-CDA085161615}"/>
+    <hyperlink ref="Q240" r:id="rId171" xr:uid="{1DFC1F7F-1957-B34C-A2D6-3630D0AF81F1}"/>
+    <hyperlink ref="Q64" r:id="rId172" xr:uid="{07F1B89C-B381-984C-857C-4706FD61A432}"/>
+    <hyperlink ref="Q103" r:id="rId173" xr:uid="{964D6BFA-35DA-834C-90ED-329D4CC344C2}"/>
+    <hyperlink ref="Q97" r:id="rId174" xr:uid="{FB0A5519-B7ED-FA4B-8017-6F734806C61F}"/>
+    <hyperlink ref="Q99" r:id="rId175" xr:uid="{031D270D-AE15-8F48-9950-82177BE16E1E}"/>
+    <hyperlink ref="Q102" r:id="rId176" xr:uid="{B58C16B8-0C67-EC46-8FA2-669CBD477884}"/>
+    <hyperlink ref="Q245" r:id="rId177" xr:uid="{90345C85-218A-7945-97FC-0E6F4241CCC9}"/>
+    <hyperlink ref="Q246" r:id="rId178" xr:uid="{05A6C6B1-235B-5E4B-AE38-D43B4CCBE8D6}"/>
+    <hyperlink ref="Q247" r:id="rId179" xr:uid="{C32CB911-DC2F-1947-AB0C-5BAE829340DC}"/>
+    <hyperlink ref="Q254" r:id="rId180" xr:uid="{F26A7C8B-169A-6B48-8485-05BA0B48F7EB}"/>
+    <hyperlink ref="Q255" r:id="rId181" xr:uid="{E9ADE19D-E739-0140-80BE-AE3FB6DEA0AF}"/>
+    <hyperlink ref="Q238" r:id="rId182" xr:uid="{FF7A446A-0CE4-274E-848F-8AB117F62274}"/>
+    <hyperlink ref="Q239" r:id="rId183" xr:uid="{6A9C7243-5925-EF4E-96A6-88443C19A6D0}"/>
+    <hyperlink ref="Q253" r:id="rId184" xr:uid="{AE094212-5C8B-E04A-BA5F-2FD3ED72206B}"/>
+    <hyperlink ref="Q251" r:id="rId185" xr:uid="{10CE384F-86C7-E849-9F3A-C729E115B809}"/>
+    <hyperlink ref="Q252" r:id="rId186" xr:uid="{72E6E786-291C-874D-AA75-878577703733}"/>
+    <hyperlink ref="Q250" r:id="rId187" xr:uid="{CCB5C3CC-A0A8-DF4C-8FA7-A989BFCA7E7D}"/>
+    <hyperlink ref="Q249" r:id="rId188" xr:uid="{23185960-6CE5-8741-B85B-A11162ED99D9}"/>
+    <hyperlink ref="Q104" r:id="rId189" xr:uid="{89DF0D51-3963-0242-9050-B48506698F57}"/>
+    <hyperlink ref="Q258" r:id="rId190" xr:uid="{BE84FD2D-9113-F34C-9AA1-EF7278924714}"/>
+    <hyperlink ref="Q259" r:id="rId191" xr:uid="{8D80FEC9-D23B-D647-BD8F-8AA2B650036E}"/>
+    <hyperlink ref="Q263" r:id="rId192" xr:uid="{3645B597-7AF1-D84F-9533-CC19936A7322}"/>
+    <hyperlink ref="Q242" r:id="rId193" xr:uid="{837A1BD1-5734-DE43-B966-F7FAF870AB6D}"/>
+    <hyperlink ref="D242" r:id="rId194" display="https://doi.org/10.31234/osf.io/q8t2k" xr:uid="{D67E3E00-D918-E745-8635-C556F8211B76}"/>
+    <hyperlink ref="D256" r:id="rId195" display="https://doi.org/10.31222/osf.io/3ks6r" xr:uid="{20D7D5CD-59ED-774A-9CE4-739D50B0DCA3}"/>
+    <hyperlink ref="Q256" r:id="rId196" xr:uid="{6EF1DA69-983A-B346-BA2E-B2E60A168589}"/>
+    <hyperlink ref="Q264" r:id="rId197" xr:uid="{1A1589C3-D687-0B4F-899E-C377621488C3}"/>
+    <hyperlink ref="Q265" r:id="rId198" xr:uid="{05AF7943-2189-AE45-858E-F276187DF5EC}"/>
+    <hyperlink ref="Q270" r:id="rId199" xr:uid="{576AD991-4FCA-6C4D-B792-7C32AB356368}"/>
+    <hyperlink ref="Q269" r:id="rId200" xr:uid="{10FCB8BE-6F52-5C49-A343-AABFD28211B6}"/>
+    <hyperlink ref="Q266" r:id="rId201" xr:uid="{4FD0D5CB-D6E5-1042-8B4C-16C6FBC9BE70}"/>
+    <hyperlink ref="Q267" r:id="rId202" xr:uid="{47B08537-FF2B-8E49-846D-BCEC9243AC9D}"/>
+    <hyperlink ref="Q268" r:id="rId203" xr:uid="{34F7BBC8-0DF1-7047-AACF-3380A39D4EC9}"/>
+    <hyperlink ref="B256" r:id="rId204" display="https://doi.org/10.1017/S0140525X23002248" xr:uid="{23676D06-F14C-FA4E-BFC1-63D57F8A2B35}"/>
+    <hyperlink ref="Q279" r:id="rId205" xr:uid="{6ABBFFEE-F302-2C4E-B5C9-3C8A7C154B4C}"/>
+    <hyperlink ref="D279" r:id="rId206" display="https://doi.org/10.31234/osf.io/jktnv" xr:uid="{8DA78F8C-4CEC-B640-8FF8-03E6B766FADC}"/>
+    <hyperlink ref="Q280" r:id="rId207" xr:uid="{A6DC2824-F959-2E4B-B012-9A86C48B7E0C}"/>
+    <hyperlink ref="Q281" r:id="rId208" xr:uid="{A4182ADC-D083-704C-86A1-B58740988DC0}"/>
+    <hyperlink ref="Q274" r:id="rId209" xr:uid="{5F1FC58D-58B9-6845-A102-DAA60E30C94B}"/>
+    <hyperlink ref="Q275" r:id="rId210" location="/title-slide" xr:uid="{8E8494BA-FCA5-6D49-94DE-064D8ED1D6C7}"/>
+    <hyperlink ref="Q276" r:id="rId211" xr:uid="{98130F43-E49B-D14A-91A9-07C636B6B170}"/>
+    <hyperlink ref="Q283" r:id="rId212" xr:uid="{4EF4C9CE-2181-4B46-9E81-532FD6FD610D}"/>
+    <hyperlink ref="Q284" r:id="rId213" xr:uid="{FD040756-782A-634E-ABFB-168EA270AE84}"/>
+    <hyperlink ref="Q285" r:id="rId214" xr:uid="{6C0F3CEC-08F0-3541-B58D-9EEC45120E71}"/>
+    <hyperlink ref="Q287" r:id="rId215" xr:uid="{361CFB9B-864D-7148-B9F0-4F9F35CBC598}"/>
+    <hyperlink ref="Q288" r:id="rId216" xr:uid="{D7BADE60-7389-654A-9EE9-42A8CCE62F45}"/>
+    <hyperlink ref="Q290" r:id="rId217" xr:uid="{6F9388B3-1CA2-2C46-A183-102D4EC3FBE7}"/>
+    <hyperlink ref="Q291" r:id="rId218" xr:uid="{51A12838-70F9-874D-BF3D-EC504C3B5B07}"/>
+    <hyperlink ref="Q66" r:id="rId219" xr:uid="{22E6B370-27F9-0E49-8CA5-6758D6E54579}"/>
+    <hyperlink ref="Q65" r:id="rId220" xr:uid="{776EC25A-53BD-434D-B721-149E4E27B9B7}"/>
+    <hyperlink ref="Q293" r:id="rId221" xr:uid="{9FB53166-8C40-EE4C-9077-9498AA9EA809}"/>
+    <hyperlink ref="Q294" r:id="rId222" xr:uid="{77D2D479-D10A-FC46-AF1B-6211F24EB5A4}"/>
+    <hyperlink ref="Q295" r:id="rId223" xr:uid="{8F5F9FF4-A6D7-394B-901B-E14EE95D44ED}"/>
+    <hyperlink ref="Q296" r:id="rId224" xr:uid="{40B5CC7C-00A3-9B45-B76E-F8BA5C0A9E95}"/>
+    <hyperlink ref="Q297" r:id="rId225" xr:uid="{B27FE699-788B-394B-A1E7-89AB00C75762}"/>
+    <hyperlink ref="Q298" r:id="rId226" xr:uid="{D0EE4321-1F9F-6943-8F64-DFB02A82F402}"/>
+    <hyperlink ref="Q299" r:id="rId227" xr:uid="{943BE400-3E38-274D-9B6D-B1D73AC25AEE}"/>
+    <hyperlink ref="Q300" r:id="rId228" xr:uid="{736C4593-4921-3D4B-BA11-F5845BA6C111}"/>
+    <hyperlink ref="Q301" r:id="rId229" xr:uid="{757D43C4-E91C-354C-9B7C-D1B360DD6108}"/>
+    <hyperlink ref="Q302" r:id="rId230" xr:uid="{6C28565E-CB11-7348-9789-F7A0B9ED1B8D}"/>
+    <hyperlink ref="Q303" r:id="rId231" xr:uid="{2F54553B-BDBC-CB4A-9858-1F451DD909EF}"/>
+    <hyperlink ref="Q304" r:id="rId232" xr:uid="{3CFA5602-C3F1-7845-BA8F-950D78DB4368}"/>
+    <hyperlink ref="Q305" r:id="rId233" xr:uid="{D35177D1-5ABE-BB4B-9DAD-9FE4C0EEDE34}"/>
+    <hyperlink ref="Q306" r:id="rId234" xr:uid="{D24BD1E7-0B9A-5444-B703-1B8CCB93189F}"/>
+    <hyperlink ref="Q308" r:id="rId235" xr:uid="{987DFD3F-203C-1A43-A751-436FEA8B0B19}"/>
+    <hyperlink ref="Q309" r:id="rId236" xr:uid="{52F28A00-5EB9-244D-B0DB-B311C510D8DE}"/>
+    <hyperlink ref="Q311" r:id="rId237" xr:uid="{00D99BEA-4174-FA46-9D22-320F5C9047F1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/cv/cv_pubs.xlsx
+++ b/cv/cv_pubs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/7_websites/cv_markdown_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A6538-6BB5-6B45-9597-524B2692EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084F046-5C00-594C-9BF4-6E54F08EED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="940" windowWidth="29940" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_pubs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cv_pubs!$A$1:$R$316</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="1642">
   <si>
     <t>title</t>
   </si>
@@ -2624,9 +2624,6 @@
     <t>46227691, 57294610</t>
   </si>
   <si>
-    <t>A multi-site examination of stereotype threat in Black college students across varying operationalizations</t>
-  </si>
-  <si>
     <t>https://osf.io/6hju9</t>
   </si>
   <si>
@@ -3104,9 +3101,6 @@
     <t>RMgMIBzvq-4C, WWeOtg8bX_EC, vVJNg6_NJEsC</t>
   </si>
   <si>
-    <t>60iIaj97TE0C</t>
-  </si>
-  <si>
     <t>Moderators of the Relationship between Implicit and Explicit Measures of Evaluation and Identification</t>
   </si>
   <si>
@@ -4019,9 +4013,6 @@
     <t>l6Q3WhenKVUC, sgsej9ZJWHMC</t>
   </si>
   <si>
-    <t>113656926, 128528638</t>
-  </si>
-  <si>
     <t>rCNdntzdTkkC, Y0-TYkg6YM4C, yJjnfzR0HrkC</t>
   </si>
   <si>
@@ -4037,9 +4028,6 @@
     <t>Consensus meetings will outperform integrative experiments</t>
   </si>
   <si>
-    <t>MDX3w3dAD3YC, CMvovTBb2okC, c1AJUTjuCtUC</t>
-  </si>
-  <si>
     <t>10.31222/osf.io/xdsjf</t>
   </si>
   <si>
@@ -4343,9 +4331,6 @@
     <t>https://www.aggieerin.com/pubs/SCIP_23.html</t>
   </si>
   <si>
-    <t>Who does big team science?</t>
-  </si>
-  <si>
     <t>Buchanan, E. M. \&amp; Lewis, S. C.</t>
   </si>
   <si>
@@ -4430,12 +4415,6 @@
     <t>126336455, 146304360</t>
   </si>
   <si>
-    <t xml:space="preserve">Upcoming book chapter for behavioral science book from Busara Center for Behavioral Economics </t>
-  </si>
-  <si>
-    <t>Upcoming book chapter in The Cambridge Handbook of Research Methods and Statistics for the Social and Behavioral Sciences.</t>
-  </si>
-  <si>
     <t>https://www.aggieerin.com/pubs/power_handbook_24.docx</t>
   </si>
   <si>
@@ -4448,9 +4427,6 @@
     <t>Semantic Feature Production Norms</t>
   </si>
   <si>
-    <t xml:space="preserve">Upcoming chapter in International Encyclopedia of Language and Linguistics, 3rd Edition </t>
-  </si>
-  <si>
     <t>https://www.aggieerin.com/pubs/feat_prod_buchanan.docx</t>
   </si>
   <si>
@@ -4517,9 +4493,6 @@
     <t>10.17605/OSF.IO/GWAVU</t>
   </si>
   <si>
-    <t>10.1177/25152459241306432/</t>
-  </si>
-  <si>
     <t>10.32614/CRAN.package.MOTE</t>
   </si>
   <si>
@@ -4622,12 +4595,6 @@
     <t>https://osf.io/nkbjc</t>
   </si>
   <si>
-    <t>DquSII9TDu4C, AFXcoJnoRH0C</t>
-  </si>
-  <si>
-    <t>g_UdREhPGEoC, nWoA1JPTheMC, wGzT3bKASkAC, a2necdfpwlEC, vxA22ZmNLkoC</t>
-  </si>
-  <si>
     <t>EaFouW7jFu4C, Tfl4UtY-dJUC, adHtZc2wMuEC</t>
   </si>
   <si>
@@ -4776,13 +4743,232 @@
   </si>
   <si>
     <t>Multilevel Modeling Psych \#rstats</t>
+  </si>
+  <si>
+    <t>10.1038/s41562-024-01961-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1017/9781009000796.012 </t>
+  </si>
+  <si>
+    <t>232--260</t>
+  </si>
+  <si>
+    <t>The Cambridge Handbook of Research Methods and Statistics for the Social and Behavioral Sciences. Cambridge University Press.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Module in Social Sciences. International Encyclopedia of Language and Linguistics, 3rd Edition </t>
+  </si>
+  <si>
+    <t>10.5964/meth.14579</t>
+  </si>
+  <si>
+    <t>318--335</t>
+  </si>
+  <si>
+    <t>10.1177/25152459241306432</t>
+  </si>
+  <si>
+    <t>v_xunPV0uK0C</t>
+  </si>
+  <si>
+    <t>158745381, 174185781</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/wegc5</t>
+  </si>
+  <si>
+    <t>Mapping and Increasing Error Correction Behaviour in a Culturally Diverse Sample</t>
+  </si>
+  <si>
+    <t>vD2iS2Kej30C</t>
+  </si>
+  <si>
+    <t>Sirota, M. et al.</t>
+  </si>
+  <si>
+    <t>https://osf.io/wegc5</t>
+  </si>
+  <si>
+    <t>oynPyU19kbsC</t>
+  </si>
+  <si>
+    <t>Moral Foundations of US Political News Organizations: A Replication and Methodological Study</t>
+  </si>
+  <si>
+    <t>DquSII9TDu4C, AFXcoJnoRH0C, ufKn5pxu7C0C</t>
+  </si>
+  <si>
+    <t>SWgZeABleR0C</t>
+  </si>
+  <si>
+    <t>190--205</t>
+  </si>
+  <si>
+    <t>Pattullo, A., Matić Škorić, A., Scott, L., Buchanan, E., \&amp; Reilly, J.</t>
+  </si>
+  <si>
+    <t>2025, August</t>
+  </si>
+  <si>
+    <t>Investigating the Role of Sensorimotor Dominance in Semantic Feature Listings:  When I Say Dog, Will You Say Tail?</t>
+  </si>
+  <si>
+    <t>Poster presentation for the Annual Meeting of the Cognitive Science Society, San Francisco, CA.</t>
+  </si>
+  <si>
+    <t>10.1080/02602938.2025.2504618</t>
+  </si>
+  <si>
+    <t>PLoS One</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0323938</t>
+  </si>
+  <si>
+    <t>e0323938</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/full/10.1177/25152459241306432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heyman, T., et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviani, G., et al. </t>
+  </si>
+  <si>
+    <t>Exploring semantic and executive flexibility interplay in task switching</t>
+  </si>
+  <si>
+    <t>Psychological Methods</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>https://osf.io/preprints/osf/xgsta_v1</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-025-09639-y</t>
+  </si>
+  <si>
+    <t>https://osf.io/fjhv5</t>
+  </si>
+  <si>
+    <t>Current Psychology</t>
+  </si>
+  <si>
+    <t>g_UdREhPGEoC, nWoA1JPTheMC, wGzT3bKASkAC, a2necdfpwlEC, vxA22ZmNLkoC, oAywNP-vUhwC, _9Xh93LWpsYC</t>
+  </si>
+  <si>
+    <t>Collaborative registered replication of Griskevicius et al. (2010): Can pro-environmental behavior be promoted by priming status motivation?</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/sfmz8_v4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.31234/osf.io/sfmz8_v4</t>
+  </si>
+  <si>
+    <t>Lazarevic, L., et al.</t>
+  </si>
+  <si>
+    <t>HKviVsUxM5wC</t>
+  </si>
+  <si>
+    <t>ZysSsiWj_g4C</t>
+  </si>
+  <si>
+    <t>What defines big team science?</t>
+  </si>
+  <si>
+    <t>141328945, 186169356</t>
+  </si>
+  <si>
+    <t>KqnX2w3egDsC, feST4K8J0scC</t>
+  </si>
+  <si>
+    <t>46227681, 182718523</t>
+  </si>
+  <si>
+    <t>104340998, 180782442</t>
+  </si>
+  <si>
+    <t>Perceptual Disfluency and Recognition Memory: A Response Time Distributional Analysis</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/sae23_v1</t>
+  </si>
+  <si>
+    <t>Geller, J., et al.</t>
+  </si>
+  <si>
+    <t>https://osf.io/sae23_v1</t>
+  </si>
+  <si>
+    <t>e3CVSTJ63dQC</t>
+  </si>
+  <si>
+    <t>113656926, 128528638, 179831864</t>
+  </si>
+  <si>
+    <t>184646683, 59592572</t>
+  </si>
+  <si>
+    <t>Stereotype Threat in Black College Students Across Many Operationalizations</t>
+  </si>
+  <si>
+    <t>186527449, 134291735</t>
+  </si>
+  <si>
+    <t>186322270, 185986549</t>
+  </si>
+  <si>
+    <t>MDX3w3dAD3YC, CMvovTBb2okC, c1AJUTjuCtUC, L7vk9XBBNxgC</t>
+  </si>
+  <si>
+    <t>143293641, 185216396, 181518543</t>
+  </si>
+  <si>
+    <t>Think Political Leader, Think He or She? A Multi-Country Test of a Gender Fair Language Intervention for Stereotype Bias</t>
+  </si>
+  <si>
+    <t>Peters, K., et al.</t>
+  </si>
+  <si>
+    <t>Leadership Quarterly</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.31234/osf.io/xjkcv_v1</t>
+  </si>
+  <si>
+    <t>10.31234/osf.io/xjkcv_v1</t>
+  </si>
+  <si>
+    <t>VjBpw8Hezy4C</t>
+  </si>
+  <si>
+    <t>60iIaj97TE0C, ehoypfNsBj8C</t>
+  </si>
+  <si>
+    <t>127--135</t>
+  </si>
+  <si>
+    <t>A better how: notes on developmental meta-research</t>
+  </si>
+  <si>
+    <t>Assessment \&amp; Evaluation in Higher Education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4967,6 +5153,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5318,7 +5522,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5390,6 +5594,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5777,11 +5984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R312"/>
+  <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A289" sqref="A289:XFD289"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.1640625" defaultRowHeight="16"/>
@@ -5860,7 +6067,7 @@
         <v>188</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="34">
@@ -6051,7 +6258,7 @@
         <v>97</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>178</v>
@@ -6104,7 +6311,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>178</v>
@@ -6157,7 +6364,7 @@
         <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>178</v>
@@ -6719,7 +6926,7 @@
         <v>721</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>177</v>
@@ -6728,13 +6935,13 @@
         <v>177</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="J18" s="1">
         <v>2014</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>647</v>
@@ -6893,7 +7100,7 @@
         <v>85</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>178</v>
@@ -6961,7 +7168,7 @@
         <v>193</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R22" s="6">
         <v>19</v>
@@ -7539,7 +7746,7 @@
         <v>2017</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L34" s="1">
         <v>46227678</v>
@@ -7593,7 +7800,7 @@
         <v>15</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>178</v>
@@ -7702,7 +7909,7 @@
         <v>2018</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="L37" s="6">
         <v>57294614</v>
@@ -7849,7 +8056,7 @@
         <v>702</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G40" s="1">
         <v>26</v>
@@ -7914,7 +8121,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J41" s="1">
         <v>2019</v>
@@ -8006,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J43" s="1">
         <v>2019</v>
@@ -8236,7 +8443,7 @@
         <v>2018</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="L48" s="1">
         <v>46227946</v>
@@ -8277,7 +8484,7 @@
         <v>2018</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L49" s="1">
         <v>46227697</v>
@@ -8378,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J51" s="1">
         <v>2019</v>
@@ -8488,7 +8695,7 @@
         <v>6</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J53" s="6">
         <v>2019</v>
@@ -8512,7 +8719,7 @@
         <v>193</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="R53" s="6">
         <v>42</v>
@@ -8522,14 +8729,14 @@
       <c r="A54" s="10">
         <v>1</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>862</v>
+      <c r="C54" t="s">
+        <v>1627</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>854</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>75</v>
@@ -8543,14 +8750,14 @@
       <c r="K54" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="L54" s="6">
-        <v>59592572</v>
+      <c r="L54" s="6" t="s">
+        <v>1626</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>178</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>181</v>
@@ -8559,7 +8766,7 @@
         <v>183</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R54" s="1"/>
     </row>
@@ -8574,7 +8781,7 @@
         <v>827</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>828</v>
@@ -8589,15 +8796,15 @@
         <v>177</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="J55" s="6">
         <v>2019</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L55" s="6"/>
+        <v>1638</v>
+      </c>
+      <c r="L55" s="25"/>
       <c r="M55" s="1" t="s">
         <v>178</v>
       </c>
@@ -8699,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J57" s="1">
         <v>2019</v>
@@ -8755,7 +8962,7 @@
         <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J58" s="1">
         <v>2019</v>
@@ -8809,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J59" s="5">
         <v>2019</v>
@@ -8833,7 +9040,7 @@
         <v>193</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R59" s="6">
         <v>47</v>
@@ -8863,13 +9070,13 @@
         <v>3</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J60" s="6">
         <v>2020</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="1" t="s">
@@ -8885,7 +9092,7 @@
         <v>193</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="R60" s="6">
         <v>48</v>
@@ -8917,7 +9124,7 @@
         <v>2</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J61" s="1">
         <v>2020</v>
@@ -8925,8 +9132,8 @@
       <c r="K61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L61" s="1">
-        <v>46227681</v>
+      <c r="L61" s="1" t="s">
+        <v>1617</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>178</v>
@@ -8952,10 +9159,10 @@
         <v>1.5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>67</v>
@@ -8964,7 +9171,7 @@
         <v>730</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G62" s="1">
         <v>21</v>
@@ -8973,16 +9180,16 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J62" s="1">
         <v>2020</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>178</v>
@@ -9009,10 +9216,10 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>798</v>
@@ -9025,7 +9232,7 @@
         <v>2019</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="L63" s="6">
         <v>78301690</v>
@@ -9043,23 +9250,23 @@
         <v>183</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" ht="34">
+    <row r="64" spans="1:18" ht="17">
       <c r="A64" s="10">
         <v>1</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="1" t="s">
-        <v>954</v>
+      <c r="C64" t="s">
+        <v>1585</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>1199</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -9068,7 +9275,9 @@
       <c r="J64" s="5">
         <v>2022</v>
       </c>
-      <c r="K64" s="6"/>
+      <c r="K64" t="s">
+        <v>1584</v>
+      </c>
       <c r="L64" s="6">
         <v>109235472</v>
       </c>
@@ -9085,7 +9294,7 @@
         <v>183</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="R64" s="1"/>
     </row>
@@ -9094,10 +9303,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="1" t="s">
@@ -9113,7 +9322,7 @@
         <v>2019</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="1" t="s">
@@ -9138,19 +9347,19 @@
         <v>1.5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>853</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G66" s="6">
         <v>33</v>
@@ -9159,16 +9368,16 @@
         <v>2</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J66" s="6">
         <v>2020</v>
       </c>
       <c r="K66" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="L66" s="6" t="s">
         <v>927</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>928</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>178</v>
@@ -9183,7 +9392,7 @@
         <v>193</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R66" s="6">
         <v>51</v>
@@ -9212,13 +9421,13 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J67" s="1">
         <v>2019</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L67" s="1">
         <v>46227700</v>
@@ -9247,7 +9456,7 @@
         <v>1.5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>857</v>
@@ -9256,10 +9465,10 @@
         <v>858</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G68" s="6">
         <v>21</v>
@@ -9268,7 +9477,7 @@
         <v>177</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="J68" s="6">
         <v>2020</v>
@@ -9277,7 +9486,7 @@
         <v>856</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>178</v>
@@ -9292,7 +9501,7 @@
         <v>183</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="R68" s="6">
         <v>53</v>
@@ -9346,10 +9555,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>707</v>
@@ -9358,7 +9567,7 @@
         <v>2019</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L70" s="6">
         <v>61451311</v>
@@ -9376,7 +9585,7 @@
         <v>193</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R70" s="1"/>
     </row>
@@ -9386,17 +9595,20 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J71" s="1">
         <v>2019</v>
       </c>
+      <c r="K71" s="1" t="s">
+        <v>1613</v>
+      </c>
       <c r="L71" s="6">
         <v>61994708</v>
       </c>
@@ -9413,7 +9625,7 @@
         <v>183</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="R71" s="1"/>
     </row>
@@ -9422,16 +9634,16 @@
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="G72" s="1">
         <v>44</v>
@@ -9440,13 +9652,13 @@
         <v>2</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J72" s="1">
         <v>2019</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>178</v>
@@ -9461,7 +9673,7 @@
         <v>193</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R72" s="6">
         <v>54</v>
@@ -9472,16 +9684,16 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="G73" s="1">
         <v>6</v>
@@ -9490,7 +9702,7 @@
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J73" s="1">
         <v>2019</v>
@@ -9508,7 +9720,7 @@
         <v>193</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="R73" s="6">
         <v>55</v>
@@ -9531,13 +9743,13 @@
         <v>17</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H74" s="1">
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="J74" s="1">
         <v>2020</v>
@@ -9569,7 +9781,7 @@
         <v>1.5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>659</v>
@@ -9581,7 +9793,7 @@
         <v>747</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G75" s="6">
         <v>29</v>
@@ -9590,13 +9802,13 @@
         <v>2</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J75" s="6">
         <v>2020</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L75" s="6">
         <v>52212308</v>
@@ -9625,22 +9837,31 @@
         <v>1</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D76" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>254</v>
+        <v>1606</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>1382</v>
       </c>
       <c r="J76" s="1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="K76" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="L76">
         <v>136093324</v>
@@ -9649,7 +9870,7 @@
         <v>178</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>973</v>
+        <v>197</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>181</v>
@@ -9658,28 +9879,30 @@
         <v>183</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="R76" s="1"/>
+        <v>1353</v>
+      </c>
+      <c r="R76" s="1">
+        <v>101</v>
+      </c>
     </row>
     <row r="77" spans="1:18" ht="51">
       <c r="A77" s="10">
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>852</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G77" s="1">
         <v>4</v>
@@ -9694,10 +9917,10 @@
         <v>2020</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>178</v>
@@ -9712,7 +9935,7 @@
         <v>193</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="R77" s="6">
         <v>58</v>
@@ -9723,19 +9946,19 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="G78" s="1">
         <v>70</v>
@@ -9744,16 +9967,16 @@
         <v>4</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="J78" s="1">
         <v>2020</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>178</v>
@@ -9768,7 +9991,7 @@
         <v>193</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="R78" s="6">
         <v>59</v>
@@ -9779,19 +10002,19 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="G79" s="1">
         <v>90</v>
@@ -9800,16 +10023,16 @@
         <v>5</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J79" s="1">
         <v>2020</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>178</v>
@@ -9824,7 +10047,7 @@
         <v>193</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R79" s="6">
         <v>60</v>
@@ -9835,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>61</v>
@@ -9847,7 +10070,7 @@
         <v>725</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G80" s="1">
         <v>15</v>
@@ -9856,7 +10079,7 @@
         <v>5</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="J80" s="1">
         <v>2021</v>
@@ -9865,7 +10088,7 @@
         <v>674</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>178</v>
@@ -9891,16 +10114,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>483</v>
@@ -9912,16 +10135,16 @@
         <v>3</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="J81" s="1">
         <v>2021</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>178</v>
@@ -9936,7 +10159,7 @@
         <v>193</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="R81" s="6">
         <v>62</v>
@@ -9947,16 +10170,16 @@
         <v>1</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G82" s="1">
         <v>2</v>
@@ -9965,13 +10188,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J82" s="1">
         <v>2021</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="L82" s="6">
         <v>92236335</v>
@@ -9989,7 +10212,7 @@
         <v>193</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="R82" s="6">
         <v>63</v>
@@ -10000,10 +10223,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>56</v>
@@ -10012,22 +10235,22 @@
         <v>774</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G83" s="1">
         <v>6</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="J83" s="1">
         <v>2022</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>178</v>
@@ -10053,16 +10276,16 @@
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="G84" s="6">
         <v>5</v>
@@ -10074,7 +10297,7 @@
         <v>2021</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>178</v>
@@ -10089,7 +10312,7 @@
         <v>193</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="R84" s="6">
         <v>65</v>
@@ -10100,13 +10323,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>119</v>
@@ -10118,13 +10341,13 @@
         <v>1</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="J85" s="1">
         <v>2020</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>178</v>
@@ -10139,7 +10362,7 @@
         <v>193</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="R85" s="6">
         <v>66</v>
@@ -10150,13 +10373,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>119</v>
@@ -10168,13 +10391,13 @@
         <v>4</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="J86" s="1">
         <v>2022</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>178</v>
@@ -10189,7 +10412,7 @@
         <v>183</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="R86" s="6">
         <v>67</v>
@@ -10200,22 +10423,22 @@
         <v>1</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>962</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I87" s="1">
         <v>1274</v>
@@ -10224,7 +10447,7 @@
         <v>2021</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L87" s="6">
         <v>66565618</v>
@@ -10242,7 +10465,7 @@
         <v>193</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="R87" s="6">
         <v>68</v>
@@ -10253,16 +10476,16 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="G88" s="6">
         <v>100</v>
@@ -10274,7 +10497,7 @@
         <v>2022</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>178</v>
@@ -10289,27 +10512,27 @@
         <v>193</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="R88" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="51">
+    <row r="89" spans="1:18" ht="68">
       <c r="A89" s="10">
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>75</v>
@@ -10321,13 +10544,13 @@
         <v>8</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="J89" s="1">
         <v>2021</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1529</v>
+        <v>1607</v>
       </c>
       <c r="L89" s="6">
         <v>93001247</v>
@@ -10345,7 +10568,7 @@
         <v>193</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="R89" s="6">
         <v>70</v>
@@ -10356,16 +10579,16 @@
         <v>1</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G90" s="1">
         <v>53</v>
@@ -10374,13 +10597,13 @@
         <v>3</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="J90" s="1">
         <v>2022</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L90" s="6">
         <v>110569695</v>
@@ -10398,7 +10621,7 @@
         <v>193</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="R90" s="6">
         <v>71</v>
@@ -10409,16 +10632,16 @@
         <v>1</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>75</v>
@@ -10430,13 +10653,13 @@
         <v>6</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J91" s="1">
         <v>2022</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>178</v>
@@ -10451,7 +10674,7 @@
         <v>193</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="R91" s="1">
         <v>72</v>
@@ -10462,19 +10685,19 @@
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G92" s="1">
         <v>26</v>
@@ -10483,13 +10706,13 @@
         <v>1</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J92" s="1">
         <v>2022</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L92" s="1">
         <v>46227693</v>
@@ -10518,19 +10741,19 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G93" s="1">
         <v>18</v>
@@ -10539,16 +10762,16 @@
         <v>2</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="J93" s="1">
         <v>2022</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>178</v>
@@ -10563,7 +10786,7 @@
         <v>193</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="R93" s="1">
         <v>74</v>
@@ -10574,19 +10797,19 @@
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>1142</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G94" s="1">
         <v>119</v>
@@ -10595,13 +10818,13 @@
         <v>22</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J94" s="1">
         <v>2022</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>178</v>
@@ -10616,7 +10839,7 @@
         <v>193</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="R94" s="1">
         <v>75</v>
@@ -10627,19 +10850,19 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G95" s="1">
         <v>21</v>
@@ -10654,7 +10877,7 @@
         <v>2022</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L95" s="6">
         <v>93463381</v>
@@ -10672,7 +10895,7 @@
         <v>193</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="R95" s="1">
         <v>76</v>
@@ -10683,19 +10906,19 @@
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G96" s="1">
         <v>3</v>
@@ -10704,13 +10927,13 @@
         <v>3</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="J96" s="1">
         <v>2022</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>178</v>
@@ -10725,7 +10948,7 @@
         <v>193</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="R96" s="1">
         <v>77</v>
@@ -10736,28 +10959,28 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>1226</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>1228</v>
       </c>
       <c r="G97" s="1">
         <v>7</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="J97" s="1">
         <v>2022</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="L97" s="6">
         <v>118314400</v>
@@ -10775,7 +10998,7 @@
         <v>193</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="R97" s="6">
         <v>78</v>
@@ -10786,31 +11009,40 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="G98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>1382</v>
+      </c>
       <c r="J98" s="1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>1533</v>
-      </c>
-      <c r="L98" s="6">
-        <v>104340998</v>
+        <v>1522</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>1618</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>178</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>973</v>
+        <v>197</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>192</v>
@@ -10819,37 +11051,39 @@
         <v>183</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="R98" s="1"/>
+        <v>1131</v>
+      </c>
+      <c r="R98" s="1">
+        <v>105</v>
+      </c>
     </row>
     <row r="99" spans="1:18" ht="34">
       <c r="A99" s="10">
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C99" s="14" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>1233</v>
       </c>
       <c r="G99" s="1">
         <v>26</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J99" s="1">
         <v>2022</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>178</v>
@@ -10864,7 +11098,7 @@
         <v>193</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="R99" s="6">
         <v>79</v>
@@ -10875,16 +11109,16 @@
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>1110</v>
       </c>
       <c r="J100" s="1">
         <v>2021</v>
@@ -10903,7 +11137,7 @@
         <v>183</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="R100" s="1"/>
     </row>
@@ -10912,34 +11146,34 @@
         <v>1</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>948</v>
-      </c>
       <c r="F101" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G101" s="6">
         <v>32</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="J101" s="1">
         <v>2023</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>178</v>
@@ -10954,7 +11188,7 @@
         <v>193</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="R101" s="1">
         <v>80</v>
@@ -10965,13 +11199,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>204</v>
@@ -10983,13 +11217,13 @@
         <v>3</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="J102" s="1">
         <v>2023</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="L102" s="6">
         <v>126109116</v>
@@ -11007,30 +11241,30 @@
         <v>193</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="R102" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="34">
+    <row r="103" spans="1:18" ht="51">
       <c r="A103" s="10">
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G103" s="1">
         <v>10</v>
@@ -11045,10 +11279,10 @@
         <v>2023</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>1333</v>
+        <v>1630</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>1327</v>
+        <v>1625</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>178</v>
@@ -11063,7 +11297,7 @@
         <v>193</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="R103" s="6">
         <v>82</v>
@@ -11074,16 +11308,16 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>1301</v>
       </c>
       <c r="G104" s="1">
         <v>46</v>
@@ -11095,7 +11329,7 @@
         <v>2023</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="L104" s="6">
         <v>124160258</v>
@@ -11113,7 +11347,7 @@
         <v>193</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="R104" s="6">
         <v>83</v>
@@ -11148,7 +11382,7 @@
         <v>183</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R105" s="1"/>
     </row>
@@ -11181,7 +11415,7 @@
         <v>183</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R106" s="1"/>
     </row>
@@ -11214,7 +11448,7 @@
         <v>183</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R107" s="1"/>
     </row>
@@ -11523,7 +11757,7 @@
         <v>183</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R116" s="1"/>
     </row>
@@ -11556,7 +11790,7 @@
         <v>183</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R117" s="1"/>
     </row>
@@ -11589,7 +11823,7 @@
         <v>183</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R118" s="1"/>
     </row>
@@ -11622,7 +11856,7 @@
         <v>183</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R119" s="1"/>
     </row>
@@ -11727,7 +11961,7 @@
         <v>183</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R122" s="1"/>
     </row>
@@ -11760,7 +11994,7 @@
         <v>183</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R123" s="1"/>
     </row>
@@ -11799,7 +12033,7 @@
         <v>193</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R124" s="1"/>
     </row>
@@ -12048,7 +12282,7 @@
         <v>193</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R131" s="1"/>
     </row>
@@ -12087,7 +12321,7 @@
         <v>183</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R132" s="1"/>
     </row>
@@ -12231,7 +12465,7 @@
         <v>193</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="34">
@@ -12380,7 +12614,7 @@
         <v>193</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="141" spans="1:18" s="6" customFormat="1" ht="34">
@@ -12445,7 +12679,7 @@
         <v>297</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1" t="s">
@@ -12545,7 +12779,7 @@
         <v>183</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="145" spans="1:18" s="6" customFormat="1" ht="51">
@@ -12663,7 +12897,7 @@
         <v>193</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R147" s="1"/>
     </row>
@@ -12966,7 +13200,7 @@
         <v>755</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -13109,7 +13343,7 @@
         <v>193</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R158" s="1"/>
     </row>
@@ -13670,7 +13904,7 @@
         <v>193</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R175" s="1"/>
     </row>
@@ -13736,7 +13970,7 @@
         <v>193</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R177" s="1"/>
     </row>
@@ -14065,7 +14299,7 @@
         <v>295</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>213</v>
@@ -14276,7 +14510,7 @@
         <v>193</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="R193" s="1"/>
     </row>
@@ -14377,7 +14611,7 @@
         <v>193</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="197" spans="1:18" ht="51">
@@ -14463,7 +14697,7 @@
         <v>784</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -14536,7 +14770,7 @@
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="1" t="s">
@@ -14663,7 +14897,7 @@
         <v>805</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -14672,7 +14906,7 @@
         <v>806</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="1" t="s">
@@ -14688,7 +14922,7 @@
         <v>193</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="R204" s="1"/>
     </row>
@@ -14706,7 +14940,7 @@
         <v>847</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>806</v>
@@ -14804,7 +15038,7 @@
         <v>193</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R207" s="1"/>
     </row>
@@ -14844,7 +15078,7 @@
         <v>193</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="209" spans="1:18" ht="34">
@@ -14883,7 +15117,7 @@
         <v>193</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R209" s="1"/>
     </row>
@@ -14892,16 +15126,16 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="J210" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>213</v>
@@ -14916,7 +15150,7 @@
         <v>193</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="R210" s="1"/>
     </row>
@@ -14925,16 +15159,16 @@
         <v>1</v>
       </c>
       <c r="C211" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="F211" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="F211" s="6" t="s">
-        <v>899</v>
-      </c>
       <c r="J211" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>213</v>
@@ -14949,7 +15183,7 @@
         <v>183</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="R211" s="1"/>
     </row>
@@ -14958,16 +15192,16 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>213</v>
@@ -14982,7 +15216,7 @@
         <v>183</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="R212" s="1"/>
     </row>
@@ -14991,16 +15225,16 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>799</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>213</v>
@@ -15015,7 +15249,7 @@
         <v>193</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="R213" s="1"/>
     </row>
@@ -15024,10 +15258,10 @@
         <v>1.5</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>658</v>
@@ -15036,13 +15270,13 @@
         <v>747</v>
       </c>
       <c r="F214" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>909</v>
-      </c>
-      <c r="J214" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="K214" s="6" t="s">
-        <v>910</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>213</v>
@@ -15066,16 +15300,16 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="F215" s="1" t="s">
+      <c r="J215" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>213</v>
@@ -15090,7 +15324,7 @@
         <v>193</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="R215" s="1"/>
     </row>
@@ -15099,16 +15333,16 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="F216" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>213</v>
@@ -15123,7 +15357,7 @@
         <v>193</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R216" s="1"/>
     </row>
@@ -15132,16 +15366,16 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="F217" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>213</v>
@@ -15156,7 +15390,7 @@
         <v>193</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R217" s="1"/>
     </row>
@@ -15165,16 +15399,16 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>992</v>
-      </c>
       <c r="F218" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>213</v>
@@ -15189,7 +15423,7 @@
         <v>193</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R218" s="1"/>
     </row>
@@ -15198,16 +15432,16 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J219" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>995</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>213</v>
@@ -15222,7 +15456,7 @@
         <v>193</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R219" s="1"/>
     </row>
@@ -15231,16 +15465,16 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="F220" s="1" t="s">
+      <c r="J220" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>213</v>
@@ -15255,7 +15489,7 @@
         <v>193</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="R220" s="1"/>
     </row>
@@ -15264,16 +15498,16 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>213</v>
@@ -15288,7 +15522,7 @@
         <v>193</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R221" s="1"/>
     </row>
@@ -15297,16 +15531,16 @@
         <v>1</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="J222" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>213</v>
@@ -15321,7 +15555,7 @@
         <v>183</v>
       </c>
       <c r="Q222" s="7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="R222" s="1"/>
     </row>
@@ -15330,16 +15564,16 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="F223" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>1013</v>
-      </c>
       <c r="J223" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>213</v>
@@ -15354,7 +15588,7 @@
         <v>183</v>
       </c>
       <c r="Q223" s="7" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="R223" s="1"/>
     </row>
@@ -15363,16 +15597,16 @@
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>213</v>
@@ -15387,7 +15621,7 @@
         <v>183</v>
       </c>
       <c r="Q224" s="7" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="R224" s="1"/>
     </row>
@@ -15396,16 +15630,16 @@
         <v>1</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>213</v>
@@ -15420,7 +15654,7 @@
         <v>183</v>
       </c>
       <c r="Q225" s="7" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="R225" s="1"/>
     </row>
@@ -15429,16 +15663,16 @@
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="J226" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>213</v>
@@ -15453,7 +15687,7 @@
         <v>183</v>
       </c>
       <c r="Q226" s="6" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="R226" s="1"/>
     </row>
@@ -15462,16 +15696,16 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>213</v>
@@ -15486,7 +15720,7 @@
         <v>183</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="R227" s="1"/>
     </row>
@@ -15495,16 +15729,16 @@
         <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J228" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J228" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>213</v>
@@ -15519,7 +15753,7 @@
         <v>193</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="R228" s="1"/>
     </row>
@@ -15528,16 +15762,16 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>213</v>
@@ -15552,7 +15786,7 @@
         <v>193</v>
       </c>
       <c r="Q229" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R229" s="1"/>
     </row>
@@ -15561,16 +15795,16 @@
         <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>1070</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>213</v>
@@ -15585,7 +15819,7 @@
         <v>193</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R230" s="1"/>
     </row>
@@ -15594,16 +15828,16 @@
         <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="J231" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>213</v>
@@ -15618,7 +15852,7 @@
         <v>193</v>
       </c>
       <c r="Q231" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="R231" s="1"/>
     </row>
@@ -15627,16 +15861,16 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>383</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>213</v>
@@ -15651,7 +15885,7 @@
         <v>193</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="R232" s="1"/>
     </row>
@@ -15660,16 +15894,16 @@
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>213</v>
@@ -15684,7 +15918,7 @@
         <v>193</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="R233" s="1"/>
     </row>
@@ -15693,16 +15927,16 @@
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>1171</v>
-      </c>
       <c r="J234" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>213</v>
@@ -15717,7 +15951,7 @@
         <v>183</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="R234" s="1"/>
     </row>
@@ -15726,16 +15960,16 @@
         <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>213</v>
@@ -15750,7 +15984,7 @@
         <v>183</v>
       </c>
       <c r="Q235" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="R235" s="1"/>
     </row>
@@ -15759,16 +15993,16 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>1158</v>
-      </c>
       <c r="J236" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>213</v>
@@ -15783,7 +16017,7 @@
         <v>193</v>
       </c>
       <c r="Q236" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="R236" s="1"/>
     </row>
@@ -15792,16 +16026,16 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>213</v>
@@ -15816,7 +16050,7 @@
         <v>183</v>
       </c>
       <c r="Q237" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R237" s="1"/>
     </row>
@@ -15825,16 +16059,16 @@
         <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="J238" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>213</v>
@@ -15849,7 +16083,7 @@
         <v>193</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="R238" s="1"/>
     </row>
@@ -15858,16 +16092,16 @@
         <v>1</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J239" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J239" s="1" t="s">
-        <v>1178</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>213</v>
@@ -15882,7 +16116,7 @@
         <v>193</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="R239" s="1"/>
     </row>
@@ -15894,7 +16128,7 @@
         <v>347</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>729</v>
@@ -15904,7 +16138,7 @@
         <v>2022</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="L240" s="6">
         <v>105725802</v>
@@ -15922,7 +16156,7 @@
         <v>193</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="R240" s="1"/>
     </row>
@@ -15931,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>260</v>
@@ -15943,7 +16177,7 @@
         <v>778</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G241" s="1">
         <v>14</v>
@@ -15958,7 +16192,7 @@
         <v>2023</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="L241" s="1">
         <v>46227703</v>
@@ -15987,19 +16221,19 @@
         <v>1</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G242" s="1">
         <v>6</v>
@@ -16008,13 +16242,13 @@
         <v>3</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="J242" s="1">
         <v>2023</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>178</v>
@@ -16029,7 +16263,7 @@
         <v>183</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R242" s="6">
         <v>85</v>
@@ -16040,19 +16274,19 @@
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G243" s="1">
         <v>11</v>
@@ -16067,7 +16301,7 @@
         <v>2023</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
       <c r="L243"/>
       <c r="M243" s="1" t="s">
@@ -16083,7 +16317,7 @@
         <v>193</v>
       </c>
       <c r="Q243" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="R243" s="6">
         <v>86</v>
@@ -16094,31 +16328,31 @@
         <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="G244" s="1">
         <v>17</v>
       </c>
       <c r="H244" s="21" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="J244" s="1">
         <v>2023</v>
       </c>
       <c r="K244" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="L244" s="1">
         <v>136474193</v>
@@ -16136,7 +16370,7 @@
         <v>193</v>
       </c>
       <c r="Q244" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R244" s="6">
         <v>87</v>
@@ -16147,16 +16381,16 @@
         <v>1</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E245" s="16" t="s">
         <v>205</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>213</v>
@@ -16171,7 +16405,7 @@
         <v>193</v>
       </c>
       <c r="Q245" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="246" spans="1:18" ht="34">
@@ -16179,16 +16413,16 @@
         <v>1</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E246" s="16" t="s">
         <v>205</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>213</v>
@@ -16203,7 +16437,7 @@
         <v>183</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="34">
@@ -16211,16 +16445,16 @@
         <v>1</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>213</v>
@@ -16235,7 +16469,7 @@
         <v>183</v>
       </c>
       <c r="Q247" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="51">
@@ -16243,16 +16477,16 @@
         <v>1</v>
       </c>
       <c r="C248" s="15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="J248" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>1248</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>213</v>
@@ -16267,7 +16501,7 @@
         <v>193</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="51">
@@ -16275,16 +16509,16 @@
         <v>1</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>213</v>
@@ -16299,7 +16533,7 @@
         <v>183</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="250" spans="1:18" ht="34">
@@ -16307,16 +16541,16 @@
         <v>1</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>213</v>
@@ -16331,7 +16565,7 @@
         <v>183</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="34">
@@ -16339,16 +16573,16 @@
         <v>1</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>213</v>
@@ -16363,7 +16597,7 @@
         <v>193</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="34">
@@ -16371,16 +16605,16 @@
         <v>1</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>213</v>
@@ -16395,7 +16629,7 @@
         <v>193</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="34">
@@ -16403,16 +16637,16 @@
         <v>1</v>
       </c>
       <c r="C253" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J253" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>1268</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>213</v>
@@ -16427,7 +16661,7 @@
         <v>193</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="51">
@@ -16435,16 +16669,16 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="J254" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>1272</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>213</v>
@@ -16459,7 +16693,7 @@
         <v>193</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="255" spans="1:18" ht="34">
@@ -16467,16 +16701,16 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>213</v>
@@ -16491,7 +16725,7 @@
         <v>183</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="256" spans="1:18" ht="34">
@@ -16499,34 +16733,34 @@
         <v>1</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D256" s="22" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="G256" s="1">
         <v>47</v>
       </c>
       <c r="I256" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="J256" s="1">
         <v>2023</v>
       </c>
       <c r="K256" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="L256" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>178</v>
@@ -16541,7 +16775,7 @@
         <v>193</v>
       </c>
       <c r="Q256" s="23" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="R256" s="6">
         <v>88</v>
@@ -16552,16 +16786,16 @@
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="G257" s="1">
         <v>10</v>
@@ -16570,13 +16804,13 @@
         <v>1</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="J257" s="1">
         <v>2023</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>178</v>
@@ -16591,7 +16825,7 @@
         <v>193</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="R257" s="6">
         <v>89</v>
@@ -16602,19 +16836,19 @@
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="G258" s="1">
         <v>2</v>
@@ -16623,16 +16857,16 @@
         <v>1</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="J258" s="1">
         <v>2023</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>178</v>
@@ -16647,7 +16881,7 @@
         <v>183</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="R258" s="6">
         <v>90</v>
@@ -16658,19 +16892,19 @@
         <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="G259" s="1">
         <v>172</v>
@@ -16679,16 +16913,16 @@
         <v>177</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="J259" s="1">
         <v>2024</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>178</v>
@@ -16703,7 +16937,7 @@
         <v>193</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R259" s="6">
         <v>91</v>
@@ -16714,34 +16948,34 @@
         <v>1</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>851</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="G260" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H260" s="6" t="s">
-        <v>177</v>
+        <v>964</v>
+      </c>
+      <c r="G260" s="6">
+        <v>7</v>
+      </c>
+      <c r="H260" s="6">
+        <v>4</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="J260" s="6">
         <v>2024</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
       <c r="L260" s="6">
         <v>57710195</v>
@@ -16759,7 +16993,7 @@
         <v>183</v>
       </c>
       <c r="Q260" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="R260" s="1">
         <v>92</v>
@@ -16809,7 +17043,7 @@
         <v>563</v>
       </c>
       <c r="R261" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="262" spans="1:18" ht="34">
@@ -16817,16 +17051,16 @@
         <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C262" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="E262" s="1" t="s">
+      <c r="F262" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>923</v>
       </c>
       <c r="J262" s="1">
         <v>2016</v>
@@ -16850,21 +17084,24 @@
         <v>627</v>
       </c>
       <c r="R262" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="263" spans="1:18" ht="68">
       <c r="A263" s="10">
         <v>1</v>
       </c>
+      <c r="B263" s="1" t="s">
+        <v>1569</v>
+      </c>
       <c r="C263" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>75</v>
@@ -16882,7 +17119,7 @@
         <v>2024</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>1528</v>
+        <v>1586</v>
       </c>
       <c r="L263" s="6">
         <v>128883185</v>
@@ -16900,7 +17137,7 @@
         <v>193</v>
       </c>
       <c r="Q263" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="R263" s="6">
         <v>93</v>
@@ -16911,19 +17148,19 @@
         <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J264" s="1">
         <v>2023</v>
       </c>
-      <c r="L264">
-        <v>134291735</v>
+      <c r="L264" t="s">
+        <v>1628</v>
       </c>
       <c r="M264" s="1" t="s">
         <v>178</v>
@@ -16938,7 +17175,7 @@
         <v>193</v>
       </c>
       <c r="Q264" s="23" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="51">
@@ -16946,37 +17183,37 @@
         <v>1</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="D265" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G265" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>177</v>
+      <c r="G265" s="1">
+        <v>32</v>
+      </c>
+      <c r="H265" s="1">
+        <v>2</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>1386</v>
+        <v>1588</v>
       </c>
       <c r="J265" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K265" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="L265" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>178</v>
@@ -16991,7 +17228,7 @@
         <v>193</v>
       </c>
       <c r="Q265" s="23" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="R265" s="6">
         <v>98</v>
@@ -17002,16 +17239,16 @@
         <v>1</v>
       </c>
       <c r="C266" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="E266" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>1373</v>
-      </c>
       <c r="J266" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="K266"/>
       <c r="L266"/>
@@ -17028,7 +17265,7 @@
         <v>183</v>
       </c>
       <c r="Q266" s="23" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="34">
@@ -17036,16 +17273,16 @@
         <v>1</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>213</v>
@@ -17060,7 +17297,7 @@
         <v>193</v>
       </c>
       <c r="Q267" s="23" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="268" spans="1:18" ht="51">
@@ -17068,16 +17305,16 @@
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>213</v>
@@ -17092,7 +17329,7 @@
         <v>193</v>
       </c>
       <c r="Q268" s="23" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="17">
@@ -17100,16 +17337,16 @@
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>213</v>
@@ -17124,7 +17361,7 @@
         <v>183</v>
       </c>
       <c r="Q269" s="23" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="34">
@@ -17132,16 +17369,16 @@
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>213</v>
@@ -17156,7 +17393,7 @@
         <v>193</v>
       </c>
       <c r="Q270" s="23" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="271" spans="1:18" ht="51">
@@ -17164,16 +17401,16 @@
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>213</v>
@@ -17188,7 +17425,7 @@
         <v>193</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="51">
@@ -17196,16 +17433,16 @@
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>213</v>
@@ -17220,7 +17457,7 @@
         <v>193</v>
       </c>
       <c r="Q272" s="1" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="273" spans="1:18" ht="51">
@@ -17228,16 +17465,16 @@
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>213</v>
@@ -17252,7 +17489,7 @@
         <v>193</v>
       </c>
       <c r="Q273" s="1" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="274" spans="1:18" ht="51">
@@ -17260,16 +17497,16 @@
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>213</v>
@@ -17284,7 +17521,7 @@
         <v>193</v>
       </c>
       <c r="Q274" s="23" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="275" spans="1:18" ht="51">
@@ -17292,16 +17529,16 @@
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E275" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F275" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="F275" s="1" t="s">
-        <v>1432</v>
-      </c>
       <c r="J275" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>213</v>
@@ -17316,7 +17553,7 @@
         <v>183</v>
       </c>
       <c r="Q275" s="23" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="276" spans="1:18" ht="51">
@@ -17324,16 +17561,16 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>213</v>
@@ -17348,7 +17585,7 @@
         <v>193</v>
       </c>
       <c r="Q276" s="23" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="277" spans="1:18" ht="34">
@@ -17356,16 +17593,16 @@
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>213</v>
@@ -17380,7 +17617,7 @@
         <v>193</v>
       </c>
       <c r="Q277" s="1" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="278" spans="1:18" ht="51">
@@ -17388,16 +17625,16 @@
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="M278" s="1" t="s">
         <v>213</v>
@@ -17417,19 +17654,19 @@
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D279" s="23" t="s">
         <v>1393</v>
       </c>
-      <c r="D279" s="23" t="s">
-        <v>1397</v>
-      </c>
       <c r="E279" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="J279" s="1">
         <v>2024</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>178</v>
@@ -17444,7 +17681,7 @@
         <v>193</v>
       </c>
       <c r="Q279" s="23" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="280" spans="1:18" ht="51">
@@ -17452,19 +17689,19 @@
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J280" s="1">
         <v>2024</v>
       </c>
       <c r="K280" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="L280">
         <v>149569377</v>
@@ -17482,7 +17719,7 @@
         <v>193</v>
       </c>
       <c r="Q280" s="23" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="281" spans="1:18" ht="17">
@@ -17490,16 +17727,16 @@
         <v>1</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>213</v>
@@ -17514,7 +17751,7 @@
         <v>193</v>
       </c>
       <c r="Q281" s="23" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="282" spans="1:18" ht="17">
@@ -17522,16 +17759,16 @@
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>213</v>
@@ -17546,30 +17783,30 @@
         <v>183</v>
       </c>
       <c r="Q282" s="1" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="283" spans="1:18" ht="17">
       <c r="A283" s="10">
         <v>1</v>
       </c>
-      <c r="C283" s="26" t="s">
-        <v>1435</v>
+      <c r="C283" s="25" t="s">
+        <v>1614</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="J283" s="1">
         <v>2024</v>
       </c>
       <c r="K283" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L283">
-        <v>141328945</v>
+        <v>1446</v>
+      </c>
+      <c r="L283" t="s">
+        <v>1615</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>178</v>
@@ -17584,36 +17821,51 @@
         <v>193</v>
       </c>
       <c r="Q283" s="23" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="284" spans="1:18" ht="17">
       <c r="A284" s="10">
         <v>1</v>
       </c>
+      <c r="B284" s="1" t="s">
+        <v>1593</v>
+      </c>
       <c r="C284" s="1" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1444</v>
+        <v>1439</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>1382</v>
       </c>
       <c r="J284" s="1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="K284" t="s">
-        <v>1445</v>
-      </c>
-      <c r="L284">
-        <v>143293641</v>
+        <v>1440</v>
+      </c>
+      <c r="L284" t="s">
+        <v>1631</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>178</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>181</v>
@@ -17622,7 +17874,10 @@
         <v>193</v>
       </c>
       <c r="Q284" s="23" t="s">
-        <v>1446</v>
+        <v>1441</v>
+      </c>
+      <c r="R284" s="6">
+        <v>102</v>
       </c>
     </row>
     <row r="285" spans="1:18" ht="34">
@@ -17630,16 +17885,16 @@
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>1464</v>
+        <v>1450</v>
+      </c>
+      <c r="F285" s="29" t="s">
+        <v>1640</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>177</v>
@@ -17648,13 +17903,13 @@
         <v>177</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>272</v>
+        <v>1639</v>
       </c>
       <c r="J285" s="1">
         <v>2024</v>
       </c>
       <c r="K285" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="L285">
         <v>151131314</v>
@@ -17672,7 +17927,7 @@
         <v>193</v>
       </c>
       <c r="Q285" s="23" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="R285" s="6">
         <v>94</v>
@@ -17683,19 +17938,19 @@
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="J286" s="1">
         <v>2023</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>178</v>
@@ -17710,34 +17965,37 @@
         <v>193</v>
       </c>
       <c r="Q286" s="1" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="287" spans="1:18" ht="51">
       <c r="A287" s="10">
         <v>1</v>
       </c>
+      <c r="B287" s="1" t="s">
+        <v>1570</v>
+      </c>
       <c r="C287" s="1" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>177</v>
+        <v>1572</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>272</v>
+        <v>1571</v>
       </c>
       <c r="J287" s="1">
         <v>2024</v>
       </c>
+      <c r="K287" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L287" s="1">
+        <v>177850047</v>
+      </c>
       <c r="M287" s="1" t="s">
         <v>178</v>
       </c>
@@ -17751,7 +18009,7 @@
         <v>193</v>
       </c>
       <c r="Q287" s="23" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="R287" s="6">
         <v>95</v>
@@ -17762,16 +18020,16 @@
         <v>1</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1470</v>
+        <v>1573</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>177</v>
@@ -17786,7 +18044,10 @@
         <v>2024</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>1532</v>
+        <v>1521</v>
+      </c>
+      <c r="L288" s="1">
+        <v>188653640</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>178</v>
@@ -17801,7 +18062,7 @@
         <v>183</v>
       </c>
       <c r="Q288" s="23" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="R288" s="6">
         <v>96</v>
@@ -17812,13 +18073,13 @@
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="J289" s="1">
         <v>2024</v>
@@ -17836,7 +18097,7 @@
         <v>193</v>
       </c>
       <c r="Q289" s="1" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="290" spans="1:18" ht="34">
@@ -17844,25 +18105,25 @@
         <v>1</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="C290" s="26" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>177</v>
+        <v>964</v>
+      </c>
+      <c r="G290" s="1">
+        <v>7</v>
+      </c>
+      <c r="H290" s="1">
+        <v>4</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>272</v>
@@ -17871,10 +18132,10 @@
         <v>2024</v>
       </c>
       <c r="K290" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="L290" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>178</v>
@@ -17889,45 +18150,48 @@
         <v>193</v>
       </c>
       <c r="Q290" s="23" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="R290" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="34">
+    <row r="291" spans="1:18" ht="35">
       <c r="A291" s="10">
         <v>1</v>
       </c>
+      <c r="B291" s="1" t="s">
+        <v>1574</v>
+      </c>
       <c r="C291" s="26" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="D291" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="E291" s="25" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>272</v>
+        <v>1478</v>
+      </c>
+      <c r="G291" s="1">
+        <v>20</v>
+      </c>
+      <c r="H291" s="1">
+        <v>4</v>
+      </c>
+      <c r="I291" s="27" t="s">
+        <v>1575</v>
       </c>
       <c r="J291" s="1">
         <v>2024</v>
       </c>
       <c r="K291" t="s">
-        <v>1515</v>
-      </c>
-      <c r="L291">
-        <v>158745381</v>
+        <v>1506</v>
+      </c>
+      <c r="L291" t="s">
+        <v>1578</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>178</v>
@@ -17942,7 +18206,7 @@
         <v>193</v>
       </c>
       <c r="Q291" s="23" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="R291" s="6">
         <v>100</v>
@@ -17953,31 +18217,37 @@
         <v>1</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1493</v>
+        <v>1576</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>177</v>
+        <v>964</v>
+      </c>
+      <c r="G292" s="1">
+        <v>8</v>
+      </c>
+      <c r="H292" s="1">
+        <v>1</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>272</v>
       </c>
       <c r="J292" s="1">
-        <v>2024</v>
+        <v>2025</v>
+      </c>
+      <c r="K292" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L292" s="1">
+        <v>178568978</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>178</v>
@@ -17992,7 +18262,7 @@
         <v>193</v>
       </c>
       <c r="Q292" s="1" t="s">
-        <v>1296</v>
+        <v>1597</v>
       </c>
       <c r="R292" s="6">
         <v>99</v>
@@ -18003,19 +18273,19 @@
         <v>1</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="J293" s="1">
         <v>2024</v>
@@ -18033,7 +18303,7 @@
         <v>193</v>
       </c>
       <c r="Q293" s="23" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="294" spans="1:18" ht="51">
@@ -18041,19 +18311,19 @@
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="J294" s="1">
         <v>2024</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="L294" s="1">
         <v>168756903</v>
@@ -18071,7 +18341,7 @@
         <v>193</v>
       </c>
       <c r="Q294" s="23" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="295" spans="1:18" ht="34">
@@ -18079,13 +18349,13 @@
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="G295" s="1">
         <v>46</v>
@@ -18094,7 +18364,7 @@
         <v>2024</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="M295" s="1" t="s">
         <v>213</v>
@@ -18109,7 +18379,7 @@
         <v>193</v>
       </c>
       <c r="Q295" s="23" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="296" spans="1:18" ht="34">
@@ -18117,22 +18387,22 @@
         <v>1</v>
       </c>
       <c r="C296" s="26" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="D296" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="J296" s="1">
         <v>2024</v>
       </c>
       <c r="K296" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="L296">
         <v>165180913</v>
@@ -18141,7 +18411,7 @@
         <v>178</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O296" s="1" t="s">
         <v>181</v>
@@ -18150,27 +18420,42 @@
         <v>193</v>
       </c>
       <c r="Q296" s="23" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="297" spans="1:18" ht="34">
       <c r="A297" s="10">
         <v>1</v>
       </c>
+      <c r="B297" s="1" t="s">
+        <v>1595</v>
+      </c>
       <c r="C297" s="1" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="D297" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1525</v>
+        <v>1516</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G297" s="1">
+        <v>20</v>
+      </c>
+      <c r="H297" s="1">
+        <v>6</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>1596</v>
       </c>
       <c r="J297" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K297" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="L297">
         <v>170018939</v>
@@ -18179,7 +18464,7 @@
         <v>178</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O297" s="1" t="s">
         <v>181</v>
@@ -18188,7 +18473,10 @@
         <v>193</v>
       </c>
       <c r="Q297" s="23" t="s">
-        <v>1527</v>
+        <v>1518</v>
+      </c>
+      <c r="R297" s="6">
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:18" ht="34">
@@ -18196,16 +18484,16 @@
         <v>1</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="J298" s="1">
         <v>2024</v>
       </c>
       <c r="K298" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="L298">
         <v>170497247</v>
@@ -18223,7 +18511,7 @@
         <v>183</v>
       </c>
       <c r="Q298" s="22" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="299" spans="1:18" ht="51">
@@ -18231,16 +18519,16 @@
         <v>1</v>
       </c>
       <c r="C299" s="26" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="J299" s="1">
         <v>2024</v>
       </c>
       <c r="K299" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="L299">
         <v>161287658</v>
@@ -18258,7 +18546,7 @@
         <v>193</v>
       </c>
       <c r="Q299" s="22" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="300" spans="1:18" ht="34">
@@ -18266,10 +18554,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
       <c r="J300" s="1">
         <v>2024</v>
@@ -18287,7 +18575,7 @@
         <v>183</v>
       </c>
       <c r="Q300" s="23" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="301" spans="1:18" ht="17">
@@ -18295,19 +18583,19 @@
         <v>1</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="D301"/>
       <c r="E301" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F301" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="G301"/>
       <c r="H301"/>
       <c r="J301" s="1" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
       <c r="M301" s="1" t="s">
         <v>213</v>
@@ -18322,7 +18610,7 @@
         <v>193</v>
       </c>
       <c r="Q301" s="23" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="302" spans="1:18" ht="34">
@@ -18330,19 +18618,19 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="D302"/>
       <c r="E302" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F302" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="G302"/>
       <c r="H302"/>
       <c r="J302" s="1" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="M302" s="1" t="s">
         <v>213</v>
@@ -18357,7 +18645,7 @@
         <v>193</v>
       </c>
       <c r="Q302" s="23" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="303" spans="1:18" ht="34">
@@ -18365,16 +18653,16 @@
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="M303" s="1" t="s">
         <v>213</v>
@@ -18389,7 +18677,7 @@
         <v>193</v>
       </c>
       <c r="Q303" s="23" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="304" spans="1:18" ht="34">
@@ -18397,16 +18685,16 @@
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>213</v>
@@ -18421,24 +18709,24 @@
         <v>193</v>
       </c>
       <c r="Q304" s="23" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="305" spans="1:17" ht="34">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" ht="34">
       <c r="A305" s="10">
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="M305" s="1" t="s">
         <v>213</v>
@@ -18453,24 +18741,24 @@
         <v>193</v>
       </c>
       <c r="Q305" s="23" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="306" spans="1:17" ht="34">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" ht="34">
       <c r="A306" s="10">
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>213</v>
@@ -18485,27 +18773,27 @@
         <v>193</v>
       </c>
       <c r="Q306" s="23" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="307" spans="1:17" ht="34">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" ht="34">
       <c r="A307" s="10">
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1563</v>
+        <v>1552</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>213</v>
@@ -18520,27 +18808,27 @@
         <v>193</v>
       </c>
       <c r="Q307" s="1" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="308" spans="1:17" ht="34">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" ht="34">
       <c r="A308" s="10">
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>213</v>
@@ -18555,24 +18843,24 @@
         <v>193</v>
       </c>
       <c r="Q308" s="23" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="309" spans="1:17" ht="17">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" ht="17">
       <c r="A309" s="10">
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="M309" s="1" t="s">
         <v>213</v>
@@ -18587,24 +18875,24 @@
         <v>193</v>
       </c>
       <c r="Q309" s="23" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="310" spans="1:17" ht="34">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" ht="34">
       <c r="A310" s="10">
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="M310" s="1" t="s">
         <v>213</v>
@@ -18619,24 +18907,24 @@
         <v>193</v>
       </c>
       <c r="Q310" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="311" spans="1:17" ht="34">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" ht="34">
       <c r="A311" s="10">
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="M311" s="1" t="s">
         <v>213</v>
@@ -18651,24 +18939,24 @@
         <v>193</v>
       </c>
       <c r="Q311" s="23" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="312" spans="1:17" ht="51">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" ht="51">
       <c r="A312" s="10">
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="M312" s="1" t="s">
         <v>213</v>
@@ -18683,14 +18971,300 @@
         <v>183</v>
       </c>
       <c r="Q312" s="1" t="s">
-        <v>1577</v>
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" ht="17">
+      <c r="A313" s="10">
+        <v>1</v>
+      </c>
+      <c r="C313" s="25" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D313" s="25" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J313" s="25">
+        <v>2025</v>
+      </c>
+      <c r="K313" s="25" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L313" s="25">
+        <v>175700306</v>
+      </c>
+      <c r="M313" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N313" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O313" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P313" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q313" s="23" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" ht="20">
+      <c r="A314" s="25">
+        <v>1</v>
+      </c>
+      <c r="C314" s="28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D314" s="25"/>
+      <c r="E314" s="25" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F314" s="25" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G314" s="25"/>
+      <c r="H314" s="25"/>
+      <c r="I314" s="25"/>
+      <c r="J314" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="M314" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="N314" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O314" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="P314" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q314" s="25" t="s">
+        <v>1294</v>
+      </c>
+      <c r="R314" s="25"/>
+    </row>
+    <row r="315" spans="1:18" ht="34">
+      <c r="A315" s="10">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J315" s="1">
+        <v>2025</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N315" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P315" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q315" s="23" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R315" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" ht="34">
+      <c r="A316" s="10">
+        <v>1</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J316" s="1">
+        <v>2025</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N316" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P316" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q316" s="23" t="s">
+        <v>1603</v>
+      </c>
+      <c r="R316" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" ht="51">
+      <c r="A317" s="10">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J317" s="1">
+        <v>2025</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L317">
+        <v>187801789</v>
+      </c>
+      <c r="M317" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N317" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O317" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P317" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q317" s="23" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" ht="34">
+      <c r="A318" s="10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J318" s="1">
+        <v>2025</v>
+      </c>
+      <c r="K318" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L318" t="s">
+        <v>1629</v>
+      </c>
+      <c r="M318" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N318" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O318" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P318" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q318" s="22" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" ht="51">
+      <c r="A319" s="10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D319" s="25" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J319" s="1">
+        <v>2025</v>
+      </c>
+      <c r="K319" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L319">
+        <v>183715972</v>
+      </c>
+      <c r="M319" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P319" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q319" s="23" t="s">
+        <v>1635</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R239">
     <sortCondition ref="J2:J239"/>
   </sortState>
-  <conditionalFormatting sqref="R1:R63 R65:R239 R241:R1048576">
+  <conditionalFormatting sqref="R1:R63 R65:R239 R241:R313 R315:R1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R64">
@@ -18937,6 +19511,12 @@
     <hyperlink ref="Q308" r:id="rId235" xr:uid="{987DFD3F-203C-1A43-A751-436FEA8B0B19}"/>
     <hyperlink ref="Q309" r:id="rId236" xr:uid="{52F28A00-5EB9-244D-B0DB-B311C510D8DE}"/>
     <hyperlink ref="Q311" r:id="rId237" xr:uid="{00D99BEA-4174-FA46-9D22-320F5C9047F1}"/>
+    <hyperlink ref="Q313" r:id="rId238" xr:uid="{F4422F7C-C6F6-C645-818D-3C275986A1E1}"/>
+    <hyperlink ref="Q316" r:id="rId239" xr:uid="{0A38AA22-0204-1343-84D0-FFC77D76B3DB}"/>
+    <hyperlink ref="Q315" r:id="rId240" xr:uid="{ABB49342-6CC9-6045-92A9-24DC5C317AC6}"/>
+    <hyperlink ref="Q317" r:id="rId241" xr:uid="{0FE0A375-7D19-7A49-B731-D003FAF8DBD7}"/>
+    <hyperlink ref="Q318" r:id="rId242" xr:uid="{AF4098FA-0588-3E4C-B5CA-5BE6EDD34289}"/>
+    <hyperlink ref="Q319" r:id="rId243" xr:uid="{0CFFD0AD-3D1B-AB42-9D84-960D7E5842CD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
